--- a/LD1014D_list.xlsx
+++ b/LD1014D_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="279">
   <si>
     <t xml:space="preserve">LD1014 List (matching without curves)</t>
   </si>
@@ -554,6 +554,9 @@
   </si>
   <si>
     <t xml:space="preserve">LD1014D_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reserved sch</t>
   </si>
   <si>
     <t xml:space="preserve">LD1014D_184</t>
@@ -950,7 +953,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1015,6 +1018,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1042,11 +1049,11 @@
   </sheetPr>
   <dimension ref="A1:AMJ271"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F72" activeCellId="0" sqref="F72"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A166" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G71" activeCellId="0" sqref="G71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.52"/>
@@ -2031,16 +2038,16 @@
       <c r="I72" s="1"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="16" t="s">
+      <c r="A73" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B73" s="17" t="n">
+      <c r="B73" s="16" t="n">
         <v>-0.86</v>
       </c>
-      <c r="C73" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D73" s="16" t="s">
+      <c r="C73" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73" s="14" t="s">
         <v>73</v>
       </c>
       <c r="F73" s="15"/>
@@ -2049,16 +2056,16 @@
       <c r="I73" s="1"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="16" t="s">
+      <c r="A74" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B74" s="17" t="n">
+      <c r="B74" s="16" t="n">
         <v>-0.86</v>
       </c>
-      <c r="C74" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D74" s="16" t="s">
+      <c r="C74" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D74" s="14" t="s">
         <v>73</v>
       </c>
       <c r="F74" s="15"/>
@@ -2292,16 +2299,16 @@
       <c r="I89" s="1"/>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="16" t="s">
+      <c r="A90" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="B90" s="17" t="n">
+      <c r="B90" s="18" t="n">
         <v>-0.901</v>
       </c>
-      <c r="C90" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D90" s="16" t="s">
+      <c r="C90" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D90" s="17" t="s">
         <v>91</v>
       </c>
       <c r="F90" s="15"/>
@@ -2310,16 +2317,16 @@
       <c r="I90" s="1"/>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="16" t="s">
+      <c r="A91" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="B91" s="17" t="n">
+      <c r="B91" s="18" t="n">
         <v>-0.901</v>
       </c>
-      <c r="C91" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D91" s="16" t="s">
+      <c r="C91" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D91" s="17" t="s">
         <v>91</v>
       </c>
       <c r="F91" s="15"/>
@@ -2598,16 +2605,16 @@
       <c r="I109" s="1"/>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="16" t="s">
+      <c r="A110" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="B110" s="17" t="n">
+      <c r="B110" s="18" t="n">
         <v>-0.956</v>
       </c>
-      <c r="C110" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D110" s="16" t="s">
+      <c r="C110" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D110" s="17" t="s">
         <v>112</v>
       </c>
       <c r="F110" s="15"/>
@@ -2616,16 +2623,16 @@
       <c r="I110" s="1"/>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="16" t="s">
+      <c r="A111" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="B111" s="17" t="n">
+      <c r="B111" s="18" t="n">
         <v>-0.957</v>
       </c>
-      <c r="C111" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D111" s="16" t="s">
+      <c r="C111" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D111" s="17" t="s">
         <v>112</v>
       </c>
       <c r="F111" s="15"/>
@@ -2634,16 +2641,16 @@
       <c r="I111" s="1"/>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="16" t="s">
+      <c r="A112" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="B112" s="17" t="n">
+      <c r="B112" s="18" t="n">
         <v>-0.958</v>
       </c>
-      <c r="C112" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D112" s="16" t="s">
+      <c r="C112" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D112" s="17" t="s">
         <v>112</v>
       </c>
       <c r="F112" s="15"/>
@@ -2652,16 +2659,16 @@
       <c r="I112" s="1"/>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="16" t="s">
+      <c r="A113" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="B113" s="17" t="n">
+      <c r="B113" s="18" t="n">
         <v>-0.959</v>
       </c>
-      <c r="C113" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D113" s="16" t="s">
+      <c r="C113" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D113" s="17" t="s">
         <v>112</v>
       </c>
       <c r="F113" s="15"/>
@@ -2670,16 +2677,16 @@
       <c r="I113" s="1"/>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="16" t="s">
+      <c r="A114" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="B114" s="17" t="n">
+      <c r="B114" s="18" t="n">
         <v>-0.96</v>
       </c>
-      <c r="C114" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D114" s="16" t="s">
+      <c r="C114" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D114" s="17" t="s">
         <v>112</v>
       </c>
       <c r="F114" s="15"/>
@@ -2688,16 +2695,16 @@
       <c r="I114" s="1"/>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="16" t="s">
+      <c r="A115" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="B115" s="17" t="n">
+      <c r="B115" s="18" t="n">
         <v>-0.96</v>
       </c>
-      <c r="C115" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D115" s="16" t="s">
+      <c r="C115" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D115" s="17" t="s">
         <v>112</v>
       </c>
       <c r="F115" s="15"/>
@@ -2751,16 +2758,16 @@
       <c r="I118" s="1"/>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="16" t="s">
+      <c r="A119" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="B119" s="17" t="n">
+      <c r="B119" s="18" t="n">
         <v>-0.969</v>
       </c>
-      <c r="C119" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D119" s="16" t="s">
+      <c r="C119" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D119" s="17" t="s">
         <v>112</v>
       </c>
       <c r="F119" s="15"/>
@@ -2769,16 +2776,16 @@
       <c r="I119" s="1"/>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="16" t="s">
+      <c r="A120" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="B120" s="17" t="n">
+      <c r="B120" s="18" t="n">
         <v>-0.969</v>
       </c>
-      <c r="C120" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D120" s="16" t="s">
+      <c r="C120" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D120" s="17" t="s">
         <v>112</v>
       </c>
       <c r="F120" s="15"/>
@@ -2907,16 +2914,16 @@
       <c r="I128" s="1"/>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="16" t="s">
+      <c r="A129" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="B129" s="17" t="n">
+      <c r="B129" s="18" t="n">
         <v>-0.988</v>
       </c>
-      <c r="C129" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D129" s="16" t="s">
+      <c r="C129" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D129" s="17" t="s">
         <v>132</v>
       </c>
       <c r="F129" s="15"/>
@@ -2940,16 +2947,16 @@
       <c r="I130" s="1"/>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="16" t="s">
+      <c r="A131" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="B131" s="17" t="n">
+      <c r="B131" s="18" t="n">
         <v>-0.989</v>
       </c>
-      <c r="C131" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D131" s="16" t="s">
+      <c r="C131" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D131" s="17" t="s">
         <v>132</v>
       </c>
       <c r="F131" s="15"/>
@@ -3018,16 +3025,16 @@
       <c r="I135" s="1"/>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="16" t="s">
+      <c r="A136" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="B136" s="17" t="n">
+      <c r="B136" s="18" t="n">
         <v>-1</v>
       </c>
-      <c r="C136" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D136" s="16" t="s">
+      <c r="C136" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D136" s="17" t="s">
         <v>140</v>
       </c>
       <c r="F136" s="15"/>
@@ -3036,16 +3043,16 @@
       <c r="I136" s="1"/>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="16" t="s">
+      <c r="A137" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="B137" s="17" t="n">
+      <c r="B137" s="18" t="n">
         <v>-1.003</v>
       </c>
-      <c r="C137" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D137" s="16" t="s">
+      <c r="C137" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D137" s="17" t="s">
         <v>140</v>
       </c>
       <c r="F137" s="15"/>
@@ -3054,16 +3061,16 @@
       <c r="I137" s="1"/>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="16" t="s">
+      <c r="A138" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="B138" s="17" t="n">
+      <c r="B138" s="18" t="n">
         <v>-1.005</v>
       </c>
-      <c r="C138" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D138" s="16" t="s">
+      <c r="C138" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D138" s="17" t="s">
         <v>140</v>
       </c>
       <c r="F138" s="15"/>
@@ -3072,16 +3079,16 @@
       <c r="I138" s="1"/>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="16" t="s">
+      <c r="A139" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="B139" s="17" t="n">
+      <c r="B139" s="18" t="n">
         <v>-1.007</v>
       </c>
-      <c r="C139" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D139" s="16" t="s">
+      <c r="C139" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D139" s="17" t="s">
         <v>140</v>
       </c>
       <c r="F139" s="15"/>
@@ -3240,16 +3247,16 @@
       <c r="I149" s="1"/>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="16" t="s">
+      <c r="A150" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="B150" s="17" t="n">
+      <c r="B150" s="18" t="n">
         <v>-1.032</v>
       </c>
-      <c r="C150" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D150" s="16" t="s">
+      <c r="C150" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D150" s="17" t="s">
         <v>155</v>
       </c>
       <c r="F150" s="15"/>
@@ -3288,16 +3295,16 @@
       <c r="I152" s="1"/>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="16" t="s">
+      <c r="A153" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="B153" s="17" t="n">
+      <c r="B153" s="18" t="n">
         <v>-1.034</v>
       </c>
-      <c r="C153" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D153" s="16" t="s">
+      <c r="C153" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D153" s="17" t="s">
         <v>155</v>
       </c>
       <c r="F153" s="15"/>
@@ -3321,16 +3328,16 @@
       <c r="I154" s="1"/>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="16" t="s">
+      <c r="A155" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="B155" s="17" t="n">
+      <c r="B155" s="18" t="n">
         <v>-1.039</v>
       </c>
-      <c r="C155" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D155" s="16" t="s">
+      <c r="C155" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D155" s="17" t="s">
         <v>155</v>
       </c>
       <c r="F155" s="15"/>
@@ -3354,16 +3361,16 @@
       <c r="I156" s="1"/>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="16" t="s">
+      <c r="A157" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="B157" s="17" t="n">
+      <c r="B157" s="18" t="n">
         <v>-1.042</v>
       </c>
-      <c r="C157" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D157" s="16" t="s">
+      <c r="C157" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D157" s="17" t="s">
         <v>155</v>
       </c>
       <c r="F157" s="15"/>
@@ -3417,16 +3424,16 @@
       <c r="I160" s="1"/>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="16" t="s">
+      <c r="A161" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="B161" s="17" t="n">
+      <c r="B161" s="18" t="n">
         <v>-1.05</v>
       </c>
-      <c r="C161" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D161" s="16" t="s">
+      <c r="C161" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D161" s="17" t="s">
         <v>91</v>
       </c>
       <c r="F161" s="15"/>
@@ -3435,16 +3442,16 @@
       <c r="I161" s="1"/>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="16" t="s">
+      <c r="A162" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="B162" s="17" t="n">
+      <c r="B162" s="18" t="n">
         <v>-1.05</v>
       </c>
-      <c r="C162" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D162" s="16" t="s">
+      <c r="C162" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D162" s="17" t="s">
         <v>91</v>
       </c>
       <c r="F162" s="15"/>
@@ -3597,6 +3604,9 @@
       <c r="C172" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="D172" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="F172" s="15"/>
       <c r="G172" s="14"/>
       <c r="H172" s="2"/>
@@ -3604,13 +3614,16 @@
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B173" s="2" t="n">
         <v>-1.062</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="F173" s="15"/>
       <c r="G173" s="1"/>
@@ -3619,13 +3632,16 @@
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B174" s="2" t="n">
         <v>-1.063</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="F174" s="15"/>
       <c r="G174" s="1"/>
@@ -3634,13 +3650,16 @@
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="14" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B175" s="2" t="n">
         <v>-1.064</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="F175" s="15"/>
       <c r="G175" s="14"/>
@@ -3649,7 +3668,7 @@
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="14" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B176" s="2" t="n">
         <v>-1.064</v>
@@ -3664,7 +3683,7 @@
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="14" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B177" s="2" t="n">
         <v>-1.068</v>
@@ -3679,7 +3698,7 @@
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="14" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B178" s="2" t="n">
         <v>-1.074</v>
@@ -3694,7 +3713,7 @@
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="14" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B179" s="2" t="n">
         <v>-1.075</v>
@@ -3709,7 +3728,7 @@
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="14" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B180" s="2" t="n">
         <v>-1.076</v>
@@ -3724,7 +3743,7 @@
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B181" s="2" t="n">
         <v>-1.085</v>
@@ -3739,7 +3758,7 @@
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="14" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B182" s="2" t="n">
         <v>-1.088</v>
@@ -3754,7 +3773,7 @@
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="14" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B183" s="2" t="n">
         <v>-1.088</v>
@@ -3769,7 +3788,7 @@
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B184" s="2" t="n">
         <v>-1.089</v>
@@ -3784,7 +3803,7 @@
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="14" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B185" s="2" t="n">
         <v>-1.091</v>
@@ -3795,7 +3814,7 @@
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="14" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B186" s="2" t="n">
         <v>-1.092</v>
@@ -3806,7 +3825,7 @@
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B187" s="2" t="n">
         <v>-1.096</v>
@@ -3817,7 +3836,7 @@
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B188" s="2" t="n">
         <v>-1.097</v>
@@ -3828,7 +3847,7 @@
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="14" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B189" s="2" t="n">
         <v>-1.098</v>
@@ -3839,7 +3858,7 @@
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B190" s="2" t="n">
         <v>-1.102</v>
@@ -3850,7 +3869,7 @@
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B191" s="2" t="n">
         <v>-1.107</v>
@@ -3861,7 +3880,7 @@
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="14" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B192" s="2" t="n">
         <v>-1.108</v>
@@ -3872,7 +3891,7 @@
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="14" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B193" s="2" t="n">
         <v>-1.11</v>
@@ -3883,7 +3902,7 @@
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="14" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B194" s="2" t="n">
         <v>-1.11</v>
@@ -3894,7 +3913,7 @@
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B195" s="2" t="n">
         <v>-1.111</v>
@@ -3905,7 +3924,7 @@
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="14" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B196" s="2" t="n">
         <v>-1.112</v>
@@ -3916,7 +3935,7 @@
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B197" s="2" t="n">
         <v>-1.114</v>
@@ -3927,7 +3946,7 @@
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="14" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B198" s="2" t="n">
         <v>-1.118</v>
@@ -3938,7 +3957,7 @@
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="14" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B199" s="2" t="n">
         <v>-1.119</v>
@@ -3949,7 +3968,7 @@
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="14" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B200" s="2" t="n">
         <v>-1.121</v>
@@ -3960,7 +3979,7 @@
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="14" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B201" s="2" t="n">
         <v>-1.122</v>
@@ -3971,7 +3990,7 @@
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="14" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B202" s="2" t="n">
         <v>-1.123</v>
@@ -3982,7 +4001,7 @@
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B203" s="2" t="n">
         <v>-1.125</v>
@@ -3993,7 +4012,7 @@
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="14" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B204" s="2" t="n">
         <v>-1.129</v>
@@ -4004,7 +4023,7 @@
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="14" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B205" s="2" t="n">
         <v>-1.131</v>
@@ -4015,7 +4034,7 @@
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B206" s="2" t="n">
         <v>-1.136</v>
@@ -4026,7 +4045,7 @@
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="14" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B207" s="2" t="n">
         <v>-1.141</v>
@@ -4036,22 +4055,22 @@
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="B208" s="17" t="n">
+      <c r="A208" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="B208" s="18" t="n">
         <v>-1.144</v>
       </c>
-      <c r="C208" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D208" s="16" t="s">
-        <v>214</v>
+      <c r="C208" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D208" s="17" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="14" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B209" s="2" t="n">
         <v>-1.144</v>
@@ -4062,7 +4081,7 @@
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="14" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B210" s="2" t="n">
         <v>-1.145</v>
@@ -4073,7 +4092,7 @@
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="14" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B211" s="2" t="n">
         <v>-1.147</v>
@@ -4083,22 +4102,22 @@
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="B212" s="17" t="n">
+      <c r="A212" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="B212" s="18" t="n">
         <v>-1.149</v>
       </c>
-      <c r="C212" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D212" s="16" t="s">
-        <v>214</v>
+      <c r="C212" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D212" s="17" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B213" s="2" t="n">
         <v>-1.149</v>
@@ -4109,7 +4128,7 @@
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="14" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B214" s="2" t="n">
         <v>-1.149</v>
@@ -4120,7 +4139,7 @@
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="14" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B215" s="2" t="n">
         <v>-1.15</v>
@@ -4131,7 +4150,7 @@
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="14" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B216" s="2" t="n">
         <v>-1.152</v>
@@ -4141,22 +4160,22 @@
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="B217" s="17" t="n">
+      <c r="A217" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="B217" s="18" t="n">
         <v>-1.154</v>
       </c>
-      <c r="C217" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D217" s="16" t="s">
-        <v>214</v>
+      <c r="C217" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D217" s="17" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="14" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B218" s="2" t="n">
         <v>-1.157</v>
@@ -4166,22 +4185,22 @@
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="B219" s="17" t="n">
+      <c r="A219" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="B219" s="18" t="n">
         <v>-1.158</v>
       </c>
-      <c r="C219" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D219" s="16" t="s">
-        <v>214</v>
+      <c r="C219" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D219" s="17" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B220" s="2" t="n">
         <v>-1.16</v>
@@ -4192,7 +4211,7 @@
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="14" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B221" s="2" t="n">
         <v>-1.165</v>
@@ -4203,7 +4222,7 @@
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B222" s="2" t="n">
         <v>-1.167</v>
@@ -4214,7 +4233,7 @@
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="14" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B223" s="2" t="n">
         <v>-1.167</v>
@@ -4225,7 +4244,7 @@
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="14" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B224" s="2" t="n">
         <v>-1.168</v>
@@ -4236,7 +4255,7 @@
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="14" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B225" s="2" t="n">
         <v>-1.169</v>
@@ -4247,7 +4266,7 @@
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B226" s="2" t="n">
         <v>-1.174</v>
@@ -4258,7 +4277,7 @@
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="14" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B227" s="2" t="n">
         <v>-1.178</v>
@@ -4269,7 +4288,7 @@
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B228" s="2" t="n">
         <v>-1.179</v>
@@ -4280,7 +4299,7 @@
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B229" s="2" t="n">
         <v>-1.183</v>
@@ -4291,7 +4310,7 @@
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="14" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B230" s="2" t="n">
         <v>-1.185</v>
@@ -4302,7 +4321,7 @@
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B231" s="2" t="n">
         <v>-1.187</v>
@@ -4313,7 +4332,7 @@
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="14" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B232" s="2" t="n">
         <v>-1.191</v>
@@ -4324,7 +4343,7 @@
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="14" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B233" s="2" t="n">
         <v>-1.192</v>
@@ -4335,7 +4354,7 @@
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="14" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B234" s="2" t="n">
         <v>-1.197</v>
@@ -4346,7 +4365,7 @@
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B235" s="2" t="n">
         <v>-1.206</v>
@@ -4357,7 +4376,7 @@
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B236" s="2" t="n">
         <v>-1.212</v>
@@ -4368,7 +4387,7 @@
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="14" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B237" s="2" t="n">
         <v>-1.218</v>
@@ -4379,7 +4398,7 @@
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="14" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B238" s="2" t="n">
         <v>-1.219</v>
@@ -4390,7 +4409,7 @@
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="14" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B239" s="2" t="n">
         <v>-1.219</v>
@@ -4401,7 +4420,7 @@
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="14" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B240" s="2" t="n">
         <v>-1.22</v>
@@ -4412,7 +4431,7 @@
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B241" s="2" t="n">
         <v>-1.223</v>
@@ -4423,7 +4442,7 @@
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="14" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B242" s="2" t="n">
         <v>-1.224</v>
@@ -4434,7 +4453,7 @@
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="14" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B243" s="2" t="n">
         <v>-1.226</v>
@@ -4445,7 +4464,7 @@
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B244" s="2" t="n">
         <v>-1.227</v>
@@ -4456,7 +4475,7 @@
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="14" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B245" s="2" t="n">
         <v>-1.233</v>
@@ -4467,7 +4486,7 @@
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="14" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B246" s="2" t="n">
         <v>-1.234</v>
@@ -4478,7 +4497,7 @@
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="14" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B247" s="2" t="n">
         <v>-1.235</v>
@@ -4489,7 +4508,7 @@
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B248" s="2" t="n">
         <v>-1.241</v>
@@ -4500,7 +4519,7 @@
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="14" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B249" s="2" t="n">
         <v>-1.249</v>
@@ -4511,7 +4530,7 @@
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="14" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B250" s="2" t="n">
         <v>-1.26</v>
@@ -4522,7 +4541,7 @@
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="14" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B251" s="2" t="n">
         <v>-1.261</v>
@@ -4533,7 +4552,7 @@
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="14" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B252" s="2" t="n">
         <v>-1.261</v>
@@ -4544,7 +4563,7 @@
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="14" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B253" s="2" t="n">
         <v>-1.263</v>
@@ -4555,7 +4574,7 @@
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="14" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B254" s="2" t="n">
         <v>-1.266</v>
@@ -4566,7 +4585,7 @@
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="14" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B255" s="2" t="n">
         <v>-1.272</v>
@@ -4577,7 +4596,7 @@
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="14" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B256" s="2" t="n">
         <v>-1.272</v>
@@ -4588,7 +4607,7 @@
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="14" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B257" s="2" t="n">
         <v>-1.273</v>
@@ -4599,7 +4618,7 @@
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B258" s="2" t="n">
         <v>-1.28</v>
@@ -4610,7 +4629,7 @@
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="14" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B259" s="2" t="n">
         <v>-1.285</v>
@@ -4621,7 +4640,7 @@
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B260" s="2" t="n">
         <v>-1.286</v>
@@ -4632,7 +4651,7 @@
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="14" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B261" s="2" t="n">
         <v>-1.298</v>
@@ -4643,7 +4662,7 @@
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="14" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B262" s="2" t="n">
         <v>-1.303</v>
@@ -4654,7 +4673,7 @@
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="14" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B263" s="2" t="n">
         <v>-1.309</v>
@@ -4665,7 +4684,7 @@
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="14" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B264" s="2" t="n">
         <v>-1.323</v>
@@ -4676,7 +4695,7 @@
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="14" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B265" s="2" t="n">
         <v>-1.335</v>
@@ -4687,7 +4706,7 @@
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B266" s="2" t="n">
         <v>-1.343</v>
@@ -4698,7 +4717,7 @@
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B267" s="2" t="n">
         <v>-1.344</v>
@@ -4709,7 +4728,7 @@
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="14" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B268" s="2" t="n">
         <v>-1.346</v>
@@ -4720,7 +4739,7 @@
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="14" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B269" s="2" t="n">
         <v>-1.347</v>
@@ -4731,7 +4750,7 @@
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="14" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B270" s="2" t="n">
         <v>-1.352</v>
@@ -4742,7 +4761,7 @@
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B271" s="2" t="n">
         <v>-1.375</v>

--- a/LD1014D_list.xlsx
+++ b/LD1014D_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="280">
   <si>
     <t xml:space="preserve">LD1014 List (matching without curves)</t>
   </si>
@@ -500,6 +500,9 @@
   </si>
   <si>
     <t xml:space="preserve">LD1014D_270</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REF STANDARD</t>
   </si>
   <si>
     <t xml:space="preserve">LD1014D_91</t>
@@ -867,7 +870,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -906,6 +909,13 @@
     <font>
       <strike val="true"/>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC9211E"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -953,7 +963,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1030,6 +1040,22 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1039,6 +1065,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FFC9211E"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1049,11 +1135,11 @@
   </sheetPr>
   <dimension ref="A1:AMJ271"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A166" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G71" activeCellId="0" sqref="G71"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A142" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E151" activeCellId="0" sqref="E151"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.52"/>
@@ -3312,24 +3398,27 @@
       <c r="H153" s="2"/>
       <c r="I153" s="1"/>
     </row>
-    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="14" t="s">
+    <row r="154" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="B154" s="2" t="n">
+      <c r="B154" s="20" t="n">
         <v>-1.036</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F154" s="15"/>
-      <c r="G154" s="1"/>
-      <c r="H154" s="2"/>
-      <c r="I154" s="1"/>
+      <c r="C154" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D154" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="F154" s="22"/>
+      <c r="G154" s="19"/>
+      <c r="H154" s="20"/>
+      <c r="I154" s="19"/>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="17" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B155" s="18" t="n">
         <v>-1.039</v>
@@ -3347,7 +3436,7 @@
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B156" s="2" t="n">
         <v>-1.039</v>
@@ -3362,7 +3451,7 @@
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="17" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B157" s="18" t="n">
         <v>-1.042</v>
@@ -3380,7 +3469,7 @@
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="14" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B158" s="2" t="n">
         <v>-1.043</v>
@@ -3395,7 +3484,7 @@
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B159" s="2" t="n">
         <v>-1.043</v>
@@ -3410,7 +3499,7 @@
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B160" s="2" t="n">
         <v>-1.045</v>
@@ -3425,7 +3514,7 @@
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="17" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B161" s="18" t="n">
         <v>-1.05</v>
@@ -3443,7 +3532,7 @@
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="17" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B162" s="18" t="n">
         <v>-1.05</v>
@@ -3461,7 +3550,7 @@
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="14" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B163" s="2" t="n">
         <v>-1.05</v>
@@ -3476,7 +3565,7 @@
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="14" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B164" s="2" t="n">
         <v>-1.053</v>
@@ -3491,7 +3580,7 @@
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B165" s="2" t="n">
         <v>-1.055</v>
@@ -3506,7 +3595,7 @@
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="14" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B166" s="2" t="n">
         <v>-1.056</v>
@@ -3521,7 +3610,7 @@
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="14" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B167" s="2" t="n">
         <v>-1.056</v>
@@ -3536,7 +3625,7 @@
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B168" s="2" t="n">
         <v>-1.058</v>
@@ -3551,7 +3640,7 @@
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B169" s="2" t="n">
         <v>-1.059</v>
@@ -3566,7 +3655,7 @@
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B170" s="2" t="n">
         <v>-1.061</v>
@@ -3581,7 +3670,7 @@
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="14" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B171" s="2" t="n">
         <v>-1.061</v>
@@ -3596,7 +3685,7 @@
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B172" s="2" t="n">
         <v>-1.062</v>
@@ -3605,7 +3694,7 @@
         <v>15</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F172" s="15"/>
       <c r="G172" s="14"/>
@@ -3614,7 +3703,7 @@
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B173" s="2" t="n">
         <v>-1.062</v>
@@ -3623,7 +3712,7 @@
         <v>15</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F173" s="15"/>
       <c r="G173" s="1"/>
@@ -3632,7 +3721,7 @@
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B174" s="2" t="n">
         <v>-1.063</v>
@@ -3641,7 +3730,7 @@
         <v>15</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F174" s="15"/>
       <c r="G174" s="1"/>
@@ -3650,7 +3739,7 @@
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="14" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B175" s="2" t="n">
         <v>-1.064</v>
@@ -3659,7 +3748,7 @@
         <v>15</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F175" s="15"/>
       <c r="G175" s="14"/>
@@ -3668,7 +3757,7 @@
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="14" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B176" s="2" t="n">
         <v>-1.064</v>
@@ -3683,7 +3772,7 @@
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="14" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B177" s="2" t="n">
         <v>-1.068</v>
@@ -3698,7 +3787,7 @@
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="14" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B178" s="2" t="n">
         <v>-1.074</v>
@@ -3713,7 +3802,7 @@
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="14" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B179" s="2" t="n">
         <v>-1.075</v>
@@ -3728,7 +3817,7 @@
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B180" s="2" t="n">
         <v>-1.076</v>
@@ -3743,7 +3832,7 @@
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="14" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B181" s="2" t="n">
         <v>-1.085</v>
@@ -3758,7 +3847,7 @@
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="14" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B182" s="2" t="n">
         <v>-1.088</v>
@@ -3773,7 +3862,7 @@
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="14" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B183" s="2" t="n">
         <v>-1.088</v>
@@ -3788,7 +3877,7 @@
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B184" s="2" t="n">
         <v>-1.089</v>
@@ -3803,7 +3892,7 @@
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="14" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B185" s="2" t="n">
         <v>-1.091</v>
@@ -3814,7 +3903,7 @@
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B186" s="2" t="n">
         <v>-1.092</v>
@@ -3825,7 +3914,7 @@
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B187" s="2" t="n">
         <v>-1.096</v>
@@ -3836,7 +3925,7 @@
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="14" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B188" s="2" t="n">
         <v>-1.097</v>
@@ -3847,7 +3936,7 @@
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B189" s="2" t="n">
         <v>-1.098</v>
@@ -3858,7 +3947,7 @@
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B190" s="2" t="n">
         <v>-1.102</v>
@@ -3869,7 +3958,7 @@
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B191" s="2" t="n">
         <v>-1.107</v>
@@ -3880,7 +3969,7 @@
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="14" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B192" s="2" t="n">
         <v>-1.108</v>
@@ -3891,7 +3980,7 @@
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="14" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B193" s="2" t="n">
         <v>-1.11</v>
@@ -3902,7 +3991,7 @@
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="14" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B194" s="2" t="n">
         <v>-1.11</v>
@@ -3913,7 +4002,7 @@
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B195" s="2" t="n">
         <v>-1.111</v>
@@ -3924,7 +4013,7 @@
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="14" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B196" s="2" t="n">
         <v>-1.112</v>
@@ -3935,7 +4024,7 @@
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B197" s="2" t="n">
         <v>-1.114</v>
@@ -3946,7 +4035,7 @@
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="14" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B198" s="2" t="n">
         <v>-1.118</v>
@@ -3957,7 +4046,7 @@
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="14" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B199" s="2" t="n">
         <v>-1.119</v>
@@ -3968,7 +4057,7 @@
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="14" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B200" s="2" t="n">
         <v>-1.121</v>
@@ -3979,7 +4068,7 @@
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="14" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B201" s="2" t="n">
         <v>-1.122</v>
@@ -3990,7 +4079,7 @@
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="14" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B202" s="2" t="n">
         <v>-1.123</v>
@@ -4001,7 +4090,7 @@
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B203" s="2" t="n">
         <v>-1.125</v>
@@ -4012,7 +4101,7 @@
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="14" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B204" s="2" t="n">
         <v>-1.129</v>
@@ -4023,7 +4112,7 @@
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="14" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B205" s="2" t="n">
         <v>-1.131</v>
@@ -4034,7 +4123,7 @@
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B206" s="2" t="n">
         <v>-1.136</v>
@@ -4045,7 +4134,7 @@
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="14" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B207" s="2" t="n">
         <v>-1.141</v>
@@ -4056,7 +4145,7 @@
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="17" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B208" s="18" t="n">
         <v>-1.144</v>
@@ -4065,12 +4154,12 @@
         <v>15</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="14" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B209" s="2" t="n">
         <v>-1.144</v>
@@ -4081,7 +4170,7 @@
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="14" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B210" s="2" t="n">
         <v>-1.145</v>
@@ -4092,7 +4181,7 @@
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="14" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B211" s="2" t="n">
         <v>-1.147</v>
@@ -4103,7 +4192,7 @@
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="17" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B212" s="18" t="n">
         <v>-1.149</v>
@@ -4112,12 +4201,12 @@
         <v>15</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="14" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B213" s="2" t="n">
         <v>-1.149</v>
@@ -4128,7 +4217,7 @@
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="14" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B214" s="2" t="n">
         <v>-1.149</v>
@@ -4139,7 +4228,7 @@
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="14" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B215" s="2" t="n">
         <v>-1.15</v>
@@ -4150,7 +4239,7 @@
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="14" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B216" s="2" t="n">
         <v>-1.152</v>
@@ -4161,7 +4250,7 @@
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="17" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B217" s="18" t="n">
         <v>-1.154</v>
@@ -4170,12 +4259,12 @@
         <v>15</v>
       </c>
       <c r="D217" s="17" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="14" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B218" s="2" t="n">
         <v>-1.157</v>
@@ -4186,7 +4275,7 @@
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="17" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B219" s="18" t="n">
         <v>-1.158</v>
@@ -4195,12 +4284,12 @@
         <v>15</v>
       </c>
       <c r="D219" s="17" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B220" s="2" t="n">
         <v>-1.16</v>
@@ -4211,7 +4300,7 @@
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="14" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B221" s="2" t="n">
         <v>-1.165</v>
@@ -4222,7 +4311,7 @@
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B222" s="2" t="n">
         <v>-1.167</v>
@@ -4233,7 +4322,7 @@
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="14" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B223" s="2" t="n">
         <v>-1.167</v>
@@ -4244,7 +4333,7 @@
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="14" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B224" s="2" t="n">
         <v>-1.168</v>
@@ -4255,7 +4344,7 @@
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="14" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B225" s="2" t="n">
         <v>-1.169</v>
@@ -4266,7 +4355,7 @@
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B226" s="2" t="n">
         <v>-1.174</v>
@@ -4277,7 +4366,7 @@
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="14" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B227" s="2" t="n">
         <v>-1.178</v>
@@ -4288,7 +4377,7 @@
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B228" s="2" t="n">
         <v>-1.179</v>
@@ -4299,7 +4388,7 @@
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B229" s="2" t="n">
         <v>-1.183</v>
@@ -4310,7 +4399,7 @@
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="14" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B230" s="2" t="n">
         <v>-1.185</v>
@@ -4321,7 +4410,7 @@
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B231" s="2" t="n">
         <v>-1.187</v>
@@ -4332,7 +4421,7 @@
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="14" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B232" s="2" t="n">
         <v>-1.191</v>
@@ -4343,7 +4432,7 @@
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="14" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B233" s="2" t="n">
         <v>-1.192</v>
@@ -4354,7 +4443,7 @@
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="14" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B234" s="2" t="n">
         <v>-1.197</v>
@@ -4365,7 +4454,7 @@
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B235" s="2" t="n">
         <v>-1.206</v>
@@ -4376,7 +4465,7 @@
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B236" s="2" t="n">
         <v>-1.212</v>
@@ -4387,7 +4476,7 @@
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="14" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B237" s="2" t="n">
         <v>-1.218</v>
@@ -4398,7 +4487,7 @@
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="14" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B238" s="2" t="n">
         <v>-1.219</v>
@@ -4409,7 +4498,7 @@
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="14" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B239" s="2" t="n">
         <v>-1.219</v>
@@ -4420,7 +4509,7 @@
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="14" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B240" s="2" t="n">
         <v>-1.22</v>
@@ -4431,7 +4520,7 @@
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B241" s="2" t="n">
         <v>-1.223</v>
@@ -4442,7 +4531,7 @@
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="14" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B242" s="2" t="n">
         <v>-1.224</v>
@@ -4453,7 +4542,7 @@
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B243" s="2" t="n">
         <v>-1.226</v>
@@ -4464,7 +4553,7 @@
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="14" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B244" s="2" t="n">
         <v>-1.227</v>
@@ -4475,7 +4564,7 @@
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="14" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B245" s="2" t="n">
         <v>-1.233</v>
@@ -4486,7 +4575,7 @@
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="14" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B246" s="2" t="n">
         <v>-1.234</v>
@@ -4497,7 +4586,7 @@
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="14" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B247" s="2" t="n">
         <v>-1.235</v>
@@ -4508,7 +4597,7 @@
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B248" s="2" t="n">
         <v>-1.241</v>
@@ -4519,7 +4608,7 @@
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="14" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B249" s="2" t="n">
         <v>-1.249</v>
@@ -4530,7 +4619,7 @@
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="14" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B250" s="2" t="n">
         <v>-1.26</v>
@@ -4541,7 +4630,7 @@
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="14" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B251" s="2" t="n">
         <v>-1.261</v>
@@ -4552,7 +4641,7 @@
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="14" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B252" s="2" t="n">
         <v>-1.261</v>
@@ -4563,7 +4652,7 @@
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="14" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B253" s="2" t="n">
         <v>-1.263</v>
@@ -4574,7 +4663,7 @@
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="14" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B254" s="2" t="n">
         <v>-1.266</v>
@@ -4585,7 +4674,7 @@
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="14" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B255" s="2" t="n">
         <v>-1.272</v>
@@ -4596,7 +4685,7 @@
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="14" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B256" s="2" t="n">
         <v>-1.272</v>
@@ -4607,7 +4696,7 @@
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="14" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B257" s="2" t="n">
         <v>-1.273</v>
@@ -4618,7 +4707,7 @@
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B258" s="2" t="n">
         <v>-1.28</v>
@@ -4629,7 +4718,7 @@
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="14" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B259" s="2" t="n">
         <v>-1.285</v>
@@ -4640,7 +4729,7 @@
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B260" s="2" t="n">
         <v>-1.286</v>
@@ -4651,7 +4740,7 @@
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="14" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B261" s="2" t="n">
         <v>-1.298</v>
@@ -4662,7 +4751,7 @@
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="14" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B262" s="2" t="n">
         <v>-1.303</v>
@@ -4673,7 +4762,7 @@
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="14" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B263" s="2" t="n">
         <v>-1.309</v>
@@ -4684,7 +4773,7 @@
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="14" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B264" s="2" t="n">
         <v>-1.323</v>
@@ -4695,7 +4784,7 @@
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="14" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B265" s="2" t="n">
         <v>-1.335</v>
@@ -4706,7 +4795,7 @@
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B266" s="2" t="n">
         <v>-1.343</v>
@@ -4717,7 +4806,7 @@
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B267" s="2" t="n">
         <v>-1.344</v>
@@ -4728,7 +4817,7 @@
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="14" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B268" s="2" t="n">
         <v>-1.346</v>
@@ -4739,7 +4828,7 @@
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="14" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B269" s="2" t="n">
         <v>-1.347</v>
@@ -4750,7 +4839,7 @@
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="14" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B270" s="2" t="n">
         <v>-1.352</v>
@@ -4761,7 +4850,7 @@
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B271" s="2" t="n">
         <v>-1.375</v>

--- a/LD1014D_list.xlsx
+++ b/LD1014D_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="281">
   <si>
     <t xml:space="preserve">LD1014 List (matching without curves)</t>
   </si>
@@ -404,6 +404,9 @@
   </si>
   <si>
     <t xml:space="preserve">LD1014D_267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reserved kc</t>
   </si>
   <si>
     <t xml:space="preserve">LD1014D_219</t>
@@ -1135,11 +1138,11 @@
   </sheetPr>
   <dimension ref="A1:AMJ271"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A142" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E151" activeCellId="0" sqref="E151"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A118" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D128" activeCellId="0" sqref="D128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.52"/>
@@ -2949,6 +2952,9 @@
       <c r="C125" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="D125" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="F125" s="15"/>
       <c r="G125" s="14"/>
       <c r="H125" s="2"/>
@@ -2956,13 +2962,16 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B126" s="2" t="n">
         <v>-0.984</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="F126" s="15"/>
       <c r="G126" s="14"/>
@@ -2971,13 +2980,16 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B127" s="2" t="n">
         <v>-0.985</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="F127" s="15"/>
       <c r="G127" s="14"/>
@@ -2986,13 +2998,16 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B128" s="2" t="n">
         <v>-0.985</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="F128" s="15"/>
       <c r="G128" s="1"/>
@@ -3001,7 +3016,7 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B129" s="18" t="n">
         <v>-0.988</v>
@@ -3010,7 +3025,7 @@
         <v>15</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F129" s="15"/>
       <c r="G129" s="14"/>
@@ -3019,7 +3034,7 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="14" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B130" s="2" t="n">
         <v>-0.988</v>
@@ -3034,7 +3049,7 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B131" s="18" t="n">
         <v>-0.989</v>
@@ -3043,7 +3058,7 @@
         <v>15</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F131" s="15"/>
       <c r="G131" s="14"/>
@@ -3052,7 +3067,7 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B132" s="2" t="n">
         <v>-0.992</v>
@@ -3067,7 +3082,7 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B133" s="2" t="n">
         <v>-0.994</v>
@@ -3082,7 +3097,7 @@
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B134" s="2" t="n">
         <v>-0.995</v>
@@ -3097,7 +3112,7 @@
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="14" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B135" s="2" t="n">
         <v>-0.995</v>
@@ -3112,7 +3127,7 @@
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="17" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B136" s="18" t="n">
         <v>-1</v>
@@ -3121,7 +3136,7 @@
         <v>15</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F136" s="15"/>
       <c r="G136" s="14"/>
@@ -3130,7 +3145,7 @@
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B137" s="18" t="n">
         <v>-1.003</v>
@@ -3139,7 +3154,7 @@
         <v>15</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F137" s="15"/>
       <c r="G137" s="14"/>
@@ -3148,7 +3163,7 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="17" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B138" s="18" t="n">
         <v>-1.005</v>
@@ -3157,7 +3172,7 @@
         <v>15</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F138" s="15"/>
       <c r="G138" s="1"/>
@@ -3166,7 +3181,7 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="17" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B139" s="18" t="n">
         <v>-1.007</v>
@@ -3175,7 +3190,7 @@
         <v>15</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F139" s="15"/>
       <c r="G139" s="14"/>
@@ -3184,7 +3199,7 @@
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="14" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B140" s="2" t="n">
         <v>-1.008</v>
@@ -3199,7 +3214,7 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="14" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B141" s="2" t="n">
         <v>-1.011</v>
@@ -3214,7 +3229,7 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="14" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B142" s="2" t="n">
         <v>-1.015</v>
@@ -3229,7 +3244,7 @@
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="14" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B143" s="2" t="n">
         <v>-1.019</v>
@@ -3244,7 +3259,7 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="14" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B144" s="2" t="n">
         <v>-1.021</v>
@@ -3259,7 +3274,7 @@
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B145" s="2" t="n">
         <v>-1.023</v>
@@ -3274,7 +3289,7 @@
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B146" s="2" t="n">
         <v>-1.024</v>
@@ -3289,7 +3304,7 @@
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="14" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B147" s="2" t="n">
         <v>-1.024</v>
@@ -3304,7 +3319,7 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B148" s="2" t="n">
         <v>-1.026</v>
@@ -3319,7 +3334,7 @@
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B149" s="2" t="n">
         <v>-1.028</v>
@@ -3334,7 +3349,7 @@
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="17" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B150" s="18" t="n">
         <v>-1.032</v>
@@ -3343,7 +3358,7 @@
         <v>15</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F150" s="15"/>
       <c r="G150" s="1"/>
@@ -3352,7 +3367,7 @@
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="14" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B151" s="2" t="n">
         <v>-1.032</v>
@@ -3367,7 +3382,7 @@
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="14" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B152" s="2" t="n">
         <v>-1.032</v>
@@ -3382,7 +3397,7 @@
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="17" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B153" s="18" t="n">
         <v>-1.034</v>
@@ -3391,7 +3406,7 @@
         <v>15</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F153" s="15"/>
       <c r="G153" s="1"/>
@@ -3400,7 +3415,7 @@
     </row>
     <row r="154" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="19" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B154" s="20" t="n">
         <v>-1.036</v>
@@ -3409,7 +3424,7 @@
         <v>17</v>
       </c>
       <c r="D154" s="19" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F154" s="22"/>
       <c r="G154" s="19"/>
@@ -3418,7 +3433,7 @@
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B155" s="18" t="n">
         <v>-1.039</v>
@@ -3427,7 +3442,7 @@
         <v>15</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F155" s="15"/>
       <c r="G155" s="14"/>
@@ -3436,7 +3451,7 @@
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="14" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B156" s="2" t="n">
         <v>-1.039</v>
@@ -3451,7 +3466,7 @@
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="17" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B157" s="18" t="n">
         <v>-1.042</v>
@@ -3460,7 +3475,7 @@
         <v>15</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F157" s="15"/>
       <c r="G157" s="14"/>
@@ -3469,7 +3484,7 @@
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B158" s="2" t="n">
         <v>-1.043</v>
@@ -3484,7 +3499,7 @@
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B159" s="2" t="n">
         <v>-1.043</v>
@@ -3499,7 +3514,7 @@
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="14" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B160" s="2" t="n">
         <v>-1.045</v>
@@ -3514,7 +3529,7 @@
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="17" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B161" s="18" t="n">
         <v>-1.05</v>
@@ -3532,7 +3547,7 @@
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="17" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B162" s="18" t="n">
         <v>-1.05</v>
@@ -3550,7 +3565,7 @@
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="14" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B163" s="2" t="n">
         <v>-1.05</v>
@@ -3565,7 +3580,7 @@
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="14" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B164" s="2" t="n">
         <v>-1.053</v>
@@ -3580,7 +3595,7 @@
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B165" s="2" t="n">
         <v>-1.055</v>
@@ -3595,7 +3610,7 @@
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="14" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B166" s="2" t="n">
         <v>-1.056</v>
@@ -3610,7 +3625,7 @@
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="14" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B167" s="2" t="n">
         <v>-1.056</v>
@@ -3625,7 +3640,7 @@
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B168" s="2" t="n">
         <v>-1.058</v>
@@ -3640,7 +3655,7 @@
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B169" s="2" t="n">
         <v>-1.059</v>
@@ -3655,7 +3670,7 @@
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B170" s="2" t="n">
         <v>-1.061</v>
@@ -3670,7 +3685,7 @@
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="14" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B171" s="2" t="n">
         <v>-1.061</v>
@@ -3685,7 +3700,7 @@
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B172" s="2" t="n">
         <v>-1.062</v>
@@ -3694,7 +3709,7 @@
         <v>15</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F172" s="15"/>
       <c r="G172" s="14"/>
@@ -3703,7 +3718,7 @@
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="14" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B173" s="2" t="n">
         <v>-1.062</v>
@@ -3712,7 +3727,7 @@
         <v>15</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F173" s="15"/>
       <c r="G173" s="1"/>
@@ -3721,7 +3736,7 @@
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B174" s="2" t="n">
         <v>-1.063</v>
@@ -3730,7 +3745,7 @@
         <v>15</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F174" s="15"/>
       <c r="G174" s="1"/>
@@ -3739,7 +3754,7 @@
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="14" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B175" s="2" t="n">
         <v>-1.064</v>
@@ -3748,7 +3763,7 @@
         <v>15</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F175" s="15"/>
       <c r="G175" s="14"/>
@@ -3757,7 +3772,7 @@
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="14" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B176" s="2" t="n">
         <v>-1.064</v>
@@ -3772,7 +3787,7 @@
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="14" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B177" s="2" t="n">
         <v>-1.068</v>
@@ -3787,7 +3802,7 @@
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="14" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B178" s="2" t="n">
         <v>-1.074</v>
@@ -3802,7 +3817,7 @@
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B179" s="2" t="n">
         <v>-1.075</v>
@@ -3817,7 +3832,7 @@
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="14" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B180" s="2" t="n">
         <v>-1.076</v>
@@ -3832,7 +3847,7 @@
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="14" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B181" s="2" t="n">
         <v>-1.085</v>
@@ -3847,7 +3862,7 @@
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="14" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B182" s="2" t="n">
         <v>-1.088</v>
@@ -3862,7 +3877,7 @@
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="14" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B183" s="2" t="n">
         <v>-1.088</v>
@@ -3877,7 +3892,7 @@
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B184" s="2" t="n">
         <v>-1.089</v>
@@ -3892,7 +3907,7 @@
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B185" s="2" t="n">
         <v>-1.091</v>
@@ -3903,7 +3918,7 @@
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B186" s="2" t="n">
         <v>-1.092</v>
@@ -3914,7 +3929,7 @@
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="14" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B187" s="2" t="n">
         <v>-1.096</v>
@@ -3925,7 +3940,7 @@
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B188" s="2" t="n">
         <v>-1.097</v>
@@ -3936,7 +3951,7 @@
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B189" s="2" t="n">
         <v>-1.098</v>
@@ -3947,7 +3962,7 @@
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="14" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B190" s="2" t="n">
         <v>-1.102</v>
@@ -3958,7 +3973,7 @@
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B191" s="2" t="n">
         <v>-1.107</v>
@@ -3969,7 +3984,7 @@
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="14" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B192" s="2" t="n">
         <v>-1.108</v>
@@ -3980,7 +3995,7 @@
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="14" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B193" s="2" t="n">
         <v>-1.11</v>
@@ -3991,7 +4006,7 @@
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="14" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B194" s="2" t="n">
         <v>-1.11</v>
@@ -4002,7 +4017,7 @@
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B195" s="2" t="n">
         <v>-1.111</v>
@@ -4013,7 +4028,7 @@
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="14" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B196" s="2" t="n">
         <v>-1.112</v>
@@ -4024,7 +4039,7 @@
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B197" s="2" t="n">
         <v>-1.114</v>
@@ -4035,7 +4050,7 @@
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="14" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B198" s="2" t="n">
         <v>-1.118</v>
@@ -4046,7 +4061,7 @@
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="14" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B199" s="2" t="n">
         <v>-1.119</v>
@@ -4057,7 +4072,7 @@
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="14" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B200" s="2" t="n">
         <v>-1.121</v>
@@ -4068,7 +4083,7 @@
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="14" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B201" s="2" t="n">
         <v>-1.122</v>
@@ -4079,7 +4094,7 @@
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="14" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B202" s="2" t="n">
         <v>-1.123</v>
@@ -4090,7 +4105,7 @@
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B203" s="2" t="n">
         <v>-1.125</v>
@@ -4101,7 +4116,7 @@
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="14" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B204" s="2" t="n">
         <v>-1.129</v>
@@ -4112,7 +4127,7 @@
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="14" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B205" s="2" t="n">
         <v>-1.131</v>
@@ -4123,7 +4138,7 @@
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B206" s="2" t="n">
         <v>-1.136</v>
@@ -4134,7 +4149,7 @@
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="14" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B207" s="2" t="n">
         <v>-1.141</v>
@@ -4145,7 +4160,7 @@
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="17" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B208" s="18" t="n">
         <v>-1.144</v>
@@ -4154,12 +4169,12 @@
         <v>15</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="14" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B209" s="2" t="n">
         <v>-1.144</v>
@@ -4170,7 +4185,7 @@
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="14" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B210" s="2" t="n">
         <v>-1.145</v>
@@ -4181,7 +4196,7 @@
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B211" s="2" t="n">
         <v>-1.147</v>
@@ -4192,7 +4207,7 @@
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="17" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B212" s="18" t="n">
         <v>-1.149</v>
@@ -4201,12 +4216,12 @@
         <v>15</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="14" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B213" s="2" t="n">
         <v>-1.149</v>
@@ -4217,7 +4232,7 @@
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="14" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B214" s="2" t="n">
         <v>-1.149</v>
@@ -4228,7 +4243,7 @@
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="14" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B215" s="2" t="n">
         <v>-1.15</v>
@@ -4239,7 +4254,7 @@
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="14" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B216" s="2" t="n">
         <v>-1.152</v>
@@ -4250,7 +4265,7 @@
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="17" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B217" s="18" t="n">
         <v>-1.154</v>
@@ -4259,12 +4274,12 @@
         <v>15</v>
       </c>
       <c r="D217" s="17" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="14" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B218" s="2" t="n">
         <v>-1.157</v>
@@ -4275,7 +4290,7 @@
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="17" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B219" s="18" t="n">
         <v>-1.158</v>
@@ -4284,12 +4299,12 @@
         <v>15</v>
       </c>
       <c r="D219" s="17" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B220" s="2" t="n">
         <v>-1.16</v>
@@ -4300,7 +4315,7 @@
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="14" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B221" s="2" t="n">
         <v>-1.165</v>
@@ -4311,7 +4326,7 @@
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B222" s="2" t="n">
         <v>-1.167</v>
@@ -4322,7 +4337,7 @@
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="14" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B223" s="2" t="n">
         <v>-1.167</v>
@@ -4333,7 +4348,7 @@
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="14" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B224" s="2" t="n">
         <v>-1.168</v>
@@ -4344,7 +4359,7 @@
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="14" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B225" s="2" t="n">
         <v>-1.169</v>
@@ -4355,7 +4370,7 @@
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B226" s="2" t="n">
         <v>-1.174</v>
@@ -4366,7 +4381,7 @@
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="14" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B227" s="2" t="n">
         <v>-1.178</v>
@@ -4377,7 +4392,7 @@
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B228" s="2" t="n">
         <v>-1.179</v>
@@ -4388,7 +4403,7 @@
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B229" s="2" t="n">
         <v>-1.183</v>
@@ -4399,7 +4414,7 @@
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="14" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B230" s="2" t="n">
         <v>-1.185</v>
@@ -4410,7 +4425,7 @@
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B231" s="2" t="n">
         <v>-1.187</v>
@@ -4421,7 +4436,7 @@
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="14" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B232" s="2" t="n">
         <v>-1.191</v>
@@ -4432,7 +4447,7 @@
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="14" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B233" s="2" t="n">
         <v>-1.192</v>
@@ -4443,7 +4458,7 @@
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="14" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B234" s="2" t="n">
         <v>-1.197</v>
@@ -4454,7 +4469,7 @@
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B235" s="2" t="n">
         <v>-1.206</v>
@@ -4465,7 +4480,7 @@
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B236" s="2" t="n">
         <v>-1.212</v>
@@ -4476,7 +4491,7 @@
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="14" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B237" s="2" t="n">
         <v>-1.218</v>
@@ -4487,7 +4502,7 @@
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="14" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B238" s="2" t="n">
         <v>-1.219</v>
@@ -4498,7 +4513,7 @@
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="14" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B239" s="2" t="n">
         <v>-1.219</v>
@@ -4509,7 +4524,7 @@
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="14" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B240" s="2" t="n">
         <v>-1.22</v>
@@ -4520,7 +4535,7 @@
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B241" s="2" t="n">
         <v>-1.223</v>
@@ -4531,7 +4546,7 @@
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B242" s="2" t="n">
         <v>-1.224</v>
@@ -4542,7 +4557,7 @@
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="14" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B243" s="2" t="n">
         <v>-1.226</v>
@@ -4553,7 +4568,7 @@
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="14" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B244" s="2" t="n">
         <v>-1.227</v>
@@ -4564,7 +4579,7 @@
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="14" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B245" s="2" t="n">
         <v>-1.233</v>
@@ -4575,7 +4590,7 @@
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="14" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B246" s="2" t="n">
         <v>-1.234</v>
@@ -4586,7 +4601,7 @@
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="14" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B247" s="2" t="n">
         <v>-1.235</v>
@@ -4597,7 +4612,7 @@
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B248" s="2" t="n">
         <v>-1.241</v>
@@ -4608,7 +4623,7 @@
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="14" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B249" s="2" t="n">
         <v>-1.249</v>
@@ -4619,7 +4634,7 @@
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="14" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B250" s="2" t="n">
         <v>-1.26</v>
@@ -4630,7 +4645,7 @@
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="14" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B251" s="2" t="n">
         <v>-1.261</v>
@@ -4641,7 +4656,7 @@
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="14" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B252" s="2" t="n">
         <v>-1.261</v>
@@ -4652,7 +4667,7 @@
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="14" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B253" s="2" t="n">
         <v>-1.263</v>
@@ -4663,7 +4678,7 @@
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="14" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B254" s="2" t="n">
         <v>-1.266</v>
@@ -4674,7 +4689,7 @@
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="14" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B255" s="2" t="n">
         <v>-1.272</v>
@@ -4685,7 +4700,7 @@
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="14" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B256" s="2" t="n">
         <v>-1.272</v>
@@ -4696,7 +4711,7 @@
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="14" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B257" s="2" t="n">
         <v>-1.273</v>
@@ -4707,7 +4722,7 @@
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B258" s="2" t="n">
         <v>-1.28</v>
@@ -4718,7 +4733,7 @@
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="14" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B259" s="2" t="n">
         <v>-1.285</v>
@@ -4729,7 +4744,7 @@
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B260" s="2" t="n">
         <v>-1.286</v>
@@ -4740,7 +4755,7 @@
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="14" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B261" s="2" t="n">
         <v>-1.298</v>
@@ -4751,7 +4766,7 @@
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="14" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B262" s="2" t="n">
         <v>-1.303</v>
@@ -4762,7 +4777,7 @@
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="14" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B263" s="2" t="n">
         <v>-1.309</v>
@@ -4773,7 +4788,7 @@
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="14" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B264" s="2" t="n">
         <v>-1.323</v>
@@ -4784,7 +4799,7 @@
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="14" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B265" s="2" t="n">
         <v>-1.335</v>
@@ -4795,7 +4810,7 @@
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B266" s="2" t="n">
         <v>-1.343</v>
@@ -4806,7 +4821,7 @@
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B267" s="2" t="n">
         <v>-1.344</v>
@@ -4817,7 +4832,7 @@
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="14" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B268" s="2" t="n">
         <v>-1.346</v>
@@ -4828,7 +4843,7 @@
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="14" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B269" s="2" t="n">
         <v>-1.347</v>
@@ -4839,7 +4854,7 @@
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="14" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B270" s="2" t="n">
         <v>-1.352</v>
@@ -4850,7 +4865,7 @@
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B271" s="2" t="n">
         <v>-1.375</v>

--- a/LD1014D_list.xlsx
+++ b/LD1014D_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="337">
   <si>
     <t xml:space="preserve">LD1014 List (matching without curves)</t>
   </si>
@@ -88,15 +88,24 @@
     <t xml:space="preserve">LD1014D_10</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_298</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_273</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_346</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_1</t>
   </si>
   <si>
     <t xml:space="preserve">LD1014D_27</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_295</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_143</t>
   </si>
   <si>
@@ -139,15 +148,24 @@
     <t xml:space="preserve">LD1014D_151</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_332</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_186</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_315</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_129</t>
   </si>
   <si>
     <t xml:space="preserve">LD1014D_280</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_334</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_32</t>
   </si>
   <si>
@@ -181,6 +199,9 @@
     <t xml:space="preserve">LD1014D_8</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_329</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_261</t>
   </si>
   <si>
@@ -205,6 +226,9 @@
     <t xml:space="preserve">LD1014D_73</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_333</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_127</t>
   </si>
   <si>
@@ -226,15 +250,24 @@
     <t xml:space="preserve">LD1014D_79</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_328</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_62</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_343</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_93</t>
   </si>
   <si>
     <t xml:space="preserve">LD1014D_264</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_345</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_226</t>
   </si>
   <si>
@@ -289,6 +322,9 @@
     <t xml:space="preserve">LD1014D_262</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_331</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_278</t>
   </si>
   <si>
@@ -310,27 +346,48 @@
     <t xml:space="preserve">LD1014D_95</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_354</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_147</t>
   </si>
   <si>
     <t xml:space="preserve">LD1014D_150</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_352</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_115</t>
   </si>
   <si>
     <t xml:space="preserve">LD1014D_102</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_336</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_104</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LD1014D_296</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_69</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_300</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_89</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_339</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_190</t>
   </si>
   <si>
@@ -346,6 +403,9 @@
     <t xml:space="preserve">LD1014D_291</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_313</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_172</t>
   </si>
   <si>
@@ -364,9 +424,15 @@
     <t xml:space="preserve">LD1014D_12</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_314</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_15</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_299</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_67</t>
   </si>
   <si>
@@ -400,6 +466,9 @@
     <t xml:space="preserve">LD1014D_60</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_302</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_253</t>
   </si>
   <si>
@@ -433,6 +502,9 @@
     <t xml:space="preserve">LD1014D_221</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_347</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_38</t>
   </si>
   <si>
@@ -442,6 +514,9 @@
     <t xml:space="preserve">LD1014D_248</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_349</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_128</t>
   </si>
   <si>
@@ -469,6 +544,9 @@
     <t xml:space="preserve">LD1014D_108</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_348</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_234</t>
   </si>
   <si>
@@ -535,6 +613,12 @@
     <t xml:space="preserve">LD1014D_201</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LD1014D_327</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_212</t>
   </si>
   <si>
@@ -568,15 +652,30 @@
     <t xml:space="preserve">LD1014D_184</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_297</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_99</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_292</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_124</t>
   </si>
   <si>
     <t xml:space="preserve">LD1014D_229</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LD1014D_342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LD1014D_344</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_158</t>
   </si>
   <si>
@@ -592,6 +691,9 @@
     <t xml:space="preserve">LD1014D_204</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_330</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_183</t>
   </si>
   <si>
@@ -607,6 +709,9 @@
     <t xml:space="preserve">LD1014D_163</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_305</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_165</t>
   </si>
   <si>
@@ -625,6 +730,12 @@
     <t xml:space="preserve">LD1014D_247</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LD1014D_311</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_277</t>
   </si>
   <si>
@@ -640,6 +751,9 @@
     <t xml:space="preserve">LD1014D_6</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_350</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_254</t>
   </si>
   <si>
@@ -649,6 +763,9 @@
     <t xml:space="preserve">LD1014D_156</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_304</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_239</t>
   </si>
   <si>
@@ -664,12 +781,21 @@
     <t xml:space="preserve">LD1014D_259</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_323</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_25</t>
   </si>
   <si>
     <t xml:space="preserve">LD1014D_241</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LD1014D_325</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_19</t>
   </si>
   <si>
@@ -712,6 +838,9 @@
     <t xml:space="preserve">LD1014D_90</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_353</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_250</t>
   </si>
   <si>
@@ -727,6 +856,12 @@
     <t xml:space="preserve">LD1014D_235</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LD1014D_324</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_16</t>
   </si>
   <si>
@@ -736,6 +871,9 @@
     <t xml:space="preserve">LD1014D_80</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_340</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_11</t>
   </si>
   <si>
@@ -784,6 +922,9 @@
     <t xml:space="preserve">LD1014D_185</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_317</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_288</t>
   </si>
   <si>
@@ -793,6 +934,9 @@
     <t xml:space="preserve">LD1014D_155</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_303</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_17</t>
   </si>
   <si>
@@ -832,21 +976,36 @@
     <t xml:space="preserve">LD1014D_61</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_312</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_140</t>
   </si>
   <si>
     <t xml:space="preserve">LD1014D_145</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LD1014D_351</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_121</t>
   </si>
   <si>
     <t xml:space="preserve">LD1014D_167</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_337</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_164</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_301</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_13</t>
   </si>
   <si>
@@ -862,7 +1021,16 @@
     <t xml:space="preserve">LD1014D_146</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_310</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LD1014D_335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LD1014D_293</t>
   </si>
 </sst>
 </file>
@@ -1043,20 +1211,20 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1068,6 +1236,15 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC9211E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1136,13 +1313,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ271"/>
+  <dimension ref="A1:AMJ327"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A118" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D128" activeCellId="0" sqref="D128"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A303" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G324" activeCellId="0" sqref="G324"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.52"/>
@@ -1380,8 +1557,8 @@
       <c r="A23" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="n">
-        <v>-0.642</v>
+      <c r="B23" s="14" t="n">
+        <v>-0.628</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>17</v>
@@ -1392,14 +1569,14 @@
       <c r="I23" s="1"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="14" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>-0.645</v>
+        <v>-0.642</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F24" s="15"/>
       <c r="G24" s="1"/>
@@ -1407,14 +1584,14 @@
       <c r="I24" s="1"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="n">
-        <v>-0.648</v>
+      <c r="B25" s="14" t="n">
+        <v>-0.644</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F25" s="15"/>
       <c r="G25" s="1"/>
@@ -1422,11 +1599,11 @@
       <c r="I25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>-0.677</v>
+        <v>-0.645</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>15</v>
@@ -1441,7 +1618,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>-0.679</v>
+        <v>-0.648</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>15</v>
@@ -1455,8 +1632,8 @@
       <c r="A28" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="n">
-        <v>-0.684</v>
+      <c r="B28" s="14" t="n">
+        <v>-0.655</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>17</v>
@@ -1467,11 +1644,11 @@
       <c r="I28" s="1"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="14" t="s">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>-0.687</v>
+        <v>-0.677</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>15</v>
@@ -1482,14 +1659,14 @@
       <c r="I29" s="1"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>-0.69</v>
+        <v>-0.679</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F30" s="15"/>
       <c r="G30" s="14"/>
@@ -1497,14 +1674,14 @@
       <c r="I30" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="14" t="s">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>-0.714</v>
+        <v>-0.684</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F31" s="15"/>
       <c r="G31" s="14"/>
@@ -1512,14 +1689,14 @@
       <c r="I31" s="1"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>-0.714</v>
+        <v>-0.687</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F32" s="15"/>
       <c r="G32" s="1"/>
@@ -1531,7 +1708,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>-0.719</v>
+        <v>-0.69</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>17</v>
@@ -1542,11 +1719,11 @@
       <c r="I33" s="1"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>-0.723</v>
+        <v>-0.714</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>15</v>
@@ -1561,7 +1738,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>-0.727</v>
+        <v>-0.714</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>17</v>
@@ -1576,7 +1753,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>-0.749</v>
+        <v>-0.719</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>17</v>
@@ -1591,7 +1768,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>-0.756</v>
+        <v>-0.723</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>15</v>
@@ -1602,14 +1779,14 @@
       <c r="I37" s="1"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="14" t="s">
         <v>37</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>-0.757</v>
+        <v>-0.727</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F38" s="15"/>
       <c r="G38" s="14"/>
@@ -1621,10 +1798,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>-0.758</v>
+        <v>-0.749</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F39" s="15"/>
       <c r="G39" s="14"/>
@@ -1636,7 +1813,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>-0.771</v>
+        <v>-0.756</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>15</v>
@@ -1647,11 +1824,11 @@
       <c r="I40" s="1"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>-0.78</v>
+        <v>-0.757</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>15</v>
@@ -1666,10 +1843,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>-0.783</v>
+        <v>-0.758</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F42" s="15"/>
       <c r="G42" s="14"/>
@@ -1677,14 +1854,14 @@
       <c r="I42" s="1"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="2" t="n">
-        <v>-0.785</v>
+      <c r="B43" s="14" t="n">
+        <v>-0.766</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F43" s="15"/>
       <c r="G43" s="1"/>
@@ -1696,7 +1873,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>-0.786</v>
+        <v>-0.771</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>15</v>
@@ -1710,11 +1887,11 @@
       <c r="A45" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="2" t="n">
-        <v>-0.786</v>
+      <c r="B45" s="14" t="n">
+        <v>-0.776</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F45" s="15"/>
       <c r="G45" s="1"/>
@@ -1722,11 +1899,11 @@
       <c r="I45" s="1"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="14" t="s">
         <v>45</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>-0.789</v>
+        <v>-0.78</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>15</v>
@@ -1741,7 +1918,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>-0.791</v>
+        <v>-0.783</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>17</v>
@@ -1755,8 +1932,8 @@
       <c r="A48" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="2" t="n">
-        <v>-0.796</v>
+      <c r="B48" s="14" t="n">
+        <v>-0.783</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>17</v>
@@ -1771,7 +1948,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>-0.798</v>
+        <v>-0.785</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>15</v>
@@ -1786,7 +1963,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>-0.801</v>
+        <v>-0.786</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>15</v>
@@ -1801,7 +1978,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>-0.805</v>
+        <v>-0.786</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>15</v>
@@ -1812,11 +1989,11 @@
       <c r="I51" s="1"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>-0.805</v>
+        <v>-0.789</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>15</v>
@@ -1827,14 +2004,14 @@
       <c r="I52" s="1"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="14" t="s">
         <v>52</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>-0.806</v>
+        <v>-0.791</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F53" s="15"/>
       <c r="G53" s="1"/>
@@ -1846,7 +2023,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>-0.815</v>
+        <v>-0.796</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>17</v>
@@ -1861,7 +2038,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>-0.816</v>
+        <v>-0.798</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>15</v>
@@ -1876,10 +2053,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>-0.822</v>
+        <v>-0.801</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F56" s="15"/>
       <c r="G56" s="14"/>
@@ -1891,7 +2068,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>-0.823</v>
+        <v>-0.805</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>15</v>
@@ -1902,11 +2079,11 @@
       <c r="I57" s="1"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="14" t="s">
         <v>57</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>-0.824</v>
+        <v>-0.805</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>15</v>
@@ -1917,11 +2094,11 @@
       <c r="I58" s="1"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="14" t="s">
+      <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>-0.83</v>
+        <v>-0.806</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>15</v>
@@ -1932,14 +2109,14 @@
       <c r="I59" s="1"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B60" s="2" t="n">
-        <v>-0.832</v>
+      <c r="B60" s="14" t="n">
+        <v>-0.809</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F60" s="15"/>
       <c r="G60" s="1"/>
@@ -1947,14 +2124,14 @@
       <c r="I60" s="1"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="14" t="s">
         <v>60</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>-0.833</v>
+        <v>-0.815</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F61" s="15"/>
       <c r="G61" s="1"/>
@@ -1962,11 +2139,11 @@
       <c r="I61" s="1"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="14" t="s">
+      <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>-0.837</v>
+        <v>-0.816</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>15</v>
@@ -1977,14 +2154,14 @@
       <c r="I62" s="1"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="14" t="s">
         <v>62</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>-0.841</v>
+        <v>-0.822</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F63" s="15"/>
       <c r="G63" s="1"/>
@@ -1992,11 +2169,11 @@
       <c r="I63" s="1"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="14" t="s">
         <v>63</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>-0.846</v>
+        <v>-0.823</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>15</v>
@@ -2011,7 +2188,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>-0.847</v>
+        <v>-0.824</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>15</v>
@@ -2026,7 +2203,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>-0.847</v>
+        <v>-0.83</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>15</v>
@@ -2037,14 +2214,14 @@
       <c r="I66" s="1"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="14" t="s">
+      <c r="A67" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>-0.847</v>
+        <v>-0.832</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F67" s="15"/>
       <c r="G67" s="14"/>
@@ -2056,7 +2233,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>-0.848</v>
+        <v>-0.833</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>15</v>
@@ -2067,14 +2244,14 @@
       <c r="I68" s="1"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B69" s="2" t="n">
-        <v>-0.853</v>
+      <c r="B69" s="14" t="n">
+        <v>-0.835</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F69" s="15"/>
       <c r="G69" s="1"/>
@@ -2082,11 +2259,11 @@
       <c r="I69" s="1"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="14" t="s">
         <v>69</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>-0.855</v>
+        <v>-0.837</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>15</v>
@@ -2097,14 +2274,14 @@
       <c r="I70" s="1"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="14" t="s">
+      <c r="A71" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>-0.857</v>
+        <v>-0.841</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F71" s="15"/>
       <c r="G71" s="14"/>
@@ -2112,14 +2289,14 @@
       <c r="I71" s="1"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="14" t="s">
+      <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>-0.858</v>
+        <v>-0.846</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F72" s="15"/>
       <c r="G72" s="14"/>
@@ -2127,17 +2304,14 @@
       <c r="I72" s="1"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="14" t="s">
+      <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B73" s="16" t="n">
-        <v>-0.86</v>
-      </c>
-      <c r="C73" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D73" s="14" t="s">
-        <v>73</v>
+      <c r="B73" s="2" t="n">
+        <v>-0.847</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="F73" s="15"/>
       <c r="G73" s="14"/>
@@ -2146,16 +2320,13 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B74" s="16" t="n">
-        <v>-0.86</v>
-      </c>
-      <c r="C74" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D74" s="14" t="s">
         <v>73</v>
+      </c>
+      <c r="B74" s="2" t="n">
+        <v>-0.847</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="F74" s="15"/>
       <c r="G74" s="14"/>
@@ -2163,14 +2334,14 @@
       <c r="I74" s="1"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="s">
-        <v>75</v>
+      <c r="A75" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>-0.861</v>
+        <v>-0.847</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F75" s="15"/>
       <c r="G75" s="14"/>
@@ -2178,14 +2349,14 @@
       <c r="I75" s="1"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="14" t="s">
-        <v>76</v>
+      <c r="A76" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>-0.862</v>
+        <v>-0.848</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F76" s="15"/>
       <c r="G76" s="1"/>
@@ -2194,13 +2365,13 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B77" s="2" t="n">
-        <v>-0.868</v>
+        <v>76</v>
+      </c>
+      <c r="B77" s="14" t="n">
+        <v>-0.849</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F77" s="15"/>
       <c r="G77" s="1"/>
@@ -2208,14 +2379,14 @@
       <c r="I77" s="1"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="14" t="s">
-        <v>78</v>
+      <c r="A78" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>-0.873</v>
+        <v>-0.853</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F78" s="15"/>
       <c r="G78" s="14"/>
@@ -2224,13 +2395,13 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="B79" s="2" t="n">
-        <v>-0.875</v>
+        <v>78</v>
+      </c>
+      <c r="B79" s="14" t="n">
+        <v>-0.853</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F79" s="15"/>
       <c r="G79" s="14"/>
@@ -2239,10 +2410,10 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>-0.876</v>
+        <v>-0.855</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>15</v>
@@ -2254,10 +2425,10 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>-0.876</v>
+        <v>-0.857</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>17</v>
@@ -2268,14 +2439,14 @@
       <c r="I81" s="1"/>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B82" s="2" t="n">
-        <v>-0.881</v>
+      <c r="A82" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" s="14" t="n">
+        <v>-0.857</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F82" s="15"/>
       <c r="G82" s="14"/>
@@ -2284,13 +2455,13 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>-0.883</v>
+        <v>-0.858</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F83" s="15"/>
       <c r="G83" s="14"/>
@@ -2298,14 +2469,17 @@
       <c r="I83" s="1"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84" s="16" t="n">
+        <v>-0.86</v>
+      </c>
+      <c r="C84" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" s="14" t="s">
         <v>84</v>
-      </c>
-      <c r="B84" s="2" t="n">
-        <v>-0.885</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="F84" s="15"/>
       <c r="G84" s="1"/>
@@ -2316,11 +2490,14 @@
       <c r="A85" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B85" s="2" t="n">
-        <v>-0.885</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>17</v>
+      <c r="B85" s="16" t="n">
+        <v>-0.86</v>
+      </c>
+      <c r="C85" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D85" s="14" t="s">
+        <v>84</v>
       </c>
       <c r="F85" s="15"/>
       <c r="G85" s="1"/>
@@ -2332,7 +2509,7 @@
         <v>86</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>-0.886</v>
+        <v>-0.861</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>15</v>
@@ -2343,14 +2520,14 @@
       <c r="I86" s="1"/>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="14" t="s">
         <v>87</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>-0.892</v>
+        <v>-0.862</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F87" s="15"/>
       <c r="G87" s="1"/>
@@ -2362,10 +2539,10 @@
         <v>88</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>-0.893</v>
+        <v>-0.868</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F88" s="15"/>
       <c r="G88" s="14"/>
@@ -2377,7 +2554,7 @@
         <v>89</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>-0.896</v>
+        <v>-0.873</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>17</v>
@@ -2388,17 +2565,14 @@
       <c r="I89" s="1"/>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="17" t="s">
+      <c r="A90" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="B90" s="18" t="n">
-        <v>-0.901</v>
-      </c>
-      <c r="C90" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D90" s="17" t="s">
-        <v>91</v>
+      <c r="B90" s="2" t="n">
+        <v>-0.875</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="F90" s="15"/>
       <c r="G90" s="1"/>
@@ -2406,17 +2580,14 @@
       <c r="I90" s="1"/>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="B91" s="18" t="n">
-        <v>-0.901</v>
-      </c>
-      <c r="C91" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D91" s="17" t="s">
+      <c r="A91" s="1" t="s">
         <v>91</v>
+      </c>
+      <c r="B91" s="2" t="n">
+        <v>-0.876</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="F91" s="15"/>
       <c r="G91" s="14"/>
@@ -2424,14 +2595,14 @@
       <c r="I91" s="1"/>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="1" t="s">
-        <v>93</v>
+      <c r="A92" s="14" t="s">
+        <v>92</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>-0.908</v>
+        <v>-0.876</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F92" s="15"/>
       <c r="G92" s="14"/>
@@ -2440,10 +2611,10 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>-0.911</v>
+        <v>-0.881</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>15</v>
@@ -2454,11 +2625,11 @@
       <c r="I93" s="1"/>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="1" t="s">
-        <v>95</v>
+      <c r="A94" s="14" t="s">
+        <v>94</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>-0.914</v>
+        <v>-0.883</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>15</v>
@@ -2469,11 +2640,11 @@
       <c r="I94" s="1"/>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="14" t="s">
-        <v>96</v>
+      <c r="A95" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>-0.915</v>
+        <v>-0.885</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>15</v>
@@ -2485,13 +2656,13 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>-0.917</v>
+        <v>-0.885</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F96" s="15"/>
       <c r="G96" s="1"/>
@@ -2499,11 +2670,11 @@
       <c r="I96" s="1"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="14" t="s">
-        <v>98</v>
+      <c r="A97" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>-0.919</v>
+        <v>-0.886</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>15</v>
@@ -2514,11 +2685,11 @@
       <c r="I97" s="1"/>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="14" t="s">
-        <v>99</v>
+      <c r="A98" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>-0.92</v>
+        <v>-0.892</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>15</v>
@@ -2530,13 +2701,13 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>-0.921</v>
+        <v>-0.893</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F99" s="15"/>
       <c r="G99" s="14"/>
@@ -2544,14 +2715,14 @@
       <c r="I99" s="1"/>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B100" s="2" t="n">
-        <v>-0.929</v>
+      <c r="A100" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B100" s="14" t="n">
+        <v>-0.894</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F100" s="15"/>
       <c r="G100" s="1"/>
@@ -2559,14 +2730,14 @@
       <c r="I100" s="1"/>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1" t="s">
-        <v>102</v>
+      <c r="A101" s="14" t="s">
+        <v>101</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>-0.938</v>
+        <v>-0.896</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F101" s="15"/>
       <c r="G101" s="14"/>
@@ -2574,14 +2745,17 @@
       <c r="I101" s="1"/>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="14" t="s">
+      <c r="A102" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B102" s="18" t="n">
+        <v>-0.901</v>
+      </c>
+      <c r="C102" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D102" s="17" t="s">
         <v>103</v>
-      </c>
-      <c r="B102" s="2" t="n">
-        <v>-0.943</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="F102" s="15"/>
       <c r="G102" s="14"/>
@@ -2589,14 +2763,17 @@
       <c r="I102" s="1"/>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="14" t="s">
+      <c r="A103" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="B103" s="2" t="n">
-        <v>-0.945</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>15</v>
+      <c r="B103" s="18" t="n">
+        <v>-0.901</v>
+      </c>
+      <c r="C103" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D103" s="17" t="s">
+        <v>103</v>
       </c>
       <c r="F103" s="15"/>
       <c r="G103" s="14"/>
@@ -2608,7 +2785,7 @@
         <v>105</v>
       </c>
       <c r="B104" s="2" t="n">
-        <v>-0.946</v>
+        <v>-0.908</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>15</v>
@@ -2619,11 +2796,11 @@
       <c r="I104" s="1"/>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="14" t="s">
+      <c r="A105" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B105" s="2" t="n">
-        <v>-0.946</v>
+        <v>-0.911</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>15</v>
@@ -2634,14 +2811,14 @@
       <c r="I105" s="1"/>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="14" t="s">
+      <c r="A106" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B106" s="2" t="n">
-        <v>-0.947</v>
+        <v>-0.914</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F106" s="15"/>
       <c r="G106" s="1"/>
@@ -2652,11 +2829,11 @@
       <c r="A107" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="B107" s="2" t="n">
-        <v>-0.952</v>
+      <c r="B107" s="14" t="n">
+        <v>-0.914</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F107" s="15"/>
       <c r="G107" s="14"/>
@@ -2668,10 +2845,10 @@
         <v>109</v>
       </c>
       <c r="B108" s="2" t="n">
-        <v>-0.952</v>
+        <v>-0.915</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F108" s="15"/>
       <c r="G108" s="1"/>
@@ -2683,10 +2860,10 @@
         <v>110</v>
       </c>
       <c r="B109" s="2" t="n">
-        <v>-0.955</v>
+        <v>-0.917</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F109" s="15"/>
       <c r="G109" s="1"/>
@@ -2694,17 +2871,14 @@
       <c r="I109" s="1"/>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="17" t="s">
+      <c r="A110" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="B110" s="18" t="n">
-        <v>-0.956</v>
-      </c>
-      <c r="C110" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D110" s="17" t="s">
-        <v>112</v>
+      <c r="B110" s="14" t="n">
+        <v>-0.917</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="F110" s="15"/>
       <c r="G110" s="14"/>
@@ -2712,17 +2886,14 @@
       <c r="I110" s="1"/>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="B111" s="18" t="n">
-        <v>-0.957</v>
-      </c>
-      <c r="C111" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D111" s="17" t="s">
+      <c r="A111" s="14" t="s">
         <v>112</v>
+      </c>
+      <c r="B111" s="2" t="n">
+        <v>-0.919</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="F111" s="15"/>
       <c r="G111" s="1"/>
@@ -2730,17 +2901,14 @@
       <c r="I111" s="1"/>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="B112" s="18" t="n">
-        <v>-0.958</v>
-      </c>
-      <c r="C112" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D112" s="17" t="s">
-        <v>112</v>
+      <c r="A112" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B112" s="2" t="n">
+        <v>-0.92</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="F112" s="15"/>
       <c r="G112" s="14"/>
@@ -2748,17 +2916,14 @@
       <c r="I112" s="1"/>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="B113" s="18" t="n">
-        <v>-0.959</v>
-      </c>
-      <c r="C113" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D113" s="17" t="s">
-        <v>112</v>
+      <c r="A113" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B113" s="14" t="n">
+        <v>-0.92</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="F113" s="15"/>
       <c r="G113" s="14"/>
@@ -2766,17 +2931,14 @@
       <c r="I113" s="1"/>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="B114" s="18" t="n">
-        <v>-0.96</v>
-      </c>
-      <c r="C114" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D114" s="17" t="s">
-        <v>112</v>
+      <c r="A114" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B114" s="2" t="n">
+        <v>-0.921</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="F114" s="15"/>
       <c r="G114" s="14"/>
@@ -2784,17 +2946,14 @@
       <c r="I114" s="1"/>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="B115" s="18" t="n">
-        <v>-0.96</v>
-      </c>
-      <c r="C115" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D115" s="17" t="s">
-        <v>112</v>
+      <c r="A115" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B115" s="14" t="n">
+        <v>-0.923</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="F115" s="15"/>
       <c r="G115" s="1"/>
@@ -2802,14 +2961,14 @@
       <c r="I115" s="1"/>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B116" s="2" t="n">
-        <v>-0.962</v>
+      <c r="A116" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B116" s="14" t="n">
+        <v>-0.927</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F116" s="15"/>
       <c r="G116" s="14"/>
@@ -2817,14 +2976,14 @@
       <c r="I116" s="1"/>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="14" t="s">
-        <v>119</v>
+      <c r="A117" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="B117" s="2" t="n">
-        <v>-0.965</v>
+        <v>-0.929</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F117" s="15"/>
       <c r="G117" s="1"/>
@@ -2833,10 +2992,10 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="B118" s="2" t="n">
-        <v>-0.965</v>
+        <v>119</v>
+      </c>
+      <c r="B118" s="14" t="n">
+        <v>-0.934</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>17</v>
@@ -2847,17 +3006,14 @@
       <c r="I118" s="1"/>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="B119" s="18" t="n">
-        <v>-0.969</v>
-      </c>
-      <c r="C119" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D119" s="17" t="s">
-        <v>112</v>
+      <c r="A119" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B119" s="2" t="n">
+        <v>-0.938</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="F119" s="15"/>
       <c r="G119" s="1"/>
@@ -2865,17 +3021,14 @@
       <c r="I119" s="1"/>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="B120" s="18" t="n">
-        <v>-0.969</v>
-      </c>
-      <c r="C120" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D120" s="17" t="s">
-        <v>112</v>
+      <c r="A120" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B120" s="14" t="n">
+        <v>-0.939</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="F120" s="15"/>
       <c r="G120" s="1"/>
@@ -2884,10 +3037,10 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B121" s="2" t="n">
-        <v>-0.972</v>
+        <v>-0.943</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>15</v>
@@ -2899,13 +3052,13 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B122" s="2" t="n">
-        <v>-0.972</v>
+        <v>-0.945</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F122" s="15"/>
       <c r="G122" s="1"/>
@@ -2914,10 +3067,10 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B123" s="2" t="n">
-        <v>-0.977</v>
+        <v>-0.946</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>15</v>
@@ -2929,13 +3082,13 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B124" s="2" t="n">
-        <v>-0.98</v>
+        <v>-0.946</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F124" s="15"/>
       <c r="G124" s="14"/>
@@ -2944,16 +3097,13 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B125" s="2" t="n">
-        <v>-0.984</v>
+        <v>-0.947</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="F125" s="15"/>
       <c r="G125" s="14"/>
@@ -2962,16 +3112,13 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="B126" s="2" t="n">
-        <v>-0.984</v>
+        <v>127</v>
+      </c>
+      <c r="B126" s="14" t="n">
+        <v>-0.949</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="F126" s="15"/>
       <c r="G126" s="14"/>
@@ -2979,17 +3126,14 @@
       <c r="I126" s="1"/>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="1" t="s">
-        <v>130</v>
+      <c r="A127" s="14" t="s">
+        <v>128</v>
       </c>
       <c r="B127" s="2" t="n">
-        <v>-0.985</v>
+        <v>-0.952</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="F127" s="15"/>
       <c r="G127" s="14"/>
@@ -2998,16 +3142,13 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B128" s="2" t="n">
-        <v>-0.985</v>
+        <v>-0.952</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="F128" s="15"/>
       <c r="G128" s="1"/>
@@ -3015,17 +3156,14 @@
       <c r="I128" s="1"/>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B129" s="18" t="n">
-        <v>-0.988</v>
-      </c>
-      <c r="C129" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D129" s="17" t="s">
-        <v>133</v>
+      <c r="A129" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B129" s="2" t="n">
+        <v>-0.955</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="F129" s="15"/>
       <c r="G129" s="14"/>
@@ -3033,14 +3171,17 @@
       <c r="I129" s="1"/>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="B130" s="2" t="n">
-        <v>-0.988</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>17</v>
+      <c r="A130" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="B130" s="18" t="n">
+        <v>-0.956</v>
+      </c>
+      <c r="C130" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D130" s="17" t="s">
+        <v>132</v>
       </c>
       <c r="F130" s="15"/>
       <c r="G130" s="14"/>
@@ -3049,16 +3190,16 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="17" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B131" s="18" t="n">
-        <v>-0.989</v>
+        <v>-0.957</v>
       </c>
       <c r="C131" s="18" t="s">
         <v>15</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F131" s="15"/>
       <c r="G131" s="14"/>
@@ -3067,10 +3208,10 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="B132" s="2" t="n">
-        <v>-0.992</v>
+        <v>134</v>
+      </c>
+      <c r="B132" s="14" t="n">
+        <v>-0.957</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>17</v>
@@ -3081,14 +3222,17 @@
       <c r="I132" s="1"/>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B133" s="2" t="n">
-        <v>-0.994</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>15</v>
+      <c r="A133" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="B133" s="18" t="n">
+        <v>-0.958</v>
+      </c>
+      <c r="C133" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D133" s="17" t="s">
+        <v>132</v>
       </c>
       <c r="F133" s="15"/>
       <c r="G133" s="1"/>
@@ -3097,13 +3241,13 @@
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="B134" s="2" t="n">
-        <v>-0.995</v>
+        <v>136</v>
+      </c>
+      <c r="B134" s="14" t="n">
+        <v>-0.958</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F134" s="15"/>
       <c r="G134" s="1"/>
@@ -3111,14 +3255,17 @@
       <c r="I134" s="1"/>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="B135" s="2" t="n">
-        <v>-0.995</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>17</v>
+      <c r="A135" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="B135" s="18" t="n">
+        <v>-0.959</v>
+      </c>
+      <c r="C135" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D135" s="17" t="s">
+        <v>132</v>
       </c>
       <c r="F135" s="15"/>
       <c r="G135" s="1"/>
@@ -3127,16 +3274,16 @@
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B136" s="18" t="n">
-        <v>-1</v>
+        <v>-0.96</v>
       </c>
       <c r="C136" s="18" t="s">
         <v>15</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="F136" s="15"/>
       <c r="G136" s="14"/>
@@ -3145,16 +3292,16 @@
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="17" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B137" s="18" t="n">
-        <v>-1.003</v>
+        <v>-0.96</v>
       </c>
       <c r="C137" s="18" t="s">
         <v>15</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="F137" s="15"/>
       <c r="G137" s="14"/>
@@ -3162,17 +3309,14 @@
       <c r="I137" s="1"/>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="B138" s="18" t="n">
-        <v>-1.005</v>
-      </c>
-      <c r="C138" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D138" s="17" t="s">
-        <v>141</v>
+      <c r="A138" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B138" s="2" t="n">
+        <v>-0.962</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="F138" s="15"/>
       <c r="G138" s="1"/>
@@ -3180,17 +3324,14 @@
       <c r="I138" s="1"/>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="B139" s="18" t="n">
-        <v>-1.007</v>
-      </c>
-      <c r="C139" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D139" s="17" t="s">
+      <c r="A139" s="14" t="s">
         <v>141</v>
+      </c>
+      <c r="B139" s="2" t="n">
+        <v>-0.965</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="F139" s="15"/>
       <c r="G139" s="14"/>
@@ -3199,10 +3340,10 @@
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="14" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B140" s="2" t="n">
-        <v>-1.008</v>
+        <v>-0.965</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>17</v>
@@ -3213,14 +3354,17 @@
       <c r="I140" s="1"/>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="B141" s="2" t="n">
-        <v>-1.011</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>17</v>
+      <c r="A141" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="B141" s="18" t="n">
+        <v>-0.969</v>
+      </c>
+      <c r="C141" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D141" s="17" t="s">
+        <v>132</v>
       </c>
       <c r="F141" s="15"/>
       <c r="G141" s="1"/>
@@ -3228,14 +3372,17 @@
       <c r="I141" s="1"/>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="B142" s="2" t="n">
-        <v>-1.015</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>15</v>
+      <c r="A142" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B142" s="18" t="n">
+        <v>-0.969</v>
+      </c>
+      <c r="C142" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D142" s="17" t="s">
+        <v>132</v>
       </c>
       <c r="F142" s="15"/>
       <c r="G142" s="14"/>
@@ -3244,10 +3391,10 @@
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B143" s="2" t="n">
-        <v>-1.019</v>
+        <v>-0.972</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>15</v>
@@ -3259,10 +3406,10 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="14" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B144" s="2" t="n">
-        <v>-1.021</v>
+        <v>-0.972</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>17</v>
@@ -3273,14 +3420,14 @@
       <c r="I144" s="1"/>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="14" t="s">
-        <v>150</v>
+      <c r="A145" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="B145" s="2" t="n">
-        <v>-1.023</v>
+        <v>-0.977</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F145" s="15"/>
       <c r="G145" s="14"/>
@@ -3289,10 +3436,10 @@
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="B146" s="2" t="n">
-        <v>-1.024</v>
+        <v>148</v>
+      </c>
+      <c r="B146" s="14" t="n">
+        <v>-0.978</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>17</v>
@@ -3304,10 +3451,10 @@
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="14" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B147" s="2" t="n">
-        <v>-1.024</v>
+        <v>-0.98</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>17</v>
@@ -3318,14 +3465,17 @@
       <c r="I147" s="1"/>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="1" t="s">
-        <v>153</v>
+      <c r="A148" s="14" t="s">
+        <v>150</v>
       </c>
       <c r="B148" s="2" t="n">
-        <v>-1.026</v>
+        <v>-0.984</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="F148" s="15"/>
       <c r="G148" s="1"/>
@@ -3334,13 +3484,16 @@
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B149" s="2" t="n">
-        <v>-1.028</v>
+        <v>-0.984</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="F149" s="15"/>
       <c r="G149" s="1"/>
@@ -3348,17 +3501,17 @@
       <c r="I149" s="1"/>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="B150" s="18" t="n">
-        <v>-1.032</v>
-      </c>
-      <c r="C150" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D150" s="17" t="s">
-        <v>156</v>
+      <c r="A150" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B150" s="2" t="n">
+        <v>-0.985</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="F150" s="15"/>
       <c r="G150" s="1"/>
@@ -3367,13 +3520,16 @@
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="14" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B151" s="2" t="n">
-        <v>-1.032</v>
+        <v>-0.985</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="F151" s="15"/>
       <c r="G151" s="14"/>
@@ -3381,14 +3537,17 @@
       <c r="I151" s="1"/>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="B152" s="2" t="n">
-        <v>-1.032</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>17</v>
+      <c r="A152" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B152" s="18" t="n">
+        <v>-0.988</v>
+      </c>
+      <c r="C152" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D152" s="17" t="s">
+        <v>156</v>
       </c>
       <c r="F152" s="15"/>
       <c r="G152" s="1"/>
@@ -3396,53 +3555,47 @@
       <c r="I152" s="1"/>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="B153" s="18" t="n">
-        <v>-1.034</v>
-      </c>
-      <c r="C153" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D153" s="17" t="s">
-        <v>156</v>
+      <c r="A153" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B153" s="2" t="n">
+        <v>-0.988</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="F153" s="15"/>
       <c r="G153" s="1"/>
       <c r="H153" s="2"/>
       <c r="I153" s="1"/>
     </row>
-    <row r="154" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="B154" s="20" t="n">
-        <v>-1.036</v>
-      </c>
-      <c r="C154" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D154" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="F154" s="22"/>
-      <c r="G154" s="19"/>
-      <c r="H154" s="20"/>
-      <c r="I154" s="19"/>
+    <row r="154" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="B154" s="18" t="n">
+        <v>-0.989</v>
+      </c>
+      <c r="C154" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D154" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="F154" s="20"/>
+      <c r="G154" s="21"/>
+      <c r="H154" s="22"/>
+      <c r="I154" s="21"/>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="B155" s="18" t="n">
-        <v>-1.039</v>
-      </c>
-      <c r="C155" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D155" s="17" t="s">
-        <v>156</v>
+      <c r="A155" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="B155" s="2" t="n">
+        <v>-0.992</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="F155" s="15"/>
       <c r="G155" s="14"/>
@@ -3451,13 +3604,13 @@
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="B156" s="2" t="n">
-        <v>-1.039</v>
+        <v>160</v>
+      </c>
+      <c r="B156" s="14" t="n">
+        <v>-0.993</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F156" s="15"/>
       <c r="G156" s="1"/>
@@ -3465,17 +3618,14 @@
       <c r="I156" s="1"/>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="B157" s="18" t="n">
-        <v>-1.042</v>
-      </c>
-      <c r="C157" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D157" s="17" t="s">
-        <v>156</v>
+      <c r="A157" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B157" s="2" t="n">
+        <v>-0.994</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="F157" s="15"/>
       <c r="G157" s="14"/>
@@ -3484,10 +3634,10 @@
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="14" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B158" s="2" t="n">
-        <v>-1.043</v>
+        <v>-0.995</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>15</v>
@@ -3499,10 +3649,10 @@
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="14" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B159" s="2" t="n">
-        <v>-1.043</v>
+        <v>-0.995</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>17</v>
@@ -3514,10 +3664,10 @@
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="B160" s="2" t="n">
-        <v>-1.045</v>
+        <v>164</v>
+      </c>
+      <c r="B160" s="14" t="n">
+        <v>-0.995</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>17</v>
@@ -3529,16 +3679,16 @@
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="17" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B161" s="18" t="n">
-        <v>-1.05</v>
+        <v>-1</v>
       </c>
       <c r="C161" s="18" t="s">
         <v>15</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>91</v>
+        <v>166</v>
       </c>
       <c r="F161" s="15"/>
       <c r="G161" s="14"/>
@@ -3547,16 +3697,16 @@
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="17" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B162" s="18" t="n">
-        <v>-1.05</v>
+        <v>-1.003</v>
       </c>
       <c r="C162" s="18" t="s">
         <v>15</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>91</v>
+        <v>166</v>
       </c>
       <c r="F162" s="15"/>
       <c r="G162" s="1"/>
@@ -3564,14 +3714,17 @@
       <c r="I162" s="1"/>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="B163" s="2" t="n">
-        <v>-1.05</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>17</v>
+      <c r="A163" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="B163" s="18" t="n">
+        <v>-1.005</v>
+      </c>
+      <c r="C163" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D163" s="17" t="s">
+        <v>166</v>
       </c>
       <c r="F163" s="15"/>
       <c r="G163" s="14"/>
@@ -3579,14 +3732,17 @@
       <c r="I163" s="1"/>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="B164" s="2" t="n">
-        <v>-1.053</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>17</v>
+      <c r="A164" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="B164" s="18" t="n">
+        <v>-1.007</v>
+      </c>
+      <c r="C164" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D164" s="17" t="s">
+        <v>166</v>
       </c>
       <c r="F164" s="15"/>
       <c r="G164" s="14"/>
@@ -3594,14 +3750,14 @@
       <c r="I164" s="1"/>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="1" t="s">
-        <v>172</v>
+      <c r="A165" s="14" t="s">
+        <v>170</v>
       </c>
       <c r="B165" s="2" t="n">
-        <v>-1.055</v>
+        <v>-1.008</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F165" s="15"/>
       <c r="G165" s="14"/>
@@ -3610,13 +3766,13 @@
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="14" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B166" s="2" t="n">
-        <v>-1.056</v>
+        <v>-1.011</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F166" s="15"/>
       <c r="G166" s="14"/>
@@ -3625,13 +3781,13 @@
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="14" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B167" s="2" t="n">
-        <v>-1.056</v>
+        <v>-1.015</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F167" s="15"/>
       <c r="G167" s="1"/>
@@ -3639,11 +3795,11 @@
       <c r="I167" s="1"/>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="1" t="s">
-        <v>175</v>
+      <c r="A168" s="14" t="s">
+        <v>173</v>
       </c>
       <c r="B168" s="2" t="n">
-        <v>-1.058</v>
+        <v>-1.019</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>15</v>
@@ -3654,14 +3810,14 @@
       <c r="I168" s="1"/>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B169" s="2" t="n">
-        <v>-1.059</v>
+      <c r="A169" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="B169" s="14" t="n">
+        <v>-1.019</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F169" s="15"/>
       <c r="G169" s="14"/>
@@ -3669,14 +3825,14 @@
       <c r="I169" s="1"/>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="1" t="s">
-        <v>177</v>
+      <c r="A170" s="14" t="s">
+        <v>175</v>
       </c>
       <c r="B170" s="2" t="n">
-        <v>-1.061</v>
+        <v>-1.021</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F170" s="15"/>
       <c r="G170" s="14"/>
@@ -3685,10 +3841,10 @@
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="14" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B171" s="2" t="n">
-        <v>-1.061</v>
+        <v>-1.023</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>17</v>
@@ -3699,17 +3855,14 @@
       <c r="I171" s="1"/>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="1" t="s">
-        <v>179</v>
+      <c r="A172" s="14" t="s">
+        <v>177</v>
       </c>
       <c r="B172" s="2" t="n">
-        <v>-1.062</v>
+        <v>-1.024</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>180</v>
+        <v>17</v>
       </c>
       <c r="F172" s="15"/>
       <c r="G172" s="14"/>
@@ -3718,16 +3871,13 @@
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="14" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B173" s="2" t="n">
-        <v>-1.062</v>
+        <v>-1.024</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>180</v>
+        <v>17</v>
       </c>
       <c r="F173" s="15"/>
       <c r="G173" s="1"/>
@@ -3736,16 +3886,13 @@
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B174" s="2" t="n">
-        <v>-1.063</v>
+        <v>-1.026</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="F174" s="15"/>
       <c r="G174" s="1"/>
@@ -3754,16 +3901,13 @@
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="14" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B175" s="2" t="n">
-        <v>-1.064</v>
+        <v>-1.028</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>180</v>
+        <v>17</v>
       </c>
       <c r="F175" s="15"/>
       <c r="G175" s="14"/>
@@ -3771,14 +3915,17 @@
       <c r="I175" s="1"/>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="B176" s="2" t="n">
-        <v>-1.064</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>17</v>
+      <c r="A176" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="B176" s="18" t="n">
+        <v>-1.032</v>
+      </c>
+      <c r="C176" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D176" s="17" t="s">
+        <v>182</v>
       </c>
       <c r="F176" s="15"/>
       <c r="G176" s="14"/>
@@ -3787,10 +3934,10 @@
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="14" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B177" s="2" t="n">
-        <v>-1.068</v>
+        <v>-1.032</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>15</v>
@@ -3802,10 +3949,10 @@
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="14" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B178" s="2" t="n">
-        <v>-1.074</v>
+        <v>-1.032</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>17</v>
@@ -3816,14 +3963,17 @@
       <c r="I178" s="1"/>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="B179" s="2" t="n">
-        <v>-1.075</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>15</v>
+      <c r="A179" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="B179" s="18" t="n">
+        <v>-1.034</v>
+      </c>
+      <c r="C179" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D179" s="17" t="s">
+        <v>182</v>
       </c>
       <c r="F179" s="15"/>
       <c r="G179" s="14"/>
@@ -3831,14 +3981,17 @@
       <c r="I179" s="1"/>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="B180" s="2" t="n">
-        <v>-1.076</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>15</v>
+      <c r="A180" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="B180" s="22" t="n">
+        <v>-1.036</v>
+      </c>
+      <c r="C180" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D180" s="21" t="s">
+        <v>187</v>
       </c>
       <c r="F180" s="15"/>
       <c r="G180" s="1"/>
@@ -3846,14 +3999,17 @@
       <c r="I180" s="1"/>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="B181" s="2" t="n">
-        <v>-1.085</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>17</v>
+      <c r="A181" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="B181" s="18" t="n">
+        <v>-1.039</v>
+      </c>
+      <c r="C181" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D181" s="17" t="s">
+        <v>182</v>
       </c>
       <c r="F181" s="15"/>
       <c r="G181" s="1"/>
@@ -3862,10 +4018,10 @@
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B182" s="2" t="n">
-        <v>-1.088</v>
+        <v>-1.039</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>15</v>
@@ -3876,14 +4032,17 @@
       <c r="I182" s="1"/>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="B183" s="2" t="n">
-        <v>-1.088</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>17</v>
+      <c r="A183" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="B183" s="18" t="n">
+        <v>-1.042</v>
+      </c>
+      <c r="C183" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D183" s="17" t="s">
+        <v>182</v>
       </c>
       <c r="F183" s="15"/>
       <c r="G183" s="14"/>
@@ -3891,11 +4050,11 @@
       <c r="I183" s="1"/>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="1" t="s">
-        <v>192</v>
+      <c r="A184" s="14" t="s">
+        <v>191</v>
       </c>
       <c r="B184" s="2" t="n">
-        <v>-1.089</v>
+        <v>-1.043</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>15</v>
@@ -3907,10 +4066,10 @@
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B185" s="2" t="n">
-        <v>-1.091</v>
+        <v>-1.043</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>17</v>
@@ -3918,167 +4077,176 @@
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="B186" s="2" t="n">
+        <v>-1.045</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="B186" s="2" t="n">
-        <v>-1.092</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="14" t="s">
+      <c r="B187" s="18" t="n">
+        <v>-1.05</v>
+      </c>
+      <c r="C187" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D187" s="17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="B187" s="2" t="n">
-        <v>-1.096</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="B188" s="2" t="n">
-        <v>-1.097</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>17</v>
+      <c r="B188" s="18" t="n">
+        <v>-1.05</v>
+      </c>
+      <c r="C188" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D188" s="17" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B189" s="2" t="n">
-        <v>-1.098</v>
+        <v>-1.05</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="B190" s="14" t="n">
+        <v>-1.05</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="B190" s="2" t="n">
-        <v>-1.102</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B191" s="2" t="n">
-        <v>-1.107</v>
+      <c r="B191" s="14" t="n">
+        <v>-1.052</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="B192" s="2" t="n">
+        <v>-1.053</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B192" s="2" t="n">
-        <v>-1.108</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="14" t="s">
-        <v>201</v>
-      </c>
       <c r="B193" s="2" t="n">
-        <v>-1.11</v>
+        <v>-1.055</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="B194" s="2" t="n">
+        <v>-1.056</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="B194" s="2" t="n">
-        <v>-1.11</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="1" t="s">
+      <c r="B195" s="2" t="n">
+        <v>-1.056</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B195" s="2" t="n">
-        <v>-1.111</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="14" t="s">
-        <v>204</v>
-      </c>
       <c r="B196" s="2" t="n">
-        <v>-1.112</v>
+        <v>-1.058</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B197" s="2" t="n">
+        <v>-1.059</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B197" s="2" t="n">
-        <v>-1.114</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="14" t="s">
-        <v>206</v>
-      </c>
       <c r="B198" s="2" t="n">
-        <v>-1.118</v>
+        <v>-1.061</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="B199" s="2" t="n">
+        <v>-1.061</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B199" s="2" t="n">
-        <v>-1.119</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="14" t="s">
+      <c r="B200" s="2" t="n">
+        <v>-1.062</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D200" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="B200" s="2" t="n">
-        <v>-1.121</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4086,18 +4254,21 @@
         <v>209</v>
       </c>
       <c r="B201" s="2" t="n">
-        <v>-1.122</v>
+        <v>-1.062</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="B202" s="2" t="n">
-        <v>-1.123</v>
+      <c r="B202" s="14" t="n">
+        <v>-1.062</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>17</v>
@@ -4108,21 +4279,24 @@
         <v>211</v>
       </c>
       <c r="B203" s="2" t="n">
-        <v>-1.125</v>
+        <v>-1.063</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="B204" s="2" t="n">
-        <v>-1.129</v>
+      <c r="B204" s="14" t="n">
+        <v>-1.063</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4130,101 +4304,98 @@
         <v>213</v>
       </c>
       <c r="B205" s="2" t="n">
-        <v>-1.131</v>
+        <v>-1.064</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="1" t="s">
+      <c r="A206" s="14" t="s">
         <v>214</v>
       </c>
       <c r="B206" s="2" t="n">
-        <v>-1.136</v>
+        <v>-1.064</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="B207" s="2" t="n">
-        <v>-1.141</v>
+      <c r="B207" s="14" t="n">
+        <v>-1.065</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="17" t="s">
+      <c r="A208" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="B208" s="18" t="n">
-        <v>-1.144</v>
-      </c>
-      <c r="C208" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D208" s="17" t="s">
-        <v>217</v>
+      <c r="B208" s="14" t="n">
+        <v>-1.066</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="B209" s="2" t="n">
-        <v>-1.144</v>
+        <v>217</v>
+      </c>
+      <c r="B209" s="14" t="n">
+        <v>-1.066</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B210" s="2" t="n">
-        <v>-1.145</v>
+        <v>-1.068</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="B211" s="2" t="n">
+        <v>-1.074</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="B211" s="2" t="n">
-        <v>-1.147</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="B212" s="18" t="n">
-        <v>-1.149</v>
-      </c>
-      <c r="C212" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D212" s="17" t="s">
-        <v>217</v>
+      <c r="B212" s="2" t="n">
+        <v>-1.075</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B213" s="2" t="n">
-        <v>-1.149</v>
+        <v>-1.076</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>15</v>
@@ -4232,10 +4403,10 @@
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B214" s="2" t="n">
-        <v>-1.149</v>
+        <v>-1.085</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>17</v>
@@ -4243,71 +4414,65 @@
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="B215" s="2" t="n">
-        <v>-1.15</v>
+        <v>223</v>
+      </c>
+      <c r="B215" s="14" t="n">
+        <v>-1.086</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="B216" s="2" t="n">
+        <v>-1.088</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="B216" s="2" t="n">
-        <v>-1.152</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="17" t="s">
+      <c r="B217" s="2" t="n">
+        <v>-1.088</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B217" s="18" t="n">
-        <v>-1.154</v>
-      </c>
-      <c r="C217" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D217" s="17" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="14" t="s">
+      <c r="B218" s="2" t="n">
+        <v>-1.089</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="B218" s="2" t="n">
-        <v>-1.157</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="17" t="s">
+      <c r="B219" s="2" t="n">
+        <v>-1.091</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="B219" s="18" t="n">
-        <v>-1.158</v>
-      </c>
-      <c r="C219" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D219" s="17" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="1" t="s">
-        <v>229</v>
-      </c>
       <c r="B220" s="2" t="n">
-        <v>-1.16</v>
+        <v>-1.092</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>15</v>
@@ -4315,21 +4480,21 @@
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="B221" s="14" t="n">
+        <v>-1.095</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="B221" s="2" t="n">
-        <v>-1.165</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="1" t="s">
-        <v>231</v>
-      </c>
       <c r="B222" s="2" t="n">
-        <v>-1.167</v>
+        <v>-1.096</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>15</v>
@@ -4337,43 +4502,43 @@
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B223" s="2" t="n">
-        <v>-1.167</v>
+        <v>-1.097</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B224" s="2" t="n">
-        <v>-1.168</v>
+        <v>-1.098</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B225" s="2" t="n">
-        <v>-1.169</v>
+        <v>-1.102</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B226" s="2" t="n">
-        <v>-1.174</v>
+        <v>-1.107</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>15</v>
@@ -4381,120 +4546,120 @@
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="B227" s="2" t="n">
+        <v>-1.108</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="B227" s="2" t="n">
-        <v>-1.178</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="1" t="s">
+      <c r="B228" s="14" t="n">
+        <v>-1.109</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="B228" s="2" t="n">
-        <v>-1.179</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B229" s="2" t="n">
-        <v>-1.183</v>
+      <c r="B229" s="14" t="n">
+        <v>-1.109</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="B230" s="2" t="n">
+        <v>-1.11</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="B230" s="2" t="n">
-        <v>-1.185</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="1" t="s">
+      <c r="B231" s="2" t="n">
+        <v>-1.11</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B231" s="2" t="n">
-        <v>-1.187</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="14" t="s">
-        <v>241</v>
-      </c>
       <c r="B232" s="2" t="n">
-        <v>-1.191</v>
+        <v>-1.111</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="B233" s="2" t="n">
+        <v>-1.112</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B233" s="2" t="n">
-        <v>-1.192</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="14" t="s">
+      <c r="B234" s="2" t="n">
+        <v>-1.114</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="B234" s="2" t="n">
-        <v>-1.197</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="1" t="s">
+      <c r="B235" s="14" t="n">
+        <v>-1.117</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="B235" s="2" t="n">
-        <v>-1.206</v>
-      </c>
-      <c r="C235" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="1" t="s">
-        <v>245</v>
-      </c>
       <c r="B236" s="2" t="n">
-        <v>-1.212</v>
+        <v>-1.118</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B237" s="2" t="n">
-        <v>-1.218</v>
+        <v>-1.119</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>15</v>
@@ -4502,10 +4667,10 @@
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B238" s="2" t="n">
-        <v>-1.219</v>
+        <v>-1.121</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>15</v>
@@ -4513,10 +4678,10 @@
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="B239" s="2" t="n">
-        <v>-1.219</v>
+        <v>247</v>
+      </c>
+      <c r="B239" s="14" t="n">
+        <v>-1.121</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>17</v>
@@ -4524,43 +4689,43 @@
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="B240" s="2" t="n">
+        <v>-1.122</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="B240" s="2" t="n">
-        <v>-1.22</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="1" t="s">
+      <c r="B241" s="2" t="n">
+        <v>-1.123</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B241" s="2" t="n">
-        <v>-1.223</v>
-      </c>
-      <c r="C241" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="14" t="s">
-        <v>251</v>
-      </c>
       <c r="B242" s="2" t="n">
-        <v>-1.224</v>
+        <v>-1.125</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B243" s="2" t="n">
-        <v>-1.226</v>
+        <v>-1.129</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>15</v>
@@ -4568,32 +4733,32 @@
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B244" s="2" t="n">
-        <v>-1.227</v>
+        <v>-1.131</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="B245" s="14" t="n">
+        <v>-1.132</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B245" s="2" t="n">
-        <v>-1.233</v>
-      </c>
-      <c r="C245" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="14" t="s">
-        <v>255</v>
-      </c>
       <c r="B246" s="2" t="n">
-        <v>-1.234</v>
+        <v>-1.136</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>15</v>
@@ -4601,46 +4766,49 @@
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="B247" s="2" t="n">
+        <v>-1.141</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="B247" s="2" t="n">
-        <v>-1.235</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="B248" s="2" t="n">
-        <v>-1.241</v>
+      <c r="B248" s="14" t="n">
+        <v>-1.141</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="B249" s="14" t="n">
+        <v>-1.142</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="B249" s="2" t="n">
-        <v>-1.249</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="14" t="s">
+      <c r="B250" s="18" t="n">
+        <v>-1.144</v>
+      </c>
+      <c r="C250" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D250" s="17" t="s">
         <v>259</v>
-      </c>
-      <c r="B250" s="2" t="n">
-        <v>-1.26</v>
-      </c>
-      <c r="C250" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4648,7 +4816,7 @@
         <v>260</v>
       </c>
       <c r="B251" s="2" t="n">
-        <v>-1.261</v>
+        <v>-1.144</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>15</v>
@@ -4659,10 +4827,10 @@
         <v>261</v>
       </c>
       <c r="B252" s="2" t="n">
-        <v>-1.261</v>
+        <v>-1.145</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4670,21 +4838,24 @@
         <v>262</v>
       </c>
       <c r="B253" s="2" t="n">
-        <v>-1.263</v>
+        <v>-1.147</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="14" t="s">
+      <c r="A254" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="B254" s="2" t="n">
-        <v>-1.266</v>
-      </c>
-      <c r="C254" s="2" t="s">
-        <v>17</v>
+      <c r="B254" s="18" t="n">
+        <v>-1.149</v>
+      </c>
+      <c r="C254" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D254" s="17" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4692,7 +4863,7 @@
         <v>264</v>
       </c>
       <c r="B255" s="2" t="n">
-        <v>-1.272</v>
+        <v>-1.149</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>15</v>
@@ -4703,7 +4874,7 @@
         <v>265</v>
       </c>
       <c r="B256" s="2" t="n">
-        <v>-1.272</v>
+        <v>-1.149</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>17</v>
@@ -4714,62 +4885,68 @@
         <v>266</v>
       </c>
       <c r="B257" s="2" t="n">
-        <v>-1.273</v>
+        <v>-1.15</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="1" t="s">
+      <c r="A258" s="14" t="s">
         <v>267</v>
       </c>
       <c r="B258" s="2" t="n">
-        <v>-1.28</v>
+        <v>-1.152</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="14" t="s">
+      <c r="A259" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="B259" s="2" t="n">
-        <v>-1.285</v>
-      </c>
-      <c r="C259" s="2" t="s">
-        <v>17</v>
+      <c r="B259" s="18" t="n">
+        <v>-1.154</v>
+      </c>
+      <c r="C259" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D259" s="17" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="1" t="s">
+      <c r="A260" s="14" t="s">
         <v>269</v>
       </c>
       <c r="B260" s="2" t="n">
-        <v>-1.286</v>
+        <v>-1.157</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="14" t="s">
+      <c r="A261" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="B261" s="2" t="n">
-        <v>-1.298</v>
-      </c>
-      <c r="C261" s="2" t="s">
-        <v>15</v>
+      <c r="B261" s="18" t="n">
+        <v>-1.158</v>
+      </c>
+      <c r="C261" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D261" s="17" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="14" t="s">
+      <c r="A262" s="1" t="s">
         <v>271</v>
       </c>
       <c r="B262" s="2" t="n">
-        <v>-1.303</v>
+        <v>-1.16</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>15</v>
@@ -4779,11 +4956,11 @@
       <c r="A263" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="B263" s="2" t="n">
-        <v>-1.309</v>
+      <c r="B263" s="14" t="n">
+        <v>-1.16</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4791,43 +4968,43 @@
         <v>273</v>
       </c>
       <c r="B264" s="2" t="n">
-        <v>-1.323</v>
+        <v>-1.165</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="14" t="s">
+      <c r="A265" s="1" t="s">
         <v>274</v>
       </c>
       <c r="B265" s="2" t="n">
-        <v>-1.335</v>
+        <v>-1.167</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="1" t="s">
+      <c r="A266" s="14" t="s">
         <v>275</v>
       </c>
       <c r="B266" s="2" t="n">
-        <v>-1.343</v>
+        <v>-1.167</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="1" t="s">
+      <c r="A267" s="14" t="s">
         <v>276</v>
       </c>
       <c r="B267" s="2" t="n">
-        <v>-1.344</v>
+        <v>-1.168</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4835,7 +5012,7 @@
         <v>277</v>
       </c>
       <c r="B268" s="2" t="n">
-        <v>-1.346</v>
+        <v>-1.169</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>17</v>
@@ -4845,22 +5022,22 @@
       <c r="A269" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="B269" s="2" t="n">
-        <v>-1.347</v>
+      <c r="B269" s="14" t="n">
+        <v>-1.172</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="B270" s="2" t="n">
-        <v>-1.352</v>
+      <c r="B270" s="14" t="n">
+        <v>-1.173</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4868,10 +5045,626 @@
         <v>280</v>
       </c>
       <c r="B271" s="2" t="n">
+        <v>-1.174</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="B272" s="2" t="n">
+        <v>-1.178</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B273" s="2" t="n">
+        <v>-1.179</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="B274" s="14" t="n">
+        <v>-1.181</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B275" s="2" t="n">
+        <v>-1.183</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="B276" s="2" t="n">
+        <v>-1.185</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B277" s="2" t="n">
+        <v>-1.187</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="B278" s="2" t="n">
+        <v>-1.191</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="B279" s="2" t="n">
+        <v>-1.192</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="B280" s="2" t="n">
+        <v>-1.197</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B281" s="2" t="n">
+        <v>-1.206</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B282" s="2" t="n">
+        <v>-1.212</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="B283" s="2" t="n">
+        <v>-1.218</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="B284" s="2" t="n">
+        <v>-1.219</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="B285" s="2" t="n">
+        <v>-1.219</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="B286" s="2" t="n">
+        <v>-1.22</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B287" s="2" t="n">
+        <v>-1.223</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="B288" s="2" t="n">
+        <v>-1.224</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="B289" s="2" t="n">
+        <v>-1.226</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="B290" s="2" t="n">
+        <v>-1.227</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="B291" s="14" t="n">
+        <v>-1.23</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="B292" s="2" t="n">
+        <v>-1.233</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="B293" s="2" t="n">
+        <v>-1.234</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="B294" s="2" t="n">
+        <v>-1.235</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="B295" s="14" t="n">
+        <v>-1.236</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B296" s="2" t="n">
+        <v>-1.241</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="B297" s="2" t="n">
+        <v>-1.249</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="B298" s="2" t="n">
+        <v>-1.26</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="B299" s="2" t="n">
+        <v>-1.261</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="B300" s="2" t="n">
+        <v>-1.261</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="B301" s="2" t="n">
+        <v>-1.263</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="B302" s="2" t="n">
+        <v>-1.266</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A303" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="B303" s="2" t="n">
+        <v>-1.272</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A304" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="B304" s="2" t="n">
+        <v>-1.272</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="B305" s="2" t="n">
+        <v>-1.273</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B306" s="2" t="n">
+        <v>-1.28</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A307" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="B307" s="2" t="n">
+        <v>-1.285</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A308" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B308" s="2" t="n">
+        <v>-1.286</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="B309" s="14" t="n">
+        <v>-1.295</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="B310" s="2" t="n">
+        <v>-1.298</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="B311" s="2" t="n">
+        <v>-1.303</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A312" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="B312" s="14" t="n">
+        <v>-1.304</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A313" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="B313" s="14" t="n">
+        <v>-1.307</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A314" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="B314" s="2" t="n">
+        <v>-1.309</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A315" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="B315" s="2" t="n">
+        <v>-1.323</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="B316" s="14" t="n">
+        <v>-1.332</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="B317" s="2" t="n">
+        <v>-1.335</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="B318" s="14" t="n">
+        <v>-1.335</v>
+      </c>
+      <c r="C318" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A319" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B319" s="2" t="n">
+        <v>-1.343</v>
+      </c>
+      <c r="C319" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A320" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B320" s="2" t="n">
+        <v>-1.344</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="B321" s="2" t="n">
+        <v>-1.346</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="B322" s="2" t="n">
+        <v>-1.347</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A323" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="B323" s="2" t="n">
+        <v>-1.352</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A324" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="B324" s="14" t="n">
+        <v>-1.366</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A325" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B325" s="2" t="n">
         <v>-1.375</v>
       </c>
-      <c r="C271" s="2" t="s">
-        <v>15</v>
+      <c r="C325" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A326" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="B326" s="14" t="n">
+        <v>-1.649</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A327" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="B327" s="14" t="n">
+        <v>-1.856</v>
+      </c>
+      <c r="C327" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/LD1014D_list.xlsx
+++ b/LD1014D_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="337">
   <si>
     <t xml:space="preserve">LD1014 List (matching without curves)</t>
   </si>
@@ -238,6 +238,9 @@
     <t xml:space="preserve">LD1014D_24</t>
   </si>
   <si>
+    <t xml:space="preserve">reserved kc</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_39</t>
   </si>
   <si>
@@ -473,9 +476,6 @@
   </si>
   <si>
     <t xml:space="preserve">LD1014D_267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reserved kc</t>
   </si>
   <si>
     <t xml:space="preserve">LD1014D_219</t>
@@ -1236,15 +1236,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC9211E"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1315,11 +1306,11 @@
   </sheetPr>
   <dimension ref="A1:AMJ327"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A303" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G324" activeCellId="0" sqref="G324"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A141" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D151" activeCellId="0" sqref="D151"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.52"/>
@@ -2298,6 +2289,9 @@
       <c r="C72" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="D72" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="F72" s="15"/>
       <c r="G72" s="14"/>
       <c r="H72" s="2"/>
@@ -2305,13 +2299,16 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B73" s="2" t="n">
         <v>-0.847</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="F73" s="15"/>
       <c r="G73" s="14"/>
@@ -2320,13 +2317,16 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B74" s="2" t="n">
         <v>-0.847</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="F74" s="15"/>
       <c r="G74" s="14"/>
@@ -2335,13 +2335,16 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B75" s="2" t="n">
         <v>-0.847</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="F75" s="15"/>
       <c r="G75" s="14"/>
@@ -2350,13 +2353,16 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B76" s="2" t="n">
         <v>-0.848</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="F76" s="15"/>
       <c r="G76" s="1"/>
@@ -2365,7 +2371,7 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B77" s="14" t="n">
         <v>-0.849</v>
@@ -2380,7 +2386,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B78" s="2" t="n">
         <v>-0.853</v>
@@ -2395,7 +2401,7 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B79" s="14" t="n">
         <v>-0.853</v>
@@ -2410,7 +2416,7 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B80" s="2" t="n">
         <v>-0.855</v>
@@ -2425,7 +2431,7 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B81" s="2" t="n">
         <v>-0.857</v>
@@ -2440,7 +2446,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B82" s="14" t="n">
         <v>-0.857</v>
@@ -2455,7 +2461,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B83" s="2" t="n">
         <v>-0.858</v>
@@ -2470,7 +2476,7 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B84" s="16" t="n">
         <v>-0.86</v>
@@ -2479,7 +2485,7 @@
         <v>15</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F84" s="15"/>
       <c r="G84" s="1"/>
@@ -2488,7 +2494,7 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B85" s="16" t="n">
         <v>-0.86</v>
@@ -2497,7 +2503,7 @@
         <v>15</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F85" s="15"/>
       <c r="G85" s="1"/>
@@ -2506,7 +2512,7 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B86" s="2" t="n">
         <v>-0.861</v>
@@ -2521,7 +2527,7 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B87" s="2" t="n">
         <v>-0.862</v>
@@ -2536,7 +2542,7 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B88" s="2" t="n">
         <v>-0.868</v>
@@ -2551,7 +2557,7 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B89" s="2" t="n">
         <v>-0.873</v>
@@ -2566,7 +2572,7 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B90" s="2" t="n">
         <v>-0.875</v>
@@ -2581,7 +2587,7 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B91" s="2" t="n">
         <v>-0.876</v>
@@ -2596,7 +2602,7 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B92" s="2" t="n">
         <v>-0.876</v>
@@ -2611,7 +2617,7 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B93" s="2" t="n">
         <v>-0.881</v>
@@ -2626,7 +2632,7 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B94" s="2" t="n">
         <v>-0.883</v>
@@ -2641,7 +2647,7 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B95" s="2" t="n">
         <v>-0.885</v>
@@ -2656,7 +2662,7 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B96" s="2" t="n">
         <v>-0.885</v>
@@ -2671,7 +2677,7 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B97" s="2" t="n">
         <v>-0.886</v>
@@ -2686,7 +2692,7 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B98" s="2" t="n">
         <v>-0.892</v>
@@ -2701,7 +2707,7 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B99" s="2" t="n">
         <v>-0.893</v>
@@ -2716,7 +2722,7 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B100" s="14" t="n">
         <v>-0.894</v>
@@ -2731,7 +2737,7 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B101" s="2" t="n">
         <v>-0.896</v>
@@ -2746,7 +2752,7 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B102" s="18" t="n">
         <v>-0.901</v>
@@ -2755,7 +2761,7 @@
         <v>15</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F102" s="15"/>
       <c r="G102" s="14"/>
@@ -2764,7 +2770,7 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B103" s="18" t="n">
         <v>-0.901</v>
@@ -2773,7 +2779,7 @@
         <v>15</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F103" s="15"/>
       <c r="G103" s="14"/>
@@ -2782,7 +2788,7 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B104" s="2" t="n">
         <v>-0.908</v>
@@ -2797,7 +2803,7 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B105" s="2" t="n">
         <v>-0.911</v>
@@ -2812,7 +2818,7 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B106" s="2" t="n">
         <v>-0.914</v>
@@ -2827,7 +2833,7 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B107" s="14" t="n">
         <v>-0.914</v>
@@ -2842,7 +2848,7 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="14" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B108" s="2" t="n">
         <v>-0.915</v>
@@ -2857,7 +2863,7 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B109" s="2" t="n">
         <v>-0.917</v>
@@ -2872,7 +2878,7 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B110" s="14" t="n">
         <v>-0.917</v>
@@ -2887,7 +2893,7 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B111" s="2" t="n">
         <v>-0.919</v>
@@ -2902,7 +2908,7 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B112" s="2" t="n">
         <v>-0.92</v>
@@ -2917,7 +2923,7 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B113" s="14" t="n">
         <v>-0.92</v>
@@ -2932,7 +2938,7 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B114" s="2" t="n">
         <v>-0.921</v>
@@ -2947,7 +2953,7 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B115" s="14" t="n">
         <v>-0.923</v>
@@ -2962,7 +2968,7 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B116" s="14" t="n">
         <v>-0.927</v>
@@ -2977,7 +2983,7 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B117" s="2" t="n">
         <v>-0.929</v>
@@ -2992,7 +2998,7 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B118" s="14" t="n">
         <v>-0.934</v>
@@ -3007,7 +3013,7 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B119" s="2" t="n">
         <v>-0.938</v>
@@ -3022,7 +3028,7 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B120" s="14" t="n">
         <v>-0.939</v>
@@ -3037,7 +3043,7 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B121" s="2" t="n">
         <v>-0.943</v>
@@ -3052,7 +3058,7 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B122" s="2" t="n">
         <v>-0.945</v>
@@ -3067,7 +3073,7 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B123" s="2" t="n">
         <v>-0.946</v>
@@ -3082,7 +3088,7 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B124" s="2" t="n">
         <v>-0.946</v>
@@ -3097,7 +3103,7 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B125" s="2" t="n">
         <v>-0.947</v>
@@ -3112,7 +3118,7 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B126" s="14" t="n">
         <v>-0.949</v>
@@ -3127,7 +3133,7 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B127" s="2" t="n">
         <v>-0.952</v>
@@ -3142,7 +3148,7 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B128" s="2" t="n">
         <v>-0.952</v>
@@ -3157,7 +3163,7 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B129" s="2" t="n">
         <v>-0.955</v>
@@ -3172,7 +3178,7 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B130" s="18" t="n">
         <v>-0.956</v>
@@ -3181,7 +3187,7 @@
         <v>15</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F130" s="15"/>
       <c r="G130" s="14"/>
@@ -3190,7 +3196,7 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B131" s="18" t="n">
         <v>-0.957</v>
@@ -3199,7 +3205,7 @@
         <v>15</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F131" s="15"/>
       <c r="G131" s="14"/>
@@ -3208,7 +3214,7 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B132" s="14" t="n">
         <v>-0.957</v>
@@ -3223,7 +3229,7 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="17" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B133" s="18" t="n">
         <v>-0.958</v>
@@ -3232,7 +3238,7 @@
         <v>15</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F133" s="15"/>
       <c r="G133" s="1"/>
@@ -3241,7 +3247,7 @@
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B134" s="14" t="n">
         <v>-0.958</v>
@@ -3256,7 +3262,7 @@
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B135" s="18" t="n">
         <v>-0.959</v>
@@ -3265,7 +3271,7 @@
         <v>15</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F135" s="15"/>
       <c r="G135" s="1"/>
@@ -3274,7 +3280,7 @@
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="17" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B136" s="18" t="n">
         <v>-0.96</v>
@@ -3283,7 +3289,7 @@
         <v>15</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F136" s="15"/>
       <c r="G136" s="14"/>
@@ -3292,7 +3298,7 @@
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="17" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B137" s="18" t="n">
         <v>-0.96</v>
@@ -3301,7 +3307,7 @@
         <v>15</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F137" s="15"/>
       <c r="G137" s="14"/>
@@ -3310,7 +3316,7 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B138" s="2" t="n">
         <v>-0.962</v>
@@ -3325,7 +3331,7 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B139" s="2" t="n">
         <v>-0.965</v>
@@ -3340,7 +3346,7 @@
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="14" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B140" s="2" t="n">
         <v>-0.965</v>
@@ -3355,7 +3361,7 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="17" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B141" s="18" t="n">
         <v>-0.969</v>
@@ -3364,7 +3370,7 @@
         <v>15</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F141" s="15"/>
       <c r="G141" s="1"/>
@@ -3373,7 +3379,7 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="17" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B142" s="18" t="n">
         <v>-0.969</v>
@@ -3382,7 +3388,7 @@
         <v>15</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F142" s="15"/>
       <c r="G142" s="14"/>
@@ -3391,7 +3397,7 @@
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="14" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B143" s="2" t="n">
         <v>-0.972</v>
@@ -3406,7 +3412,7 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="14" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B144" s="2" t="n">
         <v>-0.972</v>
@@ -3421,7 +3427,7 @@
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B145" s="2" t="n">
         <v>-0.977</v>
@@ -3436,7 +3442,7 @@
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="14" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B146" s="14" t="n">
         <v>-0.978</v>
@@ -3451,7 +3457,7 @@
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B147" s="2" t="n">
         <v>-0.98</v>
@@ -3466,16 +3472,13 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B148" s="2" t="n">
         <v>-0.984</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="F148" s="15"/>
       <c r="G148" s="1"/>
@@ -3492,9 +3495,6 @@
       <c r="C149" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D149" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="F149" s="15"/>
       <c r="G149" s="1"/>
       <c r="H149" s="2"/>
@@ -3510,9 +3510,6 @@
       <c r="C150" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D150" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="F150" s="15"/>
       <c r="G150" s="1"/>
       <c r="H150" s="2"/>
@@ -3528,9 +3525,6 @@
       <c r="C151" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D151" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="F151" s="15"/>
       <c r="G151" s="14"/>
       <c r="H151" s="2"/>
@@ -4097,7 +4091,7 @@
         <v>15</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4111,7 +4105,7 @@
         <v>15</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/LD1014D_list.xlsx
+++ b/LD1014D_list.xlsx
@@ -646,7 +646,7 @@
     <t xml:space="preserve">LD1014D_7</t>
   </si>
   <si>
-    <t xml:space="preserve">reserved sch</t>
+    <t xml:space="preserve">sold sch</t>
   </si>
   <si>
     <t xml:space="preserve">LD1014D_184</t>
@@ -1306,11 +1306,11 @@
   </sheetPr>
   <dimension ref="A1:AMJ327"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A141" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D151" activeCellId="0" sqref="D151"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A195" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D205" activeCellId="0" sqref="D205"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.52"/>

--- a/LD1014D_list.xlsx
+++ b/LD1014D_list.xlsx
@@ -1306,11 +1306,11 @@
   </sheetPr>
   <dimension ref="A1:AMJ327"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A195" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D205" activeCellId="0" sqref="D205"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A66" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D72" activeCellId="0" sqref="D72:D76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.52"/>
@@ -4230,30 +4230,30 @@
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="1" t="s">
+      <c r="A200" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="B200" s="2" t="n">
+      <c r="B200" s="18" t="n">
         <v>-1.062</v>
       </c>
-      <c r="C200" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D200" s="1" t="s">
+      <c r="C200" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D200" s="17" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="14" t="s">
+      <c r="A201" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="B201" s="2" t="n">
+      <c r="B201" s="18" t="n">
         <v>-1.062</v>
       </c>
-      <c r="C201" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D201" s="1" t="s">
+      <c r="C201" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D201" s="17" t="s">
         <v>208</v>
       </c>
     </row>
@@ -4269,16 +4269,16 @@
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="1" t="s">
+      <c r="A203" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="B203" s="2" t="n">
+      <c r="B203" s="18" t="n">
         <v>-1.063</v>
       </c>
-      <c r="C203" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D203" s="1" t="s">
+      <c r="C203" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D203" s="17" t="s">
         <v>208</v>
       </c>
     </row>
@@ -4294,16 +4294,16 @@
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="14" t="s">
+      <c r="A205" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="B205" s="2" t="n">
+      <c r="B205" s="18" t="n">
         <v>-1.064</v>
       </c>
-      <c r="C205" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D205" s="1" t="s">
+      <c r="C205" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D205" s="17" t="s">
         <v>208</v>
       </c>
     </row>

--- a/LD1014D_list.xlsx
+++ b/LD1014D_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="403">
   <si>
     <t xml:space="preserve">LD1014 List (matching without curves)</t>
   </si>
@@ -91,6 +91,9 @@
     <t xml:space="preserve">LD1014D_298</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_361</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_273</t>
   </si>
   <si>
@@ -100,12 +103,24 @@
     <t xml:space="preserve">LD1014D_1</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_370</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_27</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LD1014D_362</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_295</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_405</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_143</t>
   </si>
   <si>
@@ -130,12 +145,24 @@
     <t xml:space="preserve">LD1014D_252</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LD1014D_386</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_154</t>
   </si>
   <si>
     <t xml:space="preserve">LD1014D_274</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LD1014D_432</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_200</t>
   </si>
   <si>
@@ -151,6 +178,12 @@
     <t xml:space="preserve">LD1014D_332</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LD1014D_388</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_186</t>
   </si>
   <si>
@@ -229,9 +262,15 @@
     <t xml:space="preserve">LD1014D_333</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_389</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_127</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_408</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_64</t>
   </si>
   <si>
@@ -292,6 +331,9 @@
     <t xml:space="preserve">LD1014D_134</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_391</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_255</t>
   </si>
   <si>
@@ -307,6 +349,9 @@
     <t xml:space="preserve">LD1014D_76</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_426</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_149</t>
   </si>
   <si>
@@ -340,6 +385,9 @@
     <t xml:space="preserve">LD1014D_192</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_376</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_40</t>
   </si>
   <si>
@@ -373,6 +421,9 @@
     <t xml:space="preserve">LD1014D_104</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_430</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_338</t>
   </si>
   <si>
@@ -382,6 +433,12 @@
     <t xml:space="preserve">LD1014D_69</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LD1014D_419</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_300</t>
   </si>
   <si>
@@ -469,6 +526,9 @@
     <t xml:space="preserve">LD1014D_60</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_379</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_302</t>
   </si>
   <si>
@@ -499,12 +559,18 @@
     <t xml:space="preserve">LD1014D_2</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_360</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_221</t>
   </si>
   <si>
     <t xml:space="preserve">LD1014D_347</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_373</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_38</t>
   </si>
   <si>
@@ -523,9 +589,15 @@
     <t xml:space="preserve">sold J5</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_367</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_22</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_393</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_166</t>
   </si>
   <si>
@@ -535,18 +607,30 @@
     <t xml:space="preserve">LD1014D_271</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_382</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_249</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_368</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_169</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_377</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_108</t>
   </si>
   <si>
     <t xml:space="preserve">LD1014D_348</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_401</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_234</t>
   </si>
   <si>
@@ -565,6 +649,9 @@
     <t xml:space="preserve">LD1014D_215</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_374</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_23</t>
   </si>
   <si>
@@ -580,12 +667,21 @@
     <t xml:space="preserve">LD1014D_28</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_404</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_270</t>
   </si>
   <si>
     <t xml:space="preserve">REF STANDARD</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_380</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LD1014D_356</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_91</t>
   </si>
   <si>
@@ -604,6 +700,9 @@
     <t xml:space="preserve">LD1014D_286</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_363</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_109</t>
   </si>
   <si>
@@ -631,6 +730,9 @@
     <t xml:space="preserve">LD1014D_257</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_359</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_97</t>
   </si>
   <si>
@@ -661,6 +763,9 @@
     <t xml:space="preserve">LD1014D_292</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_402</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_124</t>
   </si>
   <si>
@@ -679,6 +784,9 @@
     <t xml:space="preserve">LD1014D_158</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_423</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_282</t>
   </si>
   <si>
@@ -688,18 +796,33 @@
     <t xml:space="preserve">LD1014D_125</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_431</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_204</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_355</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_330</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LD1014D_407</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_183</t>
   </si>
   <si>
     <t xml:space="preserve">LD1014D_265</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_395</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_5</t>
   </si>
   <si>
@@ -742,12 +865,18 @@
     <t xml:space="preserve">LD1014D_208</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_410</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_31</t>
   </si>
   <si>
     <t xml:space="preserve">LD1014D_244</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_417</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_6</t>
   </si>
   <si>
@@ -775,9 +904,15 @@
     <t xml:space="preserve">LD1014D_30</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_365</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_162</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_406</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_259</t>
   </si>
   <si>
@@ -808,9 +943,15 @@
     <t xml:space="preserve">LD1014D_242</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_358</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_112</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_378</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_74</t>
   </si>
   <si>
@@ -826,6 +967,9 @@
     <t xml:space="preserve">LD1014D_285</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_403</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_4</t>
   </si>
   <si>
@@ -880,6 +1024,9 @@
     <t xml:space="preserve">LD1014D_144</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_421</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_26</t>
   </si>
   <si>
@@ -892,12 +1039,24 @@
     <t xml:space="preserve">LD1014D_189</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LD1014D_409</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_66</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_364</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_83</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_418</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_188</t>
   </si>
   <si>
@@ -925,6 +1084,9 @@
     <t xml:space="preserve">LD1014D_317</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_433</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_288</t>
   </si>
   <si>
@@ -937,6 +1099,12 @@
     <t xml:space="preserve">LD1014D_303</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LD1014D_416</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_17</t>
   </si>
   <si>
@@ -955,6 +1123,9 @@
     <t xml:space="preserve">LD1014D_245</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_394</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_227</t>
   </si>
   <si>
@@ -979,21 +1150,33 @@
     <t xml:space="preserve">LD1014D_312</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_420</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_140</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_369</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_145</t>
   </si>
   <si>
     <t xml:space="preserve">LD1014D_341</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_422</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_351</t>
   </si>
   <si>
     <t xml:space="preserve">LD1014D_121</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_381</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_167</t>
   </si>
   <si>
@@ -1021,16 +1204,31 @@
     <t xml:space="preserve">LD1014D_146</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_411</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_310</t>
   </si>
   <si>
     <t xml:space="preserve">LD1014D_3</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bad / remove</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_335</t>
   </si>
   <si>
     <t xml:space="preserve">LD1014D_293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LD1014D_397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LD1014D_398</t>
   </si>
 </sst>
 </file>
@@ -1236,6 +1434,15 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC9211E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1304,13 +1511,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ327"/>
+  <dimension ref="A1:AMJ392"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A66" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D72" activeCellId="0" sqref="D72:D76"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A373" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A388" activeCellId="0" sqref="A388:D392"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.52"/>
@@ -1563,8 +1770,8 @@
       <c r="A24" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="n">
-        <v>-0.642</v>
+      <c r="B24" s="14" t="n">
+        <v>-0.628</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>17</v>
@@ -1578,8 +1785,8 @@
       <c r="A25" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="14" t="n">
-        <v>-0.644</v>
+      <c r="B25" s="2" t="n">
+        <v>-0.642</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>17</v>
@@ -1590,14 +1797,14 @@
       <c r="I25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="n">
-        <v>-0.645</v>
+      <c r="B26" s="14" t="n">
+        <v>-0.644</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F26" s="15"/>
       <c r="G26" s="14"/>
@@ -1609,7 +1816,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>-0.648</v>
+        <v>-0.645</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>15</v>
@@ -1624,7 +1831,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="14" t="n">
-        <v>-0.655</v>
+        <v>-0.646</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>17</v>
@@ -1635,11 +1842,11 @@
       <c r="I28" s="1"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>-0.677</v>
+        <v>-0.648</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>15</v>
@@ -1650,14 +1857,14 @@
       <c r="I29" s="1"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="2" t="n">
-        <v>-0.679</v>
+      <c r="B30" s="14" t="n">
+        <v>-0.648</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F30" s="15"/>
       <c r="G30" s="14"/>
@@ -1668,8 +1875,8 @@
       <c r="A31" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="2" t="n">
-        <v>-0.684</v>
+      <c r="B31" s="14" t="n">
+        <v>-0.651</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>17</v>
@@ -1680,14 +1887,14 @@
       <c r="I31" s="1"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="2" t="n">
-        <v>-0.687</v>
+      <c r="B32" s="14" t="n">
+        <v>-0.655</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F32" s="15"/>
       <c r="G32" s="1"/>
@@ -1698,8 +1905,8 @@
       <c r="A33" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="2" t="n">
-        <v>-0.69</v>
+      <c r="B33" s="14" t="n">
+        <v>-0.663</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>17</v>
@@ -1710,11 +1917,11 @@
       <c r="I33" s="1"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="14" t="s">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>-0.714</v>
+        <v>-0.677</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>15</v>
@@ -1725,14 +1932,14 @@
       <c r="I34" s="1"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>-0.714</v>
+        <v>-0.679</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F35" s="15"/>
       <c r="G35" s="1"/>
@@ -1744,7 +1951,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>-0.719</v>
+        <v>-0.684</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>17</v>
@@ -1755,11 +1962,11 @@
       <c r="I36" s="1"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>-0.723</v>
+        <v>-0.687</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>15</v>
@@ -1774,7 +1981,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>-0.727</v>
+        <v>-0.69</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>17</v>
@@ -1785,14 +1992,14 @@
       <c r="I38" s="1"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>-0.749</v>
+        <v>-0.714</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F39" s="15"/>
       <c r="G39" s="14"/>
@@ -1804,10 +2011,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>-0.756</v>
+        <v>-0.714</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F40" s="15"/>
       <c r="G40" s="1"/>
@@ -1815,14 +2022,14 @@
       <c r="I40" s="1"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="14" t="s">
         <v>40</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>-0.757</v>
+        <v>-0.719</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F41" s="15"/>
       <c r="G41" s="1"/>
@@ -1833,11 +2040,11 @@
       <c r="A42" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="2" t="n">
-        <v>-0.758</v>
+      <c r="B42" s="14" t="n">
+        <v>-0.72</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F42" s="15"/>
       <c r="G42" s="14"/>
@@ -1849,7 +2056,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="14" t="n">
-        <v>-0.766</v>
+        <v>-0.722</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>17</v>
@@ -1864,7 +2071,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>-0.771</v>
+        <v>-0.723</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>15</v>
@@ -1878,8 +2085,8 @@
       <c r="A45" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="14" t="n">
-        <v>-0.776</v>
+      <c r="B45" s="2" t="n">
+        <v>-0.727</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>17</v>
@@ -1893,11 +2100,11 @@
       <c r="A46" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="2" t="n">
-        <v>-0.78</v>
+      <c r="B46" s="14" t="n">
+        <v>-0.739</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F46" s="15"/>
       <c r="G46" s="1"/>
@@ -1908,8 +2115,8 @@
       <c r="A47" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="2" t="n">
-        <v>-0.783</v>
+      <c r="B47" s="14" t="n">
+        <v>-0.745</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>17</v>
@@ -1923,8 +2130,8 @@
       <c r="A48" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="14" t="n">
-        <v>-0.783</v>
+      <c r="B48" s="2" t="n">
+        <v>-0.749</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>17</v>
@@ -1935,11 +2142,11 @@
       <c r="I48" s="1"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="14" t="s">
         <v>48</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>-0.785</v>
+        <v>-0.756</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>15</v>
@@ -1950,11 +2157,11 @@
       <c r="I49" s="1"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="14" t="s">
+      <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>-0.786</v>
+        <v>-0.757</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>15</v>
@@ -1969,7 +2176,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>-0.786</v>
+        <v>-0.758</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>15</v>
@@ -1980,14 +2187,14 @@
       <c r="I51" s="1"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="2" t="n">
-        <v>-0.789</v>
+      <c r="B52" s="14" t="n">
+        <v>-0.766</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F52" s="15"/>
       <c r="G52" s="1"/>
@@ -1998,8 +2205,8 @@
       <c r="A53" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B53" s="2" t="n">
-        <v>-0.791</v>
+      <c r="B53" s="14" t="n">
+        <v>-0.766</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>17</v>
@@ -2013,8 +2220,8 @@
       <c r="A54" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="2" t="n">
-        <v>-0.796</v>
+      <c r="B54" s="14" t="n">
+        <v>-0.767</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>17</v>
@@ -2025,11 +2232,11 @@
       <c r="I54" s="1"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="14" t="s">
         <v>54</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>-0.798</v>
+        <v>-0.771</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>15</v>
@@ -2043,11 +2250,11 @@
       <c r="A56" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="2" t="n">
-        <v>-0.801</v>
+      <c r="B56" s="14" t="n">
+        <v>-0.776</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F56" s="15"/>
       <c r="G56" s="14"/>
@@ -2059,7 +2266,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>-0.805</v>
+        <v>-0.78</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>15</v>
@@ -2074,10 +2281,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>-0.805</v>
+        <v>-0.783</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F58" s="15"/>
       <c r="G58" s="14"/>
@@ -2085,14 +2292,14 @@
       <c r="I58" s="1"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B59" s="2" t="n">
-        <v>-0.806</v>
+      <c r="B59" s="14" t="n">
+        <v>-0.783</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F59" s="15"/>
       <c r="G59" s="14"/>
@@ -2100,14 +2307,14 @@
       <c r="I59" s="1"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="14" t="s">
+      <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B60" s="14" t="n">
-        <v>-0.809</v>
+      <c r="B60" s="2" t="n">
+        <v>-0.785</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F60" s="15"/>
       <c r="G60" s="1"/>
@@ -2119,10 +2326,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>-0.815</v>
+        <v>-0.786</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F61" s="15"/>
       <c r="G61" s="1"/>
@@ -2130,11 +2337,11 @@
       <c r="I61" s="1"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="14" t="s">
         <v>61</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>-0.816</v>
+        <v>-0.786</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>15</v>
@@ -2145,14 +2352,14 @@
       <c r="I62" s="1"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="14" t="s">
+      <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>-0.822</v>
+        <v>-0.789</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F63" s="15"/>
       <c r="G63" s="1"/>
@@ -2164,10 +2371,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>-0.823</v>
+        <v>-0.791</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F64" s="15"/>
       <c r="G64" s="1"/>
@@ -2175,14 +2382,14 @@
       <c r="I64" s="1"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="14" t="s">
         <v>64</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>-0.824</v>
+        <v>-0.796</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F65" s="15"/>
       <c r="G65" s="1"/>
@@ -2190,11 +2397,11 @@
       <c r="I65" s="1"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="14" t="s">
+      <c r="A66" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>-0.83</v>
+        <v>-0.798</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>15</v>
@@ -2205,11 +2412,11 @@
       <c r="I66" s="1"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="14" t="s">
         <v>66</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>-0.832</v>
+        <v>-0.801</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>15</v>
@@ -2220,11 +2427,11 @@
       <c r="I67" s="1"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="14" t="s">
         <v>67</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>-0.833</v>
+        <v>-0.805</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>15</v>
@@ -2238,11 +2445,11 @@
       <c r="A69" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B69" s="14" t="n">
-        <v>-0.835</v>
+      <c r="B69" s="2" t="n">
+        <v>-0.805</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F69" s="15"/>
       <c r="G69" s="1"/>
@@ -2250,11 +2457,11 @@
       <c r="I69" s="1"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="14" t="s">
+      <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>-0.837</v>
+        <v>-0.806</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>15</v>
@@ -2265,14 +2472,14 @@
       <c r="I70" s="1"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B71" s="2" t="n">
-        <v>-0.841</v>
+      <c r="B71" s="14" t="n">
+        <v>-0.809</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F71" s="15"/>
       <c r="G71" s="14"/>
@@ -2280,17 +2487,14 @@
       <c r="I71" s="1"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="14" t="s">
         <v>71</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>-0.846</v>
+        <v>-0.815</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="F72" s="15"/>
       <c r="G72" s="14"/>
@@ -2299,16 +2503,13 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>-0.847</v>
+        <v>-0.816</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="F73" s="15"/>
       <c r="G73" s="14"/>
@@ -2317,16 +2518,13 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>-0.847</v>
+        <v>-0.822</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="F74" s="15"/>
       <c r="G74" s="14"/>
@@ -2335,16 +2533,13 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>-0.847</v>
+        <v>-0.823</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="F75" s="15"/>
       <c r="G75" s="14"/>
@@ -2353,16 +2548,13 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>-0.848</v>
+        <v>-0.824</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="F76" s="15"/>
       <c r="G76" s="1"/>
@@ -2371,13 +2563,13 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B77" s="14" t="n">
-        <v>-0.849</v>
+        <v>76</v>
+      </c>
+      <c r="B77" s="2" t="n">
+        <v>-0.83</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F77" s="15"/>
       <c r="G77" s="1"/>
@@ -2386,10 +2578,10 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>-0.853</v>
+        <v>-0.832</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>15</v>
@@ -2400,14 +2592,14 @@
       <c r="I78" s="1"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="B79" s="14" t="n">
-        <v>-0.853</v>
+      <c r="A79" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" s="2" t="n">
+        <v>-0.833</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F79" s="15"/>
       <c r="G79" s="14"/>
@@ -2415,14 +2607,14 @@
       <c r="I79" s="1"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B80" s="2" t="n">
-        <v>-0.855</v>
+      <c r="A80" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80" s="14" t="n">
+        <v>-0.835</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F80" s="15"/>
       <c r="G80" s="1"/>
@@ -2431,10 +2623,10 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="B81" s="2" t="n">
-        <v>-0.857</v>
+        <v>80</v>
+      </c>
+      <c r="B81" s="14" t="n">
+        <v>-0.835</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>17</v>
@@ -2446,13 +2638,13 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B82" s="14" t="n">
-        <v>-0.857</v>
+        <v>81</v>
+      </c>
+      <c r="B82" s="2" t="n">
+        <v>-0.837</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F82" s="15"/>
       <c r="G82" s="14"/>
@@ -2461,10 +2653,10 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B83" s="2" t="n">
-        <v>-0.858</v>
+        <v>82</v>
+      </c>
+      <c r="B83" s="14" t="n">
+        <v>-0.839</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>17</v>
@@ -2475,17 +2667,14 @@
       <c r="I83" s="1"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="B84" s="16" t="n">
-        <v>-0.86</v>
-      </c>
-      <c r="C84" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D84" s="14" t="s">
-        <v>85</v>
+      <c r="A84" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>-0.841</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="F84" s="15"/>
       <c r="G84" s="1"/>
@@ -2493,16 +2682,16 @@
       <c r="I84" s="1"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="B85" s="16" t="n">
-        <v>-0.86</v>
-      </c>
-      <c r="C85" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D85" s="14" t="s">
+      <c r="A85" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85" s="2" t="n">
+        <v>-0.846</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D85" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F85" s="15"/>
@@ -2512,13 +2701,16 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>-0.861</v>
+        <v>-0.847</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F86" s="15"/>
       <c r="G86" s="1"/>
@@ -2527,13 +2719,16 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>-0.862</v>
+        <v>-0.847</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F87" s="15"/>
       <c r="G87" s="1"/>
@@ -2542,13 +2737,16 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>-0.868</v>
+        <v>-0.847</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F88" s="15"/>
       <c r="G88" s="14"/>
@@ -2556,14 +2754,17 @@
       <c r="I88" s="1"/>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="14" t="s">
-        <v>90</v>
+      <c r="A89" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>-0.873</v>
+        <v>-0.848</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F89" s="15"/>
       <c r="G89" s="1"/>
@@ -2572,13 +2773,13 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="B90" s="2" t="n">
-        <v>-0.875</v>
+        <v>90</v>
+      </c>
+      <c r="B90" s="14" t="n">
+        <v>-0.849</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F90" s="15"/>
       <c r="G90" s="1"/>
@@ -2587,10 +2788,10 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>-0.876</v>
+        <v>-0.853</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>15</v>
@@ -2602,10 +2803,10 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="B92" s="2" t="n">
-        <v>-0.876</v>
+        <v>92</v>
+      </c>
+      <c r="B92" s="14" t="n">
+        <v>-0.853</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>17</v>
@@ -2617,10 +2818,10 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>-0.881</v>
+        <v>-0.855</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>15</v>
@@ -2632,13 +2833,13 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>-0.883</v>
+        <v>-0.857</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F94" s="15"/>
       <c r="G94" s="1"/>
@@ -2646,14 +2847,14 @@
       <c r="I94" s="1"/>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B95" s="2" t="n">
-        <v>-0.885</v>
+      <c r="A95" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B95" s="14" t="n">
+        <v>-0.857</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F95" s="15"/>
       <c r="G95" s="1"/>
@@ -2662,10 +2863,10 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>-0.885</v>
+        <v>-0.858</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>17</v>
@@ -2676,14 +2877,17 @@
       <c r="I96" s="1"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="1" t="s">
+      <c r="A97" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B97" s="16" t="n">
+        <v>-0.86</v>
+      </c>
+      <c r="C97" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D97" s="14" t="s">
         <v>98</v>
-      </c>
-      <c r="B97" s="2" t="n">
-        <v>-0.886</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="F97" s="15"/>
       <c r="G97" s="1"/>
@@ -2691,14 +2895,17 @@
       <c r="I97" s="1"/>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1" t="s">
+      <c r="A98" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="B98" s="2" t="n">
-        <v>-0.892</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>15</v>
+      <c r="B98" s="16" t="n">
+        <v>-0.86</v>
+      </c>
+      <c r="C98" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D98" s="14" t="s">
+        <v>98</v>
       </c>
       <c r="F98" s="15"/>
       <c r="G98" s="14"/>
@@ -2706,14 +2913,14 @@
       <c r="I98" s="1"/>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="14" t="s">
+      <c r="A99" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>-0.893</v>
+        <v>-0.861</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F99" s="15"/>
       <c r="G99" s="14"/>
@@ -2724,8 +2931,8 @@
       <c r="A100" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B100" s="14" t="n">
-        <v>-0.894</v>
+      <c r="B100" s="2" t="n">
+        <v>-0.862</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>17</v>
@@ -2740,10 +2947,10 @@
         <v>102</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>-0.896</v>
+        <v>-0.868</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F101" s="15"/>
       <c r="G101" s="14"/>
@@ -2751,17 +2958,14 @@
       <c r="I101" s="1"/>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="17" t="s">
+      <c r="A102" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="B102" s="18" t="n">
-        <v>-0.901</v>
-      </c>
-      <c r="C102" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D102" s="17" t="s">
-        <v>104</v>
+      <c r="B102" s="14" t="n">
+        <v>-0.869</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="F102" s="15"/>
       <c r="G102" s="14"/>
@@ -2769,17 +2973,14 @@
       <c r="I102" s="1"/>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="B103" s="18" t="n">
-        <v>-0.901</v>
-      </c>
-      <c r="C103" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D103" s="17" t="s">
+      <c r="A103" s="14" t="s">
         <v>104</v>
+      </c>
+      <c r="B103" s="2" t="n">
+        <v>-0.873</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="F103" s="15"/>
       <c r="G103" s="14"/>
@@ -2787,11 +2988,11 @@
       <c r="I103" s="1"/>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="1" t="s">
-        <v>106</v>
+      <c r="A104" s="14" t="s">
+        <v>105</v>
       </c>
       <c r="B104" s="2" t="n">
-        <v>-0.908</v>
+        <v>-0.875</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>15</v>
@@ -2803,10 +3004,10 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B105" s="2" t="n">
-        <v>-0.911</v>
+        <v>-0.876</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>15</v>
@@ -2817,14 +3018,14 @@
       <c r="I105" s="1"/>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="1" t="s">
-        <v>108</v>
+      <c r="A106" s="14" t="s">
+        <v>107</v>
       </c>
       <c r="B106" s="2" t="n">
-        <v>-0.914</v>
+        <v>-0.876</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F106" s="15"/>
       <c r="G106" s="1"/>
@@ -2832,14 +3033,14 @@
       <c r="I106" s="1"/>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="B107" s="14" t="n">
-        <v>-0.914</v>
+      <c r="A107" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B107" s="2" t="n">
+        <v>-0.881</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F107" s="15"/>
       <c r="G107" s="14"/>
@@ -2848,13 +3049,13 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="B108" s="2" t="n">
-        <v>-0.915</v>
+        <v>109</v>
+      </c>
+      <c r="B108" s="14" t="n">
+        <v>-0.881</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F108" s="15"/>
       <c r="G108" s="1"/>
@@ -2863,10 +3064,10 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B109" s="2" t="n">
-        <v>-0.917</v>
+        <v>-0.883</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>15</v>
@@ -2877,14 +3078,14 @@
       <c r="I109" s="1"/>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="B110" s="14" t="n">
-        <v>-0.917</v>
+      <c r="A110" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B110" s="2" t="n">
+        <v>-0.885</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F110" s="15"/>
       <c r="G110" s="14"/>
@@ -2893,13 +3094,13 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B111" s="2" t="n">
-        <v>-0.919</v>
+        <v>-0.885</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F111" s="15"/>
       <c r="G111" s="1"/>
@@ -2907,11 +3108,11 @@
       <c r="I111" s="1"/>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="14" t="s">
-        <v>114</v>
+      <c r="A112" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="B112" s="2" t="n">
-        <v>-0.92</v>
+        <v>-0.886</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>15</v>
@@ -2922,14 +3123,14 @@
       <c r="I112" s="1"/>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="B113" s="14" t="n">
-        <v>-0.92</v>
+      <c r="A113" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B113" s="2" t="n">
+        <v>-0.892</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F113" s="15"/>
       <c r="G113" s="14"/>
@@ -2938,13 +3139,13 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B114" s="2" t="n">
-        <v>-0.921</v>
+        <v>-0.893</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F114" s="15"/>
       <c r="G114" s="14"/>
@@ -2953,10 +3154,10 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B115" s="14" t="n">
-        <v>-0.923</v>
+        <v>-0.894</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>17</v>
@@ -2968,10 +3169,10 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="B116" s="14" t="n">
-        <v>-0.927</v>
+        <v>117</v>
+      </c>
+      <c r="B116" s="2" t="n">
+        <v>-0.896</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>17</v>
@@ -2982,14 +3183,17 @@
       <c r="I116" s="1"/>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="1" t="s">
+      <c r="A117" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B117" s="18" t="n">
+        <v>-0.901</v>
+      </c>
+      <c r="C117" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D117" s="17" t="s">
         <v>119</v>
-      </c>
-      <c r="B117" s="2" t="n">
-        <v>-0.929</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="F117" s="15"/>
       <c r="G117" s="1"/>
@@ -2997,14 +3201,17 @@
       <c r="I117" s="1"/>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="14" t="s">
+      <c r="A118" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="B118" s="14" t="n">
-        <v>-0.934</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>17</v>
+      <c r="B118" s="18" t="n">
+        <v>-0.901</v>
+      </c>
+      <c r="C118" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D118" s="17" t="s">
+        <v>119</v>
       </c>
       <c r="F118" s="15"/>
       <c r="G118" s="1"/>
@@ -3012,14 +3219,14 @@
       <c r="I118" s="1"/>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="1" t="s">
+      <c r="A119" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B119" s="2" t="n">
-        <v>-0.938</v>
+      <c r="B119" s="14" t="n">
+        <v>-0.904</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F119" s="15"/>
       <c r="G119" s="1"/>
@@ -3027,14 +3234,14 @@
       <c r="I119" s="1"/>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="14" t="s">
+      <c r="A120" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B120" s="14" t="n">
-        <v>-0.939</v>
+      <c r="B120" s="2" t="n">
+        <v>-0.908</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F120" s="15"/>
       <c r="G120" s="1"/>
@@ -3042,11 +3249,11 @@
       <c r="I120" s="1"/>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="14" t="s">
+      <c r="A121" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B121" s="2" t="n">
-        <v>-0.943</v>
+        <v>-0.911</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>15</v>
@@ -3057,11 +3264,11 @@
       <c r="I121" s="1"/>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="14" t="s">
+      <c r="A122" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B122" s="2" t="n">
-        <v>-0.945</v>
+        <v>-0.914</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>15</v>
@@ -3072,14 +3279,14 @@
       <c r="I122" s="1"/>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="1" t="s">
+      <c r="A123" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="B123" s="2" t="n">
-        <v>-0.946</v>
+      <c r="B123" s="14" t="n">
+        <v>-0.914</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F123" s="15"/>
       <c r="G123" s="14"/>
@@ -3091,7 +3298,7 @@
         <v>126</v>
       </c>
       <c r="B124" s="2" t="n">
-        <v>-0.946</v>
+        <v>-0.915</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>15</v>
@@ -3106,10 +3313,10 @@
         <v>127</v>
       </c>
       <c r="B125" s="2" t="n">
-        <v>-0.947</v>
+        <v>-0.917</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F125" s="15"/>
       <c r="G125" s="14"/>
@@ -3121,7 +3328,7 @@
         <v>128</v>
       </c>
       <c r="B126" s="14" t="n">
-        <v>-0.949</v>
+        <v>-0.917</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>17</v>
@@ -3136,7 +3343,7 @@
         <v>129</v>
       </c>
       <c r="B127" s="2" t="n">
-        <v>-0.952</v>
+        <v>-0.919</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>15</v>
@@ -3151,10 +3358,10 @@
         <v>130</v>
       </c>
       <c r="B128" s="2" t="n">
-        <v>-0.952</v>
+        <v>-0.92</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F128" s="15"/>
       <c r="G128" s="1"/>
@@ -3165,8 +3372,8 @@
       <c r="A129" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="B129" s="2" t="n">
-        <v>-0.955</v>
+      <c r="B129" s="14" t="n">
+        <v>-0.92</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>17</v>
@@ -3177,17 +3384,14 @@
       <c r="I129" s="1"/>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="17" t="s">
+      <c r="A130" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="B130" s="18" t="n">
-        <v>-0.956</v>
-      </c>
-      <c r="C130" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D130" s="17" t="s">
-        <v>133</v>
+      <c r="B130" s="2" t="n">
+        <v>-0.921</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="F130" s="15"/>
       <c r="G130" s="14"/>
@@ -3195,17 +3399,14 @@
       <c r="I130" s="1"/>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="B131" s="18" t="n">
-        <v>-0.957</v>
-      </c>
-      <c r="C131" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D131" s="17" t="s">
+      <c r="A131" s="14" t="s">
         <v>133</v>
+      </c>
+      <c r="B131" s="14" t="n">
+        <v>-0.922</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="F131" s="15"/>
       <c r="G131" s="14"/>
@@ -3214,10 +3415,10 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B132" s="14" t="n">
-        <v>-0.957</v>
+        <v>-0.923</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>17</v>
@@ -3228,17 +3429,14 @@
       <c r="I132" s="1"/>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="B133" s="18" t="n">
-        <v>-0.958</v>
-      </c>
-      <c r="C133" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D133" s="17" t="s">
-        <v>133</v>
+      <c r="A133" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="B133" s="14" t="n">
+        <v>-0.927</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="F133" s="15"/>
       <c r="G133" s="1"/>
@@ -3246,14 +3444,14 @@
       <c r="I133" s="1"/>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="B134" s="14" t="n">
-        <v>-0.958</v>
+      <c r="A134" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B134" s="2" t="n">
+        <v>-0.929</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F134" s="15"/>
       <c r="G134" s="1"/>
@@ -3261,17 +3459,14 @@
       <c r="I134" s="1"/>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="B135" s="18" t="n">
-        <v>-0.959</v>
-      </c>
-      <c r="C135" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D135" s="17" t="s">
-        <v>133</v>
+      <c r="A135" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="B135" s="14" t="n">
+        <v>-0.932</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="F135" s="15"/>
       <c r="G135" s="1"/>
@@ -3279,17 +3474,14 @@
       <c r="I135" s="1"/>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="B136" s="18" t="n">
-        <v>-0.96</v>
-      </c>
-      <c r="C136" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D136" s="17" t="s">
-        <v>133</v>
+      <c r="A136" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B136" s="14" t="n">
+        <v>-0.933</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="F136" s="15"/>
       <c r="G136" s="14"/>
@@ -3297,17 +3489,14 @@
       <c r="I136" s="1"/>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="B137" s="18" t="n">
-        <v>-0.96</v>
-      </c>
-      <c r="C137" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D137" s="17" t="s">
-        <v>133</v>
+      <c r="A137" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="B137" s="14" t="n">
+        <v>-0.934</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="F137" s="15"/>
       <c r="G137" s="14"/>
@@ -3316,10 +3505,10 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B138" s="2" t="n">
-        <v>-0.962</v>
+        <v>-0.938</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>15</v>
@@ -3331,10 +3520,10 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="B139" s="2" t="n">
-        <v>-0.965</v>
+        <v>141</v>
+      </c>
+      <c r="B139" s="14" t="n">
+        <v>-0.939</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>17</v>
@@ -3346,13 +3535,13 @@
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B140" s="2" t="n">
-        <v>-0.965</v>
+        <v>-0.943</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F140" s="15"/>
       <c r="G140" s="1"/>
@@ -3360,17 +3549,14 @@
       <c r="I140" s="1"/>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="B141" s="18" t="n">
-        <v>-0.969</v>
-      </c>
-      <c r="C141" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D141" s="17" t="s">
-        <v>133</v>
+      <c r="A141" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B141" s="2" t="n">
+        <v>-0.945</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="F141" s="15"/>
       <c r="G141" s="1"/>
@@ -3378,17 +3564,14 @@
       <c r="I141" s="1"/>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="B142" s="18" t="n">
-        <v>-0.969</v>
-      </c>
-      <c r="C142" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D142" s="17" t="s">
-        <v>133</v>
+      <c r="A142" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B142" s="2" t="n">
+        <v>-0.946</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="F142" s="15"/>
       <c r="G142" s="14"/>
@@ -3397,10 +3580,10 @@
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B143" s="2" t="n">
-        <v>-0.972</v>
+        <v>-0.946</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>15</v>
@@ -3412,10 +3595,10 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B144" s="2" t="n">
-        <v>-0.972</v>
+        <v>-0.947</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>17</v>
@@ -3426,14 +3609,14 @@
       <c r="I144" s="1"/>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B145" s="2" t="n">
-        <v>-0.977</v>
+      <c r="A145" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="B145" s="14" t="n">
+        <v>-0.949</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F145" s="15"/>
       <c r="G145" s="14"/>
@@ -3442,13 +3625,13 @@
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="B146" s="14" t="n">
-        <v>-0.978</v>
+        <v>148</v>
+      </c>
+      <c r="B146" s="2" t="n">
+        <v>-0.952</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F146" s="15"/>
       <c r="G146" s="14"/>
@@ -3457,10 +3640,10 @@
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B147" s="2" t="n">
-        <v>-0.98</v>
+        <v>-0.952</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>17</v>
@@ -3472,10 +3655,10 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B148" s="2" t="n">
-        <v>-0.984</v>
+        <v>-0.955</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>17</v>
@@ -3486,14 +3669,17 @@
       <c r="I148" s="1"/>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="14" t="s">
+      <c r="A149" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="B149" s="18" t="n">
+        <v>-0.956</v>
+      </c>
+      <c r="C149" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D149" s="17" t="s">
         <v>152</v>
-      </c>
-      <c r="B149" s="2" t="n">
-        <v>-0.984</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="F149" s="15"/>
       <c r="G149" s="1"/>
@@ -3501,14 +3687,17 @@
       <c r="I149" s="1"/>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="1" t="s">
+      <c r="A150" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="B150" s="2" t="n">
-        <v>-0.985</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>15</v>
+      <c r="B150" s="18" t="n">
+        <v>-0.957</v>
+      </c>
+      <c r="C150" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D150" s="17" t="s">
+        <v>152</v>
       </c>
       <c r="F150" s="15"/>
       <c r="G150" s="1"/>
@@ -3519,8 +3708,8 @@
       <c r="A151" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="B151" s="2" t="n">
-        <v>-0.985</v>
+      <c r="B151" s="14" t="n">
+        <v>-0.957</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>17</v>
@@ -3535,13 +3724,13 @@
         <v>155</v>
       </c>
       <c r="B152" s="18" t="n">
-        <v>-0.988</v>
+        <v>-0.958</v>
       </c>
       <c r="C152" s="18" t="s">
         <v>15</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F152" s="15"/>
       <c r="G152" s="1"/>
@@ -3550,10 +3739,10 @@
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="B153" s="2" t="n">
-        <v>-0.988</v>
+        <v>156</v>
+      </c>
+      <c r="B153" s="14" t="n">
+        <v>-0.958</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>17</v>
@@ -3565,16 +3754,16 @@
     </row>
     <row r="154" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B154" s="18" t="n">
-        <v>-0.989</v>
+        <v>-0.959</v>
       </c>
       <c r="C154" s="18" t="s">
         <v>15</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F154" s="20"/>
       <c r="G154" s="21"/>
@@ -3582,14 +3771,17 @@
       <c r="I154" s="21"/>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="B155" s="2" t="n">
-        <v>-0.992</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>17</v>
+      <c r="A155" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="B155" s="18" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="C155" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D155" s="17" t="s">
+        <v>152</v>
       </c>
       <c r="F155" s="15"/>
       <c r="G155" s="14"/>
@@ -3597,14 +3789,17 @@
       <c r="I155" s="1"/>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="B156" s="14" t="n">
-        <v>-0.993</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>17</v>
+      <c r="A156" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="B156" s="18" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="C156" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D156" s="17" t="s">
+        <v>152</v>
       </c>
       <c r="F156" s="15"/>
       <c r="G156" s="1"/>
@@ -3613,10 +3808,10 @@
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B157" s="2" t="n">
-        <v>-0.994</v>
+        <v>-0.962</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>15</v>
@@ -3628,13 +3823,13 @@
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B158" s="2" t="n">
-        <v>-0.995</v>
+        <v>-0.965</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F158" s="15"/>
       <c r="G158" s="1"/>
@@ -3643,10 +3838,10 @@
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B159" s="2" t="n">
-        <v>-0.995</v>
+        <v>-0.965</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>17</v>
@@ -3657,14 +3852,17 @@
       <c r="I159" s="1"/>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="B160" s="14" t="n">
-        <v>-0.995</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>17</v>
+      <c r="A160" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="B160" s="18" t="n">
+        <v>-0.969</v>
+      </c>
+      <c r="C160" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D160" s="17" t="s">
+        <v>152</v>
       </c>
       <c r="F160" s="15"/>
       <c r="G160" s="14"/>
@@ -3673,16 +3871,16 @@
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B161" s="18" t="n">
-        <v>-1</v>
+        <v>-0.969</v>
       </c>
       <c r="C161" s="18" t="s">
         <v>15</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="F161" s="15"/>
       <c r="G161" s="14"/>
@@ -3690,17 +3888,14 @@
       <c r="I161" s="1"/>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="B162" s="18" t="n">
-        <v>-1.003</v>
-      </c>
-      <c r="C162" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D162" s="17" t="s">
-        <v>166</v>
+      <c r="A162" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B162" s="2" t="n">
+        <v>-0.972</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="F162" s="15"/>
       <c r="G162" s="1"/>
@@ -3708,17 +3903,14 @@
       <c r="I162" s="1"/>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="B163" s="18" t="n">
-        <v>-1.005</v>
-      </c>
-      <c r="C163" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D163" s="17" t="s">
+      <c r="A163" s="14" t="s">
         <v>166</v>
+      </c>
+      <c r="B163" s="2" t="n">
+        <v>-0.972</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="F163" s="15"/>
       <c r="G163" s="14"/>
@@ -3726,17 +3918,14 @@
       <c r="I163" s="1"/>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="B164" s="18" t="n">
-        <v>-1.007</v>
-      </c>
-      <c r="C164" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D164" s="17" t="s">
-        <v>166</v>
+      <c r="A164" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B164" s="2" t="n">
+        <v>-0.977</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="F164" s="15"/>
       <c r="G164" s="14"/>
@@ -3745,10 +3934,10 @@
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="B165" s="2" t="n">
-        <v>-1.008</v>
+        <v>168</v>
+      </c>
+      <c r="B165" s="14" t="n">
+        <v>-0.977</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>17</v>
@@ -3760,10 +3949,10 @@
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="B166" s="2" t="n">
-        <v>-1.011</v>
+        <v>169</v>
+      </c>
+      <c r="B166" s="14" t="n">
+        <v>-0.978</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>17</v>
@@ -3775,13 +3964,13 @@
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="14" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B167" s="2" t="n">
-        <v>-1.015</v>
+        <v>-0.98</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F167" s="15"/>
       <c r="G167" s="1"/>
@@ -3790,13 +3979,13 @@
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="14" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B168" s="2" t="n">
-        <v>-1.019</v>
+        <v>-0.984</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F168" s="15"/>
       <c r="G168" s="14"/>
@@ -3805,10 +3994,10 @@
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="B169" s="14" t="n">
-        <v>-1.019</v>
+        <v>172</v>
+      </c>
+      <c r="B169" s="2" t="n">
+        <v>-0.984</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>17</v>
@@ -3819,14 +4008,14 @@
       <c r="I169" s="1"/>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="14" t="s">
-        <v>175</v>
+      <c r="A170" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="B170" s="2" t="n">
-        <v>-1.021</v>
+        <v>-0.985</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F170" s="15"/>
       <c r="G170" s="14"/>
@@ -3835,10 +4024,10 @@
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="14" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B171" s="2" t="n">
-        <v>-1.023</v>
+        <v>-0.985</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>17</v>
@@ -3849,14 +4038,17 @@
       <c r="I171" s="1"/>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="B172" s="2" t="n">
-        <v>-1.024</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>17</v>
+      <c r="A172" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="B172" s="18" t="n">
+        <v>-0.988</v>
+      </c>
+      <c r="C172" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D172" s="17" t="s">
+        <v>176</v>
       </c>
       <c r="F172" s="15"/>
       <c r="G172" s="14"/>
@@ -3865,10 +4057,10 @@
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B173" s="2" t="n">
-        <v>-1.024</v>
+        <v>-0.988</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>17</v>
@@ -3879,14 +4071,17 @@
       <c r="I173" s="1"/>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B174" s="2" t="n">
-        <v>-1.026</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>15</v>
+      <c r="A174" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="B174" s="18" t="n">
+        <v>-0.989</v>
+      </c>
+      <c r="C174" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D174" s="17" t="s">
+        <v>176</v>
       </c>
       <c r="F174" s="15"/>
       <c r="G174" s="1"/>
@@ -3895,10 +4090,10 @@
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="B175" s="2" t="n">
-        <v>-1.028</v>
+        <v>179</v>
+      </c>
+      <c r="B175" s="14" t="n">
+        <v>-0.989</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>17</v>
@@ -3909,17 +4104,14 @@
       <c r="I175" s="1"/>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="B176" s="18" t="n">
-        <v>-1.032</v>
-      </c>
-      <c r="C176" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D176" s="17" t="s">
-        <v>182</v>
+      <c r="A176" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="B176" s="2" t="n">
+        <v>-0.992</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="F176" s="15"/>
       <c r="G176" s="14"/>
@@ -3928,13 +4120,13 @@
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="B177" s="2" t="n">
-        <v>-1.032</v>
+        <v>181</v>
+      </c>
+      <c r="B177" s="14" t="n">
+        <v>-0.993</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F177" s="15"/>
       <c r="G177" s="14"/>
@@ -3943,10 +4135,10 @@
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="B178" s="2" t="n">
-        <v>-1.032</v>
+        <v>182</v>
+      </c>
+      <c r="B178" s="14" t="n">
+        <v>-0.993</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>17</v>
@@ -3957,17 +4149,14 @@
       <c r="I178" s="1"/>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="B179" s="18" t="n">
-        <v>-1.034</v>
-      </c>
-      <c r="C179" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D179" s="17" t="s">
-        <v>182</v>
+      <c r="A179" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B179" s="2" t="n">
+        <v>-0.994</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="F179" s="15"/>
       <c r="G179" s="14"/>
@@ -3975,17 +4164,14 @@
       <c r="I179" s="1"/>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="B180" s="22" t="n">
-        <v>-1.036</v>
-      </c>
-      <c r="C180" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D180" s="21" t="s">
-        <v>187</v>
+      <c r="A180" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="B180" s="2" t="n">
+        <v>-0.995</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="F180" s="15"/>
       <c r="G180" s="1"/>
@@ -3993,17 +4179,14 @@
       <c r="I180" s="1"/>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="B181" s="18" t="n">
-        <v>-1.039</v>
-      </c>
-      <c r="C181" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D181" s="17" t="s">
-        <v>182</v>
+      <c r="A181" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="B181" s="2" t="n">
+        <v>-0.995</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="F181" s="15"/>
       <c r="G181" s="1"/>
@@ -4012,13 +4195,13 @@
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="B182" s="2" t="n">
-        <v>-1.039</v>
+        <v>186</v>
+      </c>
+      <c r="B182" s="14" t="n">
+        <v>-0.995</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F182" s="15"/>
       <c r="G182" s="14"/>
@@ -4027,16 +4210,16 @@
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="17" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B183" s="18" t="n">
-        <v>-1.042</v>
+        <v>-1</v>
       </c>
       <c r="C183" s="18" t="s">
         <v>15</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="F183" s="15"/>
       <c r="G183" s="14"/>
@@ -4045,13 +4228,13 @@
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="B184" s="2" t="n">
-        <v>-1.043</v>
+        <v>189</v>
+      </c>
+      <c r="B184" s="14" t="n">
+        <v>-1.002</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F184" s="15"/>
       <c r="G184" s="1"/>
@@ -4059,22 +4242,25 @@
       <c r="I184" s="1"/>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="B185" s="2" t="n">
-        <v>-1.043</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>17</v>
+      <c r="A185" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="B185" s="18" t="n">
+        <v>-1.003</v>
+      </c>
+      <c r="C185" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D185" s="17" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="B186" s="2" t="n">
-        <v>-1.045</v>
+        <v>191</v>
+      </c>
+      <c r="B186" s="14" t="n">
+        <v>-1.004</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>17</v>
@@ -4082,38 +4268,38 @@
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="17" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B187" s="18" t="n">
-        <v>-1.05</v>
+        <v>-1.005</v>
       </c>
       <c r="C187" s="18" t="s">
         <v>15</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>104</v>
+        <v>188</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B188" s="18" t="n">
-        <v>-1.05</v>
+        <v>-1.007</v>
       </c>
       <c r="C188" s="18" t="s">
         <v>15</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>104</v>
+        <v>188</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="14" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B189" s="2" t="n">
-        <v>-1.05</v>
+        <v>-1.008</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>17</v>
@@ -4121,10 +4307,10 @@
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="14" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B190" s="14" t="n">
-        <v>-1.05</v>
+        <v>-1.009</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>17</v>
@@ -4132,10 +4318,10 @@
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="B191" s="14" t="n">
-        <v>-1.052</v>
+        <v>196</v>
+      </c>
+      <c r="B191" s="2" t="n">
+        <v>-1.011</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>17</v>
@@ -4143,21 +4329,21 @@
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="B192" s="2" t="n">
-        <v>-1.053</v>
+        <v>197</v>
+      </c>
+      <c r="B192" s="14" t="n">
+        <v>-1.013</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="1" t="s">
-        <v>200</v>
+      <c r="A193" s="14" t="s">
+        <v>198</v>
       </c>
       <c r="B193" s="2" t="n">
-        <v>-1.055</v>
+        <v>-1.015</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>15</v>
@@ -4165,129 +4351,120 @@
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="B194" s="2" t="n">
-        <v>-1.056</v>
+        <v>199</v>
+      </c>
+      <c r="B194" s="14" t="n">
+        <v>-1.017</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="B195" s="2" t="n">
+        <v>-1.019</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="B196" s="14" t="n">
+        <v>-1.019</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="B195" s="2" t="n">
-        <v>-1.056</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="1" t="s">
+      <c r="B197" s="14" t="n">
+        <v>-1.019</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="B196" s="2" t="n">
-        <v>-1.058</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B197" s="2" t="n">
-        <v>-1.059</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="1" t="s">
-        <v>205</v>
-      </c>
       <c r="B198" s="2" t="n">
-        <v>-1.061</v>
+        <v>-1.021</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="B199" s="2" t="n">
+        <v>-1.023</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="B200" s="2" t="n">
+        <v>-1.024</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="B199" s="2" t="n">
-        <v>-1.061</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="17" t="s">
+      <c r="B201" s="2" t="n">
+        <v>-1.024</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B200" s="18" t="n">
-        <v>-1.062</v>
-      </c>
-      <c r="C200" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D200" s="17" t="s">
+      <c r="B202" s="2" t="n">
+        <v>-1.026</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="14" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="B201" s="18" t="n">
-        <v>-1.062</v>
-      </c>
-      <c r="C201" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D201" s="17" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="B202" s="14" t="n">
-        <v>-1.062</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="B203" s="18" t="n">
-        <v>-1.063</v>
-      </c>
-      <c r="C203" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D203" s="17" t="s">
-        <v>208</v>
+      <c r="B203" s="2" t="n">
+        <v>-1.028</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="14" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B204" s="14" t="n">
-        <v>-1.063</v>
+        <v>-1.029</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>17</v>
@@ -4295,79 +4472,85 @@
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="17" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B205" s="18" t="n">
-        <v>-1.064</v>
+        <v>-1.032</v>
       </c>
       <c r="C205" s="18" t="s">
         <v>15</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="14" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B206" s="2" t="n">
-        <v>-1.064</v>
+        <v>-1.032</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="B207" s="14" t="n">
-        <v>-1.065</v>
+        <v>213</v>
+      </c>
+      <c r="B207" s="2" t="n">
+        <v>-1.032</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="B208" s="14" t="n">
-        <v>-1.066</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>17</v>
+      <c r="A208" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="B208" s="18" t="n">
+        <v>-1.034</v>
+      </c>
+      <c r="C208" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D208" s="17" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="B209" s="14" t="n">
+        <v>-1.035</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="B210" s="22" t="n">
+        <v>-1.036</v>
+      </c>
+      <c r="C210" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D210" s="21" t="s">
         <v>217</v>
-      </c>
-      <c r="B209" s="14" t="n">
-        <v>-1.066</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="B210" s="2" t="n">
-        <v>-1.068</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="B211" s="2" t="n">
-        <v>-1.074</v>
+        <v>218</v>
+      </c>
+      <c r="B211" s="14" t="n">
+        <v>-1.036</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>17</v>
@@ -4375,54 +4558,60 @@
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="B212" s="14" t="n">
+        <v>-1.038</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="B212" s="2" t="n">
-        <v>-1.075</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="B213" s="2" t="n">
-        <v>-1.076</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>15</v>
+      <c r="B213" s="18" t="n">
+        <v>-1.039</v>
+      </c>
+      <c r="C213" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D213" s="17" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="B214" s="2" t="n">
+        <v>-1.039</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="B214" s="2" t="n">
-        <v>-1.085</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="B215" s="14" t="n">
-        <v>-1.086</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>17</v>
+      <c r="B215" s="18" t="n">
+        <v>-1.042</v>
+      </c>
+      <c r="C215" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D215" s="17" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B216" s="2" t="n">
-        <v>-1.088</v>
+        <v>-1.043</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>15</v>
@@ -4430,76 +4619,82 @@
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="B217" s="2" t="n">
+        <v>-1.043</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="B217" s="2" t="n">
-        <v>-1.088</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="1" t="s">
-        <v>226</v>
-      </c>
       <c r="B218" s="2" t="n">
-        <v>-1.089</v>
+        <v>-1.045</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="B219" s="14" t="n">
+        <v>-1.046</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="B219" s="2" t="n">
-        <v>-1.091</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="14" t="s">
+      <c r="B220" s="18" t="n">
+        <v>-1.05</v>
+      </c>
+      <c r="C220" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D220" s="17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="B220" s="2" t="n">
-        <v>-1.092</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="B221" s="14" t="n">
-        <v>-1.095</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>17</v>
+      <c r="B221" s="18" t="n">
+        <v>-1.05</v>
+      </c>
+      <c r="C221" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D221" s="17" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B222" s="2" t="n">
-        <v>-1.096</v>
+        <v>-1.05</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="B223" s="2" t="n">
-        <v>-1.097</v>
+        <v>230</v>
+      </c>
+      <c r="B223" s="14" t="n">
+        <v>-1.05</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>17</v>
@@ -4507,32 +4702,32 @@
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="B224" s="2" t="n">
-        <v>-1.098</v>
+        <v>231</v>
+      </c>
+      <c r="B224" s="14" t="n">
+        <v>-1.052</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B225" s="2" t="n">
-        <v>-1.102</v>
+        <v>-1.053</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B226" s="2" t="n">
-        <v>-1.107</v>
+        <v>-1.055</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>15</v>
@@ -4540,21 +4735,21 @@
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B227" s="2" t="n">
-        <v>-1.108</v>
+        <v>-1.056</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="B228" s="14" t="n">
-        <v>-1.109</v>
+        <v>235</v>
+      </c>
+      <c r="B228" s="2" t="n">
+        <v>-1.056</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>17</v>
@@ -4562,43 +4757,43 @@
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="B229" s="14" t="n">
+        <v>-1.057</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B229" s="14" t="n">
-        <v>-1.109</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="14" t="s">
+      <c r="B230" s="2" t="n">
+        <v>-1.058</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B230" s="2" t="n">
-        <v>-1.11</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="14" t="s">
-        <v>239</v>
-      </c>
       <c r="B231" s="2" t="n">
-        <v>-1.11</v>
+        <v>-1.059</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B232" s="2" t="n">
-        <v>-1.111</v>
+        <v>-1.061</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>15</v>
@@ -4606,68 +4801,77 @@
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="B233" s="2" t="n">
+        <v>-1.061</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="B233" s="2" t="n">
-        <v>-1.112</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="1" t="s">
+      <c r="B234" s="18" t="n">
+        <v>-1.062</v>
+      </c>
+      <c r="C234" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D234" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="B234" s="2" t="n">
-        <v>-1.114</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="14" t="s">
+      <c r="A235" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="B235" s="14" t="n">
-        <v>-1.117</v>
-      </c>
-      <c r="C235" s="2" t="s">
-        <v>17</v>
+      <c r="B235" s="18" t="n">
+        <v>-1.062</v>
+      </c>
+      <c r="C235" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D235" s="17" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="B236" s="2" t="n">
-        <v>-1.118</v>
+      <c r="B236" s="14" t="n">
+        <v>-1.062</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="14" t="s">
+      <c r="A237" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="B237" s="2" t="n">
-        <v>-1.119</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>15</v>
+      <c r="B237" s="18" t="n">
+        <v>-1.063</v>
+      </c>
+      <c r="C237" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D237" s="17" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="B238" s="2" t="n">
-        <v>-1.121</v>
+      <c r="B238" s="14" t="n">
+        <v>-1.063</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4675,21 +4879,24 @@
         <v>247</v>
       </c>
       <c r="B239" s="14" t="n">
-        <v>-1.121</v>
+        <v>-1.063</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="14" t="s">
+      <c r="A240" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="B240" s="2" t="n">
-        <v>-1.122</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>17</v>
+      <c r="B240" s="18" t="n">
+        <v>-1.064</v>
+      </c>
+      <c r="C240" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D240" s="17" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4697,40 +4904,40 @@
         <v>249</v>
       </c>
       <c r="B241" s="2" t="n">
-        <v>-1.123</v>
+        <v>-1.064</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="1" t="s">
+      <c r="A242" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="B242" s="2" t="n">
-        <v>-1.125</v>
+      <c r="B242" s="14" t="n">
+        <v>-1.065</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="B243" s="2" t="n">
-        <v>-1.129</v>
+      <c r="B243" s="14" t="n">
+        <v>-1.066</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="B244" s="2" t="n">
-        <v>-1.131</v>
+      <c r="B244" s="14" t="n">
+        <v>-1.066</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>17</v>
@@ -4740,22 +4947,22 @@
       <c r="A245" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="B245" s="14" t="n">
-        <v>-1.132</v>
+      <c r="B245" s="2" t="n">
+        <v>-1.068</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="1" t="s">
+      <c r="A246" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="B246" s="2" t="n">
-        <v>-1.136</v>
+      <c r="B246" s="14" t="n">
+        <v>-1.073</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4763,7 +4970,7 @@
         <v>255</v>
       </c>
       <c r="B247" s="2" t="n">
-        <v>-1.141</v>
+        <v>-1.074</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>17</v>
@@ -4773,55 +4980,52 @@
       <c r="A248" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="B248" s="14" t="n">
-        <v>-1.141</v>
+      <c r="B248" s="2" t="n">
+        <v>-1.075</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="B249" s="14" t="n">
-        <v>-1.142</v>
+      <c r="B249" s="2" t="n">
+        <v>-1.076</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="17" t="s">
+      <c r="A250" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="B250" s="18" t="n">
-        <v>-1.144</v>
-      </c>
-      <c r="C250" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D250" s="17" t="s">
-        <v>259</v>
+      <c r="B250" s="14" t="n">
+        <v>-1.077</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B251" s="2" t="n">
-        <v>-1.144</v>
+        <v>-1.085</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="B252" s="2" t="n">
-        <v>-1.145</v>
+        <v>260</v>
+      </c>
+      <c r="B252" s="14" t="n">
+        <v>-1.085</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>17</v>
@@ -4829,151 +5033,142 @@
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="B253" s="14" t="n">
+        <v>-1.086</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="B253" s="2" t="n">
-        <v>-1.147</v>
-      </c>
-      <c r="C253" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="17" t="s">
-        <v>263</v>
-      </c>
-      <c r="B254" s="18" t="n">
-        <v>-1.149</v>
-      </c>
-      <c r="C254" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D254" s="17" t="s">
-        <v>259</v>
+      <c r="B254" s="14" t="n">
+        <v>-1.086</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="14" t="s">
-        <v>264</v>
-      </c>
-      <c r="B255" s="2" t="n">
-        <v>-1.149</v>
+        <v>263</v>
+      </c>
+      <c r="B255" s="14" t="n">
+        <v>-1.086</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B256" s="2" t="n">
-        <v>-1.149</v>
+        <v>-1.088</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B257" s="2" t="n">
-        <v>-1.15</v>
+        <v>-1.088</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="B258" s="14" t="n">
+        <v>-1.088</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B258" s="2" t="n">
-        <v>-1.152</v>
-      </c>
-      <c r="C258" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="B259" s="18" t="n">
-        <v>-1.154</v>
-      </c>
-      <c r="C259" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D259" s="17" t="s">
-        <v>259</v>
+      <c r="B259" s="2" t="n">
+        <v>-1.089</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="B260" s="2" t="n">
+        <v>-1.091</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="B260" s="2" t="n">
-        <v>-1.157</v>
-      </c>
-      <c r="C260" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="17" t="s">
+      <c r="B261" s="2" t="n">
+        <v>-1.092</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="B261" s="18" t="n">
-        <v>-1.158</v>
-      </c>
-      <c r="C261" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D261" s="17" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B262" s="2" t="n">
-        <v>-1.16</v>
+      <c r="B262" s="14" t="n">
+        <v>-1.095</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="B263" s="14" t="n">
-        <v>-1.16</v>
+        <v>271</v>
+      </c>
+      <c r="B263" s="2" t="n">
+        <v>-1.096</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="B264" s="2" t="n">
+        <v>-1.097</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="B264" s="2" t="n">
-        <v>-1.165</v>
-      </c>
-      <c r="C264" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="1" t="s">
-        <v>274</v>
-      </c>
       <c r="B265" s="2" t="n">
-        <v>-1.167</v>
+        <v>-1.098</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>15</v>
@@ -4981,32 +5176,32 @@
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="B266" s="2" t="n">
+        <v>-1.102</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B266" s="2" t="n">
-        <v>-1.167</v>
-      </c>
-      <c r="C266" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="14" t="s">
-        <v>276</v>
-      </c>
       <c r="B267" s="2" t="n">
-        <v>-1.168</v>
+        <v>-1.107</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B268" s="2" t="n">
-        <v>-1.169</v>
+        <v>-1.108</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>17</v>
@@ -5014,10 +5209,10 @@
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B269" s="14" t="n">
-        <v>-1.172</v>
+        <v>-1.109</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>17</v>
@@ -5025,87 +5220,87 @@
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B270" s="14" t="n">
+        <v>-1.109</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="B270" s="14" t="n">
-        <v>-1.173</v>
-      </c>
-      <c r="C270" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="1" t="s">
-        <v>280</v>
-      </c>
       <c r="B271" s="2" t="n">
-        <v>-1.174</v>
+        <v>-1.11</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="B272" s="2" t="n">
+        <v>-1.11</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="B272" s="2" t="n">
-        <v>-1.178</v>
-      </c>
-      <c r="C272" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="1" t="s">
+      <c r="B273" s="14" t="n">
+        <v>-1.11</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B273" s="2" t="n">
-        <v>-1.179</v>
-      </c>
-      <c r="C273" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="14" t="s">
+      <c r="B274" s="2" t="n">
+        <v>-1.111</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="B274" s="14" t="n">
-        <v>-1.181</v>
-      </c>
-      <c r="C274" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="1" t="s">
-        <v>284</v>
-      </c>
       <c r="B275" s="2" t="n">
-        <v>-1.183</v>
+        <v>-1.112</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="14" t="s">
-        <v>285</v>
-      </c>
-      <c r="B276" s="2" t="n">
-        <v>-1.185</v>
+        <v>284</v>
+      </c>
+      <c r="B276" s="14" t="n">
+        <v>-1.112</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B277" s="2" t="n">
-        <v>-1.187</v>
+        <v>-1.114</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>15</v>
@@ -5113,10 +5308,10 @@
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="B278" s="2" t="n">
-        <v>-1.191</v>
+        <v>286</v>
+      </c>
+      <c r="B278" s="14" t="n">
+        <v>-1.117</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>17</v>
@@ -5124,10 +5319,10 @@
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B279" s="2" t="n">
-        <v>-1.192</v>
+        <v>-1.118</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>17</v>
@@ -5135,87 +5330,87 @@
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="B280" s="2" t="n">
+        <v>-1.119</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="B280" s="2" t="n">
-        <v>-1.197</v>
-      </c>
-      <c r="C280" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="1" t="s">
+      <c r="B281" s="2" t="n">
+        <v>-1.121</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="B281" s="2" t="n">
-        <v>-1.206</v>
-      </c>
-      <c r="C281" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B282" s="2" t="n">
-        <v>-1.212</v>
+      <c r="B282" s="14" t="n">
+        <v>-1.121</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="14" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B283" s="2" t="n">
-        <v>-1.218</v>
+        <v>-1.122</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="B284" s="2" t="n">
+        <v>-1.123</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B284" s="2" t="n">
-        <v>-1.219</v>
-      </c>
-      <c r="C284" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="14" t="s">
-        <v>294</v>
-      </c>
       <c r="B285" s="2" t="n">
-        <v>-1.219</v>
+        <v>-1.125</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="B286" s="14" t="n">
+        <v>-1.125</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="B286" s="2" t="n">
-        <v>-1.22</v>
-      </c>
-      <c r="C286" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="1" t="s">
-        <v>296</v>
-      </c>
       <c r="B287" s="2" t="n">
-        <v>-1.223</v>
+        <v>-1.129</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>15</v>
@@ -5223,10 +5418,10 @@
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="14" t="s">
-        <v>297</v>
-      </c>
-      <c r="B288" s="2" t="n">
-        <v>-1.224</v>
+        <v>296</v>
+      </c>
+      <c r="B288" s="14" t="n">
+        <v>-1.13</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>17</v>
@@ -5234,43 +5429,43 @@
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="14" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B289" s="2" t="n">
-        <v>-1.226</v>
+        <v>-1.131</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="B290" s="14" t="n">
+        <v>-1.132</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B290" s="2" t="n">
-        <v>-1.227</v>
-      </c>
-      <c r="C290" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="14" t="s">
-        <v>300</v>
-      </c>
-      <c r="B291" s="14" t="n">
-        <v>-1.23</v>
+      <c r="B291" s="2" t="n">
+        <v>-1.136</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B292" s="2" t="n">
-        <v>-1.233</v>
+        <v>-1.141</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>17</v>
@@ -5278,43 +5473,46 @@
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="14" t="s">
-        <v>302</v>
-      </c>
-      <c r="B293" s="2" t="n">
-        <v>-1.234</v>
+        <v>301</v>
+      </c>
+      <c r="B293" s="14" t="n">
+        <v>-1.141</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="B294" s="14" t="n">
+        <v>-1.142</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="B294" s="2" t="n">
-        <v>-1.235</v>
-      </c>
-      <c r="C294" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="14" t="s">
+      <c r="B295" s="18" t="n">
+        <v>-1.144</v>
+      </c>
+      <c r="C295" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D295" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="B295" s="14" t="n">
-        <v>-1.236</v>
-      </c>
-      <c r="C295" s="2" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="1" t="s">
+      <c r="A296" s="14" t="s">
         <v>305</v>
       </c>
       <c r="B296" s="2" t="n">
-        <v>-1.241</v>
+        <v>-1.144</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>15</v>
@@ -5325,21 +5523,21 @@
         <v>306</v>
       </c>
       <c r="B297" s="2" t="n">
-        <v>-1.249</v>
+        <v>-1.145</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="14" t="s">
         <v>307</v>
       </c>
-      <c r="B298" s="2" t="n">
-        <v>-1.26</v>
+      <c r="B298" s="14" t="n">
+        <v>-1.146</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5347,7 +5545,7 @@
         <v>308</v>
       </c>
       <c r="B299" s="2" t="n">
-        <v>-1.261</v>
+        <v>-1.147</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>15</v>
@@ -5357,22 +5555,25 @@
       <c r="A300" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="B300" s="2" t="n">
-        <v>-1.261</v>
+      <c r="B300" s="14" t="n">
+        <v>-1.148</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="14" t="s">
+      <c r="A301" s="17" t="s">
         <v>310</v>
       </c>
-      <c r="B301" s="2" t="n">
-        <v>-1.263</v>
-      </c>
-      <c r="C301" s="2" t="s">
-        <v>17</v>
+      <c r="B301" s="18" t="n">
+        <v>-1.149</v>
+      </c>
+      <c r="C301" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D301" s="17" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5380,10 +5581,10 @@
         <v>311</v>
       </c>
       <c r="B302" s="2" t="n">
-        <v>-1.266</v>
+        <v>-1.149</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5391,10 +5592,10 @@
         <v>312</v>
       </c>
       <c r="B303" s="2" t="n">
-        <v>-1.272</v>
+        <v>-1.149</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5402,10 +5603,10 @@
         <v>313</v>
       </c>
       <c r="B304" s="2" t="n">
-        <v>-1.272</v>
+        <v>-1.15</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5413,62 +5614,68 @@
         <v>314</v>
       </c>
       <c r="B305" s="2" t="n">
-        <v>-1.273</v>
+        <v>-1.152</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="1" t="s">
+      <c r="A306" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="B306" s="2" t="n">
-        <v>-1.28</v>
+      <c r="B306" s="14" t="n">
+        <v>-1.153</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="14" t="s">
+      <c r="A307" s="17" t="s">
         <v>316</v>
       </c>
-      <c r="B307" s="2" t="n">
-        <v>-1.285</v>
-      </c>
-      <c r="C307" s="2" t="s">
-        <v>17</v>
+      <c r="B307" s="18" t="n">
+        <v>-1.154</v>
+      </c>
+      <c r="C307" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D307" s="17" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="1" t="s">
+      <c r="A308" s="14" t="s">
         <v>317</v>
       </c>
       <c r="B308" s="2" t="n">
-        <v>-1.286</v>
+        <v>-1.157</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="14" t="s">
+      <c r="A309" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="B309" s="14" t="n">
-        <v>-1.295</v>
-      </c>
-      <c r="C309" s="2" t="s">
-        <v>17</v>
+      <c r="B309" s="18" t="n">
+        <v>-1.158</v>
+      </c>
+      <c r="C309" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D309" s="17" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="14" t="s">
+      <c r="A310" s="1" t="s">
         <v>319</v>
       </c>
       <c r="B310" s="2" t="n">
-        <v>-1.298</v>
+        <v>-1.16</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>15</v>
@@ -5478,33 +5685,33 @@
       <c r="A311" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="B311" s="2" t="n">
-        <v>-1.303</v>
+      <c r="B311" s="14" t="n">
+        <v>-1.16</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="B312" s="14" t="n">
-        <v>-1.304</v>
+      <c r="B312" s="2" t="n">
+        <v>-1.165</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A313" s="14" t="s">
+      <c r="A313" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B313" s="14" t="n">
-        <v>-1.307</v>
+      <c r="B313" s="2" t="n">
+        <v>-1.167</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5512,7 +5719,7 @@
         <v>323</v>
       </c>
       <c r="B314" s="2" t="n">
-        <v>-1.309</v>
+        <v>-1.167</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>15</v>
@@ -5523,18 +5730,18 @@
         <v>324</v>
       </c>
       <c r="B315" s="2" t="n">
-        <v>-1.323</v>
+        <v>-1.168</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="B316" s="14" t="n">
-        <v>-1.332</v>
+      <c r="B316" s="2" t="n">
+        <v>-1.169</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>17</v>
@@ -5544,11 +5751,11 @@
       <c r="A317" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="B317" s="2" t="n">
-        <v>-1.335</v>
+      <c r="B317" s="14" t="n">
+        <v>-1.172</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5556,7 +5763,7 @@
         <v>327</v>
       </c>
       <c r="B318" s="14" t="n">
-        <v>-1.335</v>
+        <v>-1.173</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>17</v>
@@ -5567,51 +5774,51 @@
         <v>328</v>
       </c>
       <c r="B319" s="2" t="n">
-        <v>-1.343</v>
+        <v>-1.174</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A320" s="1" t="s">
+      <c r="A320" s="14" t="s">
         <v>329</v>
       </c>
       <c r="B320" s="2" t="n">
-        <v>-1.344</v>
+        <v>-1.178</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A321" s="14" t="s">
+      <c r="A321" s="1" t="s">
         <v>330</v>
       </c>
       <c r="B321" s="2" t="n">
-        <v>-1.346</v>
+        <v>-1.179</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="14" t="s">
         <v>331</v>
       </c>
-      <c r="B322" s="2" t="n">
-        <v>-1.347</v>
+      <c r="B322" s="14" t="n">
+        <v>-1.181</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A323" s="14" t="s">
+      <c r="A323" s="1" t="s">
         <v>332</v>
       </c>
       <c r="B323" s="2" t="n">
-        <v>-1.352</v>
+        <v>-1.183</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>15</v>
@@ -5621,44 +5828,774 @@
       <c r="A324" s="14" t="s">
         <v>333</v>
       </c>
-      <c r="B324" s="14" t="n">
-        <v>-1.366</v>
+      <c r="B324" s="2" t="n">
+        <v>-1.185</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A325" s="1" t="s">
+      <c r="A325" s="14" t="s">
         <v>334</v>
       </c>
-      <c r="B325" s="2" t="n">
-        <v>-1.375</v>
+      <c r="B325" s="14" t="n">
+        <v>-1.185</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A326" s="14" t="s">
+      <c r="A326" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B326" s="14" t="n">
-        <v>-1.649</v>
+      <c r="B326" s="2" t="n">
+        <v>-1.187</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="B327" s="14" t="n">
+      <c r="B327" s="2" t="n">
+        <v>-1.191</v>
+      </c>
+      <c r="C327" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A328" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="B328" s="2" t="n">
+        <v>-1.192</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A329" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="B329" s="2" t="n">
+        <v>-1.197</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A330" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="B330" s="14" t="n">
+        <v>-1.199</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A331" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="B331" s="14" t="n">
+        <v>-1.201</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A332" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B332" s="2" t="n">
+        <v>-1.206</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A333" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="B333" s="14" t="n">
+        <v>-1.211</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A334" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B334" s="2" t="n">
+        <v>-1.212</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A335" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="B335" s="14" t="n">
+        <v>-1.212</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A336" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="B336" s="2" t="n">
+        <v>-1.218</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A337" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="B337" s="2" t="n">
+        <v>-1.219</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A338" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="B338" s="2" t="n">
+        <v>-1.219</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A339" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="B339" s="2" t="n">
+        <v>-1.22</v>
+      </c>
+      <c r="C339" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A340" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B340" s="2" t="n">
+        <v>-1.223</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A341" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="B341" s="2" t="n">
+        <v>-1.224</v>
+      </c>
+      <c r="C341" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A342" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="B342" s="2" t="n">
+        <v>-1.226</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A343" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="B343" s="2" t="n">
+        <v>-1.227</v>
+      </c>
+      <c r="C343" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A344" s="14" t="s">
+        <v>353</v>
+      </c>
+      <c r="B344" s="14" t="n">
+        <v>-1.23</v>
+      </c>
+      <c r="C344" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A345" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="B345" s="14" t="n">
+        <v>-1.232</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A346" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="B346" s="2" t="n">
+        <v>-1.233</v>
+      </c>
+      <c r="C346" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A347" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="B347" s="2" t="n">
+        <v>-1.234</v>
+      </c>
+      <c r="C347" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A348" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="B348" s="2" t="n">
+        <v>-1.235</v>
+      </c>
+      <c r="C348" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A349" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="B349" s="14" t="n">
+        <v>-1.236</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A350" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="B350" s="14" t="n">
+        <v>-1.236</v>
+      </c>
+      <c r="C350" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A351" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="B351" s="14" t="n">
+        <v>-1.238</v>
+      </c>
+      <c r="C351" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A352" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B352" s="2" t="n">
+        <v>-1.241</v>
+      </c>
+      <c r="C352" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A353" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="B353" s="2" t="n">
+        <v>-1.249</v>
+      </c>
+      <c r="C353" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A354" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="B354" s="2" t="n">
+        <v>-1.26</v>
+      </c>
+      <c r="C354" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A355" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="B355" s="2" t="n">
+        <v>-1.261</v>
+      </c>
+      <c r="C355" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A356" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="B356" s="2" t="n">
+        <v>-1.261</v>
+      </c>
+      <c r="C356" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A357" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="B357" s="2" t="n">
+        <v>-1.263</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A358" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="B358" s="14" t="n">
+        <v>-1.263</v>
+      </c>
+      <c r="C358" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A359" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="B359" s="2" t="n">
+        <v>-1.266</v>
+      </c>
+      <c r="C359" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A360" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="B360" s="2" t="n">
+        <v>-1.272</v>
+      </c>
+      <c r="C360" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A361" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="B361" s="2" t="n">
+        <v>-1.272</v>
+      </c>
+      <c r="C361" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A362" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="B362" s="2" t="n">
+        <v>-1.273</v>
+      </c>
+      <c r="C362" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A363" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B363" s="2" t="n">
+        <v>-1.28</v>
+      </c>
+      <c r="C363" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A364" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="B364" s="2" t="n">
+        <v>-1.285</v>
+      </c>
+      <c r="C364" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A365" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B365" s="2" t="n">
+        <v>-1.286</v>
+      </c>
+      <c r="C365" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A366" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="B366" s="14" t="n">
+        <v>-1.295</v>
+      </c>
+      <c r="C366" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A367" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="B367" s="14" t="n">
+        <v>-1.296</v>
+      </c>
+      <c r="C367" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A368" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="B368" s="2" t="n">
+        <v>-1.298</v>
+      </c>
+      <c r="C368" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A369" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="B369" s="14" t="n">
+        <v>-1.299</v>
+      </c>
+      <c r="C369" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A370" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="B370" s="2" t="n">
+        <v>-1.303</v>
+      </c>
+      <c r="C370" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A371" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="B371" s="14" t="n">
+        <v>-1.304</v>
+      </c>
+      <c r="C371" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A372" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="B372" s="14" t="n">
+        <v>-1.306</v>
+      </c>
+      <c r="C372" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A373" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="B373" s="14" t="n">
+        <v>-1.307</v>
+      </c>
+      <c r="C373" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A374" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="B374" s="2" t="n">
+        <v>-1.309</v>
+      </c>
+      <c r="C374" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A375" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="B375" s="14" t="n">
+        <v>-1.314</v>
+      </c>
+      <c r="C375" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A376" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="B376" s="2" t="n">
+        <v>-1.323</v>
+      </c>
+      <c r="C376" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A377" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="B377" s="14" t="n">
+        <v>-1.332</v>
+      </c>
+      <c r="C377" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A378" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="B378" s="2" t="n">
+        <v>-1.335</v>
+      </c>
+      <c r="C378" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A379" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="B379" s="14" t="n">
+        <v>-1.335</v>
+      </c>
+      <c r="C379" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A380" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B380" s="2" t="n">
+        <v>-1.343</v>
+      </c>
+      <c r="C380" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A381" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B381" s="2" t="n">
+        <v>-1.344</v>
+      </c>
+      <c r="C381" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A382" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="B382" s="2" t="n">
+        <v>-1.346</v>
+      </c>
+      <c r="C382" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A383" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="B383" s="2" t="n">
+        <v>-1.347</v>
+      </c>
+      <c r="C383" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A384" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="B384" s="2" t="n">
+        <v>-1.352</v>
+      </c>
+      <c r="C384" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A385" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="B385" s="14" t="n">
+        <v>-1.362</v>
+      </c>
+      <c r="C385" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A386" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="B386" s="14" t="n">
+        <v>-1.366</v>
+      </c>
+      <c r="C386" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A387" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B387" s="2" t="n">
+        <v>-1.375</v>
+      </c>
+      <c r="C387" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A388" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="B388" s="14" t="n">
+        <v>-1.592</v>
+      </c>
+      <c r="C388" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D388" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A389" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="B389" s="14" t="n">
+        <v>-1.649</v>
+      </c>
+      <c r="C389" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D389" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A390" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="B390" s="14" t="n">
         <v>-1.856</v>
       </c>
-      <c r="C327" s="2" t="s">
-        <v>17</v>
+      <c r="C390" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D390" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A391" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="B391" s="14" t="n">
+        <v>-2.389</v>
+      </c>
+      <c r="C391" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D391" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A392" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="B392" s="14" t="n">
+        <v>-2.755</v>
+      </c>
+      <c r="C392" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D392" s="1" t="s">
+        <v>398</v>
       </c>
     </row>
   </sheetData>

--- a/LD1014D_list.xlsx
+++ b/LD1014D_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="397">
   <si>
     <t xml:space="preserve">LD1014 List (matching without curves)</t>
   </si>
@@ -1211,24 +1211,6 @@
   </si>
   <si>
     <t xml:space="preserve">LD1014D_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LD1014D_399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bad / remove</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LD1014D_335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LD1014D_293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LD1014D_397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LD1014D_398</t>
   </si>
 </sst>
 </file>
@@ -1434,15 +1416,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC9211E"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1517,7 +1490,7 @@
       <selection pane="topLeft" activeCell="A388" activeCellId="0" sqref="A388:D392"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.52"/>
@@ -6529,74 +6502,24 @@
       </c>
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A388" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="B388" s="14" t="n">
-        <v>-1.592</v>
-      </c>
-      <c r="C388" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D388" s="1" t="s">
-        <v>398</v>
-      </c>
+      <c r="A388" s="14"/>
+      <c r="B388" s="14"/>
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A389" s="14" t="s">
-        <v>399</v>
-      </c>
-      <c r="B389" s="14" t="n">
-        <v>-1.649</v>
-      </c>
-      <c r="C389" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D389" s="1" t="s">
-        <v>398</v>
-      </c>
+      <c r="A389" s="14"/>
+      <c r="B389" s="14"/>
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A390" s="14" t="s">
-        <v>400</v>
-      </c>
-      <c r="B390" s="14" t="n">
-        <v>-1.856</v>
-      </c>
-      <c r="C390" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D390" s="1" t="s">
-        <v>398</v>
-      </c>
+      <c r="A390" s="14"/>
+      <c r="B390" s="14"/>
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A391" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="B391" s="14" t="n">
-        <v>-2.389</v>
-      </c>
-      <c r="C391" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D391" s="1" t="s">
-        <v>398</v>
-      </c>
+      <c r="A391" s="14"/>
+      <c r="B391" s="14"/>
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A392" s="14" t="s">
-        <v>402</v>
-      </c>
-      <c r="B392" s="14" t="n">
-        <v>-2.755</v>
-      </c>
-      <c r="C392" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D392" s="1" t="s">
-        <v>398</v>
-      </c>
+      <c r="A392" s="14"/>
+      <c r="B392" s="14"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/LD1014D_list.xlsx
+++ b/LD1014D_list.xlsx
@@ -277,7 +277,7 @@
     <t xml:space="preserve">LD1014D_24</t>
   </si>
   <si>
-    <t xml:space="preserve">reserved kc</t>
+    <t xml:space="preserve">sold kc</t>
   </si>
   <si>
     <t xml:space="preserve">LD1014D_39</t>
@@ -1379,15 +1379,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1486,11 +1486,11 @@
   </sheetPr>
   <dimension ref="A1:AMJ392"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A373" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A388" activeCellId="0" sqref="A388:D392"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G85" activeCellId="0" sqref="G85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.52"/>
@@ -2655,16 +2655,16 @@
       <c r="I84" s="1"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="B85" s="2" t="n">
+      <c r="B85" s="17" t="n">
         <v>-0.846</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D85" s="1" t="s">
+      <c r="C85" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D85" s="16" t="s">
         <v>85</v>
       </c>
       <c r="F85" s="15"/>
@@ -2673,16 +2673,16 @@
       <c r="I85" s="1"/>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="B86" s="2" t="n">
+      <c r="B86" s="17" t="n">
         <v>-0.847</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D86" s="1" t="s">
+      <c r="C86" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D86" s="16" t="s">
         <v>85</v>
       </c>
       <c r="F86" s="15"/>
@@ -2691,16 +2691,16 @@
       <c r="I86" s="1"/>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="14" t="s">
+      <c r="A87" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="B87" s="2" t="n">
+      <c r="B87" s="17" t="n">
         <v>-0.847</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D87" s="1" t="s">
+      <c r="C87" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D87" s="16" t="s">
         <v>85</v>
       </c>
       <c r="F87" s="15"/>
@@ -2709,16 +2709,16 @@
       <c r="I87" s="1"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="14" t="s">
+      <c r="A88" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B88" s="2" t="n">
+      <c r="B88" s="17" t="n">
         <v>-0.847</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D88" s="1" t="s">
+      <c r="C88" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D88" s="16" t="s">
         <v>85</v>
       </c>
       <c r="F88" s="15"/>
@@ -2727,16 +2727,16 @@
       <c r="I88" s="1"/>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="B89" s="2" t="n">
+      <c r="B89" s="17" t="n">
         <v>-0.848</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D89" s="1" t="s">
+      <c r="C89" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D89" s="16" t="s">
         <v>85</v>
       </c>
       <c r="F89" s="15"/>
@@ -2853,10 +2853,10 @@
       <c r="A97" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="B97" s="16" t="n">
+      <c r="B97" s="18" t="n">
         <v>-0.86</v>
       </c>
-      <c r="C97" s="16" t="s">
+      <c r="C97" s="18" t="s">
         <v>15</v>
       </c>
       <c r="D97" s="14" t="s">
@@ -2871,10 +2871,10 @@
       <c r="A98" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="B98" s="16" t="n">
+      <c r="B98" s="18" t="n">
         <v>-0.86</v>
       </c>
-      <c r="C98" s="16" t="s">
+      <c r="C98" s="18" t="s">
         <v>15</v>
       </c>
       <c r="D98" s="14" t="s">
@@ -3156,16 +3156,16 @@
       <c r="I116" s="1"/>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="17" t="s">
+      <c r="A117" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="B117" s="18" t="n">
+      <c r="B117" s="17" t="n">
         <v>-0.901</v>
       </c>
-      <c r="C117" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D117" s="17" t="s">
+      <c r="C117" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D117" s="16" t="s">
         <v>119</v>
       </c>
       <c r="F117" s="15"/>
@@ -3174,16 +3174,16 @@
       <c r="I117" s="1"/>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="17" t="s">
+      <c r="A118" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="B118" s="18" t="n">
+      <c r="B118" s="17" t="n">
         <v>-0.901</v>
       </c>
-      <c r="C118" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D118" s="17" t="s">
+      <c r="C118" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D118" s="16" t="s">
         <v>119</v>
       </c>
       <c r="F118" s="15"/>
@@ -3642,16 +3642,16 @@
       <c r="I148" s="1"/>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="17" t="s">
+      <c r="A149" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="B149" s="18" t="n">
+      <c r="B149" s="17" t="n">
         <v>-0.956</v>
       </c>
-      <c r="C149" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D149" s="17" t="s">
+      <c r="C149" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D149" s="16" t="s">
         <v>152</v>
       </c>
       <c r="F149" s="15"/>
@@ -3660,16 +3660,16 @@
       <c r="I149" s="1"/>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="17" t="s">
+      <c r="A150" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="B150" s="18" t="n">
+      <c r="B150" s="17" t="n">
         <v>-0.957</v>
       </c>
-      <c r="C150" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D150" s="17" t="s">
+      <c r="C150" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D150" s="16" t="s">
         <v>152</v>
       </c>
       <c r="F150" s="15"/>
@@ -3693,16 +3693,16 @@
       <c r="I151" s="1"/>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="17" t="s">
+      <c r="A152" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="B152" s="18" t="n">
+      <c r="B152" s="17" t="n">
         <v>-0.958</v>
       </c>
-      <c r="C152" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D152" s="17" t="s">
+      <c r="C152" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D152" s="16" t="s">
         <v>152</v>
       </c>
       <c r="F152" s="15"/>
@@ -3726,16 +3726,16 @@
       <c r="I153" s="1"/>
     </row>
     <row r="154" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="17" t="s">
+      <c r="A154" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="B154" s="18" t="n">
+      <c r="B154" s="17" t="n">
         <v>-0.959</v>
       </c>
-      <c r="C154" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D154" s="17" t="s">
+      <c r="C154" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D154" s="16" t="s">
         <v>152</v>
       </c>
       <c r="F154" s="20"/>
@@ -3744,16 +3744,16 @@
       <c r="I154" s="21"/>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="17" t="s">
+      <c r="A155" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="B155" s="18" t="n">
+      <c r="B155" s="17" t="n">
         <v>-0.96</v>
       </c>
-      <c r="C155" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D155" s="17" t="s">
+      <c r="C155" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D155" s="16" t="s">
         <v>152</v>
       </c>
       <c r="F155" s="15"/>
@@ -3762,16 +3762,16 @@
       <c r="I155" s="1"/>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="17" t="s">
+      <c r="A156" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="B156" s="18" t="n">
+      <c r="B156" s="17" t="n">
         <v>-0.96</v>
       </c>
-      <c r="C156" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D156" s="17" t="s">
+      <c r="C156" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D156" s="16" t="s">
         <v>152</v>
       </c>
       <c r="F156" s="15"/>
@@ -3825,16 +3825,16 @@
       <c r="I159" s="1"/>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="17" t="s">
+      <c r="A160" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="B160" s="18" t="n">
+      <c r="B160" s="17" t="n">
         <v>-0.969</v>
       </c>
-      <c r="C160" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D160" s="17" t="s">
+      <c r="C160" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D160" s="16" t="s">
         <v>152</v>
       </c>
       <c r="F160" s="15"/>
@@ -3843,16 +3843,16 @@
       <c r="I160" s="1"/>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="17" t="s">
+      <c r="A161" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="B161" s="18" t="n">
+      <c r="B161" s="17" t="n">
         <v>-0.969</v>
       </c>
-      <c r="C161" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D161" s="17" t="s">
+      <c r="C161" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D161" s="16" t="s">
         <v>152</v>
       </c>
       <c r="F161" s="15"/>
@@ -4011,16 +4011,16 @@
       <c r="I171" s="1"/>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="17" t="s">
+      <c r="A172" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="B172" s="18" t="n">
+      <c r="B172" s="17" t="n">
         <v>-0.988</v>
       </c>
-      <c r="C172" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D172" s="17" t="s">
+      <c r="C172" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D172" s="16" t="s">
         <v>176</v>
       </c>
       <c r="F172" s="15"/>
@@ -4044,16 +4044,16 @@
       <c r="I173" s="1"/>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="17" t="s">
+      <c r="A174" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="B174" s="18" t="n">
+      <c r="B174" s="17" t="n">
         <v>-0.989</v>
       </c>
-      <c r="C174" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D174" s="17" t="s">
+      <c r="C174" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D174" s="16" t="s">
         <v>176</v>
       </c>
       <c r="F174" s="15"/>
@@ -4182,16 +4182,16 @@
       <c r="I182" s="1"/>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="17" t="s">
+      <c r="A183" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="B183" s="18" t="n">
+      <c r="B183" s="17" t="n">
         <v>-1</v>
       </c>
-      <c r="C183" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D183" s="17" t="s">
+      <c r="C183" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D183" s="16" t="s">
         <v>188</v>
       </c>
       <c r="F183" s="15"/>
@@ -4215,16 +4215,16 @@
       <c r="I184" s="1"/>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="17" t="s">
+      <c r="A185" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="B185" s="18" t="n">
+      <c r="B185" s="17" t="n">
         <v>-1.003</v>
       </c>
-      <c r="C185" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D185" s="17" t="s">
+      <c r="C185" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D185" s="16" t="s">
         <v>188</v>
       </c>
     </row>
@@ -4240,30 +4240,30 @@
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="17" t="s">
+      <c r="A187" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="B187" s="18" t="n">
+      <c r="B187" s="17" t="n">
         <v>-1.005</v>
       </c>
-      <c r="C187" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D187" s="17" t="s">
+      <c r="C187" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D187" s="16" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="17" t="s">
+      <c r="A188" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="B188" s="18" t="n">
+      <c r="B188" s="17" t="n">
         <v>-1.007</v>
       </c>
-      <c r="C188" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D188" s="17" t="s">
+      <c r="C188" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D188" s="16" t="s">
         <v>188</v>
       </c>
     </row>
@@ -4444,16 +4444,16 @@
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="17" t="s">
+      <c r="A205" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="B205" s="18" t="n">
+      <c r="B205" s="17" t="n">
         <v>-1.032</v>
       </c>
-      <c r="C205" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D205" s="17" t="s">
+      <c r="C205" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D205" s="16" t="s">
         <v>211</v>
       </c>
     </row>
@@ -4480,16 +4480,16 @@
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="17" t="s">
+      <c r="A208" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="B208" s="18" t="n">
+      <c r="B208" s="17" t="n">
         <v>-1.034</v>
       </c>
-      <c r="C208" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D208" s="17" t="s">
+      <c r="C208" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D208" s="16" t="s">
         <v>211</v>
       </c>
     </row>
@@ -4541,16 +4541,16 @@
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="17" t="s">
+      <c r="A213" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="B213" s="18" t="n">
+      <c r="B213" s="17" t="n">
         <v>-1.039</v>
       </c>
-      <c r="C213" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D213" s="17" t="s">
+      <c r="C213" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D213" s="16" t="s">
         <v>211</v>
       </c>
     </row>
@@ -4566,16 +4566,16 @@
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="17" t="s">
+      <c r="A215" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="B215" s="18" t="n">
+      <c r="B215" s="17" t="n">
         <v>-1.042</v>
       </c>
-      <c r="C215" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D215" s="17" t="s">
+      <c r="C215" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D215" s="16" t="s">
         <v>211</v>
       </c>
     </row>
@@ -4624,30 +4624,30 @@
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="17" t="s">
+      <c r="A220" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="B220" s="18" t="n">
+      <c r="B220" s="17" t="n">
         <v>-1.05</v>
       </c>
-      <c r="C220" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D220" s="17" t="s">
+      <c r="C220" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D220" s="16" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="17" t="s">
+      <c r="A221" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="B221" s="18" t="n">
+      <c r="B221" s="17" t="n">
         <v>-1.05</v>
       </c>
-      <c r="C221" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D221" s="17" t="s">
+      <c r="C221" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D221" s="16" t="s">
         <v>119</v>
       </c>
     </row>
@@ -4784,30 +4784,30 @@
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="17" t="s">
+      <c r="A234" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="B234" s="18" t="n">
+      <c r="B234" s="17" t="n">
         <v>-1.062</v>
       </c>
-      <c r="C234" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D234" s="17" t="s">
+      <c r="C234" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D234" s="16" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="17" t="s">
+      <c r="A235" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="B235" s="18" t="n">
+      <c r="B235" s="17" t="n">
         <v>-1.062</v>
       </c>
-      <c r="C235" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D235" s="17" t="s">
+      <c r="C235" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D235" s="16" t="s">
         <v>242</v>
       </c>
     </row>
@@ -4823,16 +4823,16 @@
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="17" t="s">
+      <c r="A237" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="B237" s="18" t="n">
+      <c r="B237" s="17" t="n">
         <v>-1.063</v>
       </c>
-      <c r="C237" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D237" s="17" t="s">
+      <c r="C237" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D237" s="16" t="s">
         <v>242</v>
       </c>
     </row>
@@ -4859,16 +4859,16 @@
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="17" t="s">
+      <c r="A240" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="B240" s="18" t="n">
+      <c r="B240" s="17" t="n">
         <v>-1.064</v>
       </c>
-      <c r="C240" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D240" s="17" t="s">
+      <c r="C240" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D240" s="16" t="s">
         <v>242</v>
       </c>
     </row>
@@ -5467,16 +5467,16 @@
       </c>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="17" t="s">
+      <c r="A295" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="B295" s="18" t="n">
+      <c r="B295" s="17" t="n">
         <v>-1.144</v>
       </c>
-      <c r="C295" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D295" s="17" t="s">
+      <c r="C295" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D295" s="16" t="s">
         <v>304</v>
       </c>
     </row>
@@ -5536,16 +5536,16 @@
       </c>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="17" t="s">
+      <c r="A301" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="B301" s="18" t="n">
+      <c r="B301" s="17" t="n">
         <v>-1.149</v>
       </c>
-      <c r="C301" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D301" s="17" t="s">
+      <c r="C301" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D301" s="16" t="s">
         <v>304</v>
       </c>
     </row>
@@ -5605,16 +5605,16 @@
       </c>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="17" t="s">
+      <c r="A307" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="B307" s="18" t="n">
+      <c r="B307" s="17" t="n">
         <v>-1.154</v>
       </c>
-      <c r="C307" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D307" s="17" t="s">
+      <c r="C307" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D307" s="16" t="s">
         <v>304</v>
       </c>
     </row>
@@ -5630,16 +5630,16 @@
       </c>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="17" t="s">
+      <c r="A309" s="16" t="s">
         <v>318</v>
       </c>
-      <c r="B309" s="18" t="n">
+      <c r="B309" s="17" t="n">
         <v>-1.158</v>
       </c>
-      <c r="C309" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D309" s="17" t="s">
+      <c r="C309" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D309" s="16" t="s">
         <v>304</v>
       </c>
     </row>

--- a/LD1014D_list.xlsx
+++ b/LD1014D_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="413">
   <si>
     <t xml:space="preserve">LD1014 List (matching without curves)</t>
   </si>
@@ -130,6 +130,9 @@
     <t xml:space="preserve">LD1014D_263</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_444</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_84</t>
   </si>
   <si>
@@ -220,6 +223,9 @@
     <t xml:space="preserve">LD1014D_36</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_436</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_116</t>
   </si>
   <si>
@@ -271,15 +277,15 @@
     <t xml:space="preserve">LD1014D_408</t>
   </si>
   <si>
+    <t xml:space="preserve">sold kc</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_64</t>
   </si>
   <si>
     <t xml:space="preserve">LD1014D_24</t>
   </si>
   <si>
-    <t xml:space="preserve">sold kc</t>
-  </si>
-  <si>
     <t xml:space="preserve">LD1014D_39</t>
   </si>
   <si>
@@ -310,15 +316,15 @@
     <t xml:space="preserve">LD1014D_345</t>
   </si>
   <si>
+    <t xml:space="preserve">reserved Wa</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_226</t>
   </si>
   <si>
     <t xml:space="preserve">LD1014D_152</t>
   </si>
   <si>
-    <t xml:space="preserve">reserved Wa</t>
-  </si>
-  <si>
     <t xml:space="preserve">LD1014D_191</t>
   </si>
   <si>
@@ -337,6 +343,9 @@
     <t xml:space="preserve">LD1014D_255</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_441</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_118</t>
   </si>
   <si>
@@ -364,27 +373,36 @@
     <t xml:space="preserve">LD1014D_21</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_447</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_65</t>
   </si>
   <si>
+    <t xml:space="preserve">sold to An</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_262</t>
   </si>
   <si>
     <t xml:space="preserve">LD1014D_331</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_435</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_278</t>
   </si>
   <si>
     <t xml:space="preserve">LD1014D_157</t>
   </si>
   <si>
-    <t xml:space="preserve">sold to An</t>
-  </si>
-  <si>
     <t xml:space="preserve">LD1014D_192</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_450</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_376</t>
   </si>
   <si>
@@ -427,6 +445,9 @@
     <t xml:space="preserve">LD1014D_338</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_440</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_296</t>
   </si>
   <si>
@@ -442,6 +463,12 @@
     <t xml:space="preserve">LD1014D_300</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LD1014D_443</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_89</t>
   </si>
   <si>
@@ -451,6 +478,9 @@
     <t xml:space="preserve">LD1014D_190</t>
   </si>
   <si>
+    <t xml:space="preserve">reserved M</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_138</t>
   </si>
   <si>
@@ -478,9 +508,6 @@
     <t xml:space="preserve">LD1014D_179</t>
   </si>
   <si>
-    <t xml:space="preserve">reserved M</t>
-  </si>
-  <si>
     <t xml:space="preserve">LD1014D_12</t>
   </si>
   <si>
@@ -517,9 +544,15 @@
     <t xml:space="preserve">LD1014D_148</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_442</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_153</t>
   </si>
   <si>
+    <t xml:space="preserve">sold P</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_246</t>
   </si>
   <si>
@@ -550,12 +583,12 @@
     <t xml:space="preserve">LD1014D_14</t>
   </si>
   <si>
-    <t xml:space="preserve">sold P</t>
-  </si>
-  <si>
     <t xml:space="preserve">LD1014D_281</t>
   </si>
   <si>
+    <t xml:space="preserve">sold J5</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_2</t>
   </si>
   <si>
@@ -586,9 +619,6 @@
     <t xml:space="preserve">LD1014D_128</t>
   </si>
   <si>
-    <t xml:space="preserve">sold J5</t>
-  </si>
-  <si>
     <t xml:space="preserve">LD1014D_367</t>
   </si>
   <si>
@@ -616,12 +646,18 @@
     <t xml:space="preserve">LD1014D_368</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_446</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_169</t>
   </si>
   <si>
     <t xml:space="preserve">LD1014D_377</t>
   </si>
   <si>
+    <t xml:space="preserve">sold A</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_108</t>
   </si>
   <si>
@@ -637,6 +673,9 @@
     <t xml:space="preserve">LD1014D_233</t>
   </si>
   <si>
+    <t xml:space="preserve">REF STANDARD</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_203</t>
   </si>
   <si>
@@ -655,9 +694,6 @@
     <t xml:space="preserve">LD1014D_23</t>
   </si>
   <si>
-    <t xml:space="preserve">sold A</t>
-  </si>
-  <si>
     <t xml:space="preserve">LD1014D_105</t>
   </si>
   <si>
@@ -673,9 +709,6 @@
     <t xml:space="preserve">LD1014D_270</t>
   </si>
   <si>
-    <t xml:space="preserve">REF STANDARD</t>
-  </si>
-  <si>
     <t xml:space="preserve">LD1014D_380</t>
   </si>
   <si>
@@ -715,6 +748,9 @@
     <t xml:space="preserve">LD1014D_318</t>
   </si>
   <si>
+    <t xml:space="preserve">sold sch</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_327</t>
   </si>
   <si>
@@ -748,9 +784,6 @@
     <t xml:space="preserve">LD1014D_7</t>
   </si>
   <si>
-    <t xml:space="preserve">sold sch</t>
-  </si>
-  <si>
     <t xml:space="preserve">LD1014D_184</t>
   </si>
   <si>
@@ -901,6 +934,9 @@
     <t xml:space="preserve">LD1014D_279</t>
   </si>
   <si>
+    <t xml:space="preserve">sold E</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_30</t>
   </si>
   <si>
@@ -934,9 +970,6 @@
     <t xml:space="preserve">LD1014D_19</t>
   </si>
   <si>
-    <t xml:space="preserve">sold E</t>
-  </si>
-  <si>
     <t xml:space="preserve">LD1014D_137</t>
   </si>
   <si>
@@ -964,6 +997,9 @@
     <t xml:space="preserve">LD1014D_117</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_449</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_285</t>
   </si>
   <si>
@@ -1003,6 +1039,9 @@
     <t xml:space="preserve">LD1014D_319</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_434</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_324</t>
   </si>
   <si>
@@ -1180,6 +1219,9 @@
     <t xml:space="preserve">LD1014D_167</t>
   </si>
   <si>
+    <t xml:space="preserve">LD1014D_445</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_337</t>
   </si>
   <si>
@@ -1211,6 +1253,12 @@
   </si>
   <si>
     <t xml:space="preserve">LD1014D_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LD1014D_448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bad / remove</t>
   </si>
 </sst>
 </file>
@@ -1314,7 +1362,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1363,10 +1411,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1379,15 +1423,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1416,6 +1460,15 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC9211E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1484,10 +1537,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ392"/>
+  <dimension ref="A1:AMJ404"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G85" activeCellId="0" sqref="G85"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A382" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C390" activeCellId="0" sqref="C390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1527,7 +1580,7 @@
       <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="12"/>
+      <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
       <c r="AMJ4" s="0"/>
@@ -1536,14 +1589,14 @@
       <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="0"/>
+      <c r="B5" s="2"/>
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
       <c r="AMJ5" s="0"/>
     </row>
     <row r="6" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13"/>
-      <c r="B6" s="12"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="9"/>
       <c r="AMJ6" s="0"/>
@@ -1561,7 +1614,7 @@
       <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="0"/>
+      <c r="B8" s="2"/>
       <c r="C8" s="8"/>
       <c r="D8" s="9"/>
       <c r="AMJ8" s="0"/>
@@ -1570,7 +1623,7 @@
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="0"/>
+      <c r="B9" s="2"/>
       <c r="C9" s="8"/>
       <c r="D9" s="9"/>
       <c r="AMJ9" s="0"/>
@@ -1579,7 +1632,7 @@
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="0"/>
+      <c r="B10" s="2"/>
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
       <c r="AMJ10" s="0"/>
@@ -1635,7 +1688,7 @@
       <c r="AMJ16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="2" t="n">
@@ -1644,13 +1697,13 @@
       <c r="C17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="13"/>
       <c r="H17" s="2"/>
       <c r="I17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="2" t="n">
@@ -1659,13 +1712,13 @@
       <c r="C18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="15"/>
-      <c r="G18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="13"/>
       <c r="H18" s="2"/>
       <c r="I18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="13" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="n">
@@ -1674,13 +1727,13 @@
       <c r="C19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="15"/>
+      <c r="F19" s="14"/>
       <c r="G19" s="1"/>
       <c r="H19" s="2"/>
       <c r="I19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="13" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="n">
@@ -1689,13 +1742,13 @@
       <c r="C20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="15"/>
+      <c r="F20" s="14"/>
       <c r="G20" s="1"/>
       <c r="H20" s="2"/>
       <c r="I20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="n">
@@ -1704,7 +1757,7 @@
       <c r="C21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="15"/>
+      <c r="F21" s="14"/>
       <c r="G21" s="1"/>
       <c r="H21" s="2"/>
       <c r="I21" s="1"/>
@@ -1719,43 +1772,43 @@
       <c r="C22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="15"/>
-      <c r="G22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="13"/>
       <c r="H22" s="2"/>
       <c r="I22" s="1"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="14" t="n">
+      <c r="B23" s="15" t="n">
         <v>-0.628</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="15"/>
+      <c r="F23" s="14"/>
       <c r="G23" s="1"/>
       <c r="H23" s="2"/>
       <c r="I23" s="1"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="14" t="n">
+      <c r="B24" s="15" t="n">
         <v>-0.628</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="15"/>
+      <c r="F24" s="14"/>
       <c r="G24" s="1"/>
       <c r="H24" s="2"/>
       <c r="I24" s="1"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="13" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="n">
@@ -1764,23 +1817,23 @@
       <c r="C25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="15"/>
+      <c r="F25" s="14"/>
       <c r="G25" s="1"/>
       <c r="H25" s="2"/>
       <c r="I25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="14" t="n">
+      <c r="B26" s="15" t="n">
         <v>-0.644</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F26" s="15"/>
-      <c r="G26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="13"/>
       <c r="H26" s="2"/>
       <c r="I26" s="1"/>
     </row>
@@ -1794,22 +1847,22 @@
       <c r="C27" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="15"/>
-      <c r="G27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="13"/>
       <c r="H27" s="2"/>
       <c r="I27" s="1"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="14" t="n">
+      <c r="B28" s="15" t="n">
         <v>-0.646</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F28" s="15"/>
+      <c r="F28" s="14"/>
       <c r="G28" s="1"/>
       <c r="H28" s="2"/>
       <c r="I28" s="1"/>
@@ -1824,73 +1877,73 @@
       <c r="C29" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="15"/>
-      <c r="G29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="13"/>
       <c r="H29" s="2"/>
       <c r="I29" s="1"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="14" t="n">
+      <c r="B30" s="15" t="n">
         <v>-0.648</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F30" s="15"/>
-      <c r="G30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="13"/>
       <c r="H30" s="2"/>
       <c r="I30" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="14" t="n">
+      <c r="B31" s="15" t="n">
         <v>-0.651</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F31" s="15"/>
-      <c r="G31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="13"/>
       <c r="H31" s="2"/>
       <c r="I31" s="1"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="14" t="n">
+      <c r="B32" s="15" t="n">
         <v>-0.655</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F32" s="15"/>
+      <c r="F32" s="14"/>
       <c r="G32" s="1"/>
       <c r="H32" s="2"/>
       <c r="I32" s="1"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="14" t="n">
+      <c r="B33" s="15" t="n">
         <v>-0.663</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="15"/>
-      <c r="G33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="13"/>
       <c r="H33" s="2"/>
       <c r="I33" s="1"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="13" t="s">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="n">
@@ -1899,8 +1952,8 @@
       <c r="C34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="15"/>
-      <c r="G34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="13"/>
       <c r="H34" s="2"/>
       <c r="I34" s="1"/>
     </row>
@@ -1914,13 +1967,13 @@
       <c r="C35" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F35" s="15"/>
+      <c r="F35" s="14"/>
       <c r="G35" s="1"/>
       <c r="H35" s="2"/>
       <c r="I35" s="1"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="13" t="s">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="n">
@@ -1929,388 +1982,388 @@
       <c r="C36" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F36" s="15"/>
+      <c r="F36" s="14"/>
       <c r="G36" s="1"/>
       <c r="H36" s="2"/>
       <c r="I36" s="1"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="13" t="s">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>-0.687</v>
+        <v>-0.685</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F37" s="15"/>
-      <c r="G37" s="14"/>
+        <v>17</v>
+      </c>
+      <c r="F37" s="14"/>
+      <c r="G37" s="13"/>
       <c r="H37" s="2"/>
       <c r="I37" s="1"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>-0.69</v>
+        <v>-0.687</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F38" s="15"/>
-      <c r="G38" s="14"/>
+        <v>15</v>
+      </c>
+      <c r="F38" s="14"/>
+      <c r="G38" s="13"/>
       <c r="H38" s="2"/>
       <c r="I38" s="1"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="13" t="s">
         <v>38</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>-0.714</v>
+        <v>-0.69</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F39" s="15"/>
-      <c r="G39" s="14"/>
+        <v>17</v>
+      </c>
+      <c r="F39" s="14"/>
+      <c r="G39" s="13"/>
       <c r="H39" s="2"/>
       <c r="I39" s="1"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B40" s="2" t="n">
         <v>-0.714</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F40" s="15"/>
+        <v>15</v>
+      </c>
+      <c r="F40" s="14"/>
       <c r="G40" s="1"/>
       <c r="H40" s="2"/>
       <c r="I40" s="1"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="13" t="s">
         <v>40</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>-0.719</v>
+        <v>-0.714</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F41" s="15"/>
+      <c r="F41" s="14"/>
       <c r="G41" s="1"/>
       <c r="H41" s="2"/>
       <c r="I41" s="1"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="14" t="n">
-        <v>-0.72</v>
+      <c r="B42" s="2" t="n">
+        <v>-0.719</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F42" s="15"/>
-      <c r="G42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="13"/>
       <c r="H42" s="2"/>
       <c r="I42" s="1"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="14" t="n">
-        <v>-0.722</v>
+      <c r="B43" s="15" t="n">
+        <v>-0.72</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F43" s="15"/>
+      <c r="F43" s="14"/>
       <c r="G43" s="1"/>
       <c r="H43" s="2"/>
       <c r="I43" s="1"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="2" t="n">
-        <v>-0.723</v>
+      <c r="B44" s="15" t="n">
+        <v>-0.722</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F44" s="15"/>
-      <c r="G44" s="14"/>
+        <v>17</v>
+      </c>
+      <c r="F44" s="14"/>
+      <c r="G44" s="13"/>
       <c r="H44" s="2"/>
       <c r="I44" s="1"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="13" t="s">
         <v>44</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>-0.727</v>
+        <v>-0.723</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F45" s="15"/>
+        <v>15</v>
+      </c>
+      <c r="F45" s="14"/>
       <c r="G45" s="1"/>
       <c r="H45" s="2"/>
       <c r="I45" s="1"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="14" t="s">
+      <c r="A46" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="14" t="n">
-        <v>-0.739</v>
+      <c r="B46" s="2" t="n">
+        <v>-0.727</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F46" s="15"/>
+      <c r="F46" s="14"/>
       <c r="G46" s="1"/>
       <c r="H46" s="2"/>
       <c r="I46" s="1"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="14" t="n">
-        <v>-0.745</v>
+      <c r="B47" s="15" t="n">
+        <v>-0.739</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F47" s="15"/>
-      <c r="G47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="13"/>
       <c r="H47" s="2"/>
       <c r="I47" s="1"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="2" t="n">
-        <v>-0.749</v>
+      <c r="B48" s="15" t="n">
+        <v>-0.745</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F48" s="15"/>
+      <c r="F48" s="14"/>
       <c r="G48" s="1"/>
       <c r="H48" s="2"/>
       <c r="I48" s="1"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="13" t="s">
         <v>48</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>-0.756</v>
+        <v>-0.749</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F49" s="15"/>
+        <v>17</v>
+      </c>
+      <c r="F49" s="14"/>
       <c r="G49" s="1"/>
       <c r="H49" s="2"/>
       <c r="I49" s="1"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="13" t="s">
         <v>49</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>-0.757</v>
+        <v>-0.756</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F50" s="15"/>
+      <c r="F50" s="14"/>
       <c r="G50" s="1"/>
       <c r="H50" s="2"/>
       <c r="I50" s="1"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="14" t="s">
+      <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>-0.758</v>
+        <v>-0.757</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F51" s="15"/>
-      <c r="G51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="13"/>
       <c r="H51" s="2"/>
       <c r="I51" s="1"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="14" t="n">
-        <v>-0.766</v>
+      <c r="B52" s="2" t="n">
+        <v>-0.758</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F52" s="15"/>
+        <v>15</v>
+      </c>
+      <c r="F52" s="14"/>
       <c r="G52" s="1"/>
       <c r="H52" s="2"/>
       <c r="I52" s="1"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="14" t="s">
+      <c r="A53" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B53" s="14" t="n">
+      <c r="B53" s="15" t="n">
         <v>-0.766</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F53" s="15"/>
+      <c r="F53" s="14"/>
       <c r="G53" s="1"/>
       <c r="H53" s="2"/>
       <c r="I53" s="1"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="14" t="s">
+      <c r="A54" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="14" t="n">
-        <v>-0.767</v>
+      <c r="B54" s="15" t="n">
+        <v>-0.766</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F54" s="15"/>
+      <c r="F54" s="14"/>
       <c r="G54" s="1"/>
       <c r="H54" s="2"/>
       <c r="I54" s="1"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="14" t="s">
+      <c r="A55" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B55" s="2" t="n">
-        <v>-0.771</v>
+      <c r="B55" s="15" t="n">
+        <v>-0.767</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F55" s="15"/>
-      <c r="G55" s="14"/>
+        <v>17</v>
+      </c>
+      <c r="F55" s="14"/>
+      <c r="G55" s="13"/>
       <c r="H55" s="2"/>
       <c r="I55" s="1"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="14" t="s">
+      <c r="A56" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="14" t="n">
-        <v>-0.776</v>
+      <c r="B56" s="2" t="n">
+        <v>-0.771</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F56" s="15"/>
-      <c r="G56" s="14"/>
+        <v>15</v>
+      </c>
+      <c r="F56" s="14"/>
+      <c r="G56" s="13"/>
       <c r="H56" s="2"/>
       <c r="I56" s="1"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="14" t="s">
+      <c r="A57" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="2" t="n">
-        <v>-0.78</v>
+      <c r="B57" s="15" t="n">
+        <v>-0.776</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F57" s="15"/>
+        <v>17</v>
+      </c>
+      <c r="F57" s="14"/>
       <c r="G57" s="1"/>
       <c r="H57" s="2"/>
       <c r="I57" s="1"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="14" t="s">
+      <c r="A58" s="13" t="s">
         <v>57</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>-0.783</v>
+        <v>-0.78</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F58" s="15"/>
-      <c r="G58" s="14"/>
+        <v>15</v>
+      </c>
+      <c r="F58" s="14"/>
+      <c r="G58" s="13"/>
       <c r="H58" s="2"/>
       <c r="I58" s="1"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="14" t="s">
+      <c r="A59" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B59" s="14" t="n">
+      <c r="B59" s="2" t="n">
         <v>-0.783</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F59" s="15"/>
-      <c r="G59" s="14"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="13"/>
       <c r="H59" s="2"/>
       <c r="I59" s="1"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B60" s="2" t="n">
-        <v>-0.785</v>
+      <c r="B60" s="15" t="n">
+        <v>-0.783</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F60" s="15"/>
+        <v>17</v>
+      </c>
+      <c r="F60" s="14"/>
       <c r="G60" s="1"/>
       <c r="H60" s="2"/>
       <c r="I60" s="1"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="14" t="s">
+      <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>-0.786</v>
+        <v>-0.785</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F61" s="15"/>
+      <c r="F61" s="14"/>
       <c r="G61" s="1"/>
       <c r="H61" s="2"/>
       <c r="I61" s="1"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="14" t="s">
+      <c r="A62" s="13" t="s">
         <v>61</v>
       </c>
       <c r="B62" s="2" t="n">
@@ -2319,232 +2372,232 @@
       <c r="C62" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F62" s="15"/>
-      <c r="G62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="13"/>
       <c r="H62" s="2"/>
       <c r="I62" s="1"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="13" t="s">
         <v>62</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>-0.789</v>
+        <v>-0.786</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F63" s="15"/>
+      <c r="F63" s="14"/>
       <c r="G63" s="1"/>
       <c r="H63" s="2"/>
       <c r="I63" s="1"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="14" t="s">
+      <c r="A64" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>-0.791</v>
+        <v>-0.789</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F64" s="15"/>
+        <v>15</v>
+      </c>
+      <c r="F64" s="14"/>
       <c r="G64" s="1"/>
       <c r="H64" s="2"/>
       <c r="I64" s="1"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="14" t="s">
+      <c r="A65" s="13" t="s">
         <v>64</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>-0.796</v>
+        <v>-0.791</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F65" s="15"/>
+      <c r="F65" s="14"/>
       <c r="G65" s="1"/>
       <c r="H65" s="2"/>
       <c r="I65" s="1"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="13" t="s">
         <v>65</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>-0.798</v>
+        <v>-0.796</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F66" s="15"/>
-      <c r="G66" s="14"/>
+        <v>17</v>
+      </c>
+      <c r="F66" s="14"/>
+      <c r="G66" s="13"/>
       <c r="H66" s="2"/>
       <c r="I66" s="1"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="14" t="s">
+      <c r="A67" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>-0.801</v>
+        <v>-0.798</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F67" s="15"/>
-      <c r="G67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="13"/>
       <c r="H67" s="2"/>
       <c r="I67" s="1"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="14" t="s">
+      <c r="A68" s="13" t="s">
         <v>67</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>-0.805</v>
+        <v>-0.8</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F68" s="15"/>
+        <v>17</v>
+      </c>
+      <c r="F68" s="14"/>
       <c r="G68" s="1"/>
       <c r="H68" s="2"/>
       <c r="I68" s="1"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="14" t="s">
+      <c r="A69" s="13" t="s">
         <v>68</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>-0.805</v>
+        <v>-0.801</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F69" s="15"/>
+      <c r="F69" s="14"/>
       <c r="G69" s="1"/>
       <c r="H69" s="2"/>
       <c r="I69" s="1"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="13" t="s">
         <v>69</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>-0.806</v>
+        <v>-0.805</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F70" s="15"/>
+      <c r="F70" s="14"/>
       <c r="G70" s="1"/>
       <c r="H70" s="2"/>
       <c r="I70" s="1"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="14" t="s">
+      <c r="A71" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B71" s="14" t="n">
-        <v>-0.809</v>
+      <c r="B71" s="2" t="n">
+        <v>-0.805</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F71" s="15"/>
-      <c r="G71" s="14"/>
+        <v>15</v>
+      </c>
+      <c r="F71" s="14"/>
+      <c r="G71" s="13"/>
       <c r="H71" s="2"/>
       <c r="I71" s="1"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="14" t="s">
+      <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>-0.815</v>
+        <v>-0.806</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F72" s="15"/>
-      <c r="G72" s="14"/>
+        <v>15</v>
+      </c>
+      <c r="F72" s="14"/>
+      <c r="G72" s="13"/>
       <c r="H72" s="2"/>
       <c r="I72" s="1"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B73" s="2" t="n">
-        <v>-0.816</v>
+      <c r="B73" s="15" t="n">
+        <v>-0.809</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F73" s="15"/>
-      <c r="G73" s="14"/>
+        <v>17</v>
+      </c>
+      <c r="F73" s="14"/>
+      <c r="G73" s="13"/>
       <c r="H73" s="2"/>
       <c r="I73" s="1"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="14" t="s">
+      <c r="A74" s="13" t="s">
         <v>73</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>-0.822</v>
+        <v>-0.815</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F74" s="15"/>
-      <c r="G74" s="14"/>
+      <c r="F74" s="14"/>
+      <c r="G74" s="13"/>
       <c r="H74" s="2"/>
       <c r="I74" s="1"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="14" t="s">
+      <c r="A75" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>-0.823</v>
+        <v>-0.816</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F75" s="15"/>
-      <c r="G75" s="14"/>
+      <c r="F75" s="14"/>
+      <c r="G75" s="13"/>
       <c r="H75" s="2"/>
       <c r="I75" s="1"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="13" t="s">
         <v>75</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>-0.824</v>
+        <v>-0.822</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F76" s="15"/>
+        <v>17</v>
+      </c>
+      <c r="F76" s="14"/>
       <c r="G76" s="1"/>
       <c r="H76" s="2"/>
       <c r="I76" s="1"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="14" t="s">
+      <c r="A77" s="13" t="s">
         <v>76</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>-0.83</v>
+        <v>-0.823</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F77" s="15"/>
+      <c r="F77" s="14"/>
       <c r="G77" s="1"/>
       <c r="H77" s="2"/>
       <c r="I77" s="1"/>
@@ -2554,138 +2607,138 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>-0.832</v>
+        <v>-0.824</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F78" s="15"/>
-      <c r="G78" s="14"/>
+      <c r="F78" s="14"/>
+      <c r="G78" s="13"/>
       <c r="H78" s="2"/>
       <c r="I78" s="1"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="13" t="s">
         <v>78</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>-0.833</v>
+        <v>-0.83</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F79" s="15"/>
-      <c r="G79" s="14"/>
+      <c r="F79" s="14"/>
+      <c r="G79" s="13"/>
       <c r="H79" s="2"/>
       <c r="I79" s="1"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="14" t="s">
+      <c r="A80" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B80" s="14" t="n">
-        <v>-0.835</v>
+      <c r="B80" s="2" t="n">
+        <v>-0.832</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F80" s="15"/>
+        <v>15</v>
+      </c>
+      <c r="F80" s="14"/>
       <c r="G80" s="1"/>
       <c r="H80" s="2"/>
       <c r="I80" s="1"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="14" t="s">
+      <c r="A81" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B81" s="14" t="n">
-        <v>-0.835</v>
+      <c r="B81" s="2" t="n">
+        <v>-0.833</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F81" s="15"/>
-      <c r="G81" s="14"/>
+        <v>15</v>
+      </c>
+      <c r="F81" s="14"/>
+      <c r="G81" s="13"/>
       <c r="H81" s="2"/>
       <c r="I81" s="1"/>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="14" t="s">
+      <c r="A82" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B82" s="2" t="n">
-        <v>-0.837</v>
+      <c r="B82" s="15" t="n">
+        <v>-0.835</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F82" s="15"/>
-      <c r="G82" s="14"/>
+        <v>17</v>
+      </c>
+      <c r="F82" s="14"/>
+      <c r="G82" s="13"/>
       <c r="H82" s="2"/>
       <c r="I82" s="1"/>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="14" t="s">
+      <c r="A83" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B83" s="14" t="n">
-        <v>-0.839</v>
+      <c r="B83" s="15" t="n">
+        <v>-0.835</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F83" s="15"/>
-      <c r="G83" s="14"/>
+      <c r="F83" s="14"/>
+      <c r="G83" s="13"/>
       <c r="H83" s="2"/>
       <c r="I83" s="1"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="13" t="s">
         <v>83</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>-0.841</v>
+        <v>-0.837</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F84" s="15"/>
+      <c r="F84" s="14"/>
       <c r="G84" s="1"/>
       <c r="H84" s="2"/>
       <c r="I84" s="1"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="16" t="s">
+      <c r="A85" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B85" s="17" t="n">
-        <v>-0.846</v>
-      </c>
-      <c r="C85" s="17" t="s">
-        <v>15</v>
+      <c r="B85" s="15" t="n">
+        <v>-0.839</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="D85" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="F85" s="15"/>
+      <c r="F85" s="14"/>
       <c r="G85" s="1"/>
       <c r="H85" s="2"/>
       <c r="I85" s="1"/>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="16" t="s">
+      <c r="A86" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B86" s="17" t="n">
-        <v>-0.847</v>
-      </c>
-      <c r="C86" s="17" t="s">
+      <c r="B86" s="2" t="n">
+        <v>-0.841</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D86" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="F86" s="15"/>
+      <c r="F86" s="14"/>
       <c r="G86" s="1"/>
       <c r="H86" s="2"/>
       <c r="I86" s="1"/>
@@ -2695,7 +2748,7 @@
         <v>87</v>
       </c>
       <c r="B87" s="17" t="n">
-        <v>-0.847</v>
+        <v>-0.846</v>
       </c>
       <c r="C87" s="17" t="s">
         <v>15</v>
@@ -2703,7 +2756,7 @@
       <c r="D87" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="F87" s="15"/>
+      <c r="F87" s="14"/>
       <c r="G87" s="1"/>
       <c r="H87" s="2"/>
       <c r="I87" s="1"/>
@@ -2716,13 +2769,13 @@
         <v>-0.847</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D88" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="F88" s="15"/>
-      <c r="G88" s="14"/>
+      <c r="F88" s="14"/>
+      <c r="G88" s="13"/>
       <c r="H88" s="2"/>
       <c r="I88" s="1"/>
     </row>
@@ -2731,7 +2784,7 @@
         <v>89</v>
       </c>
       <c r="B89" s="17" t="n">
-        <v>-0.848</v>
+        <v>-0.847</v>
       </c>
       <c r="C89" s="17" t="s">
         <v>15</v>
@@ -2739,53 +2792,53 @@
       <c r="D89" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="F89" s="15"/>
+      <c r="F89" s="14"/>
       <c r="G89" s="1"/>
       <c r="H89" s="2"/>
       <c r="I89" s="1"/>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="14" t="s">
+      <c r="A90" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="B90" s="14" t="n">
-        <v>-0.849</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F90" s="15"/>
+      <c r="B90" s="17" t="n">
+        <v>-0.847</v>
+      </c>
+      <c r="C90" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F90" s="14"/>
       <c r="G90" s="1"/>
       <c r="H90" s="2"/>
       <c r="I90" s="1"/>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="B91" s="2" t="n">
-        <v>-0.853</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F91" s="15"/>
-      <c r="G91" s="14"/>
+      <c r="B91" s="17" t="n">
+        <v>-0.848</v>
+      </c>
+      <c r="C91" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F91" s="14"/>
+      <c r="G91" s="13"/>
       <c r="H91" s="2"/>
       <c r="I91" s="1"/>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="14" t="s">
+      <c r="A92" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="B92" s="14" t="n">
-        <v>-0.853</v>
+      <c r="B92" s="15" t="n">
+        <v>-0.849</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F92" s="15"/>
-      <c r="G92" s="14"/>
+      <c r="F92" s="14"/>
+      <c r="G92" s="13"/>
       <c r="H92" s="2"/>
       <c r="I92" s="1"/>
     </row>
@@ -2794,258 +2847,258 @@
         <v>93</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>-0.855</v>
+        <v>-0.853</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F93" s="15"/>
+      <c r="F93" s="14"/>
       <c r="G93" s="1"/>
       <c r="H93" s="2"/>
       <c r="I93" s="1"/>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="14" t="s">
+      <c r="A94" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="B94" s="2" t="n">
-        <v>-0.857</v>
+      <c r="B94" s="15" t="n">
+        <v>-0.853</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F94" s="15"/>
+      <c r="F94" s="14"/>
       <c r="G94" s="1"/>
       <c r="H94" s="2"/>
       <c r="I94" s="1"/>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="14" t="s">
+      <c r="A95" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B95" s="14" t="n">
-        <v>-0.857</v>
+      <c r="B95" s="2" t="n">
+        <v>-0.855</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F95" s="15"/>
+        <v>15</v>
+      </c>
+      <c r="F95" s="14"/>
       <c r="G95" s="1"/>
       <c r="H95" s="2"/>
       <c r="I95" s="1"/>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="14" t="s">
+      <c r="A96" s="13" t="s">
         <v>96</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>-0.858</v>
+        <v>-0.857</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F96" s="15"/>
+      <c r="F96" s="14"/>
       <c r="G96" s="1"/>
       <c r="H96" s="2"/>
       <c r="I96" s="1"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="14" t="s">
+      <c r="A97" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B97" s="18" t="n">
-        <v>-0.86</v>
-      </c>
-      <c r="C97" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D97" s="14" t="s">
+      <c r="B97" s="15" t="n">
+        <v>-0.857</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D97" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="F97" s="15"/>
+      <c r="F97" s="14"/>
       <c r="G97" s="1"/>
       <c r="H97" s="2"/>
       <c r="I97" s="1"/>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="14" t="s">
+      <c r="A98" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="B98" s="18" t="n">
-        <v>-0.86</v>
-      </c>
-      <c r="C98" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D98" s="14" t="s">
+      <c r="B98" s="2" t="n">
+        <v>-0.858</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D98" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="F98" s="15"/>
-      <c r="G98" s="14"/>
+      <c r="F98" s="14"/>
+      <c r="G98" s="13"/>
       <c r="H98" s="2"/>
       <c r="I98" s="1"/>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="s">
+      <c r="A99" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="B99" s="2" t="n">
-        <v>-0.861</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F99" s="15"/>
-      <c r="G99" s="14"/>
+      <c r="B99" s="15" t="n">
+        <v>-0.86</v>
+      </c>
+      <c r="C99" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F99" s="14"/>
+      <c r="G99" s="13"/>
       <c r="H99" s="2"/>
       <c r="I99" s="1"/>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="14" t="s">
+      <c r="A100" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="B100" s="2" t="n">
-        <v>-0.862</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F100" s="15"/>
+      <c r="B100" s="15" t="n">
+        <v>-0.86</v>
+      </c>
+      <c r="C100" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F100" s="14"/>
       <c r="G100" s="1"/>
       <c r="H100" s="2"/>
       <c r="I100" s="1"/>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="14" t="s">
+      <c r="A101" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>-0.868</v>
+        <v>-0.861</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F101" s="15"/>
-      <c r="G101" s="14"/>
+      <c r="F101" s="14"/>
+      <c r="G101" s="13"/>
       <c r="H101" s="2"/>
       <c r="I101" s="1"/>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="14" t="s">
+      <c r="A102" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="B102" s="14" t="n">
-        <v>-0.869</v>
+      <c r="B102" s="2" t="n">
+        <v>-0.862</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F102" s="15"/>
-      <c r="G102" s="14"/>
+      <c r="F102" s="14"/>
+      <c r="G102" s="13"/>
       <c r="H102" s="2"/>
       <c r="I102" s="1"/>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="14" t="s">
+      <c r="A103" s="13" t="s">
         <v>104</v>
       </c>
       <c r="B103" s="2" t="n">
-        <v>-0.873</v>
+        <v>-0.868</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F103" s="15"/>
-      <c r="G103" s="14"/>
+        <v>15</v>
+      </c>
+      <c r="F103" s="14"/>
+      <c r="G103" s="13"/>
       <c r="H103" s="2"/>
       <c r="I103" s="1"/>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="14" t="s">
+      <c r="A104" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="B104" s="2" t="n">
-        <v>-0.875</v>
+      <c r="B104" s="15" t="n">
+        <v>-0.869</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F104" s="15"/>
-      <c r="G104" s="14"/>
+        <v>17</v>
+      </c>
+      <c r="F104" s="14"/>
+      <c r="G104" s="13"/>
       <c r="H104" s="2"/>
       <c r="I104" s="1"/>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="1" t="s">
+      <c r="A105" s="13" t="s">
         <v>106</v>
       </c>
       <c r="B105" s="2" t="n">
-        <v>-0.876</v>
+        <v>-0.873</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F105" s="15"/>
+        <v>17</v>
+      </c>
+      <c r="F105" s="14"/>
       <c r="G105" s="1"/>
       <c r="H105" s="2"/>
       <c r="I105" s="1"/>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="14" t="s">
+      <c r="A106" s="13" t="s">
         <v>107</v>
       </c>
       <c r="B106" s="2" t="n">
-        <v>-0.876</v>
+        <v>-0.874</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F106" s="15"/>
+      <c r="F106" s="14"/>
       <c r="G106" s="1"/>
       <c r="H106" s="2"/>
       <c r="I106" s="1"/>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="1" t="s">
+      <c r="A107" s="13" t="s">
         <v>108</v>
       </c>
       <c r="B107" s="2" t="n">
-        <v>-0.881</v>
+        <v>-0.875</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F107" s="15"/>
-      <c r="G107" s="14"/>
+      <c r="F107" s="14"/>
+      <c r="G107" s="13"/>
       <c r="H107" s="2"/>
       <c r="I107" s="1"/>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="14" t="s">
+      <c r="A108" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B108" s="14" t="n">
-        <v>-0.881</v>
+      <c r="B108" s="2" t="n">
+        <v>-0.876</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F108" s="15"/>
+        <v>15</v>
+      </c>
+      <c r="F108" s="14"/>
       <c r="G108" s="1"/>
       <c r="H108" s="2"/>
       <c r="I108" s="1"/>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="14" t="s">
+      <c r="A109" s="13" t="s">
         <v>110</v>
       </c>
       <c r="B109" s="2" t="n">
-        <v>-0.883</v>
+        <v>-0.876</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F109" s="15"/>
+        <v>17</v>
+      </c>
+      <c r="F109" s="14"/>
       <c r="G109" s="1"/>
       <c r="H109" s="2"/>
       <c r="I109" s="1"/>
@@ -3055,43 +3108,43 @@
         <v>111</v>
       </c>
       <c r="B110" s="2" t="n">
-        <v>-0.885</v>
+        <v>-0.881</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F110" s="15"/>
-      <c r="G110" s="14"/>
+      <c r="F110" s="14"/>
+      <c r="G110" s="13"/>
       <c r="H110" s="2"/>
       <c r="I110" s="1"/>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="14" t="s">
+      <c r="A111" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="B111" s="2" t="n">
-        <v>-0.885</v>
+      <c r="B111" s="15" t="n">
+        <v>-0.881</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F111" s="15"/>
+      <c r="F111" s="14"/>
       <c r="G111" s="1"/>
       <c r="H111" s="2"/>
       <c r="I111" s="1"/>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="1" t="s">
+      <c r="A112" s="13" t="s">
         <v>113</v>
       </c>
       <c r="B112" s="2" t="n">
-        <v>-0.886</v>
+        <v>-0.883</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F112" s="15"/>
-      <c r="G112" s="14"/>
+      <c r="F112" s="14"/>
+      <c r="G112" s="13"/>
       <c r="H112" s="2"/>
       <c r="I112" s="1"/>
     </row>
@@ -3100,745 +3153,745 @@
         <v>114</v>
       </c>
       <c r="B113" s="2" t="n">
-        <v>-0.892</v>
+        <v>-0.885</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F113" s="15"/>
-      <c r="G113" s="14"/>
+      <c r="F113" s="14"/>
+      <c r="G113" s="13"/>
       <c r="H113" s="2"/>
       <c r="I113" s="1"/>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="14" t="s">
+      <c r="A114" s="13" t="s">
         <v>115</v>
       </c>
       <c r="B114" s="2" t="n">
-        <v>-0.893</v>
+        <v>-0.885</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F114" s="15"/>
-      <c r="G114" s="14"/>
+      <c r="F114" s="14"/>
+      <c r="G114" s="13"/>
       <c r="H114" s="2"/>
       <c r="I114" s="1"/>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="14" t="s">
+      <c r="A115" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B115" s="14" t="n">
-        <v>-0.894</v>
+      <c r="B115" s="2" t="n">
+        <v>-0.886</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F115" s="15"/>
+        <v>15</v>
+      </c>
+      <c r="F115" s="14"/>
       <c r="G115" s="1"/>
       <c r="H115" s="2"/>
       <c r="I115" s="1"/>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="14" t="s">
+      <c r="A116" s="13" t="s">
         <v>117</v>
       </c>
       <c r="B116" s="2" t="n">
-        <v>-0.896</v>
+        <v>-0.887</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F116" s="15"/>
-      <c r="G116" s="14"/>
+      <c r="F116" s="14"/>
+      <c r="G116" s="13"/>
       <c r="H116" s="2"/>
       <c r="I116" s="1"/>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="16" t="s">
+      <c r="A117" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B117" s="17" t="n">
-        <v>-0.901</v>
-      </c>
-      <c r="C117" s="17" t="s">
+      <c r="B117" s="2" t="n">
+        <v>-0.892</v>
+      </c>
+      <c r="C117" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D117" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="F117" s="15"/>
+      <c r="F117" s="14"/>
       <c r="G117" s="1"/>
       <c r="H117" s="2"/>
       <c r="I117" s="1"/>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="16" t="s">
+      <c r="A118" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="B118" s="17" t="n">
-        <v>-0.901</v>
-      </c>
-      <c r="C118" s="17" t="s">
-        <v>15</v>
+      <c r="B118" s="2" t="n">
+        <v>-0.893</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="D118" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="F118" s="15"/>
+      <c r="F118" s="14"/>
       <c r="G118" s="1"/>
       <c r="H118" s="2"/>
       <c r="I118" s="1"/>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="14" t="s">
+      <c r="A119" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="B119" s="14" t="n">
-        <v>-0.904</v>
+      <c r="B119" s="15" t="n">
+        <v>-0.894</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F119" s="15"/>
+      <c r="F119" s="14"/>
       <c r="G119" s="1"/>
       <c r="H119" s="2"/>
       <c r="I119" s="1"/>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="1" t="s">
+      <c r="A120" s="13" t="s">
         <v>122</v>
       </c>
       <c r="B120" s="2" t="n">
-        <v>-0.908</v>
+        <v>-0.895</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F120" s="15"/>
+        <v>17</v>
+      </c>
+      <c r="F120" s="14"/>
       <c r="G120" s="1"/>
       <c r="H120" s="2"/>
       <c r="I120" s="1"/>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="1" t="s">
+      <c r="A121" s="13" t="s">
         <v>123</v>
       </c>
       <c r="B121" s="2" t="n">
-        <v>-0.911</v>
+        <v>-0.896</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F121" s="15"/>
-      <c r="G121" s="14"/>
+        <v>17</v>
+      </c>
+      <c r="F121" s="14"/>
+      <c r="G121" s="13"/>
       <c r="H121" s="2"/>
       <c r="I121" s="1"/>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="1" t="s">
+      <c r="A122" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="B122" s="2" t="n">
-        <v>-0.914</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F122" s="15"/>
+      <c r="B122" s="17" t="n">
+        <v>-0.901</v>
+      </c>
+      <c r="C122" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F122" s="14"/>
       <c r="G122" s="1"/>
       <c r="H122" s="2"/>
       <c r="I122" s="1"/>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="14" t="s">
+      <c r="A123" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="B123" s="14" t="n">
-        <v>-0.914</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F123" s="15"/>
-      <c r="G123" s="14"/>
+      <c r="B123" s="17" t="n">
+        <v>-0.901</v>
+      </c>
+      <c r="C123" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F123" s="14"/>
+      <c r="G123" s="13"/>
       <c r="H123" s="2"/>
       <c r="I123" s="1"/>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="14" t="s">
+      <c r="A124" s="13" t="s">
         <v>126</v>
       </c>
       <c r="B124" s="2" t="n">
-        <v>-0.915</v>
+        <v>-0.902</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F124" s="15"/>
-      <c r="G124" s="14"/>
+        <v>17</v>
+      </c>
+      <c r="F124" s="14"/>
+      <c r="G124" s="13"/>
       <c r="H124" s="2"/>
       <c r="I124" s="1"/>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="14" t="s">
+      <c r="A125" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="B125" s="2" t="n">
-        <v>-0.917</v>
+      <c r="B125" s="15" t="n">
+        <v>-0.904</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F125" s="15"/>
-      <c r="G125" s="14"/>
+        <v>17</v>
+      </c>
+      <c r="F125" s="14"/>
+      <c r="G125" s="13"/>
       <c r="H125" s="2"/>
       <c r="I125" s="1"/>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="14" t="s">
+      <c r="A126" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B126" s="14" t="n">
-        <v>-0.917</v>
+      <c r="B126" s="2" t="n">
+        <v>-0.908</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F126" s="15"/>
-      <c r="G126" s="14"/>
+        <v>15</v>
+      </c>
+      <c r="F126" s="14"/>
+      <c r="G126" s="13"/>
       <c r="H126" s="2"/>
       <c r="I126" s="1"/>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="14" t="s">
+      <c r="A127" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B127" s="2" t="n">
-        <v>-0.919</v>
+        <v>-0.911</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F127" s="15"/>
-      <c r="G127" s="14"/>
+      <c r="F127" s="14"/>
+      <c r="G127" s="13"/>
       <c r="H127" s="2"/>
       <c r="I127" s="1"/>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="14" t="s">
+      <c r="A128" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B128" s="2" t="n">
-        <v>-0.92</v>
+        <v>-0.914</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F128" s="15"/>
+      <c r="F128" s="14"/>
       <c r="G128" s="1"/>
       <c r="H128" s="2"/>
       <c r="I128" s="1"/>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="14" t="s">
+      <c r="A129" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="B129" s="14" t="n">
-        <v>-0.92</v>
+      <c r="B129" s="15" t="n">
+        <v>-0.914</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F129" s="15"/>
-      <c r="G129" s="14"/>
+      <c r="F129" s="14"/>
+      <c r="G129" s="13"/>
       <c r="H129" s="2"/>
       <c r="I129" s="1"/>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="14" t="s">
+      <c r="A130" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B130" s="2" t="n">
-        <v>-0.921</v>
+        <v>-0.915</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F130" s="15"/>
-      <c r="G130" s="14"/>
+      <c r="F130" s="14"/>
+      <c r="G130" s="13"/>
       <c r="H130" s="2"/>
       <c r="I130" s="1"/>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="14" t="s">
+      <c r="A131" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="B131" s="14" t="n">
-        <v>-0.922</v>
+      <c r="B131" s="2" t="n">
+        <v>-0.917</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F131" s="15"/>
-      <c r="G131" s="14"/>
+        <v>15</v>
+      </c>
+      <c r="F131" s="14"/>
+      <c r="G131" s="13"/>
       <c r="H131" s="2"/>
       <c r="I131" s="1"/>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="14" t="s">
+      <c r="A132" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="B132" s="14" t="n">
-        <v>-0.923</v>
+      <c r="B132" s="15" t="n">
+        <v>-0.917</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F132" s="15"/>
-      <c r="G132" s="14"/>
+      <c r="F132" s="14"/>
+      <c r="G132" s="13"/>
       <c r="H132" s="2"/>
       <c r="I132" s="1"/>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="14" t="s">
+      <c r="A133" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="B133" s="14" t="n">
-        <v>-0.927</v>
+      <c r="B133" s="2" t="n">
+        <v>-0.919</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F133" s="15"/>
+        <v>15</v>
+      </c>
+      <c r="F133" s="14"/>
       <c r="G133" s="1"/>
       <c r="H133" s="2"/>
       <c r="I133" s="1"/>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="1" t="s">
+      <c r="A134" s="13" t="s">
         <v>136</v>
       </c>
       <c r="B134" s="2" t="n">
-        <v>-0.929</v>
+        <v>-0.92</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F134" s="15"/>
+      <c r="F134" s="14"/>
       <c r="G134" s="1"/>
       <c r="H134" s="2"/>
       <c r="I134" s="1"/>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="14" t="s">
+      <c r="A135" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="B135" s="14" t="n">
-        <v>-0.932</v>
+      <c r="B135" s="15" t="n">
+        <v>-0.92</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F135" s="15"/>
+      <c r="F135" s="14"/>
       <c r="G135" s="1"/>
       <c r="H135" s="2"/>
       <c r="I135" s="1"/>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="14" t="s">
+      <c r="A136" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="B136" s="14" t="n">
-        <v>-0.933</v>
+      <c r="B136" s="2" t="n">
+        <v>-0.921</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F136" s="15"/>
-      <c r="G136" s="14"/>
+        <v>15</v>
+      </c>
+      <c r="F136" s="14"/>
+      <c r="G136" s="13"/>
       <c r="H136" s="2"/>
       <c r="I136" s="1"/>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="14" t="s">
+      <c r="A137" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="B137" s="14" t="n">
-        <v>-0.934</v>
+      <c r="B137" s="15" t="n">
+        <v>-0.922</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F137" s="15"/>
-      <c r="G137" s="14"/>
+      <c r="F137" s="14"/>
+      <c r="G137" s="13"/>
       <c r="H137" s="2"/>
       <c r="I137" s="1"/>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="1" t="s">
+      <c r="A138" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="B138" s="2" t="n">
-        <v>-0.938</v>
+      <c r="B138" s="15" t="n">
+        <v>-0.923</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F138" s="15"/>
+        <v>17</v>
+      </c>
+      <c r="F138" s="14"/>
       <c r="G138" s="1"/>
       <c r="H138" s="2"/>
       <c r="I138" s="1"/>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="14" t="s">
+      <c r="A139" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="B139" s="14" t="n">
-        <v>-0.939</v>
+      <c r="B139" s="2" t="n">
+        <v>-0.925</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F139" s="15"/>
-      <c r="G139" s="14"/>
+      <c r="F139" s="14"/>
+      <c r="G139" s="13"/>
       <c r="H139" s="2"/>
       <c r="I139" s="1"/>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="14" t="s">
+      <c r="A140" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="B140" s="2" t="n">
-        <v>-0.943</v>
+      <c r="B140" s="15" t="n">
+        <v>-0.927</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F140" s="15"/>
+        <v>17</v>
+      </c>
+      <c r="F140" s="14"/>
       <c r="G140" s="1"/>
       <c r="H140" s="2"/>
       <c r="I140" s="1"/>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="14" t="s">
+      <c r="A141" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B141" s="2" t="n">
-        <v>-0.945</v>
+        <v>-0.929</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F141" s="15"/>
+      <c r="F141" s="14"/>
       <c r="G141" s="1"/>
       <c r="H141" s="2"/>
       <c r="I141" s="1"/>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="1" t="s">
+      <c r="A142" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="B142" s="2" t="n">
-        <v>-0.946</v>
+      <c r="B142" s="15" t="n">
+        <v>-0.932</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F142" s="15"/>
-      <c r="G142" s="14"/>
+        <v>17</v>
+      </c>
+      <c r="F142" s="14"/>
+      <c r="G142" s="13"/>
       <c r="H142" s="2"/>
       <c r="I142" s="1"/>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="14" t="s">
+      <c r="A143" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="B143" s="2" t="n">
-        <v>-0.946</v>
+      <c r="B143" s="15" t="n">
+        <v>-0.933</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F143" s="15"/>
-      <c r="G143" s="14"/>
+        <v>17</v>
+      </c>
+      <c r="F143" s="14"/>
+      <c r="G143" s="13"/>
       <c r="H143" s="2"/>
       <c r="I143" s="1"/>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="14" t="s">
+      <c r="A144" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="B144" s="2" t="n">
-        <v>-0.947</v>
+      <c r="B144" s="15" t="n">
+        <v>-0.934</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F144" s="15"/>
+      <c r="F144" s="14"/>
       <c r="G144" s="1"/>
       <c r="H144" s="2"/>
       <c r="I144" s="1"/>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="14" t="s">
+      <c r="A145" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="B145" s="14" t="n">
-        <v>-0.949</v>
+      <c r="B145" s="2" t="n">
+        <v>-0.934</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F145" s="15"/>
-      <c r="G145" s="14"/>
+      <c r="F145" s="14"/>
+      <c r="G145" s="13"/>
       <c r="H145" s="2"/>
       <c r="I145" s="1"/>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="14" t="s">
+      <c r="A146" s="13" t="s">
         <v>148</v>
       </c>
       <c r="B146" s="2" t="n">
-        <v>-0.952</v>
+        <v>-0.935</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F146" s="15"/>
-      <c r="G146" s="14"/>
+        <v>17</v>
+      </c>
+      <c r="F146" s="14"/>
+      <c r="G146" s="13"/>
       <c r="H146" s="2"/>
       <c r="I146" s="1"/>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="14" t="s">
+      <c r="A147" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B147" s="2" t="n">
-        <v>-0.952</v>
+        <v>-0.938</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F147" s="15"/>
+        <v>15</v>
+      </c>
+      <c r="F147" s="14"/>
       <c r="G147" s="1"/>
       <c r="H147" s="2"/>
       <c r="I147" s="1"/>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="14" t="s">
+      <c r="A148" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="B148" s="2" t="n">
-        <v>-0.955</v>
+      <c r="B148" s="15" t="n">
+        <v>-0.939</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F148" s="15"/>
+      <c r="F148" s="14"/>
       <c r="G148" s="1"/>
       <c r="H148" s="2"/>
       <c r="I148" s="1"/>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="16" t="s">
+      <c r="A149" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="B149" s="17" t="n">
-        <v>-0.956</v>
-      </c>
-      <c r="C149" s="17" t="s">
+      <c r="B149" s="2" t="n">
+        <v>-0.943</v>
+      </c>
+      <c r="C149" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D149" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="F149" s="15"/>
+      <c r="F149" s="14"/>
       <c r="G149" s="1"/>
       <c r="H149" s="2"/>
       <c r="I149" s="1"/>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="16" t="s">
+      <c r="A150" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="B150" s="17" t="n">
-        <v>-0.957</v>
-      </c>
-      <c r="C150" s="17" t="s">
+      <c r="B150" s="2" t="n">
+        <v>-0.945</v>
+      </c>
+      <c r="C150" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D150" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="F150" s="15"/>
+      <c r="F150" s="14"/>
       <c r="G150" s="1"/>
       <c r="H150" s="2"/>
       <c r="I150" s="1"/>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="14" t="s">
+      <c r="A151" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B151" s="14" t="n">
-        <v>-0.957</v>
+      <c r="B151" s="2" t="n">
+        <v>-0.946</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F151" s="15"/>
-      <c r="G151" s="14"/>
+        <v>15</v>
+      </c>
+      <c r="F151" s="14"/>
+      <c r="G151" s="13"/>
       <c r="H151" s="2"/>
       <c r="I151" s="1"/>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="16" t="s">
+      <c r="A152" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="B152" s="17" t="n">
-        <v>-0.958</v>
-      </c>
-      <c r="C152" s="17" t="s">
+      <c r="B152" s="2" t="n">
+        <v>-0.946</v>
+      </c>
+      <c r="C152" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D152" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="F152" s="15"/>
+      <c r="F152" s="14"/>
       <c r="G152" s="1"/>
       <c r="H152" s="2"/>
       <c r="I152" s="1"/>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="14" t="s">
+      <c r="A153" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="B153" s="14" t="n">
-        <v>-0.958</v>
+      <c r="B153" s="2" t="n">
+        <v>-0.947</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F153" s="15"/>
+      <c r="F153" s="14"/>
       <c r="G153" s="1"/>
       <c r="H153" s="2"/>
       <c r="I153" s="1"/>
     </row>
-    <row r="154" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="16" t="s">
+    <row r="154" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="B154" s="17" t="n">
-        <v>-0.959</v>
-      </c>
-      <c r="C154" s="17" t="s">
-        <v>15</v>
+      <c r="B154" s="15" t="n">
+        <v>-0.949</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="D154" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="F154" s="20"/>
-      <c r="G154" s="21"/>
-      <c r="H154" s="22"/>
-      <c r="I154" s="21"/>
+      <c r="F154" s="19"/>
+      <c r="G154" s="20"/>
+      <c r="H154" s="21"/>
+      <c r="I154" s="20"/>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="16" t="s">
+      <c r="A155" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="B155" s="17" t="n">
-        <v>-0.96</v>
-      </c>
-      <c r="C155" s="17" t="s">
+      <c r="B155" s="2" t="n">
+        <v>-0.952</v>
+      </c>
+      <c r="C155" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D155" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="F155" s="15"/>
-      <c r="G155" s="14"/>
+      <c r="F155" s="14"/>
+      <c r="G155" s="13"/>
       <c r="H155" s="2"/>
       <c r="I155" s="1"/>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="16" t="s">
+      <c r="A156" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B156" s="17" t="n">
-        <v>-0.96</v>
-      </c>
-      <c r="C156" s="17" t="s">
-        <v>15</v>
+      <c r="B156" s="2" t="n">
+        <v>-0.952</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="D156" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="F156" s="15"/>
+      <c r="F156" s="14"/>
       <c r="G156" s="1"/>
       <c r="H156" s="2"/>
       <c r="I156" s="1"/>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="1" t="s">
+      <c r="A157" s="13" t="s">
         <v>160</v>
       </c>
       <c r="B157" s="2" t="n">
-        <v>-0.962</v>
+        <v>-0.955</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F157" s="15"/>
-      <c r="G157" s="14"/>
+        <v>17</v>
+      </c>
+      <c r="F157" s="14"/>
+      <c r="G157" s="13"/>
       <c r="H157" s="2"/>
       <c r="I157" s="1"/>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="14" t="s">
+      <c r="A158" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="B158" s="2" t="n">
-        <v>-0.965</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F158" s="15"/>
+      <c r="B158" s="17" t="n">
+        <v>-0.956</v>
+      </c>
+      <c r="C158" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F158" s="14"/>
       <c r="G158" s="1"/>
       <c r="H158" s="2"/>
       <c r="I158" s="1"/>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="14" t="s">
+      <c r="A159" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="B159" s="2" t="n">
-        <v>-0.965</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F159" s="15"/>
+      <c r="B159" s="17" t="n">
+        <v>-0.957</v>
+      </c>
+      <c r="C159" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F159" s="14"/>
       <c r="G159" s="1"/>
       <c r="H159" s="2"/>
       <c r="I159" s="1"/>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="16" t="s">
+      <c r="A160" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="B160" s="17" t="n">
-        <v>-0.969</v>
-      </c>
-      <c r="C160" s="17" t="s">
-        <v>15</v>
+      <c r="B160" s="15" t="n">
+        <v>-0.957</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="D160" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="F160" s="15"/>
-      <c r="G160" s="14"/>
+      <c r="F160" s="14"/>
+      <c r="G160" s="13"/>
       <c r="H160" s="2"/>
       <c r="I160" s="1"/>
     </row>
@@ -3847,7 +3900,7 @@
         <v>164</v>
       </c>
       <c r="B161" s="17" t="n">
-        <v>-0.969</v>
+        <v>-0.958</v>
       </c>
       <c r="C161" s="17" t="s">
         <v>15</v>
@@ -3855,699 +3908,699 @@
       <c r="D161" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="F161" s="15"/>
-      <c r="G161" s="14"/>
+      <c r="F161" s="14"/>
+      <c r="G161" s="13"/>
       <c r="H161" s="2"/>
       <c r="I161" s="1"/>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="14" t="s">
+      <c r="A162" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="B162" s="2" t="n">
-        <v>-0.972</v>
+      <c r="B162" s="15" t="n">
+        <v>-0.958</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F162" s="15"/>
+        <v>17</v>
+      </c>
+      <c r="F162" s="14"/>
       <c r="G162" s="1"/>
       <c r="H162" s="2"/>
       <c r="I162" s="1"/>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="14" t="s">
+      <c r="A163" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="B163" s="2" t="n">
-        <v>-0.972</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F163" s="15"/>
-      <c r="G163" s="14"/>
+      <c r="B163" s="17" t="n">
+        <v>-0.959</v>
+      </c>
+      <c r="C163" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F163" s="14"/>
+      <c r="G163" s="13"/>
       <c r="H163" s="2"/>
       <c r="I163" s="1"/>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="1" t="s">
+      <c r="A164" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="B164" s="2" t="n">
-        <v>-0.977</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F164" s="15"/>
-      <c r="G164" s="14"/>
+      <c r="B164" s="17" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="C164" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F164" s="14"/>
+      <c r="G164" s="13"/>
       <c r="H164" s="2"/>
       <c r="I164" s="1"/>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="14" t="s">
+      <c r="A165" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="B165" s="14" t="n">
-        <v>-0.977</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F165" s="15"/>
-      <c r="G165" s="14"/>
+      <c r="B165" s="17" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="C165" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F165" s="14"/>
+      <c r="G165" s="13"/>
       <c r="H165" s="2"/>
       <c r="I165" s="1"/>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="14" t="s">
+      <c r="A166" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B166" s="14" t="n">
-        <v>-0.978</v>
+      <c r="B166" s="2" t="n">
+        <v>-0.962</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F166" s="15"/>
-      <c r="G166" s="14"/>
+        <v>15</v>
+      </c>
+      <c r="F166" s="14"/>
+      <c r="G166" s="13"/>
       <c r="H166" s="2"/>
       <c r="I166" s="1"/>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="14" t="s">
+      <c r="A167" s="13" t="s">
         <v>170</v>
       </c>
       <c r="B167" s="2" t="n">
-        <v>-0.98</v>
+        <v>-0.965</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F167" s="15"/>
+      <c r="F167" s="14"/>
       <c r="G167" s="1"/>
       <c r="H167" s="2"/>
       <c r="I167" s="1"/>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="14" t="s">
+      <c r="A168" s="13" t="s">
         <v>171</v>
       </c>
       <c r="B168" s="2" t="n">
-        <v>-0.984</v>
+        <v>-0.965</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F168" s="15"/>
-      <c r="G168" s="14"/>
+      <c r="F168" s="14"/>
+      <c r="G168" s="13"/>
       <c r="H168" s="2"/>
       <c r="I168" s="1"/>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="14" t="s">
+      <c r="A169" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="B169" s="2" t="n">
-        <v>-0.984</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F169" s="15"/>
-      <c r="G169" s="14"/>
+      <c r="B169" s="17" t="n">
+        <v>-0.969</v>
+      </c>
+      <c r="C169" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F169" s="14"/>
+      <c r="G169" s="13"/>
       <c r="H169" s="2"/>
       <c r="I169" s="1"/>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="1" t="s">
+      <c r="A170" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="B170" s="2" t="n">
-        <v>-0.985</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F170" s="15"/>
-      <c r="G170" s="14"/>
+      <c r="B170" s="17" t="n">
+        <v>-0.969</v>
+      </c>
+      <c r="C170" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F170" s="14"/>
+      <c r="G170" s="13"/>
       <c r="H170" s="2"/>
       <c r="I170" s="1"/>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="14" t="s">
+      <c r="A171" s="13" t="s">
         <v>174</v>
       </c>
       <c r="B171" s="2" t="n">
-        <v>-0.985</v>
+        <v>-0.97</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F171" s="15"/>
-      <c r="G171" s="14"/>
+      <c r="F171" s="14"/>
+      <c r="G171" s="13"/>
       <c r="H171" s="2"/>
       <c r="I171" s="1"/>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="16" t="s">
+      <c r="A172" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="B172" s="17" t="n">
-        <v>-0.988</v>
-      </c>
-      <c r="C172" s="17" t="s">
+      <c r="B172" s="2" t="n">
+        <v>-0.972</v>
+      </c>
+      <c r="C172" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D172" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="F172" s="15"/>
-      <c r="G172" s="14"/>
+      <c r="F172" s="14"/>
+      <c r="G172" s="13"/>
       <c r="H172" s="2"/>
       <c r="I172" s="1"/>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="14" t="s">
+      <c r="A173" s="13" t="s">
         <v>177</v>
       </c>
       <c r="B173" s="2" t="n">
-        <v>-0.988</v>
+        <v>-0.972</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F173" s="15"/>
+      <c r="F173" s="14"/>
       <c r="G173" s="1"/>
       <c r="H173" s="2"/>
       <c r="I173" s="1"/>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="16" t="s">
+      <c r="A174" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B174" s="17" t="n">
-        <v>-0.989</v>
-      </c>
-      <c r="C174" s="17" t="s">
+      <c r="B174" s="2" t="n">
+        <v>-0.977</v>
+      </c>
+      <c r="C174" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D174" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="F174" s="15"/>
+      <c r="F174" s="14"/>
       <c r="G174" s="1"/>
       <c r="H174" s="2"/>
       <c r="I174" s="1"/>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="14" t="s">
+      <c r="A175" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="B175" s="14" t="n">
-        <v>-0.989</v>
+      <c r="B175" s="15" t="n">
+        <v>-0.977</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F175" s="15"/>
-      <c r="G175" s="14"/>
+      <c r="F175" s="14"/>
+      <c r="G175" s="13"/>
       <c r="H175" s="2"/>
       <c r="I175" s="1"/>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="14" t="s">
+      <c r="A176" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="B176" s="2" t="n">
-        <v>-0.992</v>
+      <c r="B176" s="15" t="n">
+        <v>-0.978</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F176" s="15"/>
-      <c r="G176" s="14"/>
+      <c r="F176" s="14"/>
+      <c r="G176" s="13"/>
       <c r="H176" s="2"/>
       <c r="I176" s="1"/>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="14" t="s">
+      <c r="A177" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="B177" s="14" t="n">
-        <v>-0.993</v>
+      <c r="B177" s="2" t="n">
+        <v>-0.98</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F177" s="15"/>
-      <c r="G177" s="14"/>
+      <c r="F177" s="14"/>
+      <c r="G177" s="13"/>
       <c r="H177" s="2"/>
       <c r="I177" s="1"/>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="14" t="s">
+      <c r="A178" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="B178" s="14" t="n">
-        <v>-0.993</v>
+      <c r="B178" s="2" t="n">
+        <v>-0.984</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F178" s="15"/>
-      <c r="G178" s="14"/>
+      <c r="F178" s="14"/>
+      <c r="G178" s="13"/>
       <c r="H178" s="2"/>
       <c r="I178" s="1"/>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="1" t="s">
+      <c r="A179" s="13" t="s">
         <v>183</v>
       </c>
       <c r="B179" s="2" t="n">
-        <v>-0.994</v>
+        <v>-0.984</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F179" s="15"/>
-      <c r="G179" s="14"/>
+        <v>17</v>
+      </c>
+      <c r="F179" s="14"/>
+      <c r="G179" s="13"/>
       <c r="H179" s="2"/>
       <c r="I179" s="1"/>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="14" t="s">
+      <c r="A180" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B180" s="2" t="n">
-        <v>-0.995</v>
+        <v>-0.985</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F180" s="15"/>
+      <c r="F180" s="14"/>
       <c r="G180" s="1"/>
       <c r="H180" s="2"/>
       <c r="I180" s="1"/>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="14" t="s">
+      <c r="A181" s="13" t="s">
         <v>185</v>
       </c>
       <c r="B181" s="2" t="n">
-        <v>-0.995</v>
+        <v>-0.985</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F181" s="15"/>
+      <c r="F181" s="14"/>
       <c r="G181" s="1"/>
       <c r="H181" s="2"/>
       <c r="I181" s="1"/>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="14" t="s">
+      <c r="A182" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="B182" s="14" t="n">
-        <v>-0.995</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F182" s="15"/>
-      <c r="G182" s="14"/>
+      <c r="B182" s="17" t="n">
+        <v>-0.988</v>
+      </c>
+      <c r="C182" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F182" s="14"/>
+      <c r="G182" s="13"/>
       <c r="H182" s="2"/>
       <c r="I182" s="1"/>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="16" t="s">
+      <c r="A183" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="B183" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C183" s="17" t="s">
-        <v>15</v>
+      <c r="B183" s="2" t="n">
+        <v>-0.988</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="D183" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="F183" s="15"/>
-      <c r="G183" s="14"/>
+      <c r="F183" s="14"/>
+      <c r="G183" s="13"/>
       <c r="H183" s="2"/>
       <c r="I183" s="1"/>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="14" t="s">
+      <c r="A184" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="B184" s="14" t="n">
-        <v>-1.002</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F184" s="15"/>
+      <c r="B184" s="17" t="n">
+        <v>-0.989</v>
+      </c>
+      <c r="C184" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F184" s="14"/>
       <c r="G184" s="1"/>
       <c r="H184" s="2"/>
       <c r="I184" s="1"/>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="16" t="s">
+      <c r="A185" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="B185" s="17" t="n">
-        <v>-1.003</v>
-      </c>
-      <c r="C185" s="17" t="s">
-        <v>15</v>
+      <c r="B185" s="15" t="n">
+        <v>-0.989</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="D185" s="16" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="14" t="s">
+      <c r="A186" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="B186" s="14" t="n">
-        <v>-1.004</v>
+      <c r="B186" s="2" t="n">
+        <v>-0.992</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="16" t="s">
+      <c r="A187" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="B187" s="17" t="n">
-        <v>-1.005</v>
-      </c>
-      <c r="C187" s="17" t="s">
-        <v>15</v>
+      <c r="B187" s="15" t="n">
+        <v>-0.993</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="D187" s="16" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="16" t="s">
+      <c r="A188" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="B188" s="17" t="n">
-        <v>-1.007</v>
-      </c>
-      <c r="C188" s="17" t="s">
-        <v>15</v>
+      <c r="B188" s="15" t="n">
+        <v>-0.993</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="D188" s="16" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="14" t="s">
+      <c r="A189" s="1" t="s">
         <v>194</v>
       </c>
       <c r="B189" s="2" t="n">
+        <v>-0.994</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="B190" s="2" t="n">
+        <v>-0.995</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="B191" s="2" t="n">
+        <v>-0.995</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="B192" s="15" t="n">
+        <v>-0.995</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="B193" s="17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C193" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="B194" s="15" t="n">
+        <v>-1.002</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="B195" s="17" t="n">
+        <v>-1.003</v>
+      </c>
+      <c r="C195" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="B196" s="15" t="n">
+        <v>-1.004</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="B197" s="17" t="n">
+        <v>-1.005</v>
+      </c>
+      <c r="C197" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="B198" s="17" t="n">
+        <v>-1.007</v>
+      </c>
+      <c r="C198" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="B199" s="2" t="n">
         <v>-1.008</v>
       </c>
-      <c r="C189" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="B190" s="14" t="n">
+      <c r="C199" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="B200" s="15" t="n">
         <v>-1.009</v>
       </c>
-      <c r="C190" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="B191" s="2" t="n">
+      <c r="C200" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="B201" s="2" t="n">
         <v>-1.011</v>
       </c>
-      <c r="C191" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="B192" s="14" t="n">
+      <c r="C201" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="B202" s="15" t="n">
         <v>-1.013</v>
       </c>
-      <c r="C192" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="B193" s="2" t="n">
+      <c r="C202" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="B203" s="2" t="n">
+        <v>-1.013</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="B204" s="2" t="n">
         <v>-1.015</v>
       </c>
-      <c r="C193" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="B194" s="14" t="n">
+      <c r="C204" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="B205" s="15" t="n">
         <v>-1.017</v>
       </c>
-      <c r="C194" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="B195" s="2" t="n">
-        <v>-1.019</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="B196" s="14" t="n">
-        <v>-1.019</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="B197" s="14" t="n">
-        <v>-1.019</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B198" s="2" t="n">
-        <v>-1.021</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="B199" s="2" t="n">
-        <v>-1.023</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="B200" s="2" t="n">
-        <v>-1.024</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="B201" s="2" t="n">
-        <v>-1.024</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B202" s="2" t="n">
-        <v>-1.026</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="B203" s="2" t="n">
-        <v>-1.028</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="B204" s="14" t="n">
-        <v>-1.029</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="B205" s="17" t="n">
-        <v>-1.032</v>
-      </c>
-      <c r="C205" s="17" t="s">
-        <v>15</v>
+      <c r="C205" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="D205" s="16" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="14" t="s">
+      <c r="A206" s="13" t="s">
         <v>212</v>
       </c>
       <c r="B206" s="2" t="n">
-        <v>-1.032</v>
+        <v>-1.019</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="14" t="s">
+      <c r="A207" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="B207" s="2" t="n">
-        <v>-1.032</v>
+      <c r="B207" s="15" t="n">
+        <v>-1.019</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="16" t="s">
+      <c r="A208" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="B208" s="17" t="n">
-        <v>-1.034</v>
-      </c>
-      <c r="C208" s="17" t="s">
-        <v>15</v>
+      <c r="B208" s="15" t="n">
+        <v>-1.019</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="D208" s="16" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="14" t="s">
+      <c r="A209" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="B209" s="14" t="n">
-        <v>-1.035</v>
+      <c r="B209" s="2" t="n">
+        <v>-1.021</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="21" t="s">
+      <c r="A210" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="B210" s="22" t="n">
-        <v>-1.036</v>
-      </c>
-      <c r="C210" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D210" s="21" t="s">
+      <c r="B210" s="2" t="n">
+        <v>-1.023</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D210" s="20" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="14" t="s">
+      <c r="A211" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="B211" s="14" t="n">
-        <v>-1.036</v>
+      <c r="B211" s="2" t="n">
+        <v>-1.024</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="14" t="s">
+      <c r="A212" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="B212" s="14" t="n">
-        <v>-1.038</v>
+      <c r="B212" s="2" t="n">
+        <v>-1.024</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="16" t="s">
+      <c r="A213" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B213" s="17" t="n">
-        <v>-1.039</v>
-      </c>
-      <c r="C213" s="17" t="s">
+      <c r="B213" s="2" t="n">
+        <v>-1.026</v>
+      </c>
+      <c r="C213" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D213" s="16" t="s">
@@ -4555,281 +4608,281 @@
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="14" t="s">
+      <c r="A214" s="13" t="s">
         <v>221</v>
       </c>
       <c r="B214" s="2" t="n">
-        <v>-1.039</v>
+        <v>-1.028</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="16" t="s">
+      <c r="A215" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="B215" s="17" t="n">
-        <v>-1.042</v>
-      </c>
-      <c r="C215" s="17" t="s">
-        <v>15</v>
+      <c r="B215" s="15" t="n">
+        <v>-1.029</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="D215" s="16" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="14" t="s">
+      <c r="A216" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="B216" s="2" t="n">
-        <v>-1.043</v>
-      </c>
-      <c r="C216" s="2" t="s">
+      <c r="B216" s="17" t="n">
+        <v>-1.032</v>
+      </c>
+      <c r="C216" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="14" t="s">
+      <c r="A217" s="13" t="s">
         <v>224</v>
       </c>
       <c r="B217" s="2" t="n">
-        <v>-1.043</v>
+        <v>-1.032</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="14" t="s">
+      <c r="A218" s="13" t="s">
         <v>225</v>
       </c>
       <c r="B218" s="2" t="n">
-        <v>-1.045</v>
+        <v>-1.032</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="14" t="s">
+      <c r="A219" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="B219" s="14" t="n">
-        <v>-1.046</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>17</v>
+      <c r="B219" s="17" t="n">
+        <v>-1.034</v>
+      </c>
+      <c r="C219" s="17" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="16" t="s">
+      <c r="A220" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="B220" s="17" t="n">
-        <v>-1.05</v>
-      </c>
-      <c r="C220" s="17" t="s">
-        <v>15</v>
+      <c r="B220" s="15" t="n">
+        <v>-1.035</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="D220" s="16" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="16" t="s">
+      <c r="A221" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="B221" s="17" t="n">
-        <v>-1.05</v>
-      </c>
-      <c r="C221" s="17" t="s">
-        <v>15</v>
+      <c r="B221" s="21" t="n">
+        <v>-1.036</v>
+      </c>
+      <c r="C221" s="21" t="s">
+        <v>17</v>
       </c>
       <c r="D221" s="16" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="14" t="s">
+      <c r="A222" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="B222" s="2" t="n">
+      <c r="B222" s="15" t="n">
+        <v>-1.036</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="B223" s="15" t="n">
+        <v>-1.038</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="B224" s="17" t="n">
+        <v>-1.039</v>
+      </c>
+      <c r="C224" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="B225" s="2" t="n">
+        <v>-1.039</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="B226" s="17" t="n">
+        <v>-1.042</v>
+      </c>
+      <c r="C226" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="B227" s="2" t="n">
+        <v>-1.043</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="B228" s="2" t="n">
+        <v>-1.043</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="B229" s="2" t="n">
+        <v>-1.045</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="B230" s="15" t="n">
+        <v>-1.046</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="B231" s="17" t="n">
         <v>-1.05</v>
       </c>
-      <c r="C222" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="B223" s="14" t="n">
+      <c r="C231" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="B232" s="17" t="n">
         <v>-1.05</v>
       </c>
-      <c r="C223" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="B224" s="14" t="n">
-        <v>-1.052</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="B225" s="2" t="n">
-        <v>-1.053</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B226" s="2" t="n">
-        <v>-1.055</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="B227" s="2" t="n">
-        <v>-1.056</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="B228" s="2" t="n">
-        <v>-1.056</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="B229" s="14" t="n">
-        <v>-1.057</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B230" s="2" t="n">
-        <v>-1.058</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B231" s="2" t="n">
-        <v>-1.059</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B232" s="2" t="n">
-        <v>-1.061</v>
-      </c>
-      <c r="C232" s="2" t="s">
+      <c r="C232" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="14" t="s">
+      <c r="A233" s="13" t="s">
         <v>240</v>
       </c>
       <c r="B233" s="2" t="n">
-        <v>-1.061</v>
+        <v>-1.05</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="16" t="s">
+      <c r="A234" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="B234" s="17" t="n">
-        <v>-1.062</v>
-      </c>
-      <c r="C234" s="17" t="s">
-        <v>15</v>
+      <c r="B234" s="15" t="n">
+        <v>-1.05</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="D234" s="16" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="16" t="s">
+      <c r="A235" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="B235" s="17" t="n">
-        <v>-1.062</v>
-      </c>
-      <c r="C235" s="17" t="s">
-        <v>15</v>
+      <c r="B235" s="15" t="n">
+        <v>-1.052</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="D235" s="16" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="14" t="s">
+      <c r="A236" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="B236" s="14" t="n">
-        <v>-1.062</v>
+      <c r="B236" s="2" t="n">
+        <v>-1.053</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="16" t="s">
+      <c r="A237" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B237" s="17" t="n">
-        <v>-1.063</v>
-      </c>
-      <c r="C237" s="17" t="s">
+      <c r="B237" s="2" t="n">
+        <v>-1.055</v>
+      </c>
+      <c r="C237" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D237" s="16" t="s">
@@ -4837,520 +4890,520 @@
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="14" t="s">
+      <c r="A238" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="B238" s="14" t="n">
-        <v>-1.063</v>
+      <c r="B238" s="2" t="n">
+        <v>-1.056</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="14" t="s">
+      <c r="A239" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="B239" s="14" t="n">
-        <v>-1.063</v>
+      <c r="B239" s="2" t="n">
+        <v>-1.056</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="16" t="s">
+      <c r="A240" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="B240" s="17" t="n">
-        <v>-1.064</v>
-      </c>
-      <c r="C240" s="17" t="s">
-        <v>15</v>
+      <c r="B240" s="15" t="n">
+        <v>-1.057</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="D240" s="16" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="14" t="s">
+      <c r="A241" s="1" t="s">
         <v>249</v>
       </c>
       <c r="B241" s="2" t="n">
+        <v>-1.058</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B242" s="2" t="n">
+        <v>-1.059</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B243" s="2" t="n">
+        <v>-1.061</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="B244" s="2" t="n">
+        <v>-1.061</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="B245" s="17" t="n">
+        <v>-1.062</v>
+      </c>
+      <c r="C245" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="B246" s="17" t="n">
+        <v>-1.062</v>
+      </c>
+      <c r="C246" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="B247" s="15" t="n">
+        <v>-1.062</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="B248" s="17" t="n">
+        <v>-1.063</v>
+      </c>
+      <c r="C248" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="B249" s="15" t="n">
+        <v>-1.063</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="B250" s="15" t="n">
+        <v>-1.063</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="B251" s="17" t="n">
         <v>-1.064</v>
       </c>
-      <c r="C241" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="B242" s="14" t="n">
+      <c r="C251" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="B252" s="2" t="n">
+        <v>-1.064</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="B253" s="15" t="n">
         <v>-1.065</v>
       </c>
-      <c r="C242" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="B243" s="14" t="n">
+      <c r="C253" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="B254" s="15" t="n">
         <v>-1.066</v>
       </c>
-      <c r="C243" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="B244" s="14" t="n">
+      <c r="C254" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="B255" s="15" t="n">
         <v>-1.066</v>
       </c>
-      <c r="C244" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="B245" s="2" t="n">
+      <c r="C255" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="B256" s="2" t="n">
         <v>-1.068</v>
       </c>
-      <c r="C245" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="B246" s="14" t="n">
+      <c r="C256" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="B257" s="15" t="n">
         <v>-1.073</v>
       </c>
-      <c r="C246" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="B247" s="2" t="n">
+      <c r="C257" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="B258" s="2" t="n">
         <v>-1.074</v>
       </c>
-      <c r="C247" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="B248" s="2" t="n">
+      <c r="C258" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="B259" s="2" t="n">
         <v>-1.075</v>
       </c>
-      <c r="C248" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="B249" s="2" t="n">
+      <c r="C259" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="B260" s="2" t="n">
         <v>-1.076</v>
       </c>
-      <c r="C249" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="B250" s="14" t="n">
+      <c r="C260" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="B261" s="15" t="n">
         <v>-1.077</v>
       </c>
-      <c r="C250" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="14" t="s">
-        <v>259</v>
-      </c>
-      <c r="B251" s="2" t="n">
+      <c r="C261" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="B262" s="2" t="n">
         <v>-1.085</v>
       </c>
-      <c r="C251" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="14" t="s">
-        <v>260</v>
-      </c>
-      <c r="B252" s="14" t="n">
+      <c r="C262" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="B263" s="15" t="n">
         <v>-1.085</v>
       </c>
-      <c r="C252" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="B253" s="14" t="n">
+      <c r="C263" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="B264" s="15" t="n">
         <v>-1.086</v>
       </c>
-      <c r="C253" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="B254" s="14" t="n">
+      <c r="C264" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="B265" s="15" t="n">
         <v>-1.086</v>
       </c>
-      <c r="C254" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="14" t="s">
-        <v>263</v>
-      </c>
-      <c r="B255" s="14" t="n">
+      <c r="C265" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="B266" s="15" t="n">
         <v>-1.086</v>
       </c>
-      <c r="C255" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="14" t="s">
-        <v>264</v>
-      </c>
-      <c r="B256" s="2" t="n">
+      <c r="C266" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="B267" s="2" t="n">
         <v>-1.088</v>
       </c>
-      <c r="C256" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="B257" s="2" t="n">
+      <c r="C267" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="B268" s="2" t="n">
         <v>-1.088</v>
       </c>
-      <c r="C257" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="B258" s="14" t="n">
+      <c r="C268" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="B269" s="15" t="n">
         <v>-1.088</v>
       </c>
-      <c r="C258" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B259" s="2" t="n">
+      <c r="C269" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B270" s="2" t="n">
         <v>-1.089</v>
       </c>
-      <c r="C259" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="B260" s="2" t="n">
+      <c r="C270" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="B271" s="2" t="n">
         <v>-1.091</v>
       </c>
-      <c r="C260" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="B261" s="2" t="n">
+      <c r="C271" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="B272" s="2" t="n">
         <v>-1.092</v>
       </c>
-      <c r="C261" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="14" t="s">
-        <v>270</v>
-      </c>
-      <c r="B262" s="14" t="n">
+      <c r="C272" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="B273" s="15" t="n">
         <v>-1.095</v>
       </c>
-      <c r="C262" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="B263" s="2" t="n">
+      <c r="C273" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="B274" s="2" t="n">
         <v>-1.096</v>
       </c>
-      <c r="C263" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="B264" s="2" t="n">
+      <c r="C274" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="B275" s="2" t="n">
         <v>-1.097</v>
       </c>
-      <c r="C264" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="B265" s="2" t="n">
+      <c r="C275" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="B276" s="2" t="n">
         <v>-1.098</v>
       </c>
-      <c r="C265" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="B266" s="2" t="n">
+      <c r="C276" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="B277" s="2" t="n">
         <v>-1.102</v>
       </c>
-      <c r="C266" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B267" s="2" t="n">
+      <c r="C277" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B278" s="2" t="n">
         <v>-1.107</v>
       </c>
-      <c r="C267" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="B268" s="2" t="n">
+      <c r="C278" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="B279" s="2" t="n">
         <v>-1.108</v>
       </c>
-      <c r="C268" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="B269" s="14" t="n">
+      <c r="C279" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="B280" s="15" t="n">
         <v>-1.109</v>
       </c>
-      <c r="C269" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="B270" s="14" t="n">
+      <c r="C280" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="B281" s="15" t="n">
         <v>-1.109</v>
       </c>
-      <c r="C270" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="B271" s="2" t="n">
+      <c r="C281" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="B282" s="2" t="n">
         <v>-1.11</v>
       </c>
-      <c r="C271" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="14" t="s">
-        <v>280</v>
-      </c>
-      <c r="B272" s="2" t="n">
+      <c r="C282" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="B283" s="2" t="n">
         <v>-1.11</v>
       </c>
-      <c r="C272" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="B273" s="14" t="n">
+      <c r="C283" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="B284" s="15" t="n">
         <v>-1.11</v>
-      </c>
-      <c r="C273" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B274" s="2" t="n">
-        <v>-1.111</v>
-      </c>
-      <c r="C274" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="B275" s="2" t="n">
-        <v>-1.112</v>
-      </c>
-      <c r="C275" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="14" t="s">
-        <v>284</v>
-      </c>
-      <c r="B276" s="14" t="n">
-        <v>-1.112</v>
-      </c>
-      <c r="C276" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B277" s="2" t="n">
-        <v>-1.114</v>
-      </c>
-      <c r="C277" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="14" t="s">
-        <v>286</v>
-      </c>
-      <c r="B278" s="14" t="n">
-        <v>-1.117</v>
-      </c>
-      <c r="C278" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="B279" s="2" t="n">
-        <v>-1.118</v>
-      </c>
-      <c r="C279" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="14" t="s">
-        <v>288</v>
-      </c>
-      <c r="B280" s="2" t="n">
-        <v>-1.119</v>
-      </c>
-      <c r="C280" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="14" t="s">
-        <v>289</v>
-      </c>
-      <c r="B281" s="2" t="n">
-        <v>-1.121</v>
-      </c>
-      <c r="C281" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="B282" s="14" t="n">
-        <v>-1.121</v>
-      </c>
-      <c r="C282" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="14" t="s">
-        <v>291</v>
-      </c>
-      <c r="B283" s="2" t="n">
-        <v>-1.122</v>
-      </c>
-      <c r="C283" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="14" t="s">
-        <v>292</v>
-      </c>
-      <c r="B284" s="2" t="n">
-        <v>-1.123</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>17</v>
@@ -5361,257 +5414,257 @@
         <v>293</v>
       </c>
       <c r="B285" s="2" t="n">
-        <v>-1.125</v>
+        <v>-1.111</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="14" t="s">
+      <c r="A286" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="B286" s="14" t="n">
-        <v>-1.125</v>
+      <c r="B286" s="2" t="n">
+        <v>-1.112</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="14" t="s">
+      <c r="A287" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="B287" s="2" t="n">
-        <v>-1.129</v>
+      <c r="B287" s="15" t="n">
+        <v>-1.112</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="14" t="s">
+      <c r="A288" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B288" s="14" t="n">
-        <v>-1.13</v>
+      <c r="B288" s="2" t="n">
+        <v>-1.114</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="14" t="s">
+      <c r="A289" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="B289" s="2" t="n">
-        <v>-1.131</v>
+      <c r="B289" s="15" t="n">
+        <v>-1.117</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="14" t="s">
+      <c r="A290" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="B290" s="14" t="n">
-        <v>-1.132</v>
+      <c r="B290" s="2" t="n">
+        <v>-1.118</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="1" t="s">
+      <c r="A291" s="13" t="s">
         <v>299</v>
       </c>
       <c r="B291" s="2" t="n">
-        <v>-1.136</v>
+        <v>-1.119</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="14" t="s">
+      <c r="A292" s="13" t="s">
         <v>300</v>
       </c>
       <c r="B292" s="2" t="n">
-        <v>-1.141</v>
+        <v>-1.121</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="14" t="s">
+      <c r="A293" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="B293" s="14" t="n">
-        <v>-1.141</v>
+      <c r="B293" s="15" t="n">
+        <v>-1.121</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="14" t="s">
+      <c r="A294" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="B294" s="14" t="n">
-        <v>-1.142</v>
+      <c r="B294" s="2" t="n">
+        <v>-1.122</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="16" t="s">
+      <c r="A295" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="B295" s="17" t="n">
-        <v>-1.144</v>
-      </c>
-      <c r="C295" s="17" t="s">
-        <v>15</v>
+      <c r="B295" s="2" t="n">
+        <v>-1.123</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="D295" s="16" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="14" t="s">
+      <c r="A296" s="1" t="s">
         <v>305</v>
       </c>
       <c r="B296" s="2" t="n">
-        <v>-1.144</v>
+        <v>-1.125</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="14" t="s">
+      <c r="A297" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="B297" s="2" t="n">
-        <v>-1.145</v>
+      <c r="B297" s="15" t="n">
+        <v>-1.125</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="14" t="s">
+      <c r="A298" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="B298" s="14" t="n">
-        <v>-1.146</v>
+      <c r="B298" s="2" t="n">
+        <v>-1.129</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="14" t="s">
+      <c r="A299" s="13" t="s">
         <v>308</v>
       </c>
-      <c r="B299" s="2" t="n">
-        <v>-1.147</v>
+      <c r="B299" s="15" t="n">
+        <v>-1.13</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="14" t="s">
+      <c r="A300" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="B300" s="14" t="n">
-        <v>-1.148</v>
+      <c r="B300" s="2" t="n">
+        <v>-1.131</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="16" t="s">
+      <c r="A301" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="B301" s="17" t="n">
-        <v>-1.149</v>
-      </c>
-      <c r="C301" s="17" t="s">
-        <v>15</v>
+      <c r="B301" s="15" t="n">
+        <v>-1.132</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="D301" s="16" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="14" t="s">
+      <c r="A302" s="1" t="s">
         <v>311</v>
       </c>
       <c r="B302" s="2" t="n">
-        <v>-1.149</v>
+        <v>-1.136</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="14" t="s">
+      <c r="A303" s="13" t="s">
         <v>312</v>
       </c>
       <c r="B303" s="2" t="n">
-        <v>-1.149</v>
+        <v>-1.141</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="14" t="s">
+      <c r="A304" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="B304" s="2" t="n">
-        <v>-1.15</v>
+      <c r="B304" s="15" t="n">
+        <v>-1.141</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="14" t="s">
+      <c r="A305" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="B305" s="2" t="n">
-        <v>-1.152</v>
+      <c r="B305" s="15" t="n">
+        <v>-1.142</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="14" t="s">
+      <c r="A306" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="B306" s="14" t="n">
-        <v>-1.153</v>
-      </c>
-      <c r="C306" s="2" t="s">
-        <v>17</v>
+      <c r="B306" s="17" t="n">
+        <v>-1.144</v>
+      </c>
+      <c r="C306" s="17" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="16" t="s">
+      <c r="A307" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="B307" s="17" t="n">
-        <v>-1.154</v>
-      </c>
-      <c r="C307" s="17" t="s">
+      <c r="B307" s="2" t="n">
+        <v>-1.144</v>
+      </c>
+      <c r="C307" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D307" s="16" t="s">
@@ -5619,267 +5672,267 @@
       </c>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="14" t="s">
+      <c r="A308" s="13" t="s">
         <v>317</v>
       </c>
       <c r="B308" s="2" t="n">
-        <v>-1.157</v>
+        <v>-1.145</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="16" t="s">
+      <c r="A309" s="13" t="s">
         <v>318</v>
       </c>
-      <c r="B309" s="17" t="n">
-        <v>-1.158</v>
-      </c>
-      <c r="C309" s="17" t="s">
-        <v>15</v>
+      <c r="B309" s="15" t="n">
+        <v>-1.146</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="D309" s="16" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="1" t="s">
+      <c r="A310" s="13" t="s">
         <v>319</v>
       </c>
       <c r="B310" s="2" t="n">
+        <v>-1.147</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="B311" s="15" t="n">
+        <v>-1.148</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A312" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="B312" s="17" t="n">
+        <v>-1.149</v>
+      </c>
+      <c r="C312" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A313" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="B313" s="2" t="n">
+        <v>-1.149</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A314" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="B314" s="2" t="n">
+        <v>-1.149</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A315" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="B315" s="2" t="n">
+        <v>-1.15</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="B316" s="2" t="n">
+        <v>-1.151</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="B317" s="2" t="n">
+        <v>-1.152</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="B318" s="15" t="n">
+        <v>-1.153</v>
+      </c>
+      <c r="C318" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A319" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="B319" s="17" t="n">
+        <v>-1.154</v>
+      </c>
+      <c r="C319" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A320" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="B320" s="2" t="n">
+        <v>-1.157</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="B321" s="17" t="n">
+        <v>-1.158</v>
+      </c>
+      <c r="C321" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B322" s="2" t="n">
         <v>-1.16</v>
       </c>
-      <c r="C310" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="14" t="s">
-        <v>320</v>
-      </c>
-      <c r="B311" s="14" t="n">
+      <c r="C322" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A323" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="B323" s="15" t="n">
         <v>-1.16</v>
       </c>
-      <c r="C311" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A312" s="14" t="s">
-        <v>321</v>
-      </c>
-      <c r="B312" s="2" t="n">
+      <c r="C323" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A324" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="B324" s="2" t="n">
         <v>-1.165</v>
       </c>
-      <c r="C312" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A313" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="B313" s="2" t="n">
+      <c r="C324" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A325" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B325" s="2" t="n">
         <v>-1.167</v>
       </c>
-      <c r="C313" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="14" t="s">
-        <v>323</v>
-      </c>
-      <c r="B314" s="2" t="n">
+      <c r="C325" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A326" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="B326" s="2" t="n">
         <v>-1.167</v>
       </c>
-      <c r="C314" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="14" t="s">
-        <v>324</v>
-      </c>
-      <c r="B315" s="2" t="n">
+      <c r="C326" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A327" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="B327" s="2" t="n">
         <v>-1.168</v>
       </c>
-      <c r="C315" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="B316" s="2" t="n">
+      <c r="C327" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A328" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="B328" s="2" t="n">
         <v>-1.169</v>
       </c>
-      <c r="C316" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="B317" s="14" t="n">
+      <c r="C328" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A329" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="B329" s="15" t="n">
         <v>-1.172</v>
       </c>
-      <c r="C317" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="14" t="s">
-        <v>327</v>
-      </c>
-      <c r="B318" s="14" t="n">
+      <c r="C329" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A330" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="B330" s="2" t="n">
+        <v>-1.172</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A331" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="B331" s="15" t="n">
         <v>-1.173</v>
-      </c>
-      <c r="C318" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="B319" s="2" t="n">
-        <v>-1.174</v>
-      </c>
-      <c r="C319" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A320" s="14" t="s">
-        <v>329</v>
-      </c>
-      <c r="B320" s="2" t="n">
-        <v>-1.178</v>
-      </c>
-      <c r="C320" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A321" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B321" s="2" t="n">
-        <v>-1.179</v>
-      </c>
-      <c r="C321" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="14" t="s">
-        <v>331</v>
-      </c>
-      <c r="B322" s="14" t="n">
-        <v>-1.181</v>
-      </c>
-      <c r="C322" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A323" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="B323" s="2" t="n">
-        <v>-1.183</v>
-      </c>
-      <c r="C323" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A324" s="14" t="s">
-        <v>333</v>
-      </c>
-      <c r="B324" s="2" t="n">
-        <v>-1.185</v>
-      </c>
-      <c r="C324" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A325" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="B325" s="14" t="n">
-        <v>-1.185</v>
-      </c>
-      <c r="C325" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A326" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="B326" s="2" t="n">
-        <v>-1.187</v>
-      </c>
-      <c r="C326" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="14" t="s">
-        <v>336</v>
-      </c>
-      <c r="B327" s="2" t="n">
-        <v>-1.191</v>
-      </c>
-      <c r="C327" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A328" s="14" t="s">
-        <v>337</v>
-      </c>
-      <c r="B328" s="2" t="n">
-        <v>-1.192</v>
-      </c>
-      <c r="C328" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A329" s="14" t="s">
-        <v>338</v>
-      </c>
-      <c r="B329" s="2" t="n">
-        <v>-1.197</v>
-      </c>
-      <c r="C329" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A330" s="14" t="s">
-        <v>339</v>
-      </c>
-      <c r="B330" s="14" t="n">
-        <v>-1.199</v>
-      </c>
-      <c r="C330" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="14" t="s">
-        <v>340</v>
-      </c>
-      <c r="B331" s="14" t="n">
-        <v>-1.201</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>17</v>
@@ -5890,18 +5943,18 @@
         <v>341</v>
       </c>
       <c r="B332" s="2" t="n">
-        <v>-1.206</v>
+        <v>-1.174</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A333" s="14" t="s">
+      <c r="A333" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="B333" s="14" t="n">
-        <v>-1.211</v>
+      <c r="B333" s="2" t="n">
+        <v>-1.178</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>17</v>
@@ -5912,337 +5965,337 @@
         <v>343</v>
       </c>
       <c r="B334" s="2" t="n">
+        <v>-1.179</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A335" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="B335" s="15" t="n">
+        <v>-1.181</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A336" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B336" s="2" t="n">
+        <v>-1.183</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A337" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="B337" s="2" t="n">
+        <v>-1.185</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A338" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="B338" s="15" t="n">
+        <v>-1.185</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A339" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B339" s="2" t="n">
+        <v>-1.187</v>
+      </c>
+      <c r="C339" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A340" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="B340" s="2" t="n">
+        <v>-1.191</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A341" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="B341" s="2" t="n">
+        <v>-1.192</v>
+      </c>
+      <c r="C341" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A342" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="B342" s="2" t="n">
+        <v>-1.197</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A343" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B343" s="15" t="n">
+        <v>-1.199</v>
+      </c>
+      <c r="C343" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A344" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="B344" s="15" t="n">
+        <v>-1.201</v>
+      </c>
+      <c r="C344" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A345" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B345" s="2" t="n">
+        <v>-1.206</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A346" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="B346" s="15" t="n">
+        <v>-1.211</v>
+      </c>
+      <c r="C346" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A347" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B347" s="2" t="n">
         <v>-1.212</v>
       </c>
-      <c r="C334" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A335" s="14" t="s">
-        <v>344</v>
-      </c>
-      <c r="B335" s="14" t="n">
+      <c r="C347" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A348" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="B348" s="15" t="n">
         <v>-1.212</v>
       </c>
-      <c r="C335" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A336" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="B336" s="2" t="n">
+      <c r="C348" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A349" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="B349" s="2" t="n">
         <v>-1.218</v>
       </c>
-      <c r="C336" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="B337" s="2" t="n">
+      <c r="C349" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A350" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="B350" s="2" t="n">
         <v>-1.219</v>
       </c>
-      <c r="C337" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="14" t="s">
-        <v>347</v>
-      </c>
-      <c r="B338" s="2" t="n">
+      <c r="C350" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A351" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="B351" s="2" t="n">
         <v>-1.219</v>
       </c>
-      <c r="C338" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A339" s="14" t="s">
-        <v>348</v>
-      </c>
-      <c r="B339" s="2" t="n">
+      <c r="C351" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A352" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="B352" s="2" t="n">
         <v>-1.22</v>
       </c>
-      <c r="C339" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A340" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="B340" s="2" t="n">
+      <c r="C352" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A353" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B353" s="2" t="n">
         <v>-1.223</v>
       </c>
-      <c r="C340" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A341" s="14" t="s">
-        <v>350</v>
-      </c>
-      <c r="B341" s="2" t="n">
+      <c r="C353" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A354" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="B354" s="2" t="n">
         <v>-1.224</v>
       </c>
-      <c r="C341" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A342" s="14" t="s">
-        <v>351</v>
-      </c>
-      <c r="B342" s="2" t="n">
+      <c r="C354" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A355" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="B355" s="2" t="n">
         <v>-1.226</v>
       </c>
-      <c r="C342" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A343" s="14" t="s">
-        <v>352</v>
-      </c>
-      <c r="B343" s="2" t="n">
+      <c r="C355" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A356" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="B356" s="2" t="n">
         <v>-1.227</v>
       </c>
-      <c r="C343" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A344" s="14" t="s">
-        <v>353</v>
-      </c>
-      <c r="B344" s="14" t="n">
+      <c r="C356" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A357" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="B357" s="15" t="n">
         <v>-1.23</v>
       </c>
-      <c r="C344" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A345" s="14" t="s">
-        <v>354</v>
-      </c>
-      <c r="B345" s="14" t="n">
+      <c r="C357" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A358" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="B358" s="15" t="n">
         <v>-1.232</v>
       </c>
-      <c r="C345" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A346" s="14" t="s">
-        <v>355</v>
-      </c>
-      <c r="B346" s="2" t="n">
+      <c r="C358" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A359" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="B359" s="2" t="n">
         <v>-1.233</v>
       </c>
-      <c r="C346" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A347" s="14" t="s">
-        <v>356</v>
-      </c>
-      <c r="B347" s="2" t="n">
+      <c r="C359" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A360" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="B360" s="2" t="n">
         <v>-1.234</v>
       </c>
-      <c r="C347" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A348" s="14" t="s">
-        <v>357</v>
-      </c>
-      <c r="B348" s="2" t="n">
+      <c r="C360" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A361" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="B361" s="2" t="n">
         <v>-1.235</v>
       </c>
-      <c r="C348" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="14" t="s">
-        <v>358</v>
-      </c>
-      <c r="B349" s="14" t="n">
+      <c r="C361" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A362" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="B362" s="15" t="n">
         <v>-1.236</v>
       </c>
-      <c r="C349" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A350" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="B350" s="14" t="n">
+      <c r="C362" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A363" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="B363" s="15" t="n">
         <v>-1.236</v>
       </c>
-      <c r="C350" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A351" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="B351" s="14" t="n">
+      <c r="C363" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A364" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="B364" s="15" t="n">
         <v>-1.238</v>
-      </c>
-      <c r="C351" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A352" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="B352" s="2" t="n">
-        <v>-1.241</v>
-      </c>
-      <c r="C352" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A353" s="14" t="s">
-        <v>362</v>
-      </c>
-      <c r="B353" s="2" t="n">
-        <v>-1.249</v>
-      </c>
-      <c r="C353" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A354" s="14" t="s">
-        <v>363</v>
-      </c>
-      <c r="B354" s="2" t="n">
-        <v>-1.26</v>
-      </c>
-      <c r="C354" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A355" s="14" t="s">
-        <v>364</v>
-      </c>
-      <c r="B355" s="2" t="n">
-        <v>-1.261</v>
-      </c>
-      <c r="C355" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A356" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="B356" s="2" t="n">
-        <v>-1.261</v>
-      </c>
-      <c r="C356" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A357" s="14" t="s">
-        <v>366</v>
-      </c>
-      <c r="B357" s="2" t="n">
-        <v>-1.263</v>
-      </c>
-      <c r="C357" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A358" s="14" t="s">
-        <v>367</v>
-      </c>
-      <c r="B358" s="14" t="n">
-        <v>-1.263</v>
-      </c>
-      <c r="C358" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A359" s="14" t="s">
-        <v>368</v>
-      </c>
-      <c r="B359" s="2" t="n">
-        <v>-1.266</v>
-      </c>
-      <c r="C359" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A360" s="14" t="s">
-        <v>369</v>
-      </c>
-      <c r="B360" s="2" t="n">
-        <v>-1.272</v>
-      </c>
-      <c r="C360" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A361" s="14" t="s">
-        <v>370</v>
-      </c>
-      <c r="B361" s="2" t="n">
-        <v>-1.272</v>
-      </c>
-      <c r="C361" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A362" s="14" t="s">
-        <v>371</v>
-      </c>
-      <c r="B362" s="2" t="n">
-        <v>-1.273</v>
-      </c>
-      <c r="C362" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A363" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="B363" s="2" t="n">
-        <v>-1.28</v>
-      </c>
-      <c r="C363" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A364" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="B364" s="2" t="n">
-        <v>-1.285</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>17</v>
@@ -6253,273 +6306,429 @@
         <v>374</v>
       </c>
       <c r="B365" s="2" t="n">
+        <v>-1.241</v>
+      </c>
+      <c r="C365" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A366" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="B366" s="2" t="n">
+        <v>-1.249</v>
+      </c>
+      <c r="C366" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A367" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="B367" s="2" t="n">
+        <v>-1.26</v>
+      </c>
+      <c r="C367" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A368" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="B368" s="2" t="n">
+        <v>-1.261</v>
+      </c>
+      <c r="C368" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A369" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="B369" s="2" t="n">
+        <v>-1.261</v>
+      </c>
+      <c r="C369" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A370" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="B370" s="2" t="n">
+        <v>-1.263</v>
+      </c>
+      <c r="C370" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A371" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="B371" s="15" t="n">
+        <v>-1.263</v>
+      </c>
+      <c r="C371" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A372" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="B372" s="2" t="n">
+        <v>-1.266</v>
+      </c>
+      <c r="C372" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A373" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="B373" s="2" t="n">
+        <v>-1.272</v>
+      </c>
+      <c r="C373" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A374" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="B374" s="2" t="n">
+        <v>-1.272</v>
+      </c>
+      <c r="C374" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A375" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="B375" s="2" t="n">
+        <v>-1.273</v>
+      </c>
+      <c r="C375" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A376" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B376" s="2" t="n">
+        <v>-1.28</v>
+      </c>
+      <c r="C376" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A377" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="B377" s="2" t="n">
+        <v>-1.285</v>
+      </c>
+      <c r="C377" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A378" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B378" s="2" t="n">
         <v>-1.286</v>
       </c>
-      <c r="C365" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A366" s="14" t="s">
-        <v>375</v>
-      </c>
-      <c r="B366" s="14" t="n">
+      <c r="C378" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A379" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="B379" s="15" t="n">
         <v>-1.295</v>
       </c>
-      <c r="C366" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A367" s="14" t="s">
-        <v>376</v>
-      </c>
-      <c r="B367" s="14" t="n">
+      <c r="C379" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A380" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="B380" s="15" t="n">
         <v>-1.296</v>
       </c>
-      <c r="C367" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A368" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="B368" s="2" t="n">
+      <c r="C380" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A381" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="B381" s="2" t="n">
         <v>-1.298</v>
       </c>
-      <c r="C368" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A369" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="B369" s="14" t="n">
+      <c r="C381" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A382" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="B382" s="15" t="n">
         <v>-1.299</v>
       </c>
-      <c r="C369" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A370" s="14" t="s">
-        <v>379</v>
-      </c>
-      <c r="B370" s="2" t="n">
+      <c r="C382" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A383" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="B383" s="2" t="n">
         <v>-1.303</v>
       </c>
-      <c r="C370" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A371" s="14" t="s">
-        <v>380</v>
-      </c>
-      <c r="B371" s="14" t="n">
+      <c r="C383" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A384" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="B384" s="15" t="n">
         <v>-1.304</v>
       </c>
-      <c r="C371" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A372" s="14" t="s">
-        <v>381</v>
-      </c>
-      <c r="B372" s="14" t="n">
+      <c r="C384" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A385" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="B385" s="15" t="n">
         <v>-1.306</v>
       </c>
-      <c r="C372" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A373" s="14" t="s">
-        <v>382</v>
-      </c>
-      <c r="B373" s="14" t="n">
+      <c r="C385" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A386" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="B386" s="15" t="n">
         <v>-1.307</v>
       </c>
-      <c r="C373" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A374" s="14" t="s">
-        <v>383</v>
-      </c>
-      <c r="B374" s="2" t="n">
+      <c r="C386" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A387" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="B387" s="2" t="n">
         <v>-1.309</v>
       </c>
-      <c r="C374" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A375" s="14" t="s">
-        <v>384</v>
-      </c>
-      <c r="B375" s="14" t="n">
+      <c r="C387" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A388" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="B388" s="15" t="n">
         <v>-1.314</v>
       </c>
-      <c r="C375" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A376" s="14" t="s">
-        <v>385</v>
-      </c>
-      <c r="B376" s="2" t="n">
+      <c r="C388" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A389" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="B389" s="2" t="n">
         <v>-1.323</v>
       </c>
-      <c r="C376" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A377" s="14" t="s">
-        <v>386</v>
-      </c>
-      <c r="B377" s="14" t="n">
+      <c r="C389" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A390" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="B390" s="2" t="n">
+        <v>-1.331</v>
+      </c>
+      <c r="C390" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A391" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="B391" s="15" t="n">
         <v>-1.332</v>
       </c>
-      <c r="C377" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A378" s="14" t="s">
-        <v>387</v>
-      </c>
-      <c r="B378" s="2" t="n">
+      <c r="C391" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A392" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="B392" s="2" t="n">
         <v>-1.335</v>
       </c>
-      <c r="C378" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A379" s="14" t="s">
-        <v>388</v>
-      </c>
-      <c r="B379" s="14" t="n">
+      <c r="C392" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A393" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="B393" s="15" t="n">
         <v>-1.335</v>
       </c>
-      <c r="C379" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A380" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="B380" s="2" t="n">
+      <c r="C393" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A394" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B394" s="2" t="n">
         <v>-1.343</v>
       </c>
-      <c r="C380" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A381" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="B381" s="2" t="n">
+      <c r="C394" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A395" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B395" s="2" t="n">
         <v>-1.344</v>
       </c>
-      <c r="C381" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A382" s="14" t="s">
-        <v>391</v>
-      </c>
-      <c r="B382" s="2" t="n">
+      <c r="C395" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A396" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="B396" s="2" t="n">
         <v>-1.346</v>
       </c>
-      <c r="C382" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A383" s="14" t="s">
-        <v>392</v>
-      </c>
-      <c r="B383" s="2" t="n">
+      <c r="C396" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A397" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="B397" s="2" t="n">
         <v>-1.347</v>
       </c>
-      <c r="C383" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A384" s="14" t="s">
-        <v>393</v>
-      </c>
-      <c r="B384" s="2" t="n">
+      <c r="C397" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A398" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="B398" s="2" t="n">
         <v>-1.352</v>
       </c>
-      <c r="C384" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A385" s="14" t="s">
-        <v>394</v>
-      </c>
-      <c r="B385" s="14" t="n">
+      <c r="C398" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A399" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="B399" s="15" t="n">
         <v>-1.362</v>
       </c>
-      <c r="C385" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A386" s="14" t="s">
-        <v>395</v>
-      </c>
-      <c r="B386" s="14" t="n">
+      <c r="C399" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A400" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="B400" s="15" t="n">
         <v>-1.366</v>
       </c>
-      <c r="C386" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A387" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="B387" s="2" t="n">
+      <c r="C400" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A401" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B401" s="2" t="n">
         <v>-1.375</v>
       </c>
-      <c r="C387" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A388" s="14"/>
-      <c r="B388" s="14"/>
-    </row>
-    <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A389" s="14"/>
-      <c r="B389" s="14"/>
-    </row>
-    <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A390" s="14"/>
-      <c r="B390" s="14"/>
-    </row>
-    <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A391" s="14"/>
-      <c r="B391" s="14"/>
-    </row>
-    <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A392" s="14"/>
-      <c r="B392" s="14"/>
+      <c r="C401" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A402" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="B402" s="2" t="n">
+        <v>-1.955</v>
+      </c>
+      <c r="C402" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D402" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A403" s="13"/>
+      <c r="B403" s="15"/>
+    </row>
+    <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A404" s="13"/>
+      <c r="B404" s="15"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/LD1014D_list.xlsx
+++ b/LD1014D_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="414">
   <si>
     <t xml:space="preserve">LD1014 List (matching without curves)</t>
   </si>
@@ -644,6 +644,9 @@
   </si>
   <si>
     <t xml:space="preserve">LD1014D_368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reserved co</t>
   </si>
   <si>
     <t xml:space="preserve">LD1014D_446</t>
@@ -1460,15 +1463,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC9211E"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1539,11 +1533,11 @@
   </sheetPr>
   <dimension ref="A1:AMJ404"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A382" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C390" activeCellId="0" sqref="C390"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A225" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D245" activeCellId="0" sqref="D245"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.52"/>
@@ -4473,10 +4467,13 @@
       <c r="C202" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="D202" s="1" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="13" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B203" s="2" t="n">
         <v>-1.013</v>
@@ -4484,10 +4481,13 @@
       <c r="C203" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="D203" s="1" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="13" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B204" s="2" t="n">
         <v>-1.015</v>
@@ -4498,7 +4498,7 @@
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B205" s="15" t="n">
         <v>-1.017</v>
@@ -4507,12 +4507,12 @@
         <v>17</v>
       </c>
       <c r="D205" s="16" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="13" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B206" s="2" t="n">
         <v>-1.019</v>
@@ -4523,7 +4523,7 @@
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="13" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B207" s="15" t="n">
         <v>-1.019</v>
@@ -4534,7 +4534,7 @@
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="13" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B208" s="15" t="n">
         <v>-1.019</v>
@@ -4543,12 +4543,12 @@
         <v>17</v>
       </c>
       <c r="D208" s="16" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="13" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B209" s="2" t="n">
         <v>-1.021</v>
@@ -4559,7 +4559,7 @@
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="13" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B210" s="2" t="n">
         <v>-1.023</v>
@@ -4568,12 +4568,12 @@
         <v>17</v>
       </c>
       <c r="D210" s="20" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="13" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B211" s="2" t="n">
         <v>-1.024</v>
@@ -4584,7 +4584,7 @@
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="13" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B212" s="2" t="n">
         <v>-1.024</v>
@@ -4595,7 +4595,7 @@
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B213" s="2" t="n">
         <v>-1.026</v>
@@ -4604,12 +4604,12 @@
         <v>15</v>
       </c>
       <c r="D213" s="16" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="13" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B214" s="2" t="n">
         <v>-1.028</v>
@@ -4620,7 +4620,7 @@
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="13" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B215" s="15" t="n">
         <v>-1.029</v>
@@ -4629,12 +4629,12 @@
         <v>17</v>
       </c>
       <c r="D215" s="16" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="16" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B216" s="17" t="n">
         <v>-1.032</v>
@@ -4645,7 +4645,7 @@
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="13" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B217" s="2" t="n">
         <v>-1.032</v>
@@ -4656,7 +4656,7 @@
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="13" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B218" s="2" t="n">
         <v>-1.032</v>
@@ -4667,7 +4667,7 @@
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="16" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B219" s="17" t="n">
         <v>-1.034</v>
@@ -4678,7 +4678,7 @@
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="13" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B220" s="15" t="n">
         <v>-1.035</v>
@@ -4692,7 +4692,7 @@
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="20" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B221" s="21" t="n">
         <v>-1.036</v>
@@ -4706,7 +4706,7 @@
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="13" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B222" s="15" t="n">
         <v>-1.036</v>
@@ -4717,7 +4717,7 @@
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="13" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B223" s="15" t="n">
         <v>-1.038</v>
@@ -4728,7 +4728,7 @@
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="16" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B224" s="17" t="n">
         <v>-1.039</v>
@@ -4739,7 +4739,7 @@
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="13" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B225" s="2" t="n">
         <v>-1.039</v>
@@ -4750,7 +4750,7 @@
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="16" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B226" s="17" t="n">
         <v>-1.042</v>
@@ -4761,7 +4761,7 @@
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="13" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B227" s="2" t="n">
         <v>-1.043</v>
@@ -4772,7 +4772,7 @@
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="13" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B228" s="2" t="n">
         <v>-1.043</v>
@@ -4783,7 +4783,7 @@
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="13" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B229" s="2" t="n">
         <v>-1.045</v>
@@ -4794,7 +4794,7 @@
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="13" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B230" s="15" t="n">
         <v>-1.046</v>
@@ -4805,7 +4805,7 @@
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="16" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B231" s="17" t="n">
         <v>-1.05</v>
@@ -4816,7 +4816,7 @@
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="16" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B232" s="17" t="n">
         <v>-1.05</v>
@@ -4827,7 +4827,7 @@
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="13" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B233" s="2" t="n">
         <v>-1.05</v>
@@ -4838,7 +4838,7 @@
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B234" s="15" t="n">
         <v>-1.05</v>
@@ -4847,12 +4847,12 @@
         <v>17</v>
       </c>
       <c r="D234" s="16" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="13" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B235" s="15" t="n">
         <v>-1.052</v>
@@ -4861,12 +4861,12 @@
         <v>17</v>
       </c>
       <c r="D235" s="16" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="13" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B236" s="2" t="n">
         <v>-1.053</v>
@@ -4877,7 +4877,7 @@
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B237" s="2" t="n">
         <v>-1.055</v>
@@ -4886,12 +4886,12 @@
         <v>15</v>
       </c>
       <c r="D237" s="16" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B238" s="2" t="n">
         <v>-1.056</v>
@@ -4902,7 +4902,7 @@
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="13" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B239" s="2" t="n">
         <v>-1.056</v>
@@ -4913,7 +4913,7 @@
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="13" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B240" s="15" t="n">
         <v>-1.057</v>
@@ -4922,12 +4922,12 @@
         <v>17</v>
       </c>
       <c r="D240" s="16" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B241" s="2" t="n">
         <v>-1.058</v>
@@ -4938,7 +4938,7 @@
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B242" s="2" t="n">
         <v>-1.059</v>
@@ -4949,7 +4949,7 @@
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B243" s="2" t="n">
         <v>-1.061</v>
@@ -4960,7 +4960,7 @@
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B244" s="2" t="n">
         <v>-1.061</v>
@@ -4971,7 +4971,7 @@
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="16" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B245" s="17" t="n">
         <v>-1.062</v>
@@ -4982,7 +4982,7 @@
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="16" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B246" s="17" t="n">
         <v>-1.062</v>
@@ -4993,7 +4993,7 @@
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="13" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B247" s="15" t="n">
         <v>-1.062</v>
@@ -5004,7 +5004,7 @@
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="16" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B248" s="17" t="n">
         <v>-1.063</v>
@@ -5015,7 +5015,7 @@
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="13" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B249" s="15" t="n">
         <v>-1.063</v>
@@ -5026,7 +5026,7 @@
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="13" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B250" s="15" t="n">
         <v>-1.063</v>
@@ -5037,7 +5037,7 @@
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="16" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B251" s="17" t="n">
         <v>-1.064</v>
@@ -5048,7 +5048,7 @@
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="13" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B252" s="2" t="n">
         <v>-1.064</v>
@@ -5059,7 +5059,7 @@
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="13" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B253" s="15" t="n">
         <v>-1.065</v>
@@ -5070,7 +5070,7 @@
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="13" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B254" s="15" t="n">
         <v>-1.066</v>
@@ -5078,10 +5078,13 @@
       <c r="C254" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="D254" s="1" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="13" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B255" s="15" t="n">
         <v>-1.066</v>
@@ -5089,10 +5092,13 @@
       <c r="C255" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="D255" s="1" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="13" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B256" s="2" t="n">
         <v>-1.068</v>
@@ -5103,7 +5109,7 @@
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="13" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B257" s="15" t="n">
         <v>-1.073</v>
@@ -5114,7 +5120,7 @@
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="13" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B258" s="2" t="n">
         <v>-1.074</v>
@@ -5125,7 +5131,7 @@
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="13" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B259" s="2" t="n">
         <v>-1.075</v>
@@ -5136,7 +5142,7 @@
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="13" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B260" s="2" t="n">
         <v>-1.076</v>
@@ -5147,7 +5153,7 @@
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="13" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B261" s="15" t="n">
         <v>-1.077</v>
@@ -5158,7 +5164,7 @@
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="13" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B262" s="2" t="n">
         <v>-1.085</v>
@@ -5169,7 +5175,7 @@
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="13" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B263" s="15" t="n">
         <v>-1.085</v>
@@ -5180,7 +5186,7 @@
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="13" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B264" s="15" t="n">
         <v>-1.086</v>
@@ -5191,7 +5197,7 @@
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="13" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B265" s="15" t="n">
         <v>-1.086</v>
@@ -5202,7 +5208,7 @@
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="13" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B266" s="15" t="n">
         <v>-1.086</v>
@@ -5213,7 +5219,7 @@
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="13" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B267" s="2" t="n">
         <v>-1.088</v>
@@ -5224,7 +5230,7 @@
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="13" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B268" s="2" t="n">
         <v>-1.088</v>
@@ -5235,7 +5241,7 @@
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="13" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B269" s="15" t="n">
         <v>-1.088</v>
@@ -5246,7 +5252,7 @@
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B270" s="2" t="n">
         <v>-1.089</v>
@@ -5257,7 +5263,7 @@
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="13" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B271" s="2" t="n">
         <v>-1.091</v>
@@ -5268,7 +5274,7 @@
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="13" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B272" s="2" t="n">
         <v>-1.092</v>
@@ -5279,7 +5285,7 @@
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B273" s="15" t="n">
         <v>-1.095</v>
@@ -5290,7 +5296,7 @@
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="13" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B274" s="2" t="n">
         <v>-1.096</v>
@@ -5301,7 +5307,7 @@
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="13" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B275" s="2" t="n">
         <v>-1.097</v>
@@ -5312,7 +5318,7 @@
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B276" s="2" t="n">
         <v>-1.098</v>
@@ -5323,7 +5329,7 @@
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="13" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B277" s="2" t="n">
         <v>-1.102</v>
@@ -5334,7 +5340,7 @@
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B278" s="2" t="n">
         <v>-1.107</v>
@@ -5345,7 +5351,7 @@
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B279" s="2" t="n">
         <v>-1.108</v>
@@ -5356,7 +5362,7 @@
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B280" s="15" t="n">
         <v>-1.109</v>
@@ -5367,7 +5373,7 @@
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="13" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B281" s="15" t="n">
         <v>-1.109</v>
@@ -5378,7 +5384,7 @@
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="13" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B282" s="2" t="n">
         <v>-1.11</v>
@@ -5389,7 +5395,7 @@
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="13" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B283" s="2" t="n">
         <v>-1.11</v>
@@ -5400,7 +5406,7 @@
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="13" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B284" s="15" t="n">
         <v>-1.11</v>
@@ -5411,7 +5417,7 @@
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B285" s="2" t="n">
         <v>-1.111</v>
@@ -5422,7 +5428,7 @@
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="13" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B286" s="2" t="n">
         <v>-1.112</v>
@@ -5433,7 +5439,7 @@
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="13" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B287" s="15" t="n">
         <v>-1.112</v>
@@ -5444,7 +5450,7 @@
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B288" s="2" t="n">
         <v>-1.114</v>
@@ -5455,7 +5461,7 @@
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="13" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B289" s="15" t="n">
         <v>-1.117</v>
@@ -5466,7 +5472,7 @@
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="13" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B290" s="2" t="n">
         <v>-1.118</v>
@@ -5477,7 +5483,7 @@
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="13" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B291" s="2" t="n">
         <v>-1.119</v>
@@ -5488,7 +5494,7 @@
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B292" s="2" t="n">
         <v>-1.121</v>
@@ -5499,7 +5505,7 @@
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="13" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B293" s="15" t="n">
         <v>-1.121</v>
@@ -5510,7 +5516,7 @@
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="13" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B294" s="2" t="n">
         <v>-1.122</v>
@@ -5521,7 +5527,7 @@
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="13" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B295" s="2" t="n">
         <v>-1.123</v>
@@ -5530,12 +5536,12 @@
         <v>17</v>
       </c>
       <c r="D295" s="16" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B296" s="2" t="n">
         <v>-1.125</v>
@@ -5546,7 +5552,7 @@
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="13" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B297" s="15" t="n">
         <v>-1.125</v>
@@ -5557,7 +5563,7 @@
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="13" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B298" s="2" t="n">
         <v>-1.129</v>
@@ -5568,7 +5574,7 @@
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="13" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B299" s="15" t="n">
         <v>-1.13</v>
@@ -5579,7 +5585,7 @@
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="13" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B300" s="2" t="n">
         <v>-1.131</v>
@@ -5590,7 +5596,7 @@
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="13" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B301" s="15" t="n">
         <v>-1.132</v>
@@ -5599,12 +5605,12 @@
         <v>17</v>
       </c>
       <c r="D301" s="16" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B302" s="2" t="n">
         <v>-1.136</v>
@@ -5615,7 +5621,7 @@
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="13" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B303" s="2" t="n">
         <v>-1.141</v>
@@ -5626,7 +5632,7 @@
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="13" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B304" s="15" t="n">
         <v>-1.141</v>
@@ -5637,7 +5643,7 @@
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="13" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B305" s="15" t="n">
         <v>-1.142</v>
@@ -5648,7 +5654,7 @@
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="16" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B306" s="17" t="n">
         <v>-1.144</v>
@@ -5659,7 +5665,7 @@
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="13" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B307" s="2" t="n">
         <v>-1.144</v>
@@ -5668,12 +5674,12 @@
         <v>15</v>
       </c>
       <c r="D307" s="16" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="13" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B308" s="2" t="n">
         <v>-1.145</v>
@@ -5684,7 +5690,7 @@
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="13" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B309" s="15" t="n">
         <v>-1.146</v>
@@ -5693,12 +5699,12 @@
         <v>17</v>
       </c>
       <c r="D309" s="16" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="13" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B310" s="2" t="n">
         <v>-1.147</v>
@@ -5709,7 +5715,7 @@
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="13" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B311" s="15" t="n">
         <v>-1.148</v>
@@ -5720,7 +5726,7 @@
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="16" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B312" s="17" t="n">
         <v>-1.149</v>
@@ -5731,7 +5737,7 @@
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="13" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B313" s="2" t="n">
         <v>-1.149</v>
@@ -5742,7 +5748,7 @@
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="13" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B314" s="2" t="n">
         <v>-1.149</v>
@@ -5753,7 +5759,7 @@
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="13" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B315" s="2" t="n">
         <v>-1.15</v>
@@ -5764,7 +5770,7 @@
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="13" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B316" s="2" t="n">
         <v>-1.151</v>
@@ -5775,7 +5781,7 @@
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="13" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B317" s="2" t="n">
         <v>-1.152</v>
@@ -5786,7 +5792,7 @@
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="13" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B318" s="15" t="n">
         <v>-1.153</v>
@@ -5797,7 +5803,7 @@
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="16" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B319" s="17" t="n">
         <v>-1.154</v>
@@ -5808,7 +5814,7 @@
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="13" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B320" s="2" t="n">
         <v>-1.157</v>
@@ -5819,7 +5825,7 @@
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="16" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B321" s="17" t="n">
         <v>-1.158</v>
@@ -5830,7 +5836,7 @@
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B322" s="2" t="n">
         <v>-1.16</v>
@@ -5841,7 +5847,7 @@
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="13" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B323" s="15" t="n">
         <v>-1.16</v>
@@ -5852,7 +5858,7 @@
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="13" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B324" s="2" t="n">
         <v>-1.165</v>
@@ -5863,7 +5869,7 @@
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B325" s="2" t="n">
         <v>-1.167</v>
@@ -5874,7 +5880,7 @@
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="13" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B326" s="2" t="n">
         <v>-1.167</v>
@@ -5885,7 +5891,7 @@
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="13" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B327" s="2" t="n">
         <v>-1.168</v>
@@ -5896,7 +5902,7 @@
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="13" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B328" s="2" t="n">
         <v>-1.169</v>
@@ -5907,7 +5913,7 @@
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="13" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B329" s="15" t="n">
         <v>-1.172</v>
@@ -5918,7 +5924,7 @@
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="13" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B330" s="2" t="n">
         <v>-1.172</v>
@@ -5929,7 +5935,7 @@
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="13" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B331" s="15" t="n">
         <v>-1.173</v>
@@ -5940,7 +5946,7 @@
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B332" s="2" t="n">
         <v>-1.174</v>
@@ -5951,7 +5957,7 @@
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="13" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B333" s="2" t="n">
         <v>-1.178</v>
@@ -5962,7 +5968,7 @@
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B334" s="2" t="n">
         <v>-1.179</v>
@@ -5973,7 +5979,7 @@
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B335" s="15" t="n">
         <v>-1.181</v>
@@ -5984,7 +5990,7 @@
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B336" s="2" t="n">
         <v>-1.183</v>
@@ -5995,7 +6001,7 @@
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="13" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B337" s="2" t="n">
         <v>-1.185</v>
@@ -6006,7 +6012,7 @@
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="13" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B338" s="15" t="n">
         <v>-1.185</v>
@@ -6017,7 +6023,7 @@
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B339" s="2" t="n">
         <v>-1.187</v>
@@ -6028,7 +6034,7 @@
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="13" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B340" s="2" t="n">
         <v>-1.191</v>
@@ -6039,7 +6045,7 @@
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="13" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B341" s="2" t="n">
         <v>-1.192</v>
@@ -6050,7 +6056,7 @@
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="13" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B342" s="2" t="n">
         <v>-1.197</v>
@@ -6061,7 +6067,7 @@
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="13" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B343" s="15" t="n">
         <v>-1.199</v>
@@ -6072,7 +6078,7 @@
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="13" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B344" s="15" t="n">
         <v>-1.201</v>
@@ -6083,7 +6089,7 @@
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B345" s="2" t="n">
         <v>-1.206</v>
@@ -6094,7 +6100,7 @@
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="13" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B346" s="15" t="n">
         <v>-1.211</v>
@@ -6105,7 +6111,7 @@
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B347" s="2" t="n">
         <v>-1.212</v>
@@ -6116,7 +6122,7 @@
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="13" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B348" s="15" t="n">
         <v>-1.212</v>
@@ -6127,7 +6133,7 @@
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="13" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B349" s="2" t="n">
         <v>-1.218</v>
@@ -6138,7 +6144,7 @@
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="13" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B350" s="2" t="n">
         <v>-1.219</v>
@@ -6149,7 +6155,7 @@
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="13" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B351" s="2" t="n">
         <v>-1.219</v>
@@ -6160,7 +6166,7 @@
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="13" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B352" s="2" t="n">
         <v>-1.22</v>
@@ -6171,7 +6177,7 @@
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B353" s="2" t="n">
         <v>-1.223</v>
@@ -6182,7 +6188,7 @@
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="13" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B354" s="2" t="n">
         <v>-1.224</v>
@@ -6193,7 +6199,7 @@
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="13" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B355" s="2" t="n">
         <v>-1.226</v>
@@ -6204,7 +6210,7 @@
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="13" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B356" s="2" t="n">
         <v>-1.227</v>
@@ -6215,7 +6221,7 @@
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="13" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B357" s="15" t="n">
         <v>-1.23</v>
@@ -6226,7 +6232,7 @@
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="13" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B358" s="15" t="n">
         <v>-1.232</v>
@@ -6237,7 +6243,7 @@
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="13" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B359" s="2" t="n">
         <v>-1.233</v>
@@ -6248,7 +6254,7 @@
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="13" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B360" s="2" t="n">
         <v>-1.234</v>
@@ -6259,7 +6265,7 @@
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="13" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B361" s="2" t="n">
         <v>-1.235</v>
@@ -6270,7 +6276,7 @@
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="13" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B362" s="15" t="n">
         <v>-1.236</v>
@@ -6281,7 +6287,7 @@
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="13" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B363" s="15" t="n">
         <v>-1.236</v>
@@ -6292,7 +6298,7 @@
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="13" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B364" s="15" t="n">
         <v>-1.238</v>
@@ -6303,7 +6309,7 @@
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B365" s="2" t="n">
         <v>-1.241</v>
@@ -6314,7 +6320,7 @@
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="13" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B366" s="2" t="n">
         <v>-1.249</v>
@@ -6325,7 +6331,7 @@
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="13" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B367" s="2" t="n">
         <v>-1.26</v>
@@ -6336,7 +6342,7 @@
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="13" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B368" s="2" t="n">
         <v>-1.261</v>
@@ -6347,7 +6353,7 @@
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="13" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B369" s="2" t="n">
         <v>-1.261</v>
@@ -6358,7 +6364,7 @@
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="13" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B370" s="2" t="n">
         <v>-1.263</v>
@@ -6369,7 +6375,7 @@
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B371" s="15" t="n">
         <v>-1.263</v>
@@ -6380,7 +6386,7 @@
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="13" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B372" s="2" t="n">
         <v>-1.266</v>
@@ -6391,7 +6397,7 @@
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="13" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B373" s="2" t="n">
         <v>-1.272</v>
@@ -6402,7 +6408,7 @@
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="13" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B374" s="2" t="n">
         <v>-1.272</v>
@@ -6413,7 +6419,7 @@
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="13" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B375" s="2" t="n">
         <v>-1.273</v>
@@ -6424,7 +6430,7 @@
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B376" s="2" t="n">
         <v>-1.28</v>
@@ -6435,7 +6441,7 @@
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="13" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B377" s="2" t="n">
         <v>-1.285</v>
@@ -6446,7 +6452,7 @@
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B378" s="2" t="n">
         <v>-1.286</v>
@@ -6457,7 +6463,7 @@
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="13" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B379" s="15" t="n">
         <v>-1.295</v>
@@ -6468,7 +6474,7 @@
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="13" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B380" s="15" t="n">
         <v>-1.296</v>
@@ -6479,7 +6485,7 @@
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="13" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B381" s="2" t="n">
         <v>-1.298</v>
@@ -6490,7 +6496,7 @@
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="13" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B382" s="15" t="n">
         <v>-1.299</v>
@@ -6501,7 +6507,7 @@
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="13" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B383" s="2" t="n">
         <v>-1.303</v>
@@ -6512,7 +6518,7 @@
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="13" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B384" s="15" t="n">
         <v>-1.304</v>
@@ -6523,7 +6529,7 @@
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="13" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B385" s="15" t="n">
         <v>-1.306</v>
@@ -6534,7 +6540,7 @@
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B386" s="15" t="n">
         <v>-1.307</v>
@@ -6545,7 +6551,7 @@
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="13" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B387" s="2" t="n">
         <v>-1.309</v>
@@ -6556,7 +6562,7 @@
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="13" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B388" s="15" t="n">
         <v>-1.314</v>
@@ -6567,7 +6573,7 @@
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="13" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B389" s="2" t="n">
         <v>-1.323</v>
@@ -6578,7 +6584,7 @@
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="13" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B390" s="2" t="n">
         <v>-1.331</v>
@@ -6589,7 +6595,7 @@
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="13" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B391" s="15" t="n">
         <v>-1.332</v>
@@ -6600,7 +6606,7 @@
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="13" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B392" s="2" t="n">
         <v>-1.335</v>
@@ -6611,7 +6617,7 @@
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="13" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B393" s="15" t="n">
         <v>-1.335</v>
@@ -6622,7 +6628,7 @@
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B394" s="2" t="n">
         <v>-1.343</v>
@@ -6633,7 +6639,7 @@
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B395" s="2" t="n">
         <v>-1.344</v>
@@ -6644,7 +6650,7 @@
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="13" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B396" s="2" t="n">
         <v>-1.346</v>
@@ -6655,7 +6661,7 @@
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="13" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B397" s="2" t="n">
         <v>-1.347</v>
@@ -6666,7 +6672,7 @@
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="13" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B398" s="2" t="n">
         <v>-1.352</v>
@@ -6677,7 +6683,7 @@
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="13" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B399" s="15" t="n">
         <v>-1.362</v>
@@ -6688,7 +6694,7 @@
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="13" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B400" s="15" t="n">
         <v>-1.366</v>
@@ -6699,7 +6705,7 @@
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B401" s="2" t="n">
         <v>-1.375</v>
@@ -6710,7 +6716,7 @@
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="13" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B402" s="2" t="n">
         <v>-1.955</v>
@@ -6719,7 +6725,7 @@
         <v>17</v>
       </c>
       <c r="D402" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/LD1014D_list.xlsx
+++ b/LD1014D_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="415">
   <si>
     <t xml:space="preserve">LD1014 List (matching without curves)</t>
   </si>
@@ -1175,6 +1175,9 @@
   </si>
   <si>
     <t xml:space="preserve">LD1014D_214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reserved ch</t>
   </si>
   <si>
     <t xml:space="preserve">LD1014D_202</t>
@@ -1533,11 +1536,11 @@
   </sheetPr>
   <dimension ref="A1:AMJ404"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A225" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D245" activeCellId="0" sqref="D245"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A175" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D202" activeCellId="0" sqref="D202"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.52"/>
@@ -6416,10 +6419,13 @@
       <c r="C374" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="D374" s="1" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="13" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B375" s="2" t="n">
         <v>-1.273</v>
@@ -6427,10 +6433,13 @@
       <c r="C375" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="D375" s="1" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B376" s="2" t="n">
         <v>-1.28</v>
@@ -6441,7 +6450,7 @@
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="13" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B377" s="2" t="n">
         <v>-1.285</v>
@@ -6452,7 +6461,7 @@
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B378" s="2" t="n">
         <v>-1.286</v>
@@ -6463,7 +6472,7 @@
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="13" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B379" s="15" t="n">
         <v>-1.295</v>
@@ -6474,7 +6483,7 @@
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="13" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B380" s="15" t="n">
         <v>-1.296</v>
@@ -6485,7 +6494,7 @@
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="13" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B381" s="2" t="n">
         <v>-1.298</v>
@@ -6496,7 +6505,7 @@
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="13" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B382" s="15" t="n">
         <v>-1.299</v>
@@ -6507,7 +6516,7 @@
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="13" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B383" s="2" t="n">
         <v>-1.303</v>
@@ -6518,7 +6527,7 @@
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="13" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B384" s="15" t="n">
         <v>-1.304</v>
@@ -6529,7 +6538,7 @@
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B385" s="15" t="n">
         <v>-1.306</v>
@@ -6540,7 +6549,7 @@
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="13" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B386" s="15" t="n">
         <v>-1.307</v>
@@ -6551,7 +6560,7 @@
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="13" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B387" s="2" t="n">
         <v>-1.309</v>
@@ -6562,7 +6571,7 @@
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="13" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B388" s="15" t="n">
         <v>-1.314</v>
@@ -6573,7 +6582,7 @@
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="13" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B389" s="2" t="n">
         <v>-1.323</v>
@@ -6584,7 +6593,7 @@
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="13" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B390" s="2" t="n">
         <v>-1.331</v>
@@ -6595,7 +6604,7 @@
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="13" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B391" s="15" t="n">
         <v>-1.332</v>
@@ -6606,7 +6615,7 @@
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="13" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B392" s="2" t="n">
         <v>-1.335</v>
@@ -6617,7 +6626,7 @@
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="13" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B393" s="15" t="n">
         <v>-1.335</v>
@@ -6628,7 +6637,7 @@
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B394" s="2" t="n">
         <v>-1.343</v>
@@ -6639,7 +6648,7 @@
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B395" s="2" t="n">
         <v>-1.344</v>
@@ -6650,7 +6659,7 @@
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="13" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B396" s="2" t="n">
         <v>-1.346</v>
@@ -6661,7 +6670,7 @@
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="13" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B397" s="2" t="n">
         <v>-1.347</v>
@@ -6672,7 +6681,7 @@
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="13" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B398" s="2" t="n">
         <v>-1.352</v>
@@ -6683,7 +6692,7 @@
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="13" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B399" s="15" t="n">
         <v>-1.362</v>
@@ -6694,7 +6703,7 @@
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="13" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B400" s="15" t="n">
         <v>-1.366</v>
@@ -6705,7 +6714,7 @@
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B401" s="2" t="n">
         <v>-1.375</v>
@@ -6716,7 +6725,7 @@
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="13" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B402" s="2" t="n">
         <v>-1.955</v>
@@ -6725,7 +6734,7 @@
         <v>17</v>
       </c>
       <c r="D402" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/LD1014D_list.xlsx
+++ b/LD1014D_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="415">
   <si>
     <t xml:space="preserve">LD1014 List (matching without curves)</t>
   </si>
@@ -1108,6 +1108,9 @@
     <t xml:space="preserve">LD1014D_275</t>
   </si>
   <si>
+    <t xml:space="preserve">reserved ch</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_272</t>
   </si>
   <si>
@@ -1175,9 +1178,6 @@
   </si>
   <si>
     <t xml:space="preserve">LD1014D_214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reserved ch</t>
   </si>
   <si>
     <t xml:space="preserve">LD1014D_202</t>
@@ -1536,11 +1536,11 @@
   </sheetPr>
   <dimension ref="A1:AMJ404"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A175" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D202" activeCellId="0" sqref="D202"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D92" activeCellId="0" sqref="D92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.52"/>
@@ -6166,10 +6166,13 @@
       <c r="C351" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="D351" s="1" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="13" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B352" s="2" t="n">
         <v>-1.22</v>
@@ -6177,10 +6180,13 @@
       <c r="C352" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="D352" s="1" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B353" s="2" t="n">
         <v>-1.223</v>
@@ -6191,7 +6197,7 @@
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="13" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B354" s="2" t="n">
         <v>-1.224</v>
@@ -6202,7 +6208,7 @@
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="13" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B355" s="2" t="n">
         <v>-1.226</v>
@@ -6213,7 +6219,7 @@
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="13" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B356" s="2" t="n">
         <v>-1.227</v>
@@ -6224,7 +6230,7 @@
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="13" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B357" s="15" t="n">
         <v>-1.23</v>
@@ -6232,10 +6238,13 @@
       <c r="C357" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="D357" s="1" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="13" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B358" s="15" t="n">
         <v>-1.232</v>
@@ -6246,7 +6255,7 @@
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="13" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B359" s="2" t="n">
         <v>-1.233</v>
@@ -6254,10 +6263,13 @@
       <c r="C359" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="D359" s="1" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="13" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B360" s="2" t="n">
         <v>-1.234</v>
@@ -6268,7 +6280,7 @@
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="13" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B361" s="2" t="n">
         <v>-1.235</v>
@@ -6279,7 +6291,7 @@
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="13" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B362" s="15" t="n">
         <v>-1.236</v>
@@ -6290,7 +6302,7 @@
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="13" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B363" s="15" t="n">
         <v>-1.236</v>
@@ -6301,7 +6313,7 @@
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="13" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B364" s="15" t="n">
         <v>-1.238</v>
@@ -6312,7 +6324,7 @@
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B365" s="2" t="n">
         <v>-1.241</v>
@@ -6323,7 +6335,7 @@
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="13" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B366" s="2" t="n">
         <v>-1.249</v>
@@ -6334,7 +6346,7 @@
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="13" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B367" s="2" t="n">
         <v>-1.26</v>
@@ -6345,7 +6357,7 @@
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="13" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B368" s="2" t="n">
         <v>-1.261</v>
@@ -6356,7 +6368,7 @@
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="13" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B369" s="2" t="n">
         <v>-1.261</v>
@@ -6367,7 +6379,7 @@
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B370" s="2" t="n">
         <v>-1.263</v>
@@ -6375,10 +6387,13 @@
       <c r="C370" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="D370" s="1" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="13" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B371" s="15" t="n">
         <v>-1.263</v>
@@ -6389,7 +6404,7 @@
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="13" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B372" s="2" t="n">
         <v>-1.266</v>
@@ -6397,10 +6412,13 @@
       <c r="C372" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="D372" s="1" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="13" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B373" s="2" t="n">
         <v>-1.272</v>
@@ -6411,7 +6429,7 @@
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="13" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B374" s="2" t="n">
         <v>-1.272</v>
@@ -6420,7 +6438,7 @@
         <v>17</v>
       </c>
       <c r="D374" s="1" t="s">
-        <v>385</v>
+        <v>362</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6434,7 +6452,7 @@
         <v>17</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>385</v>
+        <v>362</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/LD1014D_list.xlsx
+++ b/LD1014D_list.xlsx
@@ -1108,7 +1108,7 @@
     <t xml:space="preserve">LD1014D_275</t>
   </si>
   <si>
-    <t xml:space="preserve">reserved ch</t>
+    <t xml:space="preserve">sold ch</t>
   </si>
   <si>
     <t xml:space="preserve">LD1014D_272</t>
@@ -1536,11 +1536,11 @@
   </sheetPr>
   <dimension ref="A1:AMJ404"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D92" activeCellId="0" sqref="D92"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A346" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E364" activeCellId="0" sqref="E364"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.07421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.52"/>
@@ -6157,30 +6157,30 @@
       </c>
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A351" s="13" t="s">
+      <c r="A351" s="16" t="s">
         <v>361</v>
       </c>
-      <c r="B351" s="2" t="n">
+      <c r="B351" s="17" t="n">
         <v>-1.219</v>
       </c>
-      <c r="C351" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D351" s="1" t="s">
+      <c r="C351" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D351" s="16" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A352" s="13" t="s">
+      <c r="A352" s="16" t="s">
         <v>363</v>
       </c>
-      <c r="B352" s="2" t="n">
+      <c r="B352" s="17" t="n">
         <v>-1.22</v>
       </c>
-      <c r="C352" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D352" s="1" t="s">
+      <c r="C352" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D352" s="16" t="s">
         <v>362</v>
       </c>
     </row>
@@ -6229,16 +6229,16 @@
       </c>
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A357" s="13" t="s">
+      <c r="A357" s="16" t="s">
         <v>368</v>
       </c>
-      <c r="B357" s="15" t="n">
+      <c r="B357" s="17" t="n">
         <v>-1.23</v>
       </c>
-      <c r="C357" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D357" s="1" t="s">
+      <c r="C357" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D357" s="16" t="s">
         <v>362</v>
       </c>
     </row>
@@ -6254,16 +6254,16 @@
       </c>
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A359" s="13" t="s">
+      <c r="A359" s="16" t="s">
         <v>370</v>
       </c>
-      <c r="B359" s="2" t="n">
+      <c r="B359" s="17" t="n">
         <v>-1.233</v>
       </c>
-      <c r="C359" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D359" s="1" t="s">
+      <c r="C359" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D359" s="16" t="s">
         <v>362</v>
       </c>
     </row>
@@ -6378,16 +6378,16 @@
       </c>
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A370" s="13" t="s">
+      <c r="A370" s="16" t="s">
         <v>381</v>
       </c>
-      <c r="B370" s="2" t="n">
+      <c r="B370" s="17" t="n">
         <v>-1.263</v>
       </c>
-      <c r="C370" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D370" s="1" t="s">
+      <c r="C370" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D370" s="16" t="s">
         <v>362</v>
       </c>
     </row>
@@ -6403,16 +6403,16 @@
       </c>
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A372" s="13" t="s">
+      <c r="A372" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="B372" s="2" t="n">
+      <c r="B372" s="17" t="n">
         <v>-1.266</v>
       </c>
-      <c r="C372" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D372" s="1" t="s">
+      <c r="C372" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D372" s="16" t="s">
         <v>362</v>
       </c>
     </row>
@@ -6428,30 +6428,30 @@
       </c>
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A374" s="13" t="s">
+      <c r="A374" s="16" t="s">
         <v>385</v>
       </c>
-      <c r="B374" s="2" t="n">
+      <c r="B374" s="17" t="n">
         <v>-1.272</v>
       </c>
-      <c r="C374" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D374" s="1" t="s">
+      <c r="C374" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D374" s="16" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A375" s="13" t="s">
+      <c r="A375" s="16" t="s">
         <v>386</v>
       </c>
-      <c r="B375" s="2" t="n">
+      <c r="B375" s="17" t="n">
         <v>-1.273</v>
       </c>
-      <c r="C375" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D375" s="1" t="s">
+      <c r="C375" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D375" s="16" t="s">
         <v>362</v>
       </c>
     </row>

--- a/LD1014D_list.xlsx
+++ b/LD1014D_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="465">
   <si>
     <t xml:space="preserve">LD1014 List (matching without curves)</t>
   </si>
@@ -1415,12 +1415,6 @@
   </si>
   <si>
     <t xml:space="preserve">LD1014D_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LD1014D_457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bad?</t>
   </si>
 </sst>
 </file>
@@ -1524,7 +1518,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1535,10 +1529,6 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1630,15 +1620,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC9211E"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1707,10 +1688,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ459"/>
+  <dimension ref="A1:AMJ458"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A436" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+      <selection pane="topLeft" activeCell="A454" activeCellId="0" sqref="A454"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1719,147 +1700,146 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="11.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="3" width="11.99"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="6"/>
-      <c r="AMJ1" s="3"/>
-    </row>
-    <row r="2" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10"/>
-      <c r="AMJ2" s="3"/>
-    </row>
-    <row r="3" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5"/>
+      <c r="AMJ1" s="0"/>
+    </row>
+    <row r="2" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9"/>
+      <c r="AMJ2" s="0"/>
+    </row>
+    <row r="3" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="AMJ3" s="3"/>
-    </row>
-    <row r="4" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
+      <c r="AMJ3" s="0"/>
+    </row>
+    <row r="4" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
-      <c r="AMJ4" s="3"/>
-    </row>
-    <row r="5" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="AMJ4" s="0"/>
+    </row>
+    <row r="5" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
-      <c r="AMJ5" s="3"/>
-    </row>
-    <row r="6" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-      <c r="AMJ6" s="3"/>
-    </row>
-    <row r="7" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
+      <c r="B5" s="0"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
+      <c r="AMJ5" s="0"/>
+    </row>
+    <row r="6" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="13"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
+      <c r="AMJ6" s="0"/>
+    </row>
+    <row r="7" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
-      <c r="AMJ7" s="3"/>
-    </row>
-    <row r="8" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
+      <c r="AMJ7" s="0"/>
+    </row>
+    <row r="8" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
-      <c r="AMJ8" s="3"/>
-    </row>
-    <row r="9" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="s">
+      <c r="B8" s="0"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="AMJ8" s="0"/>
+    </row>
+    <row r="9" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-      <c r="AMJ9" s="3"/>
-    </row>
-    <row r="10" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="s">
+      <c r="B9" s="0"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
+      <c r="AMJ9" s="0"/>
+    </row>
+    <row r="10" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
-      <c r="AMJ10" s="3"/>
-    </row>
-    <row r="11" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
-      <c r="AMJ11" s="3"/>
-    </row>
-    <row r="12" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
+      <c r="B10" s="0"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9"/>
+      <c r="AMJ10" s="0"/>
+    </row>
+    <row r="11" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
+      <c r="AMJ11" s="0"/>
+    </row>
+    <row r="12" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-      <c r="AMJ12" s="3"/>
-    </row>
-    <row r="13" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="s">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
+      <c r="AMJ12" s="0"/>
+    </row>
+    <row r="13" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
-      <c r="AMJ13" s="3"/>
-    </row>
-    <row r="14" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
-      <c r="AMJ14" s="3"/>
-    </row>
-    <row r="16" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10" t="s">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
+      <c r="AMJ13" s="0"/>
+    </row>
+    <row r="14" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+      <c r="AMJ14" s="0"/>
+    </row>
+    <row r="16" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="10"/>
-      <c r="AMJ16" s="3"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
+      <c r="AMJ16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="14" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="2" t="n">
@@ -1868,13 +1848,13 @@
       <c r="C17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="14"/>
       <c r="H17" s="2"/>
       <c r="I17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="2" t="n">
@@ -1883,13 +1863,13 @@
       <c r="C18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="14"/>
       <c r="H18" s="2"/>
       <c r="I18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="14" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="n">
@@ -1898,13 +1878,13 @@
       <c r="C19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="16"/>
+      <c r="F19" s="15"/>
       <c r="G19" s="1"/>
       <c r="H19" s="2"/>
       <c r="I19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="n">
@@ -1913,13 +1893,13 @@
       <c r="C20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="16"/>
+      <c r="F20" s="15"/>
       <c r="G20" s="1"/>
       <c r="H20" s="2"/>
       <c r="I20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="14" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="n">
@@ -1928,7 +1908,7 @@
       <c r="C21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="16"/>
+      <c r="F21" s="15"/>
       <c r="G21" s="1"/>
       <c r="H21" s="2"/>
       <c r="I21" s="1"/>
@@ -1943,58 +1923,58 @@
       <c r="C22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="14"/>
       <c r="H22" s="2"/>
       <c r="I22" s="1"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="15" t="n">
+      <c r="B23" s="14" t="n">
         <v>-0.628</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="16"/>
+      <c r="F23" s="15"/>
       <c r="G23" s="1"/>
       <c r="H23" s="2"/>
       <c r="I23" s="1"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="15" t="n">
+      <c r="B24" s="14" t="n">
         <v>-0.628</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="16"/>
+      <c r="F24" s="15"/>
       <c r="G24" s="1"/>
       <c r="H24" s="2"/>
       <c r="I24" s="1"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="17" t="n">
+      <c r="B25" s="16" t="n">
         <v>-0.633</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="16"/>
+      <c r="F25" s="15"/>
       <c r="G25" s="1"/>
       <c r="H25" s="2"/>
       <c r="I25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="14" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="n">
@@ -2003,23 +1983,23 @@
       <c r="C26" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F26" s="16"/>
-      <c r="G26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="14"/>
       <c r="H26" s="2"/>
       <c r="I26" s="1"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="15" t="n">
+      <c r="B27" s="14" t="n">
         <v>-0.644</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F27" s="16"/>
-      <c r="G27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="14"/>
       <c r="H27" s="2"/>
       <c r="I27" s="1"/>
     </row>
@@ -2033,23 +2013,23 @@
       <c r="C28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="16"/>
+      <c r="F28" s="15"/>
       <c r="G28" s="1"/>
       <c r="H28" s="2"/>
       <c r="I28" s="1"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="15" t="n">
+      <c r="B29" s="14" t="n">
         <v>-0.646</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="16"/>
-      <c r="G29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="14"/>
       <c r="H29" s="2"/>
       <c r="I29" s="1"/>
     </row>
@@ -2063,88 +2043,88 @@
       <c r="C30" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F30" s="16"/>
-      <c r="G30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="14"/>
       <c r="H30" s="2"/>
       <c r="I30" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="15" t="n">
+      <c r="B31" s="14" t="n">
         <v>-0.648</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F31" s="16"/>
-      <c r="G31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="14"/>
       <c r="H31" s="2"/>
       <c r="I31" s="1"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="15" t="n">
+      <c r="B32" s="14" t="n">
         <v>-0.651</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F32" s="16"/>
+      <c r="F32" s="15"/>
       <c r="G32" s="1"/>
       <c r="H32" s="2"/>
       <c r="I32" s="1"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="15" t="n">
+      <c r="B33" s="14" t="n">
         <v>-0.655</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="16"/>
-      <c r="G33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="14"/>
       <c r="H33" s="2"/>
       <c r="I33" s="1"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="17" t="n">
+      <c r="B34" s="16" t="n">
         <v>-0.661</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F34" s="16"/>
-      <c r="G34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="14"/>
       <c r="H34" s="2"/>
       <c r="I34" s="1"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="15" t="n">
+      <c r="B35" s="14" t="n">
         <v>-0.663</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F35" s="16"/>
+      <c r="F35" s="15"/>
       <c r="G35" s="1"/>
       <c r="H35" s="2"/>
       <c r="I35" s="1"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="14" t="s">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="n">
@@ -2153,7 +2133,7 @@
       <c r="C36" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F36" s="16"/>
+      <c r="F36" s="15"/>
       <c r="G36" s="1"/>
       <c r="H36" s="2"/>
       <c r="I36" s="1"/>
@@ -2168,13 +2148,13 @@
       <c r="C37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="16"/>
-      <c r="G37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="14"/>
       <c r="H37" s="2"/>
       <c r="I37" s="1"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="14" t="s">
         <v>37</v>
       </c>
       <c r="B38" s="2" t="n">
@@ -2183,23 +2163,23 @@
       <c r="C38" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F38" s="16"/>
-      <c r="G38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="14"/>
       <c r="H38" s="2"/>
       <c r="I38" s="1"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="17" t="n">
+      <c r="B39" s="16" t="n">
         <v>-0.685</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F39" s="16"/>
-      <c r="G39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="14"/>
       <c r="H39" s="2"/>
       <c r="I39" s="1"/>
     </row>
@@ -2213,28 +2193,28 @@
       <c r="C40" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F40" s="16"/>
+      <c r="F40" s="15"/>
       <c r="G40" s="1"/>
       <c r="H40" s="2"/>
       <c r="I40" s="1"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="17" t="s">
+      <c r="A41" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="17" t="n">
+      <c r="B41" s="16" t="n">
         <v>-0.688</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F41" s="16"/>
+      <c r="F41" s="15"/>
       <c r="G41" s="1"/>
       <c r="H41" s="2"/>
       <c r="I41" s="1"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="14" t="s">
         <v>41</v>
       </c>
       <c r="B42" s="2" t="n">
@@ -2243,28 +2223,28 @@
       <c r="C42" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F42" s="16"/>
-      <c r="G42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="14"/>
       <c r="H42" s="2"/>
       <c r="I42" s="1"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="17" t="s">
+      <c r="A43" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="17" t="n">
+      <c r="B43" s="16" t="n">
         <v>-0.712</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F43" s="16"/>
+      <c r="F43" s="15"/>
       <c r="G43" s="1"/>
       <c r="H43" s="2"/>
       <c r="I43" s="1"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="14" t="s">
         <v>43</v>
       </c>
       <c r="B44" s="2" t="n">
@@ -2273,8 +2253,8 @@
       <c r="C44" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F44" s="16"/>
-      <c r="G44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="14"/>
       <c r="H44" s="2"/>
       <c r="I44" s="1"/>
     </row>
@@ -2288,13 +2268,13 @@
       <c r="C45" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F45" s="16"/>
+      <c r="F45" s="15"/>
       <c r="G45" s="1"/>
       <c r="H45" s="2"/>
       <c r="I45" s="1"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="14" t="s">
         <v>45</v>
       </c>
       <c r="B46" s="2" t="n">
@@ -2303,43 +2283,43 @@
       <c r="C46" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F46" s="16"/>
+      <c r="F46" s="15"/>
       <c r="G46" s="1"/>
       <c r="H46" s="2"/>
       <c r="I46" s="1"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="15" t="n">
+      <c r="B47" s="14" t="n">
         <v>-0.72</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F47" s="16"/>
-      <c r="G47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="14"/>
       <c r="H47" s="2"/>
       <c r="I47" s="1"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="15" t="s">
+      <c r="A48" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="15" t="n">
+      <c r="B48" s="14" t="n">
         <v>-0.722</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F48" s="16"/>
+      <c r="F48" s="15"/>
       <c r="G48" s="1"/>
       <c r="H48" s="2"/>
       <c r="I48" s="1"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="14" t="s">
         <v>48</v>
       </c>
       <c r="B49" s="2" t="n">
@@ -2348,13 +2328,13 @@
       <c r="C49" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F49" s="16"/>
+      <c r="F49" s="15"/>
       <c r="G49" s="1"/>
       <c r="H49" s="2"/>
       <c r="I49" s="1"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="15" t="s">
+      <c r="A50" s="14" t="s">
         <v>49</v>
       </c>
       <c r="B50" s="2" t="n">
@@ -2363,43 +2343,43 @@
       <c r="C50" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F50" s="16"/>
+      <c r="F50" s="15"/>
       <c r="G50" s="1"/>
       <c r="H50" s="2"/>
       <c r="I50" s="1"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="15" t="s">
+      <c r="A51" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="15" t="n">
+      <c r="B51" s="14" t="n">
         <v>-0.739</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F51" s="16"/>
-      <c r="G51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="14"/>
       <c r="H51" s="2"/>
       <c r="I51" s="1"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="15" t="s">
+      <c r="A52" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="15" t="n">
+      <c r="B52" s="14" t="n">
         <v>-0.745</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F52" s="16"/>
+      <c r="F52" s="15"/>
       <c r="G52" s="1"/>
       <c r="H52" s="2"/>
       <c r="I52" s="1"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="15" t="s">
+      <c r="A53" s="14" t="s">
         <v>52</v>
       </c>
       <c r="B53" s="2" t="n">
@@ -2408,28 +2388,28 @@
       <c r="C53" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F53" s="16"/>
+      <c r="F53" s="15"/>
       <c r="G53" s="1"/>
       <c r="H53" s="2"/>
       <c r="I53" s="1"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="17" t="s">
+      <c r="A54" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="17" t="n">
+      <c r="B54" s="16" t="n">
         <v>-0.755</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F54" s="16"/>
+      <c r="F54" s="15"/>
       <c r="G54" s="1"/>
       <c r="H54" s="2"/>
       <c r="I54" s="1"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="15" t="s">
+      <c r="A55" s="14" t="s">
         <v>54</v>
       </c>
       <c r="B55" s="2" t="n">
@@ -2438,8 +2418,8 @@
       <c r="C55" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F55" s="16"/>
-      <c r="G55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="14"/>
       <c r="H55" s="2"/>
       <c r="I55" s="1"/>
     </row>
@@ -2453,13 +2433,13 @@
       <c r="C56" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F56" s="16"/>
-      <c r="G56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="14"/>
       <c r="H56" s="2"/>
       <c r="I56" s="1"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="15" t="s">
+      <c r="A57" s="14" t="s">
         <v>56</v>
       </c>
       <c r="B57" s="2" t="n">
@@ -2468,88 +2448,88 @@
       <c r="C57" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F57" s="16"/>
+      <c r="F57" s="15"/>
       <c r="G57" s="1"/>
       <c r="H57" s="2"/>
       <c r="I57" s="1"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="17" t="s">
+      <c r="A58" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="17" t="n">
+      <c r="B58" s="16" t="n">
         <v>-0.763</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F58" s="16"/>
-      <c r="G58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="14"/>
       <c r="H58" s="2"/>
       <c r="I58" s="1"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="15" t="s">
+      <c r="A59" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B59" s="15" t="n">
+      <c r="B59" s="14" t="n">
         <v>-0.766</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F59" s="16"/>
-      <c r="G59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="14"/>
       <c r="H59" s="2"/>
       <c r="I59" s="1"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="15" t="s">
+      <c r="A60" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B60" s="15" t="n">
+      <c r="B60" s="14" t="n">
         <v>-0.766</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F60" s="16"/>
+      <c r="F60" s="15"/>
       <c r="G60" s="1"/>
       <c r="H60" s="2"/>
       <c r="I60" s="1"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="17" t="s">
+      <c r="A61" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="17" t="n">
+      <c r="B61" s="16" t="n">
         <v>-0.766</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F61" s="16"/>
+      <c r="F61" s="15"/>
       <c r="G61" s="1"/>
       <c r="H61" s="2"/>
       <c r="I61" s="1"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="15" t="s">
+      <c r="A62" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B62" s="15" t="n">
+      <c r="B62" s="14" t="n">
         <v>-0.767</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F62" s="16"/>
-      <c r="G62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="14"/>
       <c r="H62" s="2"/>
       <c r="I62" s="1"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="15" t="s">
+      <c r="A63" s="14" t="s">
         <v>62</v>
       </c>
       <c r="B63" s="2" t="n">
@@ -2558,28 +2538,28 @@
       <c r="C63" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F63" s="16"/>
+      <c r="F63" s="15"/>
       <c r="G63" s="1"/>
       <c r="H63" s="2"/>
       <c r="I63" s="1"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="15" t="s">
+      <c r="A64" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B64" s="15" t="n">
+      <c r="B64" s="14" t="n">
         <v>-0.776</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F64" s="16"/>
+      <c r="F64" s="15"/>
       <c r="G64" s="1"/>
       <c r="H64" s="2"/>
       <c r="I64" s="1"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="15" t="s">
+      <c r="A65" s="14" t="s">
         <v>64</v>
       </c>
       <c r="B65" s="2" t="n">
@@ -2588,13 +2568,13 @@
       <c r="C65" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F65" s="16"/>
+      <c r="F65" s="15"/>
       <c r="G65" s="1"/>
       <c r="H65" s="2"/>
       <c r="I65" s="1"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="15" t="s">
+      <c r="A66" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B66" s="2" t="n">
@@ -2603,23 +2583,23 @@
       <c r="C66" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F66" s="16"/>
-      <c r="G66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="14"/>
       <c r="H66" s="2"/>
       <c r="I66" s="1"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="15" t="s">
+      <c r="A67" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="B67" s="15" t="n">
+      <c r="B67" s="14" t="n">
         <v>-0.783</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F67" s="16"/>
-      <c r="G67" s="15"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="14"/>
       <c r="H67" s="2"/>
       <c r="I67" s="1"/>
     </row>
@@ -2633,13 +2613,13 @@
       <c r="C68" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F68" s="16"/>
+      <c r="F68" s="15"/>
       <c r="G68" s="1"/>
       <c r="H68" s="2"/>
       <c r="I68" s="1"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="15" t="s">
+      <c r="A69" s="14" t="s">
         <v>68</v>
       </c>
       <c r="B69" s="2" t="n">
@@ -2648,13 +2628,13 @@
       <c r="C69" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F69" s="16"/>
+      <c r="F69" s="15"/>
       <c r="G69" s="1"/>
       <c r="H69" s="2"/>
       <c r="I69" s="1"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="15" t="s">
+      <c r="A70" s="14" t="s">
         <v>69</v>
       </c>
       <c r="B70" s="2" t="n">
@@ -2663,7 +2643,7 @@
       <c r="C70" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F70" s="16"/>
+      <c r="F70" s="15"/>
       <c r="G70" s="1"/>
       <c r="H70" s="2"/>
       <c r="I70" s="1"/>
@@ -2678,13 +2658,13 @@
       <c r="C71" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F71" s="16"/>
-      <c r="G71" s="15"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="14"/>
       <c r="H71" s="2"/>
       <c r="I71" s="1"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="15" t="s">
+      <c r="A72" s="14" t="s">
         <v>71</v>
       </c>
       <c r="B72" s="2" t="n">
@@ -2693,13 +2673,13 @@
       <c r="C72" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F72" s="16"/>
-      <c r="G72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="14"/>
       <c r="H72" s="2"/>
       <c r="I72" s="1"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="15" t="s">
+      <c r="A73" s="14" t="s">
         <v>72</v>
       </c>
       <c r="B73" s="2" t="n">
@@ -2708,8 +2688,8 @@
       <c r="C73" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F73" s="16"/>
-      <c r="G73" s="15"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="14"/>
       <c r="H73" s="2"/>
       <c r="I73" s="1"/>
     </row>
@@ -2723,28 +2703,28 @@
       <c r="C74" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F74" s="16"/>
-      <c r="G74" s="15"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="14"/>
       <c r="H74" s="2"/>
       <c r="I74" s="1"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="17" t="s">
+      <c r="A75" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B75" s="17" t="n">
+      <c r="B75" s="16" t="n">
         <v>-0.8</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F75" s="16"/>
-      <c r="G75" s="15"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="14"/>
       <c r="H75" s="2"/>
       <c r="I75" s="1"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="15" t="s">
+      <c r="A76" s="14" t="s">
         <v>75</v>
       </c>
       <c r="B76" s="2" t="n">
@@ -2753,13 +2733,13 @@
       <c r="C76" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F76" s="16"/>
+      <c r="F76" s="15"/>
       <c r="G76" s="1"/>
       <c r="H76" s="2"/>
       <c r="I76" s="1"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="15" t="s">
+      <c r="A77" s="14" t="s">
         <v>76</v>
       </c>
       <c r="B77" s="2" t="n">
@@ -2768,13 +2748,13 @@
       <c r="C77" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F77" s="16"/>
+      <c r="F77" s="15"/>
       <c r="G77" s="1"/>
       <c r="H77" s="2"/>
       <c r="I77" s="1"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="15" t="s">
+      <c r="A78" s="14" t="s">
         <v>77</v>
       </c>
       <c r="B78" s="2" t="n">
@@ -2783,8 +2763,8 @@
       <c r="C78" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F78" s="16"/>
-      <c r="G78" s="15"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="14"/>
       <c r="H78" s="2"/>
       <c r="I78" s="1"/>
     </row>
@@ -2798,43 +2778,43 @@
       <c r="C79" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F79" s="16"/>
-      <c r="G79" s="15"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="14"/>
       <c r="H79" s="2"/>
       <c r="I79" s="1"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="17" t="s">
+      <c r="A80" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="B80" s="17" t="n">
+      <c r="B80" s="16" t="n">
         <v>-0.806</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F80" s="16"/>
+      <c r="F80" s="15"/>
       <c r="G80" s="1"/>
       <c r="H80" s="2"/>
       <c r="I80" s="1"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="15" t="s">
+      <c r="A81" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="B81" s="15" t="n">
+      <c r="B81" s="14" t="n">
         <v>-0.809</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F81" s="16"/>
-      <c r="G81" s="15"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="14"/>
       <c r="H81" s="2"/>
       <c r="I81" s="1"/>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="15" t="s">
+      <c r="A82" s="14" t="s">
         <v>81</v>
       </c>
       <c r="B82" s="2" t="n">
@@ -2843,8 +2823,8 @@
       <c r="C82" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F82" s="16"/>
-      <c r="G82" s="15"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="14"/>
       <c r="H82" s="2"/>
       <c r="I82" s="1"/>
     </row>
@@ -2858,13 +2838,13 @@
       <c r="C83" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F83" s="16"/>
-      <c r="G83" s="15"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="14"/>
       <c r="H83" s="2"/>
       <c r="I83" s="1"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="15" t="s">
+      <c r="A84" s="14" t="s">
         <v>83</v>
       </c>
       <c r="B84" s="2" t="n">
@@ -2873,13 +2853,13 @@
       <c r="C84" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F84" s="16"/>
+      <c r="F84" s="15"/>
       <c r="G84" s="1"/>
       <c r="H84" s="2"/>
       <c r="I84" s="1"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="15" t="s">
+      <c r="A85" s="14" t="s">
         <v>84</v>
       </c>
       <c r="B85" s="2" t="n">
@@ -2888,7 +2868,7 @@
       <c r="C85" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F85" s="16"/>
+      <c r="F85" s="15"/>
       <c r="G85" s="1"/>
       <c r="H85" s="2"/>
       <c r="I85" s="1"/>
@@ -2903,13 +2883,13 @@
       <c r="C86" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F86" s="16"/>
+      <c r="F86" s="15"/>
       <c r="G86" s="1"/>
       <c r="H86" s="2"/>
       <c r="I86" s="1"/>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="15" t="s">
+      <c r="A87" s="14" t="s">
         <v>86</v>
       </c>
       <c r="B87" s="2" t="n">
@@ -2918,7 +2898,7 @@
       <c r="C87" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F87" s="16"/>
+      <c r="F87" s="15"/>
       <c r="G87" s="1"/>
       <c r="H87" s="2"/>
       <c r="I87" s="1"/>
@@ -2933,8 +2913,8 @@
       <c r="C88" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F88" s="16"/>
-      <c r="G88" s="15"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="14"/>
       <c r="H88" s="2"/>
       <c r="I88" s="1"/>
     </row>
@@ -2948,73 +2928,73 @@
       <c r="C89" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F89" s="16"/>
+      <c r="F89" s="15"/>
       <c r="G89" s="1"/>
       <c r="H89" s="2"/>
       <c r="I89" s="1"/>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="15" t="s">
+      <c r="A90" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B90" s="15" t="n">
+      <c r="B90" s="14" t="n">
         <v>-0.835</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F90" s="16"/>
+      <c r="F90" s="15"/>
       <c r="G90" s="1"/>
       <c r="H90" s="2"/>
       <c r="I90" s="1"/>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="15" t="s">
+      <c r="A91" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="B91" s="15" t="n">
+      <c r="B91" s="14" t="n">
         <v>-0.835</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F91" s="16"/>
-      <c r="G91" s="15"/>
+      <c r="F91" s="15"/>
+      <c r="G91" s="14"/>
       <c r="H91" s="2"/>
       <c r="I91" s="1"/>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="17" t="s">
+      <c r="A92" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="B92" s="17" t="n">
+      <c r="B92" s="16" t="n">
         <v>-0.835</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F92" s="16"/>
-      <c r="G92" s="15"/>
+      <c r="F92" s="15"/>
+      <c r="G92" s="14"/>
       <c r="H92" s="2"/>
       <c r="I92" s="1"/>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="17" t="s">
+      <c r="A93" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="B93" s="17" t="n">
+      <c r="B93" s="16" t="n">
         <v>-0.835</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F93" s="16"/>
+      <c r="F93" s="15"/>
       <c r="G93" s="1"/>
       <c r="H93" s="2"/>
       <c r="I93" s="1"/>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="15" t="s">
+      <c r="A94" s="14" t="s">
         <v>93</v>
       </c>
       <c r="B94" s="2" t="n">
@@ -3023,22 +3003,22 @@
       <c r="C94" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F94" s="16"/>
+      <c r="F94" s="15"/>
       <c r="G94" s="1"/>
       <c r="H94" s="2"/>
       <c r="I94" s="1"/>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="15" t="s">
+      <c r="A95" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="B95" s="15" t="n">
+      <c r="B95" s="14" t="n">
         <v>-0.839</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F95" s="16"/>
+      <c r="F95" s="15"/>
       <c r="G95" s="1"/>
       <c r="H95" s="2"/>
       <c r="I95" s="1"/>
@@ -3053,128 +3033,128 @@
       <c r="C96" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F96" s="16"/>
+      <c r="F96" s="15"/>
       <c r="G96" s="1"/>
       <c r="H96" s="2"/>
       <c r="I96" s="1"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="18" t="s">
+      <c r="A97" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B97" s="19" t="n">
+      <c r="B97" s="18" t="n">
         <v>-0.846</v>
       </c>
-      <c r="C97" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D97" s="18" t="s">
+      <c r="C97" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D97" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="F97" s="16"/>
+      <c r="F97" s="15"/>
       <c r="G97" s="1"/>
       <c r="H97" s="2"/>
       <c r="I97" s="1"/>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="18" t="s">
+      <c r="A98" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="B98" s="19" t="n">
+      <c r="B98" s="18" t="n">
         <v>-0.847</v>
       </c>
-      <c r="C98" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D98" s="18" t="s">
+      <c r="C98" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D98" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="F98" s="16"/>
-      <c r="G98" s="15"/>
+      <c r="F98" s="15"/>
+      <c r="G98" s="14"/>
       <c r="H98" s="2"/>
       <c r="I98" s="1"/>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="18" t="s">
+      <c r="A99" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="B99" s="19" t="n">
+      <c r="B99" s="18" t="n">
         <v>-0.847</v>
       </c>
-      <c r="C99" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D99" s="18" t="s">
+      <c r="C99" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D99" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="F99" s="16"/>
-      <c r="G99" s="15"/>
+      <c r="F99" s="15"/>
+      <c r="G99" s="14"/>
       <c r="H99" s="2"/>
       <c r="I99" s="1"/>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="18" t="s">
+      <c r="A100" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="B100" s="19" t="n">
+      <c r="B100" s="18" t="n">
         <v>-0.847</v>
       </c>
-      <c r="C100" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D100" s="18" t="s">
+      <c r="C100" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D100" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="F100" s="16"/>
+      <c r="F100" s="15"/>
       <c r="G100" s="1"/>
       <c r="H100" s="2"/>
       <c r="I100" s="1"/>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="18" t="s">
+      <c r="A101" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="B101" s="19" t="n">
+      <c r="B101" s="18" t="n">
         <v>-0.848</v>
       </c>
-      <c r="C101" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D101" s="18" t="s">
+      <c r="C101" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D101" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="F101" s="16"/>
-      <c r="G101" s="15"/>
+      <c r="F101" s="15"/>
+      <c r="G101" s="14"/>
       <c r="H101" s="2"/>
       <c r="I101" s="1"/>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="15" t="s">
+      <c r="A102" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="B102" s="15" t="n">
+      <c r="B102" s="14" t="n">
         <v>-0.849</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F102" s="16"/>
-      <c r="G102" s="15"/>
+      <c r="F102" s="15"/>
+      <c r="G102" s="14"/>
       <c r="H102" s="2"/>
       <c r="I102" s="1"/>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="15" t="s">
+      <c r="A103" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="B103" s="15" t="n">
+      <c r="B103" s="14" t="n">
         <v>-0.853</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F103" s="16"/>
-      <c r="G103" s="15"/>
+      <c r="F103" s="15"/>
+      <c r="G103" s="14"/>
       <c r="H103" s="2"/>
       <c r="I103" s="1"/>
     </row>
@@ -3188,8 +3168,8 @@
       <c r="C104" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F104" s="16"/>
-      <c r="G104" s="15"/>
+      <c r="F104" s="15"/>
+      <c r="G104" s="14"/>
       <c r="H104" s="2"/>
       <c r="I104" s="1"/>
     </row>
@@ -3203,13 +3183,13 @@
       <c r="C105" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F105" s="16"/>
+      <c r="F105" s="15"/>
       <c r="G105" s="1"/>
       <c r="H105" s="2"/>
       <c r="I105" s="1"/>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="15" t="s">
+      <c r="A106" s="14" t="s">
         <v>106</v>
       </c>
       <c r="B106" s="2" t="n">
@@ -3218,28 +3198,28 @@
       <c r="C106" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F106" s="16"/>
+      <c r="F106" s="15"/>
       <c r="G106" s="1"/>
       <c r="H106" s="2"/>
       <c r="I106" s="1"/>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="15" t="s">
+      <c r="A107" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="B107" s="15" t="n">
+      <c r="B107" s="14" t="n">
         <v>-0.857</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F107" s="16"/>
-      <c r="G107" s="15"/>
+      <c r="F107" s="15"/>
+      <c r="G107" s="14"/>
       <c r="H107" s="2"/>
       <c r="I107" s="1"/>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="15" t="s">
+      <c r="A108" s="14" t="s">
         <v>108</v>
       </c>
       <c r="B108" s="2" t="n">
@@ -3248,44 +3228,44 @@
       <c r="C108" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F108" s="16"/>
+      <c r="F108" s="15"/>
       <c r="G108" s="1"/>
       <c r="H108" s="2"/>
       <c r="I108" s="1"/>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="15" t="s">
+      <c r="A109" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="B109" s="17" t="n">
+      <c r="B109" s="16" t="n">
         <v>-0.86</v>
       </c>
-      <c r="C109" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D109" s="15" t="s">
+      <c r="C109" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D109" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="F109" s="16"/>
+      <c r="F109" s="15"/>
       <c r="G109" s="1"/>
       <c r="H109" s="2"/>
       <c r="I109" s="1"/>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="15" t="s">
+      <c r="A110" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="B110" s="17" t="n">
+      <c r="B110" s="16" t="n">
         <v>-0.86</v>
       </c>
-      <c r="C110" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D110" s="15" t="s">
+      <c r="C110" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D110" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="F110" s="16"/>
-      <c r="G110" s="15"/>
+      <c r="F110" s="15"/>
+      <c r="G110" s="14"/>
       <c r="H110" s="2"/>
       <c r="I110" s="1"/>
     </row>
@@ -3299,28 +3279,28 @@
       <c r="C111" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F111" s="16"/>
+      <c r="F111" s="15"/>
       <c r="G111" s="1"/>
       <c r="H111" s="2"/>
       <c r="I111" s="1"/>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="17" t="s">
+      <c r="A112" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="B112" s="17" t="n">
+      <c r="B112" s="16" t="n">
         <v>-0.861</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F112" s="16"/>
-      <c r="G112" s="15"/>
+      <c r="F112" s="15"/>
+      <c r="G112" s="14"/>
       <c r="H112" s="2"/>
       <c r="I112" s="1"/>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="15" t="s">
+      <c r="A113" s="14" t="s">
         <v>114</v>
       </c>
       <c r="B113" s="2" t="n">
@@ -3329,28 +3309,28 @@
       <c r="C113" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F113" s="16"/>
-      <c r="G113" s="15"/>
+      <c r="F113" s="15"/>
+      <c r="G113" s="14"/>
       <c r="H113" s="2"/>
       <c r="I113" s="1"/>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="17" t="s">
+      <c r="A114" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B114" s="17" t="n">
+      <c r="B114" s="16" t="n">
         <v>-0.863</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F114" s="16"/>
-      <c r="G114" s="15"/>
+      <c r="F114" s="15"/>
+      <c r="G114" s="14"/>
       <c r="H114" s="2"/>
       <c r="I114" s="1"/>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="15" t="s">
+      <c r="A115" s="14" t="s">
         <v>116</v>
       </c>
       <c r="B115" s="2" t="n">
@@ -3359,28 +3339,28 @@
       <c r="C115" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F115" s="16"/>
+      <c r="F115" s="15"/>
       <c r="G115" s="1"/>
       <c r="H115" s="2"/>
       <c r="I115" s="1"/>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="15" t="s">
+      <c r="A116" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="B116" s="15" t="n">
+      <c r="B116" s="14" t="n">
         <v>-0.869</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F116" s="16"/>
-      <c r="G116" s="15"/>
+      <c r="F116" s="15"/>
+      <c r="G116" s="14"/>
       <c r="H116" s="2"/>
       <c r="I116" s="1"/>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="15" t="s">
+      <c r="A117" s="14" t="s">
         <v>118</v>
       </c>
       <c r="B117" s="2" t="n">
@@ -3389,43 +3369,43 @@
       <c r="C117" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F117" s="16"/>
+      <c r="F117" s="15"/>
       <c r="G117" s="1"/>
       <c r="H117" s="2"/>
       <c r="I117" s="1"/>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="17" t="s">
+      <c r="A118" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="B118" s="17" t="n">
+      <c r="B118" s="16" t="n">
         <v>-0.874</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F118" s="16"/>
+      <c r="F118" s="15"/>
       <c r="G118" s="1"/>
       <c r="H118" s="2"/>
       <c r="I118" s="1"/>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="17" t="s">
+      <c r="A119" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="B119" s="17" t="n">
+      <c r="B119" s="16" t="n">
         <v>-0.874</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F119" s="16"/>
+      <c r="F119" s="15"/>
       <c r="G119" s="1"/>
       <c r="H119" s="2"/>
       <c r="I119" s="1"/>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="15" t="s">
+      <c r="A120" s="14" t="s">
         <v>121</v>
       </c>
       <c r="B120" s="2" t="n">
@@ -3434,13 +3414,13 @@
       <c r="C120" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F120" s="16"/>
+      <c r="F120" s="15"/>
       <c r="G120" s="1"/>
       <c r="H120" s="2"/>
       <c r="I120" s="1"/>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="15" t="s">
+      <c r="A121" s="14" t="s">
         <v>122</v>
       </c>
       <c r="B121" s="2" t="n">
@@ -3449,8 +3429,8 @@
       <c r="C121" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F121" s="16"/>
-      <c r="G121" s="15"/>
+      <c r="F121" s="15"/>
+      <c r="G121" s="14"/>
       <c r="H121" s="2"/>
       <c r="I121" s="1"/>
     </row>
@@ -3464,53 +3444,53 @@
       <c r="C122" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F122" s="16"/>
+      <c r="F122" s="15"/>
       <c r="G122" s="1"/>
       <c r="H122" s="2"/>
       <c r="I122" s="1"/>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="17" t="s">
+      <c r="A123" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="B123" s="17" t="n">
+      <c r="B123" s="16" t="n">
         <v>-0.876</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F123" s="16"/>
-      <c r="G123" s="15"/>
+      <c r="F123" s="15"/>
+      <c r="G123" s="14"/>
       <c r="H123" s="2"/>
       <c r="I123" s="1"/>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="17" t="s">
+      <c r="A124" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="B124" s="17" t="n">
+      <c r="B124" s="16" t="n">
         <v>-0.878</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F124" s="16"/>
-      <c r="G124" s="15"/>
+      <c r="F124" s="15"/>
+      <c r="G124" s="14"/>
       <c r="H124" s="2"/>
       <c r="I124" s="1"/>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="15" t="s">
+      <c r="A125" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="B125" s="15" t="n">
+      <c r="B125" s="14" t="n">
         <v>-0.881</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F125" s="16"/>
-      <c r="G125" s="15"/>
+      <c r="F125" s="15"/>
+      <c r="G125" s="14"/>
       <c r="H125" s="2"/>
       <c r="I125" s="1"/>
     </row>
@@ -3524,13 +3504,13 @@
       <c r="C126" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F126" s="16"/>
-      <c r="G126" s="15"/>
+      <c r="F126" s="15"/>
+      <c r="G126" s="14"/>
       <c r="H126" s="2"/>
       <c r="I126" s="1"/>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="15" t="s">
+      <c r="A127" s="14" t="s">
         <v>128</v>
       </c>
       <c r="B127" s="2" t="n">
@@ -3539,28 +3519,28 @@
       <c r="C127" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F127" s="16"/>
-      <c r="G127" s="15"/>
+      <c r="F127" s="15"/>
+      <c r="G127" s="14"/>
       <c r="H127" s="2"/>
       <c r="I127" s="1"/>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="17" t="s">
+      <c r="A128" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="B128" s="17" t="n">
+      <c r="B128" s="16" t="n">
         <v>-0.883</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F128" s="16"/>
+      <c r="F128" s="15"/>
       <c r="G128" s="1"/>
       <c r="H128" s="2"/>
       <c r="I128" s="1"/>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="15" t="s">
+      <c r="A129" s="14" t="s">
         <v>130</v>
       </c>
       <c r="B129" s="2" t="n">
@@ -3569,8 +3549,8 @@
       <c r="C129" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F129" s="16"/>
-      <c r="G129" s="15"/>
+      <c r="F129" s="15"/>
+      <c r="G129" s="14"/>
       <c r="H129" s="2"/>
       <c r="I129" s="1"/>
     </row>
@@ -3584,8 +3564,8 @@
       <c r="C130" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F130" s="16"/>
-      <c r="G130" s="15"/>
+      <c r="F130" s="15"/>
+      <c r="G130" s="14"/>
       <c r="H130" s="2"/>
       <c r="I130" s="1"/>
     </row>
@@ -3599,37 +3579,37 @@
       <c r="C131" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F131" s="16"/>
-      <c r="G131" s="15"/>
+      <c r="F131" s="15"/>
+      <c r="G131" s="14"/>
       <c r="H131" s="2"/>
       <c r="I131" s="1"/>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="17" t="s">
+      <c r="A132" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="B132" s="17" t="n">
+      <c r="B132" s="16" t="n">
         <v>-0.887</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F132" s="16"/>
-      <c r="G132" s="15"/>
+      <c r="F132" s="15"/>
+      <c r="G132" s="14"/>
       <c r="H132" s="2"/>
       <c r="I132" s="1"/>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="17" t="s">
+      <c r="A133" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="B133" s="17" t="n">
+      <c r="B133" s="16" t="n">
         <v>-0.887</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F133" s="16"/>
+      <c r="F133" s="15"/>
       <c r="G133" s="1"/>
       <c r="H133" s="2"/>
       <c r="I133" s="1"/>
@@ -3644,13 +3624,13 @@
       <c r="C134" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F134" s="16"/>
+      <c r="F134" s="15"/>
       <c r="G134" s="1"/>
       <c r="H134" s="2"/>
       <c r="I134" s="1"/>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="15" t="s">
+      <c r="A135" s="14" t="s">
         <v>136</v>
       </c>
       <c r="B135" s="2" t="n">
@@ -3659,43 +3639,43 @@
       <c r="C135" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F135" s="16"/>
+      <c r="F135" s="15"/>
       <c r="G135" s="1"/>
       <c r="H135" s="2"/>
       <c r="I135" s="1"/>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="15" t="s">
+      <c r="A136" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="B136" s="15" t="n">
+      <c r="B136" s="14" t="n">
         <v>-0.894</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F136" s="16"/>
-      <c r="G136" s="15"/>
+      <c r="F136" s="15"/>
+      <c r="G136" s="14"/>
       <c r="H136" s="2"/>
       <c r="I136" s="1"/>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="17" t="s">
+      <c r="A137" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="B137" s="17" t="n">
+      <c r="B137" s="16" t="n">
         <v>-0.895</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F137" s="16"/>
-      <c r="G137" s="15"/>
+      <c r="F137" s="15"/>
+      <c r="G137" s="14"/>
       <c r="H137" s="2"/>
       <c r="I137" s="1"/>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="15" t="s">
+      <c r="A138" s="14" t="s">
         <v>139</v>
       </c>
       <c r="B138" s="2" t="n">
@@ -3704,74 +3684,74 @@
       <c r="C138" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F138" s="16"/>
+      <c r="F138" s="15"/>
       <c r="G138" s="1"/>
       <c r="H138" s="2"/>
       <c r="I138" s="1"/>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="18" t="s">
+      <c r="A139" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="B139" s="19" t="n">
+      <c r="B139" s="18" t="n">
         <v>-0.901</v>
       </c>
-      <c r="C139" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D139" s="18" t="s">
+      <c r="C139" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D139" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="F139" s="16"/>
-      <c r="G139" s="15"/>
+      <c r="F139" s="15"/>
+      <c r="G139" s="14"/>
       <c r="H139" s="2"/>
       <c r="I139" s="1"/>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="18" t="s">
+      <c r="A140" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="B140" s="19" t="n">
+      <c r="B140" s="18" t="n">
         <v>-0.901</v>
       </c>
-      <c r="C140" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D140" s="18" t="s">
+      <c r="C140" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D140" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="F140" s="16"/>
+      <c r="F140" s="15"/>
       <c r="G140" s="1"/>
       <c r="H140" s="2"/>
       <c r="I140" s="1"/>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="17" t="s">
+      <c r="A141" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="B141" s="17" t="n">
+      <c r="B141" s="16" t="n">
         <v>-0.902</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F141" s="16"/>
+      <c r="F141" s="15"/>
       <c r="G141" s="1"/>
       <c r="H141" s="2"/>
       <c r="I141" s="1"/>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="15" t="s">
+      <c r="A142" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="B142" s="15" t="n">
+      <c r="B142" s="14" t="n">
         <v>-0.904</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F142" s="16"/>
-      <c r="G142" s="15"/>
+      <c r="F142" s="15"/>
+      <c r="G142" s="14"/>
       <c r="H142" s="2"/>
       <c r="I142" s="1"/>
     </row>
@@ -3785,8 +3765,8 @@
       <c r="C143" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F143" s="16"/>
-      <c r="G143" s="15"/>
+      <c r="F143" s="15"/>
+      <c r="G143" s="14"/>
       <c r="H143" s="2"/>
       <c r="I143" s="1"/>
     </row>
@@ -3800,38 +3780,38 @@
       <c r="C144" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F144" s="16"/>
+      <c r="F144" s="15"/>
       <c r="G144" s="1"/>
       <c r="H144" s="2"/>
       <c r="I144" s="1"/>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="17" t="s">
+      <c r="A145" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="B145" s="17" t="n">
+      <c r="B145" s="16" t="n">
         <v>-0.913</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F145" s="16"/>
-      <c r="G145" s="15"/>
+      <c r="F145" s="15"/>
+      <c r="G145" s="14"/>
       <c r="H145" s="2"/>
       <c r="I145" s="1"/>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="15" t="s">
+      <c r="A146" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="B146" s="15" t="n">
+      <c r="B146" s="14" t="n">
         <v>-0.914</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F146" s="16"/>
-      <c r="G146" s="15"/>
+      <c r="F146" s="15"/>
+      <c r="G146" s="14"/>
       <c r="H146" s="2"/>
       <c r="I146" s="1"/>
     </row>
@@ -3845,43 +3825,43 @@
       <c r="C147" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F147" s="16"/>
+      <c r="F147" s="15"/>
       <c r="G147" s="1"/>
       <c r="H147" s="2"/>
       <c r="I147" s="1"/>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="17" t="s">
+      <c r="A148" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="B148" s="17" t="n">
+      <c r="B148" s="16" t="n">
         <v>-0.914</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F148" s="16"/>
+      <c r="F148" s="15"/>
       <c r="G148" s="1"/>
       <c r="H148" s="2"/>
       <c r="I148" s="1"/>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="17" t="s">
+      <c r="A149" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="B149" s="17" t="n">
+      <c r="B149" s="16" t="n">
         <v>-0.914</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F149" s="16"/>
+      <c r="F149" s="15"/>
       <c r="G149" s="1"/>
       <c r="H149" s="2"/>
       <c r="I149" s="1"/>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="15" t="s">
+      <c r="A150" s="14" t="s">
         <v>152</v>
       </c>
       <c r="B150" s="2" t="n">
@@ -3890,13 +3870,13 @@
       <c r="C150" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F150" s="16"/>
+      <c r="F150" s="15"/>
       <c r="G150" s="1"/>
       <c r="H150" s="2"/>
       <c r="I150" s="1"/>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="15" t="s">
+      <c r="A151" s="14" t="s">
         <v>153</v>
       </c>
       <c r="B151" s="2" t="n">
@@ -3905,28 +3885,28 @@
       <c r="C151" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F151" s="16"/>
-      <c r="G151" s="15"/>
+      <c r="F151" s="15"/>
+      <c r="G151" s="14"/>
       <c r="H151" s="2"/>
       <c r="I151" s="1"/>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="15" t="s">
+      <c r="A152" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="B152" s="15" t="n">
+      <c r="B152" s="14" t="n">
         <v>-0.917</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F152" s="16"/>
+      <c r="F152" s="15"/>
       <c r="G152" s="1"/>
       <c r="H152" s="2"/>
       <c r="I152" s="1"/>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="15" t="s">
+      <c r="A153" s="14" t="s">
         <v>155</v>
       </c>
       <c r="B153" s="2" t="n">
@@ -3935,13 +3915,13 @@
       <c r="C153" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F153" s="16"/>
+      <c r="F153" s="15"/>
       <c r="G153" s="1"/>
       <c r="H153" s="2"/>
       <c r="I153" s="1"/>
     </row>
-    <row r="154" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="15" t="s">
+    <row r="154" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="14" t="s">
         <v>156</v>
       </c>
       <c r="B154" s="2" t="n">
@@ -3951,28 +3931,28 @@
         <v>15</v>
       </c>
       <c r="D154" s="1"/>
-      <c r="F154" s="21"/>
-      <c r="G154" s="22"/>
-      <c r="H154" s="23"/>
-      <c r="I154" s="22"/>
+      <c r="F154" s="20"/>
+      <c r="G154" s="21"/>
+      <c r="H154" s="22"/>
+      <c r="I154" s="21"/>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="15" t="s">
+      <c r="A155" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="B155" s="15" t="n">
+      <c r="B155" s="14" t="n">
         <v>-0.92</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F155" s="16"/>
-      <c r="G155" s="15"/>
+      <c r="F155" s="15"/>
+      <c r="G155" s="14"/>
       <c r="H155" s="2"/>
       <c r="I155" s="1"/>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="15" t="s">
+      <c r="A156" s="14" t="s">
         <v>158</v>
       </c>
       <c r="B156" s="2" t="n">
@@ -3981,83 +3961,83 @@
       <c r="C156" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F156" s="16"/>
+      <c r="F156" s="15"/>
       <c r="G156" s="1"/>
       <c r="H156" s="2"/>
       <c r="I156" s="1"/>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="15" t="s">
+      <c r="A157" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="B157" s="15" t="n">
+      <c r="B157" s="14" t="n">
         <v>-0.922</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F157" s="16"/>
-      <c r="G157" s="15"/>
+      <c r="F157" s="15"/>
+      <c r="G157" s="14"/>
       <c r="H157" s="2"/>
       <c r="I157" s="1"/>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="15" t="s">
+      <c r="A158" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="B158" s="15" t="n">
+      <c r="B158" s="14" t="n">
         <v>-0.923</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F158" s="16"/>
+      <c r="F158" s="15"/>
       <c r="G158" s="1"/>
       <c r="H158" s="2"/>
       <c r="I158" s="1"/>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="17" t="s">
+      <c r="A159" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="B159" s="17" t="n">
+      <c r="B159" s="16" t="n">
         <v>-0.925</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F159" s="16"/>
+      <c r="F159" s="15"/>
       <c r="G159" s="1"/>
       <c r="H159" s="2"/>
       <c r="I159" s="1"/>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="17" t="s">
+      <c r="A160" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="B160" s="17" t="n">
+      <c r="B160" s="16" t="n">
         <v>-0.925</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F160" s="16"/>
-      <c r="G160" s="15"/>
+      <c r="F160" s="15"/>
+      <c r="G160" s="14"/>
       <c r="H160" s="2"/>
       <c r="I160" s="1"/>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="15" t="s">
+      <c r="A161" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="B161" s="15" t="n">
+      <c r="B161" s="14" t="n">
         <v>-0.927</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F161" s="16"/>
-      <c r="G161" s="15"/>
+      <c r="F161" s="15"/>
+      <c r="G161" s="14"/>
       <c r="H161" s="2"/>
       <c r="I161" s="1"/>
     </row>
@@ -4071,82 +4051,82 @@
       <c r="C162" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F162" s="16"/>
+      <c r="F162" s="15"/>
       <c r="G162" s="1"/>
       <c r="H162" s="2"/>
       <c r="I162" s="1"/>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="15" t="s">
+      <c r="A163" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="B163" s="15" t="n">
+      <c r="B163" s="14" t="n">
         <v>-0.932</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F163" s="16"/>
-      <c r="G163" s="15"/>
+      <c r="F163" s="15"/>
+      <c r="G163" s="14"/>
       <c r="H163" s="2"/>
       <c r="I163" s="1"/>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="15" t="s">
+      <c r="A164" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="B164" s="15" t="n">
+      <c r="B164" s="14" t="n">
         <v>-0.933</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F164" s="16"/>
-      <c r="G164" s="15"/>
+      <c r="F164" s="15"/>
+      <c r="G164" s="14"/>
       <c r="H164" s="2"/>
       <c r="I164" s="1"/>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="15" t="s">
+      <c r="A165" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="B165" s="15" t="n">
+      <c r="B165" s="14" t="n">
         <v>-0.934</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F165" s="16"/>
-      <c r="G165" s="15"/>
+      <c r="F165" s="15"/>
+      <c r="G165" s="14"/>
       <c r="H165" s="2"/>
       <c r="I165" s="1"/>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="17" t="s">
+      <c r="A166" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="B166" s="17" t="n">
+      <c r="B166" s="16" t="n">
         <v>-0.934</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F166" s="16"/>
-      <c r="G166" s="15"/>
+      <c r="F166" s="15"/>
+      <c r="G166" s="14"/>
       <c r="H166" s="2"/>
       <c r="I166" s="1"/>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="17" t="s">
+      <c r="A167" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="B167" s="17" t="n">
+      <c r="B167" s="16" t="n">
         <v>-0.935</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F167" s="16"/>
+      <c r="F167" s="15"/>
       <c r="G167" s="1"/>
       <c r="H167" s="2"/>
       <c r="I167" s="1"/>
@@ -4161,28 +4141,28 @@
       <c r="C168" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F168" s="16"/>
-      <c r="G168" s="15"/>
+      <c r="F168" s="15"/>
+      <c r="G168" s="14"/>
       <c r="H168" s="2"/>
       <c r="I168" s="1"/>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="15" t="s">
+      <c r="A169" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="B169" s="15" t="n">
+      <c r="B169" s="14" t="n">
         <v>-0.939</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F169" s="16"/>
-      <c r="G169" s="15"/>
+      <c r="F169" s="15"/>
+      <c r="G169" s="14"/>
       <c r="H169" s="2"/>
       <c r="I169" s="1"/>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="15" t="s">
+      <c r="A170" s="14" t="s">
         <v>172</v>
       </c>
       <c r="B170" s="2" t="n">
@@ -4191,13 +4171,13 @@
       <c r="C170" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F170" s="16"/>
-      <c r="G170" s="15"/>
+      <c r="F170" s="15"/>
+      <c r="G170" s="14"/>
       <c r="H170" s="2"/>
       <c r="I170" s="1"/>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="15" t="s">
+      <c r="A171" s="14" t="s">
         <v>173</v>
       </c>
       <c r="B171" s="2" t="n">
@@ -4206,13 +4186,13 @@
       <c r="C171" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F171" s="16"/>
-      <c r="G171" s="15"/>
+      <c r="F171" s="15"/>
+      <c r="G171" s="14"/>
       <c r="H171" s="2"/>
       <c r="I171" s="1"/>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="15" t="s">
+      <c r="A172" s="14" t="s">
         <v>174</v>
       </c>
       <c r="B172" s="2" t="n">
@@ -4221,8 +4201,8 @@
       <c r="C172" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F172" s="16"/>
-      <c r="G172" s="15"/>
+      <c r="F172" s="15"/>
+      <c r="G172" s="14"/>
       <c r="H172" s="2"/>
       <c r="I172" s="1"/>
     </row>
@@ -4236,13 +4216,13 @@
       <c r="C173" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F173" s="16"/>
+      <c r="F173" s="15"/>
       <c r="G173" s="1"/>
       <c r="H173" s="2"/>
       <c r="I173" s="1"/>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="15" t="s">
+      <c r="A174" s="14" t="s">
         <v>176</v>
       </c>
       <c r="B174" s="2" t="n">
@@ -4251,43 +4231,43 @@
       <c r="C174" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F174" s="16"/>
+      <c r="F174" s="15"/>
       <c r="G174" s="1"/>
       <c r="H174" s="2"/>
       <c r="I174" s="1"/>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="17" t="s">
+      <c r="A175" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="B175" s="17" t="n">
+      <c r="B175" s="16" t="n">
         <v>-0.948</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F175" s="16"/>
-      <c r="G175" s="15"/>
+      <c r="F175" s="15"/>
+      <c r="G175" s="14"/>
       <c r="H175" s="2"/>
       <c r="I175" s="1"/>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="15" t="s">
+      <c r="A176" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="B176" s="15" t="n">
+      <c r="B176" s="14" t="n">
         <v>-0.949</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F176" s="16"/>
-      <c r="G176" s="15"/>
+      <c r="F176" s="15"/>
+      <c r="G176" s="14"/>
       <c r="H176" s="2"/>
       <c r="I176" s="1"/>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="15" t="s">
+      <c r="A177" s="14" t="s">
         <v>179</v>
       </c>
       <c r="B177" s="2" t="n">
@@ -4296,13 +4276,13 @@
       <c r="C177" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F177" s="16"/>
-      <c r="G177" s="15"/>
+      <c r="F177" s="15"/>
+      <c r="G177" s="14"/>
       <c r="H177" s="2"/>
       <c r="I177" s="1"/>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="15" t="s">
+      <c r="A178" s="14" t="s">
         <v>180</v>
       </c>
       <c r="B178" s="2" t="n">
@@ -4311,28 +4291,28 @@
       <c r="C178" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F178" s="16"/>
-      <c r="G178" s="15"/>
+      <c r="F178" s="15"/>
+      <c r="G178" s="14"/>
       <c r="H178" s="2"/>
       <c r="I178" s="1"/>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="17" t="s">
+      <c r="A179" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="B179" s="17" t="n">
+      <c r="B179" s="16" t="n">
         <v>-0.953</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F179" s="16"/>
-      <c r="G179" s="15"/>
+      <c r="F179" s="15"/>
+      <c r="G179" s="14"/>
       <c r="H179" s="2"/>
       <c r="I179" s="1"/>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="15" t="s">
+      <c r="A180" s="14" t="s">
         <v>182</v>
       </c>
       <c r="B180" s="2" t="n">
@@ -4341,96 +4321,96 @@
       <c r="C180" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F180" s="16"/>
+      <c r="F180" s="15"/>
       <c r="G180" s="1"/>
       <c r="H180" s="2"/>
       <c r="I180" s="1"/>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="17" t="s">
+      <c r="A181" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="B181" s="17" t="n">
+      <c r="B181" s="16" t="n">
         <v>-0.955</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F181" s="16"/>
+      <c r="F181" s="15"/>
       <c r="G181" s="1"/>
       <c r="H181" s="2"/>
       <c r="I181" s="1"/>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="18" t="s">
+      <c r="A182" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="B182" s="19" t="n">
+      <c r="B182" s="18" t="n">
         <v>-0.956</v>
       </c>
-      <c r="C182" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D182" s="18" t="s">
+      <c r="C182" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D182" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="F182" s="16"/>
-      <c r="G182" s="15"/>
+      <c r="F182" s="15"/>
+      <c r="G182" s="14"/>
       <c r="H182" s="2"/>
       <c r="I182" s="1"/>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="18" t="s">
+      <c r="A183" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="B183" s="19" t="n">
+      <c r="B183" s="18" t="n">
         <v>-0.957</v>
       </c>
-      <c r="C183" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D183" s="18" t="s">
+      <c r="C183" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D183" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="F183" s="16"/>
-      <c r="G183" s="15"/>
+      <c r="F183" s="15"/>
+      <c r="G183" s="14"/>
       <c r="H183" s="2"/>
       <c r="I183" s="1"/>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="15" t="s">
+      <c r="A184" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="B184" s="15" t="n">
+      <c r="B184" s="14" t="n">
         <v>-0.957</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F184" s="16"/>
+      <c r="F184" s="15"/>
       <c r="G184" s="1"/>
       <c r="H184" s="2"/>
       <c r="I184" s="1"/>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="18" t="s">
+      <c r="A185" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="B185" s="19" t="n">
+      <c r="B185" s="18" t="n">
         <v>-0.958</v>
       </c>
-      <c r="C185" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D185" s="18" t="s">
+      <c r="C185" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D185" s="17" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="15" t="s">
+      <c r="A186" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="B186" s="15" t="n">
+      <c r="B186" s="14" t="n">
         <v>-0.958</v>
       </c>
       <c r="C186" s="2" t="s">
@@ -4438,44 +4418,44 @@
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="18" t="s">
+      <c r="A187" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="B187" s="19" t="n">
+      <c r="B187" s="18" t="n">
         <v>-0.959</v>
       </c>
-      <c r="C187" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D187" s="18" t="s">
+      <c r="C187" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D187" s="17" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="18" t="s">
+      <c r="A188" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="B188" s="19" t="n">
+      <c r="B188" s="18" t="n">
         <v>-0.96</v>
       </c>
-      <c r="C188" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D188" s="18" t="s">
+      <c r="C188" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D188" s="17" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="18" t="s">
+      <c r="A189" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="B189" s="19" t="n">
+      <c r="B189" s="18" t="n">
         <v>-0.96</v>
       </c>
-      <c r="C189" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D189" s="18" t="s">
+      <c r="C189" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D189" s="17" t="s">
         <v>185</v>
       </c>
     </row>
@@ -4491,7 +4471,7 @@
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="15" t="s">
+      <c r="A191" s="14" t="s">
         <v>194</v>
       </c>
       <c r="B191" s="2" t="n">
@@ -4502,7 +4482,7 @@
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="15" t="s">
+      <c r="A192" s="14" t="s">
         <v>195</v>
       </c>
       <c r="B192" s="2" t="n">
@@ -4513,10 +4493,10 @@
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="17" t="s">
+      <c r="A193" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="B193" s="17" t="n">
+      <c r="B193" s="16" t="n">
         <v>-0.965</v>
       </c>
       <c r="C193" s="2" t="s">
@@ -4524,38 +4504,38 @@
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="18" t="s">
+      <c r="A194" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="B194" s="19" t="n">
+      <c r="B194" s="18" t="n">
         <v>-0.969</v>
       </c>
-      <c r="C194" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D194" s="18" t="s">
+      <c r="C194" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D194" s="17" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="18" t="s">
+      <c r="A195" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="B195" s="19" t="n">
+      <c r="B195" s="18" t="n">
         <v>-0.969</v>
       </c>
-      <c r="C195" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D195" s="18" t="s">
+      <c r="C195" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D195" s="17" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="17" t="s">
+      <c r="A196" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="B196" s="17" t="n">
+      <c r="B196" s="16" t="n">
         <v>-0.97</v>
       </c>
       <c r="C196" s="2" t="s">
@@ -4563,7 +4543,7 @@
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="15" t="s">
+      <c r="A197" s="14" t="s">
         <v>200</v>
       </c>
       <c r="B197" s="2" t="n">
@@ -4574,7 +4554,7 @@
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="15" t="s">
+      <c r="A198" s="14" t="s">
         <v>201</v>
       </c>
       <c r="B198" s="2" t="n">
@@ -4585,10 +4565,10 @@
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="15" t="s">
+      <c r="A199" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="B199" s="15" t="n">
+      <c r="B199" s="14" t="n">
         <v>-0.977</v>
       </c>
       <c r="C199" s="2" t="s">
@@ -4607,10 +4587,10 @@
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="15" t="s">
+      <c r="A201" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="B201" s="15" t="n">
+      <c r="B201" s="14" t="n">
         <v>-0.978</v>
       </c>
       <c r="C201" s="2" t="s">
@@ -4618,7 +4598,7 @@
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="15" t="s">
+      <c r="A202" s="14" t="s">
         <v>205</v>
       </c>
       <c r="B202" s="2" t="n">
@@ -4629,7 +4609,7 @@
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="15" t="s">
+      <c r="A203" s="14" t="s">
         <v>206</v>
       </c>
       <c r="B203" s="2" t="n">
@@ -4640,7 +4620,7 @@
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="15" t="s">
+      <c r="A204" s="14" t="s">
         <v>207</v>
       </c>
       <c r="B204" s="2" t="n">
@@ -4662,7 +4642,7 @@
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="15" t="s">
+      <c r="A206" s="14" t="s">
         <v>209</v>
       </c>
       <c r="B206" s="2" t="n">
@@ -4673,21 +4653,21 @@
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="18" t="s">
+      <c r="A207" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="B207" s="19" t="n">
+      <c r="B207" s="18" t="n">
         <v>-0.988</v>
       </c>
-      <c r="C207" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D207" s="18" t="s">
+      <c r="C207" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D207" s="17" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="15" t="s">
+      <c r="A208" s="14" t="s">
         <v>212</v>
       </c>
       <c r="B208" s="2" t="n">
@@ -4698,24 +4678,24 @@
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="18" t="s">
+      <c r="A209" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="B209" s="19" t="n">
+      <c r="B209" s="18" t="n">
         <v>-0.989</v>
       </c>
-      <c r="C209" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D209" s="18" t="s">
+      <c r="C209" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D209" s="17" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="15" t="s">
+      <c r="A210" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="B210" s="15" t="n">
+      <c r="B210" s="14" t="n">
         <v>-0.989</v>
       </c>
       <c r="C210" s="2" t="s">
@@ -4723,10 +4703,10 @@
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="17" t="s">
+      <c r="A211" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="B211" s="17" t="n">
+      <c r="B211" s="16" t="n">
         <v>-0.99</v>
       </c>
       <c r="C211" s="2" t="s">
@@ -4734,7 +4714,7 @@
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="15" t="s">
+      <c r="A212" s="14" t="s">
         <v>216</v>
       </c>
       <c r="B212" s="2" t="n">
@@ -4745,10 +4725,10 @@
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="15" t="s">
+      <c r="A213" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="B213" s="15" t="n">
+      <c r="B213" s="14" t="n">
         <v>-0.993</v>
       </c>
       <c r="C213" s="2" t="s">
@@ -4756,10 +4736,10 @@
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="15" t="s">
+      <c r="A214" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="B214" s="15" t="n">
+      <c r="B214" s="14" t="n">
         <v>-0.993</v>
       </c>
       <c r="C214" s="2" t="s">
@@ -4778,7 +4758,7 @@
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="15" t="s">
+      <c r="A216" s="14" t="s">
         <v>220</v>
       </c>
       <c r="B216" s="2" t="n">
@@ -4789,7 +4769,7 @@
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="15" t="s">
+      <c r="A217" s="14" t="s">
         <v>221</v>
       </c>
       <c r="B217" s="2" t="n">
@@ -4800,10 +4780,10 @@
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="15" t="s">
+      <c r="A218" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="B218" s="15" t="n">
+      <c r="B218" s="14" t="n">
         <v>-0.995</v>
       </c>
       <c r="C218" s="2" t="s">
@@ -4811,24 +4791,24 @@
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="18" t="s">
+      <c r="A219" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="B219" s="19" t="n">
+      <c r="B219" s="18" t="n">
         <v>-1</v>
       </c>
-      <c r="C219" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D219" s="18" t="s">
+      <c r="C219" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D219" s="17" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="15" t="s">
+      <c r="A220" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="B220" s="15" t="n">
+      <c r="B220" s="14" t="n">
         <v>-1.002</v>
       </c>
       <c r="C220" s="2" t="s">
@@ -4836,24 +4816,24 @@
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="18" t="s">
+      <c r="A221" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="B221" s="19" t="n">
+      <c r="B221" s="18" t="n">
         <v>-1.003</v>
       </c>
-      <c r="C221" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D221" s="18" t="s">
+      <c r="C221" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D221" s="17" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="17" t="s">
+      <c r="A222" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="B222" s="17" t="n">
+      <c r="B222" s="16" t="n">
         <v>-1.003</v>
       </c>
       <c r="C222" s="2" t="s">
@@ -4861,10 +4841,10 @@
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="15" t="s">
+      <c r="A223" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="B223" s="15" t="n">
+      <c r="B223" s="14" t="n">
         <v>-1.004</v>
       </c>
       <c r="C223" s="2" t="s">
@@ -4872,35 +4852,35 @@
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="18" t="s">
+      <c r="A224" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="B224" s="19" t="n">
+      <c r="B224" s="18" t="n">
         <v>-1.005</v>
       </c>
-      <c r="C224" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D224" s="18" t="s">
+      <c r="C224" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D224" s="17" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="18" t="s">
+      <c r="A225" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="B225" s="19" t="n">
+      <c r="B225" s="18" t="n">
         <v>-1.007</v>
       </c>
-      <c r="C225" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D225" s="18" t="s">
+      <c r="C225" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D225" s="17" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="15" t="s">
+      <c r="A226" s="14" t="s">
         <v>231</v>
       </c>
       <c r="B226" s="2" t="n">
@@ -4911,10 +4891,10 @@
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="15" t="s">
+      <c r="A227" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="B227" s="15" t="n">
+      <c r="B227" s="14" t="n">
         <v>-1.009</v>
       </c>
       <c r="C227" s="2" t="s">
@@ -4922,10 +4902,10 @@
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="17" t="s">
+      <c r="A228" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="B228" s="17" t="n">
+      <c r="B228" s="16" t="n">
         <v>-1.01</v>
       </c>
       <c r="C228" s="2" t="s">
@@ -4933,7 +4913,7 @@
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="15" t="s">
+      <c r="A229" s="14" t="s">
         <v>234</v>
       </c>
       <c r="B229" s="2" t="n">
@@ -4944,10 +4924,10 @@
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="15" t="s">
+      <c r="A230" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="B230" s="15" t="n">
+      <c r="B230" s="14" t="n">
         <v>-1.013</v>
       </c>
       <c r="C230" s="2" t="s">
@@ -4958,10 +4938,10 @@
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="17" t="s">
+      <c r="A231" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="B231" s="17" t="n">
+      <c r="B231" s="16" t="n">
         <v>-1.013</v>
       </c>
       <c r="C231" s="2" t="s">
@@ -4972,7 +4952,7 @@
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="15" t="s">
+      <c r="A232" s="14" t="s">
         <v>238</v>
       </c>
       <c r="B232" s="2" t="n">
@@ -4983,10 +4963,10 @@
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="17" t="s">
+      <c r="A233" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="B233" s="17" t="n">
+      <c r="B233" s="16" t="n">
         <v>-1.016</v>
       </c>
       <c r="C233" s="2" t="s">
@@ -4994,10 +4974,10 @@
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="15" t="s">
+      <c r="A234" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="B234" s="15" t="n">
+      <c r="B234" s="14" t="n">
         <v>-1.017</v>
       </c>
       <c r="C234" s="2" t="s">
@@ -5005,7 +4985,7 @@
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="15" t="s">
+      <c r="A235" s="14" t="s">
         <v>241</v>
       </c>
       <c r="B235" s="2" t="n">
@@ -5016,10 +4996,10 @@
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="15" t="s">
+      <c r="A236" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="B236" s="15" t="n">
+      <c r="B236" s="14" t="n">
         <v>-1.019</v>
       </c>
       <c r="C236" s="2" t="s">
@@ -5027,10 +5007,10 @@
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="15" t="s">
+      <c r="A237" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="B237" s="15" t="n">
+      <c r="B237" s="14" t="n">
         <v>-1.019</v>
       </c>
       <c r="C237" s="2" t="s">
@@ -5038,7 +5018,7 @@
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="15" t="s">
+      <c r="A238" s="14" t="s">
         <v>244</v>
       </c>
       <c r="B238" s="2" t="n">
@@ -5049,7 +5029,7 @@
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="15" t="s">
+      <c r="A239" s="14" t="s">
         <v>245</v>
       </c>
       <c r="B239" s="2" t="n">
@@ -5060,7 +5040,7 @@
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="15" t="s">
+      <c r="A240" s="14" t="s">
         <v>246</v>
       </c>
       <c r="B240" s="2" t="n">
@@ -5071,7 +5051,7 @@
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="15" t="s">
+      <c r="A241" s="14" t="s">
         <v>247</v>
       </c>
       <c r="B241" s="2" t="n">
@@ -5093,7 +5073,7 @@
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="15" t="s">
+      <c r="A243" s="14" t="s">
         <v>249</v>
       </c>
       <c r="B243" s="2" t="n">
@@ -5104,10 +5084,10 @@
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="15" t="s">
+      <c r="A244" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="B244" s="15" t="n">
+      <c r="B244" s="14" t="n">
         <v>-1.029</v>
       </c>
       <c r="C244" s="2" t="s">
@@ -5115,7 +5095,7 @@
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="15" t="s">
+      <c r="A245" s="14" t="s">
         <v>251</v>
       </c>
       <c r="B245" s="2" t="n">
@@ -5126,21 +5106,21 @@
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="18" t="s">
+      <c r="A246" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="B246" s="19" t="n">
+      <c r="B246" s="18" t="n">
         <v>-1.032</v>
       </c>
-      <c r="C246" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D246" s="18" t="s">
+      <c r="C246" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D246" s="17" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="15" t="s">
+      <c r="A247" s="14" t="s">
         <v>254</v>
       </c>
       <c r="B247" s="2" t="n">
@@ -5151,24 +5131,24 @@
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="18" t="s">
+      <c r="A248" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="B248" s="19" t="n">
+      <c r="B248" s="18" t="n">
         <v>-1.034</v>
       </c>
-      <c r="C248" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D248" s="18" t="s">
+      <c r="C248" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D248" s="17" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="15" t="s">
+      <c r="A249" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="B249" s="15" t="n">
+      <c r="B249" s="14" t="n">
         <v>-1.035</v>
       </c>
       <c r="C249" s="2" t="s">
@@ -5176,24 +5156,24 @@
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="22" t="s">
+      <c r="A250" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="B250" s="23" t="n">
+      <c r="B250" s="22" t="n">
         <v>-1.036</v>
       </c>
-      <c r="C250" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="D250" s="22" t="s">
+      <c r="C250" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D250" s="21" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="15" t="s">
+      <c r="A251" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="B251" s="15" t="n">
+      <c r="B251" s="14" t="n">
         <v>-1.036</v>
       </c>
       <c r="C251" s="2" t="s">
@@ -5201,10 +5181,10 @@
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="15" t="s">
+      <c r="A252" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="B252" s="15" t="n">
+      <c r="B252" s="14" t="n">
         <v>-1.038</v>
       </c>
       <c r="C252" s="2" t="s">
@@ -5212,7 +5192,7 @@
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="15" t="s">
+      <c r="A253" s="14" t="s">
         <v>261</v>
       </c>
       <c r="B253" s="2" t="n">
@@ -5223,35 +5203,35 @@
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="18" t="s">
+      <c r="A254" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="B254" s="19" t="n">
+      <c r="B254" s="18" t="n">
         <v>-1.039</v>
       </c>
-      <c r="C254" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D254" s="18" t="s">
+      <c r="C254" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D254" s="17" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="18" t="s">
+      <c r="A255" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="B255" s="19" t="n">
+      <c r="B255" s="18" t="n">
         <v>-1.042</v>
       </c>
-      <c r="C255" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D255" s="18" t="s">
+      <c r="C255" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D255" s="17" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="15" t="s">
+      <c r="A256" s="14" t="s">
         <v>264</v>
       </c>
       <c r="B256" s="2" t="n">
@@ -5262,7 +5242,7 @@
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="15" t="s">
+      <c r="A257" s="14" t="s">
         <v>265</v>
       </c>
       <c r="B257" s="2" t="n">
@@ -5273,7 +5253,7 @@
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="15" t="s">
+      <c r="A258" s="14" t="s">
         <v>266</v>
       </c>
       <c r="B258" s="2" t="n">
@@ -5284,10 +5264,10 @@
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="15" t="s">
+      <c r="A259" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="B259" s="15" t="n">
+      <c r="B259" s="14" t="n">
         <v>-1.046</v>
       </c>
       <c r="C259" s="2" t="s">
@@ -5295,10 +5275,10 @@
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="17" t="s">
+      <c r="A260" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="B260" s="17" t="n">
+      <c r="B260" s="16" t="n">
         <v>-1.047</v>
       </c>
       <c r="C260" s="2" t="s">
@@ -5306,35 +5286,35 @@
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="18" t="s">
+      <c r="A261" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="B261" s="19" t="n">
+      <c r="B261" s="18" t="n">
         <v>-1.05</v>
       </c>
-      <c r="C261" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D261" s="18" t="s">
+      <c r="C261" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D261" s="17" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="18" t="s">
+      <c r="A262" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="B262" s="19" t="n">
+      <c r="B262" s="18" t="n">
         <v>-1.05</v>
       </c>
-      <c r="C262" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D262" s="18" t="s">
+      <c r="C262" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D262" s="17" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="15" t="s">
+      <c r="A263" s="14" t="s">
         <v>271</v>
       </c>
       <c r="B263" s="2" t="n">
@@ -5345,10 +5325,10 @@
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="15" t="s">
+      <c r="A264" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="B264" s="15" t="n">
+      <c r="B264" s="14" t="n">
         <v>-1.05</v>
       </c>
       <c r="C264" s="2" t="s">
@@ -5356,10 +5336,10 @@
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="15" t="s">
+      <c r="A265" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="B265" s="15" t="n">
+      <c r="B265" s="14" t="n">
         <v>-1.052</v>
       </c>
       <c r="C265" s="2" t="s">
@@ -5367,7 +5347,7 @@
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="15" t="s">
+      <c r="A266" s="14" t="s">
         <v>274</v>
       </c>
       <c r="B266" s="2" t="n">
@@ -5378,10 +5358,10 @@
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="17" t="s">
+      <c r="A267" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="B267" s="17" t="n">
+      <c r="B267" s="16" t="n">
         <v>-1.054</v>
       </c>
       <c r="C267" s="2" t="s">
@@ -5400,7 +5380,7 @@
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="15" t="s">
+      <c r="A269" s="14" t="s">
         <v>277</v>
       </c>
       <c r="B269" s="2" t="n">
@@ -5411,7 +5391,7 @@
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="15" t="s">
+      <c r="A270" s="14" t="s">
         <v>278</v>
       </c>
       <c r="B270" s="2" t="n">
@@ -5422,10 +5402,10 @@
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="15" t="s">
+      <c r="A271" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="B271" s="15" t="n">
+      <c r="B271" s="14" t="n">
         <v>-1.057</v>
       </c>
       <c r="C271" s="2" t="s">
@@ -5433,10 +5413,10 @@
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="17" t="s">
+      <c r="A272" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="B272" s="17" t="n">
+      <c r="B272" s="16" t="n">
         <v>-1.057</v>
       </c>
       <c r="C272" s="2" t="s">
@@ -5466,7 +5446,7 @@
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="15" t="s">
+      <c r="A275" s="14" t="s">
         <v>283</v>
       </c>
       <c r="B275" s="2" t="n">
@@ -5488,24 +5468,24 @@
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="18" t="s">
+      <c r="A277" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="B277" s="19" t="n">
+      <c r="B277" s="18" t="n">
         <v>-1.062</v>
       </c>
-      <c r="C277" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D277" s="18" t="s">
+      <c r="C277" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D277" s="17" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="15" t="s">
+      <c r="A278" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="B278" s="15" t="n">
+      <c r="B278" s="14" t="n">
         <v>-1.062</v>
       </c>
       <c r="C278" s="2" t="s">
@@ -5513,24 +5493,24 @@
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="18" t="s">
+      <c r="A279" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="B279" s="19" t="n">
+      <c r="B279" s="18" t="n">
         <v>-1.062</v>
       </c>
-      <c r="C279" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D279" s="18" t="s">
+      <c r="C279" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D279" s="17" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="15" t="s">
+      <c r="A280" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="B280" s="15" t="n">
+      <c r="B280" s="14" t="n">
         <v>-1.063</v>
       </c>
       <c r="C280" s="2" t="s">
@@ -5538,10 +5518,10 @@
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="15" t="s">
+      <c r="A281" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="B281" s="15" t="n">
+      <c r="B281" s="14" t="n">
         <v>-1.063</v>
       </c>
       <c r="C281" s="2" t="s">
@@ -5549,35 +5529,35 @@
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="18" t="s">
+      <c r="A282" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="B282" s="19" t="n">
+      <c r="B282" s="18" t="n">
         <v>-1.063</v>
       </c>
-      <c r="C282" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D282" s="18" t="s">
+      <c r="C282" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D282" s="17" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="18" t="s">
+      <c r="A283" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="B283" s="19" t="n">
+      <c r="B283" s="18" t="n">
         <v>-1.064</v>
       </c>
-      <c r="C283" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D283" s="18" t="s">
+      <c r="C283" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D283" s="17" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="15" t="s">
+      <c r="A284" s="14" t="s">
         <v>293</v>
       </c>
       <c r="B284" s="2" t="n">
@@ -5588,10 +5568,10 @@
       </c>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="15" t="s">
+      <c r="A285" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="B285" s="15" t="n">
+      <c r="B285" s="14" t="n">
         <v>-1.065</v>
       </c>
       <c r="C285" s="2" t="s">
@@ -5599,10 +5579,10 @@
       </c>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="17" t="s">
+      <c r="A286" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="B286" s="17" t="n">
+      <c r="B286" s="16" t="n">
         <v>-1.065</v>
       </c>
       <c r="C286" s="2" t="s">
@@ -5610,10 +5590,10 @@
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="15" t="s">
+      <c r="A287" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="B287" s="15" t="n">
+      <c r="B287" s="14" t="n">
         <v>-1.066</v>
       </c>
       <c r="C287" s="2" t="s">
@@ -5624,10 +5604,10 @@
       </c>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="15" t="s">
+      <c r="A288" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="B288" s="15" t="n">
+      <c r="B288" s="14" t="n">
         <v>-1.066</v>
       </c>
       <c r="C288" s="2" t="s">
@@ -5638,7 +5618,7 @@
       </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="15" t="s">
+      <c r="A289" s="14" t="s">
         <v>298</v>
       </c>
       <c r="B289" s="2" t="n">
@@ -5649,10 +5629,10 @@
       </c>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="15" t="s">
+      <c r="A290" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="B290" s="15" t="n">
+      <c r="B290" s="14" t="n">
         <v>-1.073</v>
       </c>
       <c r="C290" s="2" t="s">
@@ -5660,7 +5640,7 @@
       </c>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="15" t="s">
+      <c r="A291" s="14" t="s">
         <v>300</v>
       </c>
       <c r="B291" s="2" t="n">
@@ -5671,7 +5651,7 @@
       </c>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="15" t="s">
+      <c r="A292" s="14" t="s">
         <v>301</v>
       </c>
       <c r="B292" s="2" t="n">
@@ -5682,10 +5662,10 @@
       </c>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="17" t="s">
+      <c r="A293" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="B293" s="17" t="n">
+      <c r="B293" s="16" t="n">
         <v>-1.075</v>
       </c>
       <c r="C293" s="2" t="s">
@@ -5693,7 +5673,7 @@
       </c>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="15" t="s">
+      <c r="A294" s="14" t="s">
         <v>303</v>
       </c>
       <c r="B294" s="2" t="n">
@@ -5704,10 +5684,10 @@
       </c>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="15" t="s">
+      <c r="A295" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="B295" s="15" t="n">
+      <c r="B295" s="14" t="n">
         <v>-1.077</v>
       </c>
       <c r="C295" s="2" t="s">
@@ -5715,10 +5695,10 @@
       </c>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="17" t="s">
+      <c r="A296" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="B296" s="17" t="n">
+      <c r="B296" s="16" t="n">
         <v>-1.077</v>
       </c>
       <c r="C296" s="2" t="s">
@@ -5726,7 +5706,7 @@
       </c>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="15" t="s">
+      <c r="A297" s="14" t="s">
         <v>306</v>
       </c>
       <c r="B297" s="2" t="n">
@@ -5737,10 +5717,10 @@
       </c>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="15" t="s">
+      <c r="A298" s="14" t="s">
         <v>307</v>
       </c>
-      <c r="B298" s="15" t="n">
+      <c r="B298" s="14" t="n">
         <v>-1.085</v>
       </c>
       <c r="C298" s="2" t="s">
@@ -5748,10 +5728,10 @@
       </c>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="15" t="s">
+      <c r="A299" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="B299" s="15" t="n">
+      <c r="B299" s="14" t="n">
         <v>-1.086</v>
       </c>
       <c r="C299" s="2" t="s">
@@ -5759,10 +5739,10 @@
       </c>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="15" t="s">
+      <c r="A300" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="B300" s="15" t="n">
+      <c r="B300" s="14" t="n">
         <v>-1.086</v>
       </c>
       <c r="C300" s="2" t="s">
@@ -5770,10 +5750,10 @@
       </c>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="15" t="s">
+      <c r="A301" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="B301" s="15" t="n">
+      <c r="B301" s="14" t="n">
         <v>-1.086</v>
       </c>
       <c r="C301" s="2" t="s">
@@ -5781,7 +5761,7 @@
       </c>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="15" t="s">
+      <c r="A302" s="14" t="s">
         <v>311</v>
       </c>
       <c r="B302" s="2" t="n">
@@ -5792,7 +5772,7 @@
       </c>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="15" t="s">
+      <c r="A303" s="14" t="s">
         <v>312</v>
       </c>
       <c r="B303" s="2" t="n">
@@ -5803,10 +5783,10 @@
       </c>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="15" t="s">
+      <c r="A304" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="B304" s="15" t="n">
+      <c r="B304" s="14" t="n">
         <v>-1.088</v>
       </c>
       <c r="C304" s="2" t="s">
@@ -5825,7 +5805,7 @@
       </c>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="15" t="s">
+      <c r="A306" s="14" t="s">
         <v>315</v>
       </c>
       <c r="B306" s="2" t="n">
@@ -5836,7 +5816,7 @@
       </c>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="15" t="s">
+      <c r="A307" s="14" t="s">
         <v>316</v>
       </c>
       <c r="B307" s="2" t="n">
@@ -5847,10 +5827,10 @@
       </c>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="15" t="s">
+      <c r="A308" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="B308" s="15" t="n">
+      <c r="B308" s="14" t="n">
         <v>-1.095</v>
       </c>
       <c r="C308" s="2" t="s">
@@ -5858,10 +5838,10 @@
       </c>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="17" t="s">
+      <c r="A309" s="16" t="s">
         <v>318</v>
       </c>
-      <c r="B309" s="17" t="n">
+      <c r="B309" s="16" t="n">
         <v>-1.095</v>
       </c>
       <c r="C309" s="2" t="s">
@@ -5869,7 +5849,7 @@
       </c>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="15" t="s">
+      <c r="A310" s="14" t="s">
         <v>319</v>
       </c>
       <c r="B310" s="2" t="n">
@@ -5880,7 +5860,7 @@
       </c>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="15" t="s">
+      <c r="A311" s="14" t="s">
         <v>320</v>
       </c>
       <c r="B311" s="2" t="n">
@@ -5891,7 +5871,7 @@
       </c>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A312" s="15" t="s">
+      <c r="A312" s="14" t="s">
         <v>321</v>
       </c>
       <c r="B312" s="2" t="n">
@@ -5902,7 +5882,7 @@
       </c>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A313" s="15" t="s">
+      <c r="A313" s="14" t="s">
         <v>322</v>
       </c>
       <c r="B313" s="2" t="n">
@@ -5924,7 +5904,7 @@
       </c>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="15" t="s">
+      <c r="A315" s="14" t="s">
         <v>324</v>
       </c>
       <c r="B315" s="2" t="n">
@@ -5935,10 +5915,10 @@
       </c>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="15" t="s">
+      <c r="A316" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="B316" s="15" t="n">
+      <c r="B316" s="14" t="n">
         <v>-1.109</v>
       </c>
       <c r="C316" s="2" t="s">
@@ -5946,10 +5926,10 @@
       </c>
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="15" t="s">
+      <c r="A317" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="B317" s="15" t="n">
+      <c r="B317" s="14" t="n">
         <v>-1.109</v>
       </c>
       <c r="C317" s="2" t="s">
@@ -5957,7 +5937,7 @@
       </c>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="15" t="s">
+      <c r="A318" s="14" t="s">
         <v>327</v>
       </c>
       <c r="B318" s="2" t="n">
@@ -5968,7 +5948,7 @@
       </c>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="15" t="s">
+      <c r="A319" s="14" t="s">
         <v>328</v>
       </c>
       <c r="B319" s="2" t="n">
@@ -5979,10 +5959,10 @@
       </c>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A320" s="15" t="s">
+      <c r="A320" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="B320" s="15" t="n">
+      <c r="B320" s="14" t="n">
         <v>-1.11</v>
       </c>
       <c r="C320" s="2" t="s">
@@ -6001,7 +5981,7 @@
       </c>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="15" t="s">
+      <c r="A322" s="14" t="s">
         <v>331</v>
       </c>
       <c r="B322" s="2" t="n">
@@ -6012,10 +5992,10 @@
       </c>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A323" s="15" t="s">
+      <c r="A323" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="B323" s="15" t="n">
+      <c r="B323" s="14" t="n">
         <v>-1.112</v>
       </c>
       <c r="C323" s="2" t="s">
@@ -6034,10 +6014,10 @@
       </c>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A325" s="15" t="s">
+      <c r="A325" s="14" t="s">
         <v>334</v>
       </c>
-      <c r="B325" s="15" t="n">
+      <c r="B325" s="14" t="n">
         <v>-1.117</v>
       </c>
       <c r="C325" s="2" t="s">
@@ -6045,10 +6025,10 @@
       </c>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A326" s="17" t="s">
+      <c r="A326" s="16" t="s">
         <v>335</v>
       </c>
-      <c r="B326" s="17" t="n">
+      <c r="B326" s="16" t="n">
         <v>-1.117</v>
       </c>
       <c r="C326" s="2" t="s">
@@ -6056,7 +6036,7 @@
       </c>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="15" t="s">
+      <c r="A327" s="14" t="s">
         <v>336</v>
       </c>
       <c r="B327" s="2" t="n">
@@ -6067,7 +6047,7 @@
       </c>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A328" s="15" t="s">
+      <c r="A328" s="14" t="s">
         <v>337</v>
       </c>
       <c r="B328" s="2" t="n">
@@ -6078,10 +6058,10 @@
       </c>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A329" s="17" t="s">
+      <c r="A329" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="B329" s="17" t="n">
+      <c r="B329" s="16" t="n">
         <v>-1.119</v>
       </c>
       <c r="C329" s="2" t="s">
@@ -6089,7 +6069,7 @@
       </c>
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A330" s="15" t="s">
+      <c r="A330" s="14" t="s">
         <v>339</v>
       </c>
       <c r="B330" s="2" t="n">
@@ -6100,10 +6080,10 @@
       </c>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="15" t="s">
+      <c r="A331" s="14" t="s">
         <v>340</v>
       </c>
-      <c r="B331" s="15" t="n">
+      <c r="B331" s="14" t="n">
         <v>-1.121</v>
       </c>
       <c r="C331" s="2" t="s">
@@ -6111,7 +6091,7 @@
       </c>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A332" s="15" t="s">
+      <c r="A332" s="14" t="s">
         <v>341</v>
       </c>
       <c r="B332" s="2" t="n">
@@ -6122,7 +6102,7 @@
       </c>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A333" s="15" t="s">
+      <c r="A333" s="14" t="s">
         <v>342</v>
       </c>
       <c r="B333" s="2" t="n">
@@ -6144,10 +6124,10 @@
       </c>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A335" s="15" t="s">
+      <c r="A335" s="14" t="s">
         <v>344</v>
       </c>
-      <c r="B335" s="15" t="n">
+      <c r="B335" s="14" t="n">
         <v>-1.125</v>
       </c>
       <c r="C335" s="2" t="s">
@@ -6155,10 +6135,10 @@
       </c>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A336" s="17" t="s">
+      <c r="A336" s="16" t="s">
         <v>345</v>
       </c>
-      <c r="B336" s="17" t="n">
+      <c r="B336" s="16" t="n">
         <v>-1.128</v>
       </c>
       <c r="C336" s="2" t="s">
@@ -6166,7 +6146,7 @@
       </c>
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="15" t="s">
+      <c r="A337" s="14" t="s">
         <v>346</v>
       </c>
       <c r="B337" s="2" t="n">
@@ -6177,10 +6157,10 @@
       </c>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="15" t="s">
+      <c r="A338" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="B338" s="15" t="n">
+      <c r="B338" s="14" t="n">
         <v>-1.13</v>
       </c>
       <c r="C338" s="2" t="s">
@@ -6188,7 +6168,7 @@
       </c>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A339" s="15" t="s">
+      <c r="A339" s="14" t="s">
         <v>348</v>
       </c>
       <c r="B339" s="2" t="n">
@@ -6199,10 +6179,10 @@
       </c>
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A340" s="15" t="s">
+      <c r="A340" s="14" t="s">
         <v>349</v>
       </c>
-      <c r="B340" s="15" t="n">
+      <c r="B340" s="14" t="n">
         <v>-1.132</v>
       </c>
       <c r="C340" s="2" t="s">
@@ -6210,10 +6190,10 @@
       </c>
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A341" s="17" t="s">
+      <c r="A341" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="B341" s="17" t="n">
+      <c r="B341" s="16" t="n">
         <v>-1.135</v>
       </c>
       <c r="C341" s="2" t="s">
@@ -6232,7 +6212,7 @@
       </c>
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A343" s="15" t="s">
+      <c r="A343" s="14" t="s">
         <v>352</v>
       </c>
       <c r="B343" s="2" t="n">
@@ -6243,10 +6223,10 @@
       </c>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A344" s="15" t="s">
+      <c r="A344" s="14" t="s">
         <v>353</v>
       </c>
-      <c r="B344" s="15" t="n">
+      <c r="B344" s="14" t="n">
         <v>-1.141</v>
       </c>
       <c r="C344" s="2" t="s">
@@ -6254,10 +6234,10 @@
       </c>
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A345" s="15" t="s">
+      <c r="A345" s="14" t="s">
         <v>354</v>
       </c>
-      <c r="B345" s="15" t="n">
+      <c r="B345" s="14" t="n">
         <v>-1.142</v>
       </c>
       <c r="C345" s="2" t="s">
@@ -6265,7 +6245,7 @@
       </c>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A346" s="15" t="s">
+      <c r="A346" s="14" t="s">
         <v>355</v>
       </c>
       <c r="B346" s="2" t="n">
@@ -6276,21 +6256,21 @@
       </c>
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A347" s="18" t="s">
+      <c r="A347" s="17" t="s">
         <v>356</v>
       </c>
-      <c r="B347" s="19" t="n">
+      <c r="B347" s="18" t="n">
         <v>-1.144</v>
       </c>
-      <c r="C347" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D347" s="18" t="s">
+      <c r="C347" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D347" s="17" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A348" s="15" t="s">
+      <c r="A348" s="14" t="s">
         <v>358</v>
       </c>
       <c r="B348" s="2" t="n">
@@ -6301,10 +6281,10 @@
       </c>
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="15" t="s">
+      <c r="A349" s="14" t="s">
         <v>359</v>
       </c>
-      <c r="B349" s="15" t="n">
+      <c r="B349" s="14" t="n">
         <v>-1.146</v>
       </c>
       <c r="C349" s="2" t="s">
@@ -6312,7 +6292,7 @@
       </c>
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A350" s="15" t="s">
+      <c r="A350" s="14" t="s">
         <v>360</v>
       </c>
       <c r="B350" s="2" t="n">
@@ -6323,10 +6303,10 @@
       </c>
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A351" s="15" t="s">
+      <c r="A351" s="14" t="s">
         <v>361</v>
       </c>
-      <c r="B351" s="15" t="n">
+      <c r="B351" s="14" t="n">
         <v>-1.148</v>
       </c>
       <c r="C351" s="2" t="s">
@@ -6334,7 +6314,7 @@
       </c>
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A352" s="15" t="s">
+      <c r="A352" s="14" t="s">
         <v>362</v>
       </c>
       <c r="B352" s="2" t="n">
@@ -6345,7 +6325,7 @@
       </c>
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A353" s="15" t="s">
+      <c r="A353" s="14" t="s">
         <v>363</v>
       </c>
       <c r="B353" s="2" t="n">
@@ -6356,21 +6336,21 @@
       </c>
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A354" s="18" t="s">
+      <c r="A354" s="17" t="s">
         <v>364</v>
       </c>
-      <c r="B354" s="19" t="n">
+      <c r="B354" s="18" t="n">
         <v>-1.149</v>
       </c>
-      <c r="C354" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D354" s="18" t="s">
+      <c r="C354" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D354" s="17" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A355" s="15" t="s">
+      <c r="A355" s="14" t="s">
         <v>365</v>
       </c>
       <c r="B355" s="2" t="n">
@@ -6381,10 +6361,10 @@
       </c>
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A356" s="17" t="s">
+      <c r="A356" s="16" t="s">
         <v>366</v>
       </c>
-      <c r="B356" s="17" t="n">
+      <c r="B356" s="16" t="n">
         <v>-1.151</v>
       </c>
       <c r="C356" s="2" t="s">
@@ -6392,7 +6372,7 @@
       </c>
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A357" s="15" t="s">
+      <c r="A357" s="14" t="s">
         <v>367</v>
       </c>
       <c r="B357" s="2" t="n">
@@ -6403,10 +6383,10 @@
       </c>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A358" s="15" t="s">
+      <c r="A358" s="14" t="s">
         <v>368</v>
       </c>
-      <c r="B358" s="15" t="n">
+      <c r="B358" s="14" t="n">
         <v>-1.153</v>
       </c>
       <c r="C358" s="2" t="s">
@@ -6414,24 +6394,24 @@
       </c>
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A359" s="18" t="s">
+      <c r="A359" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="B359" s="19" t="n">
+      <c r="B359" s="18" t="n">
         <v>-1.154</v>
       </c>
-      <c r="C359" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D359" s="18" t="s">
+      <c r="C359" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D359" s="17" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A360" s="17" t="s">
+      <c r="A360" s="16" t="s">
         <v>370</v>
       </c>
-      <c r="B360" s="17" t="n">
+      <c r="B360" s="16" t="n">
         <v>-1.155</v>
       </c>
       <c r="C360" s="2" t="s">
@@ -6439,10 +6419,10 @@
       </c>
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A361" s="17" t="s">
+      <c r="A361" s="16" t="s">
         <v>371</v>
       </c>
-      <c r="B361" s="17" t="n">
+      <c r="B361" s="16" t="n">
         <v>-1.155</v>
       </c>
       <c r="C361" s="2" t="s">
@@ -6450,7 +6430,7 @@
       </c>
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A362" s="15" t="s">
+      <c r="A362" s="14" t="s">
         <v>372</v>
       </c>
       <c r="B362" s="2" t="n">
@@ -6461,24 +6441,24 @@
       </c>
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A363" s="18" t="s">
+      <c r="A363" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="B363" s="19" t="n">
+      <c r="B363" s="18" t="n">
         <v>-1.158</v>
       </c>
-      <c r="C363" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D363" s="18" t="s">
+      <c r="C363" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D363" s="17" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A364" s="15" t="s">
+      <c r="A364" s="14" t="s">
         <v>374</v>
       </c>
-      <c r="B364" s="15" t="n">
+      <c r="B364" s="14" t="n">
         <v>-1.16</v>
       </c>
       <c r="C364" s="2" t="s">
@@ -6497,7 +6477,7 @@
       </c>
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A366" s="15" t="s">
+      <c r="A366" s="14" t="s">
         <v>376</v>
       </c>
       <c r="B366" s="2" t="n">
@@ -6508,7 +6488,7 @@
       </c>
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A367" s="15" t="s">
+      <c r="A367" s="14" t="s">
         <v>377</v>
       </c>
       <c r="B367" s="2" t="n">
@@ -6530,7 +6510,7 @@
       </c>
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A369" s="15" t="s">
+      <c r="A369" s="14" t="s">
         <v>379</v>
       </c>
       <c r="B369" s="2" t="n">
@@ -6541,7 +6521,7 @@
       </c>
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A370" s="15" t="s">
+      <c r="A370" s="14" t="s">
         <v>380</v>
       </c>
       <c r="B370" s="2" t="n">
@@ -6552,10 +6532,10 @@
       </c>
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A371" s="15" t="s">
+      <c r="A371" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="B371" s="15" t="n">
+      <c r="B371" s="14" t="n">
         <v>-1.172</v>
       </c>
       <c r="C371" s="2" t="s">
@@ -6563,10 +6543,10 @@
       </c>
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A372" s="17" t="s">
+      <c r="A372" s="16" t="s">
         <v>382</v>
       </c>
-      <c r="B372" s="17" t="n">
+      <c r="B372" s="16" t="n">
         <v>-1.172</v>
       </c>
       <c r="C372" s="2" t="s">
@@ -6574,10 +6554,10 @@
       </c>
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A373" s="15" t="s">
+      <c r="A373" s="14" t="s">
         <v>383</v>
       </c>
-      <c r="B373" s="15" t="n">
+      <c r="B373" s="14" t="n">
         <v>-1.173</v>
       </c>
       <c r="C373" s="2" t="s">
@@ -6596,7 +6576,7 @@
       </c>
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A375" s="15" t="s">
+      <c r="A375" s="14" t="s">
         <v>385</v>
       </c>
       <c r="B375" s="2" t="n">
@@ -6618,10 +6598,10 @@
       </c>
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A377" s="15" t="s">
+      <c r="A377" s="14" t="s">
         <v>387</v>
       </c>
-      <c r="B377" s="15" t="n">
+      <c r="B377" s="14" t="n">
         <v>-1.181</v>
       </c>
       <c r="C377" s="2" t="s">
@@ -6640,7 +6620,7 @@
       </c>
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A379" s="15" t="s">
+      <c r="A379" s="14" t="s">
         <v>389</v>
       </c>
       <c r="B379" s="2" t="n">
@@ -6651,10 +6631,10 @@
       </c>
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A380" s="15" t="s">
+      <c r="A380" s="14" t="s">
         <v>390</v>
       </c>
-      <c r="B380" s="15" t="n">
+      <c r="B380" s="14" t="n">
         <v>-1.185</v>
       </c>
       <c r="C380" s="2" t="s">
@@ -6673,10 +6653,10 @@
       </c>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A382" s="17" t="s">
+      <c r="A382" s="16" t="s">
         <v>392</v>
       </c>
-      <c r="B382" s="17" t="n">
+      <c r="B382" s="16" t="n">
         <v>-1.19</v>
       </c>
       <c r="C382" s="2" t="s">
@@ -6684,7 +6664,7 @@
       </c>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A383" s="15" t="s">
+      <c r="A383" s="14" t="s">
         <v>393</v>
       </c>
       <c r="B383" s="2" t="n">
@@ -6695,7 +6675,7 @@
       </c>
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A384" s="15" t="s">
+      <c r="A384" s="14" t="s">
         <v>394</v>
       </c>
       <c r="B384" s="2" t="n">
@@ -6706,10 +6686,10 @@
       </c>
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A385" s="17" t="s">
+      <c r="A385" s="16" t="s">
         <v>395</v>
       </c>
-      <c r="B385" s="17" t="n">
+      <c r="B385" s="16" t="n">
         <v>-1.193</v>
       </c>
       <c r="C385" s="2" t="s">
@@ -6717,7 +6697,7 @@
       </c>
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A386" s="15" t="s">
+      <c r="A386" s="14" t="s">
         <v>396</v>
       </c>
       <c r="B386" s="2" t="n">
@@ -6728,10 +6708,10 @@
       </c>
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A387" s="17" t="s">
+      <c r="A387" s="16" t="s">
         <v>397</v>
       </c>
-      <c r="B387" s="17" t="n">
+      <c r="B387" s="16" t="n">
         <v>-1.197</v>
       </c>
       <c r="C387" s="2" t="s">
@@ -6739,10 +6719,10 @@
       </c>
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A388" s="15" t="s">
+      <c r="A388" s="14" t="s">
         <v>398</v>
       </c>
-      <c r="B388" s="15" t="n">
+      <c r="B388" s="14" t="n">
         <v>-1.199</v>
       </c>
       <c r="C388" s="2" t="s">
@@ -6750,10 +6730,10 @@
       </c>
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A389" s="15" t="s">
+      <c r="A389" s="14" t="s">
         <v>399</v>
       </c>
-      <c r="B389" s="15" t="n">
+      <c r="B389" s="14" t="n">
         <v>-1.201</v>
       </c>
       <c r="C389" s="2" t="s">
@@ -6772,10 +6752,10 @@
       </c>
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A391" s="17" t="s">
+      <c r="A391" s="16" t="s">
         <v>401</v>
       </c>
-      <c r="B391" s="17" t="n">
+      <c r="B391" s="16" t="n">
         <v>-1.21</v>
       </c>
       <c r="C391" s="2" t="s">
@@ -6783,10 +6763,10 @@
       </c>
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A392" s="15" t="s">
+      <c r="A392" s="14" t="s">
         <v>402</v>
       </c>
-      <c r="B392" s="15" t="n">
+      <c r="B392" s="14" t="n">
         <v>-1.211</v>
       </c>
       <c r="C392" s="2" t="s">
@@ -6794,10 +6774,10 @@
       </c>
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A393" s="15" t="s">
+      <c r="A393" s="14" t="s">
         <v>403</v>
       </c>
-      <c r="B393" s="15" t="n">
+      <c r="B393" s="14" t="n">
         <v>-1.212</v>
       </c>
       <c r="C393" s="2" t="s">
@@ -6816,7 +6796,7 @@
       </c>
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A395" s="15" t="s">
+      <c r="A395" s="14" t="s">
         <v>405</v>
       </c>
       <c r="B395" s="2" t="n">
@@ -6827,7 +6807,7 @@
       </c>
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A396" s="15" t="s">
+      <c r="A396" s="14" t="s">
         <v>406</v>
       </c>
       <c r="B396" s="2" t="n">
@@ -6838,38 +6818,38 @@
       </c>
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A397" s="18" t="s">
+      <c r="A397" s="17" t="s">
         <v>407</v>
       </c>
-      <c r="B397" s="19" t="n">
+      <c r="B397" s="18" t="n">
         <v>-1.219</v>
       </c>
-      <c r="C397" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D397" s="18" t="s">
+      <c r="C397" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D397" s="17" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A398" s="18" t="s">
+      <c r="A398" s="17" t="s">
         <v>409</v>
       </c>
-      <c r="B398" s="19" t="n">
+      <c r="B398" s="18" t="n">
         <v>-1.22</v>
       </c>
-      <c r="C398" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D398" s="18" t="s">
+      <c r="C398" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D398" s="17" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A399" s="17" t="s">
+      <c r="A399" s="16" t="s">
         <v>410</v>
       </c>
-      <c r="B399" s="17" t="n">
+      <c r="B399" s="16" t="n">
         <v>-1.22</v>
       </c>
       <c r="C399" s="2" t="s">
@@ -6888,7 +6868,7 @@
       </c>
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A401" s="15" t="s">
+      <c r="A401" s="14" t="s">
         <v>412</v>
       </c>
       <c r="B401" s="2" t="n">
@@ -6899,7 +6879,7 @@
       </c>
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A402" s="15" t="s">
+      <c r="A402" s="14" t="s">
         <v>413</v>
       </c>
       <c r="B402" s="2" t="n">
@@ -6910,7 +6890,7 @@
       </c>
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A403" s="15" t="s">
+      <c r="A403" s="14" t="s">
         <v>414</v>
       </c>
       <c r="B403" s="2" t="n">
@@ -6921,24 +6901,24 @@
       </c>
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A404" s="18" t="s">
+      <c r="A404" s="17" t="s">
         <v>415</v>
       </c>
-      <c r="B404" s="18" t="n">
+      <c r="B404" s="17" t="n">
         <v>-1.23</v>
       </c>
-      <c r="C404" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D404" s="18" t="s">
+      <c r="C404" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D404" s="17" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A405" s="15" t="s">
+      <c r="A405" s="14" t="s">
         <v>416</v>
       </c>
-      <c r="B405" s="15" t="n">
+      <c r="B405" s="14" t="n">
         <v>-1.232</v>
       </c>
       <c r="C405" s="2" t="s">
@@ -6946,21 +6926,21 @@
       </c>
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A406" s="18" t="s">
+      <c r="A406" s="17" t="s">
         <v>417</v>
       </c>
-      <c r="B406" s="19" t="n">
+      <c r="B406" s="18" t="n">
         <v>-1.233</v>
       </c>
-      <c r="C406" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D406" s="18" t="s">
+      <c r="C406" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D406" s="17" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A407" s="15" t="s">
+      <c r="A407" s="14" t="s">
         <v>418</v>
       </c>
       <c r="B407" s="2" t="n">
@@ -6971,7 +6951,7 @@
       </c>
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A408" s="15" t="s">
+      <c r="A408" s="14" t="s">
         <v>419</v>
       </c>
       <c r="B408" s="2" t="n">
@@ -6982,10 +6962,10 @@
       </c>
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A409" s="15" t="s">
+      <c r="A409" s="14" t="s">
         <v>420</v>
       </c>
-      <c r="B409" s="15" t="n">
+      <c r="B409" s="14" t="n">
         <v>-1.236</v>
       </c>
       <c r="C409" s="2" t="s">
@@ -6993,10 +6973,10 @@
       </c>
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A410" s="15" t="s">
+      <c r="A410" s="14" t="s">
         <v>421</v>
       </c>
-      <c r="B410" s="15" t="n">
+      <c r="B410" s="14" t="n">
         <v>-1.236</v>
       </c>
       <c r="C410" s="2" t="s">
@@ -7004,10 +6984,10 @@
       </c>
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A411" s="15" t="s">
+      <c r="A411" s="14" t="s">
         <v>422</v>
       </c>
-      <c r="B411" s="15" t="n">
+      <c r="B411" s="14" t="n">
         <v>-1.238</v>
       </c>
       <c r="C411" s="2" t="s">
@@ -7015,10 +6995,10 @@
       </c>
     </row>
     <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A412" s="17" t="s">
+      <c r="A412" s="16" t="s">
         <v>423</v>
       </c>
-      <c r="B412" s="17" t="n">
+      <c r="B412" s="16" t="n">
         <v>-1.24</v>
       </c>
       <c r="C412" s="2" t="s">
@@ -7037,7 +7017,7 @@
       </c>
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A414" s="15" t="s">
+      <c r="A414" s="14" t="s">
         <v>425</v>
       </c>
       <c r="B414" s="2" t="n">
@@ -7048,10 +7028,10 @@
       </c>
     </row>
     <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A415" s="17" t="s">
+      <c r="A415" s="16" t="s">
         <v>426</v>
       </c>
-      <c r="B415" s="17" t="n">
+      <c r="B415" s="16" t="n">
         <v>-1.253</v>
       </c>
       <c r="C415" s="2" t="s">
@@ -7059,7 +7039,7 @@
       </c>
     </row>
     <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A416" s="15" t="s">
+      <c r="A416" s="14" t="s">
         <v>427</v>
       </c>
       <c r="B416" s="2" t="n">
@@ -7070,7 +7050,7 @@
       </c>
     </row>
     <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A417" s="15" t="s">
+      <c r="A417" s="14" t="s">
         <v>428</v>
       </c>
       <c r="B417" s="2" t="n">
@@ -7081,7 +7061,7 @@
       </c>
     </row>
     <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A418" s="15" t="s">
+      <c r="A418" s="14" t="s">
         <v>429</v>
       </c>
       <c r="B418" s="2" t="n">
@@ -7092,24 +7072,24 @@
       </c>
     </row>
     <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A419" s="18" t="s">
+      <c r="A419" s="17" t="s">
         <v>430</v>
       </c>
-      <c r="B419" s="19" t="n">
+      <c r="B419" s="18" t="n">
         <v>-1.263</v>
       </c>
-      <c r="C419" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D419" s="18" t="s">
+      <c r="C419" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D419" s="17" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A420" s="15" t="s">
+      <c r="A420" s="14" t="s">
         <v>431</v>
       </c>
-      <c r="B420" s="15" t="n">
+      <c r="B420" s="14" t="n">
         <v>-1.263</v>
       </c>
       <c r="C420" s="2" t="s">
@@ -7117,24 +7097,24 @@
       </c>
     </row>
     <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A421" s="18" t="s">
+      <c r="A421" s="17" t="s">
         <v>432</v>
       </c>
-      <c r="B421" s="19" t="n">
+      <c r="B421" s="18" t="n">
         <v>-1.266</v>
       </c>
-      <c r="C421" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D421" s="18" t="s">
+      <c r="C421" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D421" s="17" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A422" s="17" t="s">
+      <c r="A422" s="16" t="s">
         <v>433</v>
       </c>
-      <c r="B422" s="17" t="n">
+      <c r="B422" s="16" t="n">
         <v>-1.27</v>
       </c>
       <c r="C422" s="2" t="s">
@@ -7142,7 +7122,7 @@
       </c>
     </row>
     <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A423" s="15" t="s">
+      <c r="A423" s="14" t="s">
         <v>434</v>
       </c>
       <c r="B423" s="2" t="n">
@@ -7153,30 +7133,30 @@
       </c>
     </row>
     <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A424" s="18" t="s">
+      <c r="A424" s="17" t="s">
         <v>435</v>
       </c>
-      <c r="B424" s="19" t="n">
+      <c r="B424" s="18" t="n">
         <v>-1.272</v>
       </c>
-      <c r="C424" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D424" s="18" t="s">
+      <c r="C424" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D424" s="17" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A425" s="18" t="s">
+      <c r="A425" s="17" t="s">
         <v>436</v>
       </c>
-      <c r="B425" s="19" t="n">
+      <c r="B425" s="18" t="n">
         <v>-1.273</v>
       </c>
-      <c r="C425" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D425" s="18" t="s">
+      <c r="C425" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D425" s="17" t="s">
         <v>408</v>
       </c>
     </row>
@@ -7192,7 +7172,7 @@
       </c>
     </row>
     <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A427" s="15" t="s">
+      <c r="A427" s="14" t="s">
         <v>438</v>
       </c>
       <c r="B427" s="2" t="n">
@@ -7214,10 +7194,10 @@
       </c>
     </row>
     <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A429" s="15" t="s">
+      <c r="A429" s="14" t="s">
         <v>440</v>
       </c>
-      <c r="B429" s="15" t="n">
+      <c r="B429" s="14" t="n">
         <v>-1.295</v>
       </c>
       <c r="C429" s="2" t="s">
@@ -7225,10 +7205,10 @@
       </c>
     </row>
     <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A430" s="15" t="s">
+      <c r="A430" s="14" t="s">
         <v>441</v>
       </c>
-      <c r="B430" s="15" t="n">
+      <c r="B430" s="14" t="n">
         <v>-1.296</v>
       </c>
       <c r="C430" s="2" t="s">
@@ -7236,7 +7216,7 @@
       </c>
     </row>
     <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A431" s="15" t="s">
+      <c r="A431" s="14" t="s">
         <v>442</v>
       </c>
       <c r="B431" s="2" t="n">
@@ -7247,10 +7227,10 @@
       </c>
     </row>
     <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A432" s="15" t="s">
+      <c r="A432" s="14" t="s">
         <v>443</v>
       </c>
-      <c r="B432" s="15" t="n">
+      <c r="B432" s="14" t="n">
         <v>-1.299</v>
       </c>
       <c r="C432" s="2" t="s">
@@ -7258,7 +7238,7 @@
       </c>
     </row>
     <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A433" s="15" t="s">
+      <c r="A433" s="14" t="s">
         <v>444</v>
       </c>
       <c r="B433" s="2" t="n">
@@ -7269,10 +7249,10 @@
       </c>
     </row>
     <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A434" s="15" t="s">
+      <c r="A434" s="14" t="s">
         <v>445</v>
       </c>
-      <c r="B434" s="15" t="n">
+      <c r="B434" s="14" t="n">
         <v>-1.304</v>
       </c>
       <c r="C434" s="2" t="s">
@@ -7280,10 +7260,10 @@
       </c>
     </row>
     <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A435" s="15" t="s">
+      <c r="A435" s="14" t="s">
         <v>446</v>
       </c>
-      <c r="B435" s="15" t="n">
+      <c r="B435" s="14" t="n">
         <v>-1.306</v>
       </c>
       <c r="C435" s="2" t="s">
@@ -7291,10 +7271,10 @@
       </c>
     </row>
     <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A436" s="15" t="s">
+      <c r="A436" s="14" t="s">
         <v>447</v>
       </c>
-      <c r="B436" s="15" t="n">
+      <c r="B436" s="14" t="n">
         <v>-1.307</v>
       </c>
       <c r="C436" s="2" t="s">
@@ -7302,7 +7282,7 @@
       </c>
     </row>
     <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A437" s="15" t="s">
+      <c r="A437" s="14" t="s">
         <v>448</v>
       </c>
       <c r="B437" s="2" t="n">
@@ -7313,10 +7293,10 @@
       </c>
     </row>
     <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A438" s="15" t="s">
+      <c r="A438" s="14" t="s">
         <v>449</v>
       </c>
-      <c r="B438" s="15" t="n">
+      <c r="B438" s="14" t="n">
         <v>-1.314</v>
       </c>
       <c r="C438" s="2" t="s">
@@ -7324,7 +7304,7 @@
       </c>
     </row>
     <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A439" s="15" t="s">
+      <c r="A439" s="14" t="s">
         <v>450</v>
       </c>
       <c r="B439" s="2" t="n">
@@ -7335,10 +7315,10 @@
       </c>
     </row>
     <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A440" s="17" t="s">
+      <c r="A440" s="16" t="s">
         <v>451</v>
       </c>
-      <c r="B440" s="17" t="n">
+      <c r="B440" s="16" t="n">
         <v>-1.331</v>
       </c>
       <c r="C440" s="2" t="s">
@@ -7346,10 +7326,10 @@
       </c>
     </row>
     <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A441" s="15" t="s">
+      <c r="A441" s="14" t="s">
         <v>452</v>
       </c>
-      <c r="B441" s="15" t="n">
+      <c r="B441" s="14" t="n">
         <v>-1.332</v>
       </c>
       <c r="C441" s="2" t="s">
@@ -7357,7 +7337,7 @@
       </c>
     </row>
     <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A442" s="15" t="s">
+      <c r="A442" s="14" t="s">
         <v>453</v>
       </c>
       <c r="B442" s="2" t="n">
@@ -7368,10 +7348,10 @@
       </c>
     </row>
     <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A443" s="15" t="s">
+      <c r="A443" s="14" t="s">
         <v>454</v>
       </c>
-      <c r="B443" s="15" t="n">
+      <c r="B443" s="14" t="n">
         <v>-1.335</v>
       </c>
       <c r="C443" s="2" t="s">
@@ -7379,10 +7359,10 @@
       </c>
     </row>
     <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A444" s="17" t="s">
+      <c r="A444" s="16" t="s">
         <v>455</v>
       </c>
-      <c r="B444" s="17" t="n">
+      <c r="B444" s="16" t="n">
         <v>-1.342</v>
       </c>
       <c r="C444" s="2" t="s">
@@ -7412,7 +7392,7 @@
       </c>
     </row>
     <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A447" s="15" t="s">
+      <c r="A447" s="14" t="s">
         <v>458</v>
       </c>
       <c r="B447" s="2" t="n">
@@ -7423,7 +7403,7 @@
       </c>
     </row>
     <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A448" s="15" t="s">
+      <c r="A448" s="14" t="s">
         <v>459</v>
       </c>
       <c r="B448" s="2" t="n">
@@ -7434,10 +7414,10 @@
       </c>
     </row>
     <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A449" s="17" t="s">
+      <c r="A449" s="16" t="s">
         <v>460</v>
       </c>
-      <c r="B449" s="17" t="n">
+      <c r="B449" s="16" t="n">
         <v>-1.348</v>
       </c>
       <c r="C449" s="2" t="s">
@@ -7445,7 +7425,7 @@
       </c>
     </row>
     <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A450" s="15" t="s">
+      <c r="A450" s="14" t="s">
         <v>461</v>
       </c>
       <c r="B450" s="2" t="n">
@@ -7456,10 +7436,10 @@
       </c>
     </row>
     <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A451" s="15" t="s">
+      <c r="A451" s="14" t="s">
         <v>462</v>
       </c>
-      <c r="B451" s="15" t="n">
+      <c r="B451" s="14" t="n">
         <v>-1.362</v>
       </c>
       <c r="C451" s="2" t="s">
@@ -7467,10 +7447,10 @@
       </c>
     </row>
     <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A452" s="15" t="s">
+      <c r="A452" s="14" t="s">
         <v>463</v>
       </c>
-      <c r="B452" s="15" t="n">
+      <c r="B452" s="14" t="n">
         <v>-1.366</v>
       </c>
       <c r="C452" s="2" t="s">
@@ -7489,38 +7469,24 @@
       </c>
     </row>
     <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A454" s="17" t="s">
-        <v>465</v>
-      </c>
-      <c r="B454" s="17" t="n">
-        <v>-1.956</v>
-      </c>
-      <c r="C454" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D454" s="1" t="s">
-        <v>466</v>
-      </c>
+      <c r="A454" s="14"/>
+      <c r="B454" s="14"/>
     </row>
     <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A455" s="15"/>
-      <c r="B455" s="15"/>
+      <c r="A455" s="14"/>
+      <c r="B455" s="14"/>
     </row>
     <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A456" s="15"/>
-      <c r="B456" s="15"/>
+      <c r="A456" s="14"/>
+      <c r="B456" s="14"/>
     </row>
     <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A457" s="15"/>
-      <c r="B457" s="15"/>
+      <c r="A457" s="14"/>
+      <c r="B457" s="14"/>
     </row>
     <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A458" s="15"/>
-      <c r="B458" s="15"/>
-    </row>
-    <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A459" s="15"/>
-      <c r="B459" s="15"/>
+      <c r="A458" s="14"/>
+      <c r="B458" s="14"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/LD1014D_list.xlsx
+++ b/LD1014D_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="474">
   <si>
     <t xml:space="preserve">LD1014 List (matching without curves)</t>
   </si>
@@ -241,6 +241,9 @@
     <t xml:space="preserve">LD1014D_232</t>
   </si>
   <si>
+    <t xml:space="preserve"> LD1014D_514</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_36</t>
   </si>
   <si>
@@ -388,6 +391,9 @@
     <t xml:space="preserve">LD1014D_118</t>
   </si>
   <si>
+    <t xml:space="preserve"> LD1014D_515</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_223</t>
   </si>
   <si>
@@ -538,6 +544,9 @@
     <t xml:space="preserve">LD1014D_339</t>
   </si>
   <si>
+    <t xml:space="preserve"> LD1014D_509</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_190</t>
   </si>
   <si>
@@ -640,6 +649,9 @@
     <t xml:space="preserve">LD1014D_253</t>
   </si>
   <si>
+    <t xml:space="preserve"> LD1014D_507</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_219</t>
   </si>
   <si>
@@ -811,6 +823,9 @@
     <t xml:space="preserve">LD1014D_91</t>
   </si>
   <si>
+    <t xml:space="preserve"> LD1014D_510</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_98</t>
   </si>
   <si>
@@ -904,6 +919,9 @@
     <t xml:space="preserve">LD1014D_229</t>
   </si>
   <si>
+    <t xml:space="preserve"> LD1014D_508</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_326</t>
   </si>
   <si>
@@ -919,6 +937,9 @@
     <t xml:space="preserve">LD1014D_158</t>
   </si>
   <si>
+    <t xml:space="preserve"> LD1014D_516</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_423</t>
   </si>
   <si>
@@ -973,6 +994,9 @@
     <t xml:space="preserve">LD1014D_163</t>
   </si>
   <si>
+    <t xml:space="preserve"> LD1014D_506</t>
+  </si>
+  <si>
     <t xml:space="preserve">LD1014D_305</t>
   </si>
   <si>
@@ -1220,6 +1244,9 @@
   </si>
   <si>
     <t xml:space="preserve">LD1014D_409</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LD1014D_513</t>
   </si>
   <si>
     <t xml:space="preserve">LD1014D_66</t>
@@ -1620,6 +1647,15 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC9211E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1688,13 +1724,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ458"/>
+  <dimension ref="A1:AMJ463"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A436" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A454" activeCellId="0" sqref="A454"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.52"/>
@@ -2694,14 +2730,14 @@
       <c r="I73" s="1"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="14" t="s">
         <v>73</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>-0.798</v>
+        <v>-0.796</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F74" s="15"/>
       <c r="G74" s="14"/>
@@ -2709,14 +2745,14 @@
       <c r="I74" s="1"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="16" t="s">
+      <c r="A75" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B75" s="16" t="n">
-        <v>-0.8</v>
+      <c r="B75" s="2" t="n">
+        <v>-0.798</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F75" s="15"/>
       <c r="G75" s="14"/>
@@ -2724,14 +2760,14 @@
       <c r="I75" s="1"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="14" t="s">
+      <c r="A76" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B76" s="2" t="n">
-        <v>-0.801</v>
+      <c r="B76" s="16" t="n">
+        <v>-0.8</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F76" s="15"/>
       <c r="G76" s="1"/>
@@ -2743,7 +2779,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>-0.805</v>
+        <v>-0.801</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>15</v>
@@ -2769,11 +2805,11 @@
       <c r="I78" s="1"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="14" t="s">
         <v>78</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>-0.806</v>
+        <v>-0.805</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>15</v>
@@ -2784,14 +2820,14 @@
       <c r="I79" s="1"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="16" t="s">
+      <c r="A80" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B80" s="16" t="n">
+      <c r="B80" s="2" t="n">
         <v>-0.806</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F80" s="15"/>
       <c r="G80" s="1"/>
@@ -2799,11 +2835,11 @@
       <c r="I80" s="1"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="14" t="s">
+      <c r="A81" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B81" s="14" t="n">
-        <v>-0.809</v>
+      <c r="B81" s="16" t="n">
+        <v>-0.806</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>17</v>
@@ -2817,8 +2853,8 @@
       <c r="A82" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B82" s="2" t="n">
-        <v>-0.815</v>
+      <c r="B82" s="14" t="n">
+        <v>-0.809</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>17</v>
@@ -2829,14 +2865,14 @@
       <c r="I82" s="1"/>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="14" t="s">
         <v>82</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>-0.816</v>
+        <v>-0.815</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F83" s="15"/>
       <c r="G83" s="14"/>
@@ -2844,14 +2880,14 @@
       <c r="I83" s="1"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="14" t="s">
+      <c r="A84" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>-0.822</v>
+        <v>-0.816</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F84" s="15"/>
       <c r="G84" s="1"/>
@@ -2863,10 +2899,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>-0.823</v>
+        <v>-0.822</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F85" s="15"/>
       <c r="G85" s="1"/>
@@ -2874,11 +2910,11 @@
       <c r="I85" s="1"/>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="14" t="s">
         <v>85</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>-0.824</v>
+        <v>-0.823</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>15</v>
@@ -2889,11 +2925,11 @@
       <c r="I86" s="1"/>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="14" t="s">
+      <c r="A87" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>-0.83</v>
+        <v>-0.824</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>15</v>
@@ -2904,11 +2940,11 @@
       <c r="I87" s="1"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="1" t="s">
+      <c r="A88" s="14" t="s">
         <v>87</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>-0.832</v>
+        <v>-0.83</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>15</v>
@@ -2923,7 +2959,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>-0.833</v>
+        <v>-0.832</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>15</v>
@@ -2934,14 +2970,14 @@
       <c r="I89" s="1"/>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="14" t="s">
+      <c r="A90" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B90" s="14" t="n">
-        <v>-0.835</v>
+      <c r="B90" s="2" t="n">
+        <v>-0.833</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F90" s="15"/>
       <c r="G90" s="1"/>
@@ -2964,10 +3000,10 @@
       <c r="I91" s="1"/>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="16" t="s">
+      <c r="A92" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="B92" s="16" t="n">
+      <c r="B92" s="14" t="n">
         <v>-0.835</v>
       </c>
       <c r="C92" s="2" t="s">
@@ -2994,14 +3030,14 @@
       <c r="I93" s="1"/>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="14" t="s">
+      <c r="A94" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="B94" s="2" t="n">
-        <v>-0.837</v>
+      <c r="B94" s="16" t="n">
+        <v>-0.835</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F94" s="15"/>
       <c r="G94" s="1"/>
@@ -3012,11 +3048,11 @@
       <c r="A95" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="B95" s="14" t="n">
-        <v>-0.839</v>
+      <c r="B95" s="2" t="n">
+        <v>-0.837</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F95" s="15"/>
       <c r="G95" s="1"/>
@@ -3024,14 +3060,14 @@
       <c r="I95" s="1"/>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1" t="s">
+      <c r="A96" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="B96" s="2" t="n">
-        <v>-0.841</v>
+      <c r="B96" s="14" t="n">
+        <v>-0.839</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F96" s="15"/>
       <c r="G96" s="1"/>
@@ -3039,17 +3075,14 @@
       <c r="I96" s="1"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="17" t="s">
+      <c r="A97" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B97" s="18" t="n">
-        <v>-0.846</v>
-      </c>
-      <c r="C97" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D97" s="17" t="s">
-        <v>97</v>
+      <c r="B97" s="2" t="n">
+        <v>-0.841</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="F97" s="15"/>
       <c r="G97" s="1"/>
@@ -3058,16 +3091,16 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B98" s="18" t="n">
+        <v>-0.846</v>
+      </c>
+      <c r="C98" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D98" s="17" t="s">
         <v>98</v>
-      </c>
-      <c r="B98" s="18" t="n">
-        <v>-0.847</v>
-      </c>
-      <c r="C98" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D98" s="17" t="s">
-        <v>97</v>
       </c>
       <c r="F98" s="15"/>
       <c r="G98" s="14"/>
@@ -3082,10 +3115,10 @@
         <v>-0.847</v>
       </c>
       <c r="C99" s="18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F99" s="15"/>
       <c r="G99" s="14"/>
@@ -3100,10 +3133,10 @@
         <v>-0.847</v>
       </c>
       <c r="C100" s="18" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F100" s="15"/>
       <c r="G100" s="1"/>
@@ -3115,13 +3148,13 @@
         <v>101</v>
       </c>
       <c r="B101" s="18" t="n">
-        <v>-0.848</v>
+        <v>-0.847</v>
       </c>
       <c r="C101" s="18" t="s">
         <v>15</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F101" s="15"/>
       <c r="G101" s="14"/>
@@ -3129,14 +3162,17 @@
       <c r="I101" s="1"/>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="14" t="s">
+      <c r="A102" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="B102" s="14" t="n">
-        <v>-0.849</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>17</v>
+      <c r="B102" s="18" t="n">
+        <v>-0.848</v>
+      </c>
+      <c r="C102" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D102" s="17" t="s">
+        <v>98</v>
       </c>
       <c r="F102" s="15"/>
       <c r="G102" s="14"/>
@@ -3148,7 +3184,7 @@
         <v>103</v>
       </c>
       <c r="B103" s="14" t="n">
-        <v>-0.853</v>
+        <v>-0.849</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>17</v>
@@ -3159,14 +3195,14 @@
       <c r="I103" s="1"/>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="1" t="s">
+      <c r="A104" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="B104" s="2" t="n">
+      <c r="B104" s="14" t="n">
         <v>-0.853</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F104" s="15"/>
       <c r="G104" s="14"/>
@@ -3178,7 +3214,7 @@
         <v>105</v>
       </c>
       <c r="B105" s="2" t="n">
-        <v>-0.855</v>
+        <v>-0.853</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>15</v>
@@ -3189,14 +3225,14 @@
       <c r="I105" s="1"/>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="14" t="s">
+      <c r="A106" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B106" s="2" t="n">
-        <v>-0.857</v>
+        <v>-0.855</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F106" s="15"/>
       <c r="G106" s="1"/>
@@ -3207,7 +3243,7 @@
       <c r="A107" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="B107" s="14" t="n">
+      <c r="B107" s="2" t="n">
         <v>-0.857</v>
       </c>
       <c r="C107" s="2" t="s">
@@ -3222,8 +3258,8 @@
       <c r="A108" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="B108" s="2" t="n">
-        <v>-0.858</v>
+      <c r="B108" s="14" t="n">
+        <v>-0.857</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>17</v>
@@ -3237,14 +3273,11 @@
       <c r="A109" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="B109" s="16" t="n">
-        <v>-0.86</v>
-      </c>
-      <c r="C109" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D109" s="14" t="s">
-        <v>110</v>
+      <c r="B109" s="2" t="n">
+        <v>-0.858</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="F109" s="15"/>
       <c r="G109" s="1"/>
@@ -3253,7 +3286,7 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B110" s="16" t="n">
         <v>-0.86</v>
@@ -3262,7 +3295,7 @@
         <v>15</v>
       </c>
       <c r="D110" s="14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F110" s="15"/>
       <c r="G110" s="14"/>
@@ -3270,14 +3303,17 @@
       <c r="I110" s="1"/>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="1" t="s">
+      <c r="A111" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="B111" s="2" t="n">
-        <v>-0.861</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>15</v>
+      <c r="B111" s="16" t="n">
+        <v>-0.86</v>
+      </c>
+      <c r="C111" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D111" s="14" t="s">
+        <v>111</v>
       </c>
       <c r="F111" s="15"/>
       <c r="G111" s="1"/>
@@ -3285,14 +3321,14 @@
       <c r="I111" s="1"/>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="16" t="s">
+      <c r="A112" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B112" s="16" t="n">
+      <c r="B112" s="2" t="n">
         <v>-0.861</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F112" s="15"/>
       <c r="G112" s="14"/>
@@ -3300,11 +3336,11 @@
       <c r="I112" s="1"/>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="14" t="s">
+      <c r="A113" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="B113" s="2" t="n">
-        <v>-0.862</v>
+      <c r="B113" s="16" t="n">
+        <v>-0.861</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>17</v>
@@ -3315,11 +3351,11 @@
       <c r="I113" s="1"/>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="16" t="s">
+      <c r="A114" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B114" s="16" t="n">
-        <v>-0.863</v>
+      <c r="B114" s="2" t="n">
+        <v>-0.862</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>17</v>
@@ -3330,14 +3366,14 @@
       <c r="I114" s="1"/>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="14" t="s">
+      <c r="A115" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="B115" s="2" t="n">
-        <v>-0.868</v>
+      <c r="B115" s="16" t="n">
+        <v>-0.863</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F115" s="15"/>
       <c r="G115" s="1"/>
@@ -3348,11 +3384,11 @@
       <c r="A116" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="B116" s="14" t="n">
-        <v>-0.869</v>
+      <c r="B116" s="2" t="n">
+        <v>-0.868</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F116" s="15"/>
       <c r="G116" s="14"/>
@@ -3363,8 +3399,8 @@
       <c r="A117" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="B117" s="2" t="n">
-        <v>-0.873</v>
+      <c r="B117" s="14" t="n">
+        <v>-0.869</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>17</v>
@@ -3375,11 +3411,11 @@
       <c r="I117" s="1"/>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="16" t="s">
+      <c r="A118" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="B118" s="16" t="n">
-        <v>-0.874</v>
+      <c r="B118" s="2" t="n">
+        <v>-0.873</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>17</v>
@@ -3405,14 +3441,14 @@
       <c r="I119" s="1"/>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="14" t="s">
+      <c r="A120" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="B120" s="2" t="n">
-        <v>-0.875</v>
+      <c r="B120" s="16" t="n">
+        <v>-0.874</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F120" s="15"/>
       <c r="G120" s="1"/>
@@ -3424,10 +3460,10 @@
         <v>122</v>
       </c>
       <c r="B121" s="2" t="n">
-        <v>-0.876</v>
+        <v>-0.875</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F121" s="15"/>
       <c r="G121" s="14"/>
@@ -3435,14 +3471,14 @@
       <c r="I121" s="1"/>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="1" t="s">
+      <c r="A122" s="14" t="s">
         <v>123</v>
       </c>
       <c r="B122" s="2" t="n">
-        <v>-0.876</v>
+        <v>-0.875</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F122" s="15"/>
       <c r="G122" s="1"/>
@@ -3450,10 +3486,10 @@
       <c r="I122" s="1"/>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="16" t="s">
+      <c r="A123" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="B123" s="16" t="n">
+      <c r="B123" s="2" t="n">
         <v>-0.876</v>
       </c>
       <c r="C123" s="2" t="s">
@@ -3465,14 +3501,14 @@
       <c r="I123" s="1"/>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="16" t="s">
+      <c r="A124" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B124" s="16" t="n">
-        <v>-0.878</v>
+      <c r="B124" s="2" t="n">
+        <v>-0.876</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F124" s="15"/>
       <c r="G124" s="14"/>
@@ -3480,11 +3516,11 @@
       <c r="I124" s="1"/>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="14" t="s">
+      <c r="A125" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="B125" s="14" t="n">
-        <v>-0.881</v>
+      <c r="B125" s="16" t="n">
+        <v>-0.876</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>17</v>
@@ -3495,14 +3531,14 @@
       <c r="I125" s="1"/>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="1" t="s">
+      <c r="A126" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="B126" s="2" t="n">
-        <v>-0.881</v>
+      <c r="B126" s="16" t="n">
+        <v>-0.878</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F126" s="15"/>
       <c r="G126" s="14"/>
@@ -3513,11 +3549,11 @@
       <c r="A127" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="B127" s="2" t="n">
-        <v>-0.883</v>
+      <c r="B127" s="14" t="n">
+        <v>-0.881</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F127" s="15"/>
       <c r="G127" s="14"/>
@@ -3525,14 +3561,14 @@
       <c r="I127" s="1"/>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="16" t="s">
+      <c r="A128" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B128" s="16" t="n">
-        <v>-0.883</v>
+      <c r="B128" s="2" t="n">
+        <v>-0.881</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F128" s="15"/>
       <c r="G128" s="1"/>
@@ -3544,10 +3580,10 @@
         <v>130</v>
       </c>
       <c r="B129" s="2" t="n">
-        <v>-0.885</v>
+        <v>-0.883</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F129" s="15"/>
       <c r="G129" s="14"/>
@@ -3555,14 +3591,14 @@
       <c r="I129" s="1"/>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="1" t="s">
+      <c r="A130" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="B130" s="2" t="n">
-        <v>-0.885</v>
+      <c r="B130" s="16" t="n">
+        <v>-0.883</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F130" s="15"/>
       <c r="G130" s="14"/>
@@ -3570,14 +3606,14 @@
       <c r="I130" s="1"/>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="1" t="s">
+      <c r="A131" s="14" t="s">
         <v>132</v>
       </c>
       <c r="B131" s="2" t="n">
-        <v>-0.886</v>
+        <v>-0.885</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F131" s="15"/>
       <c r="G131" s="14"/>
@@ -3585,14 +3621,14 @@
       <c r="I131" s="1"/>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="16" t="s">
+      <c r="A132" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B132" s="16" t="n">
-        <v>-0.887</v>
+      <c r="B132" s="2" t="n">
+        <v>-0.885</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F132" s="15"/>
       <c r="G132" s="14"/>
@@ -3600,14 +3636,14 @@
       <c r="I132" s="1"/>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="16" t="s">
+      <c r="A133" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B133" s="16" t="n">
-        <v>-0.887</v>
+      <c r="B133" s="2" t="n">
+        <v>-0.886</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F133" s="15"/>
       <c r="G133" s="1"/>
@@ -3615,14 +3651,14 @@
       <c r="I133" s="1"/>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="1" t="s">
+      <c r="A134" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="B134" s="2" t="n">
-        <v>-0.892</v>
+      <c r="B134" s="16" t="n">
+        <v>-0.887</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F134" s="15"/>
       <c r="G134" s="1"/>
@@ -3630,11 +3666,11 @@
       <c r="I134" s="1"/>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="14" t="s">
+      <c r="A135" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="B135" s="2" t="n">
-        <v>-0.893</v>
+      <c r="B135" s="16" t="n">
+        <v>-0.887</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>17</v>
@@ -3645,14 +3681,14 @@
       <c r="I135" s="1"/>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="14" t="s">
+      <c r="A136" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B136" s="14" t="n">
-        <v>-0.894</v>
+      <c r="B136" s="2" t="n">
+        <v>-0.892</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F136" s="15"/>
       <c r="G136" s="14"/>
@@ -3660,11 +3696,11 @@
       <c r="I136" s="1"/>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="16" t="s">
+      <c r="A137" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="B137" s="16" t="n">
-        <v>-0.895</v>
+      <c r="B137" s="2" t="n">
+        <v>-0.893</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>17</v>
@@ -3678,8 +3714,8 @@
       <c r="A138" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="B138" s="2" t="n">
-        <v>-0.896</v>
+      <c r="B138" s="14" t="n">
+        <v>-0.894</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>17</v>
@@ -3690,17 +3726,14 @@
       <c r="I138" s="1"/>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="17" t="s">
+      <c r="A139" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="B139" s="18" t="n">
-        <v>-0.901</v>
-      </c>
-      <c r="C139" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D139" s="17" t="s">
-        <v>141</v>
+      <c r="B139" s="16" t="n">
+        <v>-0.895</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="F139" s="15"/>
       <c r="G139" s="14"/>
@@ -3708,17 +3741,14 @@
       <c r="I139" s="1"/>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="B140" s="18" t="n">
-        <v>-0.901</v>
-      </c>
-      <c r="C140" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D140" s="17" t="s">
+      <c r="A140" s="14" t="s">
         <v>141</v>
+      </c>
+      <c r="B140" s="2" t="n">
+        <v>-0.896</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="F140" s="15"/>
       <c r="G140" s="1"/>
@@ -3726,14 +3756,17 @@
       <c r="I140" s="1"/>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="16" t="s">
+      <c r="A141" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B141" s="18" t="n">
+        <v>-0.901</v>
+      </c>
+      <c r="C141" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D141" s="17" t="s">
         <v>143</v>
-      </c>
-      <c r="B141" s="16" t="n">
-        <v>-0.902</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="F141" s="15"/>
       <c r="G141" s="1"/>
@@ -3741,14 +3774,17 @@
       <c r="I141" s="1"/>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="14" t="s">
+      <c r="A142" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="B142" s="14" t="n">
-        <v>-0.904</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>17</v>
+      <c r="B142" s="18" t="n">
+        <v>-0.901</v>
+      </c>
+      <c r="C142" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D142" s="17" t="s">
+        <v>143</v>
       </c>
       <c r="F142" s="15"/>
       <c r="G142" s="14"/>
@@ -3756,14 +3792,14 @@
       <c r="I142" s="1"/>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="1" t="s">
+      <c r="A143" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="B143" s="2" t="n">
-        <v>-0.908</v>
+      <c r="B143" s="16" t="n">
+        <v>-0.902</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F143" s="15"/>
       <c r="G143" s="14"/>
@@ -3771,14 +3807,14 @@
       <c r="I143" s="1"/>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="1" t="s">
+      <c r="A144" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="B144" s="2" t="n">
-        <v>-0.911</v>
+      <c r="B144" s="14" t="n">
+        <v>-0.904</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F144" s="15"/>
       <c r="G144" s="1"/>
@@ -3786,14 +3822,14 @@
       <c r="I144" s="1"/>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="16" t="s">
+      <c r="A145" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B145" s="16" t="n">
-        <v>-0.913</v>
+      <c r="B145" s="2" t="n">
+        <v>-0.908</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F145" s="15"/>
       <c r="G145" s="14"/>
@@ -3801,14 +3837,14 @@
       <c r="I145" s="1"/>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="14" t="s">
+      <c r="A146" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B146" s="14" t="n">
-        <v>-0.914</v>
+      <c r="B146" s="2" t="n">
+        <v>-0.911</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F146" s="15"/>
       <c r="G146" s="14"/>
@@ -3816,14 +3852,14 @@
       <c r="I146" s="1"/>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="1" t="s">
+      <c r="A147" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="B147" s="2" t="n">
-        <v>-0.914</v>
+      <c r="B147" s="16" t="n">
+        <v>-0.913</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F147" s="15"/>
       <c r="G147" s="1"/>
@@ -3831,10 +3867,10 @@
       <c r="I147" s="1"/>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="16" t="s">
+      <c r="A148" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="B148" s="16" t="n">
+      <c r="B148" s="14" t="n">
         <v>-0.914</v>
       </c>
       <c r="C148" s="2" t="s">
@@ -3846,14 +3882,14 @@
       <c r="I148" s="1"/>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="16" t="s">
+      <c r="A149" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B149" s="16" t="n">
+      <c r="B149" s="2" t="n">
         <v>-0.914</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F149" s="15"/>
       <c r="G149" s="1"/>
@@ -3861,14 +3897,14 @@
       <c r="I149" s="1"/>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="14" t="s">
+      <c r="A150" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="B150" s="2" t="n">
-        <v>-0.915</v>
+      <c r="B150" s="16" t="n">
+        <v>-0.914</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F150" s="15"/>
       <c r="G150" s="1"/>
@@ -3876,14 +3912,14 @@
       <c r="I150" s="1"/>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="14" t="s">
+      <c r="A151" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="B151" s="2" t="n">
-        <v>-0.917</v>
+      <c r="B151" s="16" t="n">
+        <v>-0.914</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F151" s="15"/>
       <c r="G151" s="14"/>
@@ -3894,11 +3930,11 @@
       <c r="A152" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="B152" s="14" t="n">
-        <v>-0.917</v>
+      <c r="B152" s="2" t="n">
+        <v>-0.915</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F152" s="15"/>
       <c r="G152" s="1"/>
@@ -3910,7 +3946,7 @@
         <v>155</v>
       </c>
       <c r="B153" s="2" t="n">
-        <v>-0.919</v>
+        <v>-0.917</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>15</v>
@@ -3924,11 +3960,11 @@
       <c r="A154" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="B154" s="2" t="n">
-        <v>-0.92</v>
+      <c r="B154" s="14" t="n">
+        <v>-0.917</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D154" s="1"/>
       <c r="F154" s="20"/>
@@ -3940,11 +3976,11 @@
       <c r="A155" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="B155" s="14" t="n">
-        <v>-0.92</v>
+      <c r="B155" s="2" t="n">
+        <v>-0.919</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F155" s="15"/>
       <c r="G155" s="14"/>
@@ -3956,7 +3992,7 @@
         <v>158</v>
       </c>
       <c r="B156" s="2" t="n">
-        <v>-0.921</v>
+        <v>-0.92</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>15</v>
@@ -3971,7 +4007,7 @@
         <v>159</v>
       </c>
       <c r="B157" s="14" t="n">
-        <v>-0.922</v>
+        <v>-0.92</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>17</v>
@@ -3985,11 +4021,11 @@
       <c r="A158" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="B158" s="14" t="n">
-        <v>-0.923</v>
+      <c r="B158" s="2" t="n">
+        <v>-0.921</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F158" s="15"/>
       <c r="G158" s="1"/>
@@ -3997,11 +4033,11 @@
       <c r="I158" s="1"/>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="16" t="s">
+      <c r="A159" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="B159" s="16" t="n">
-        <v>-0.925</v>
+      <c r="B159" s="14" t="n">
+        <v>-0.922</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>17</v>
@@ -4012,11 +4048,11 @@
       <c r="I159" s="1"/>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="16" t="s">
+      <c r="A160" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="B160" s="16" t="n">
-        <v>-0.925</v>
+      <c r="B160" s="14" t="n">
+        <v>-0.923</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>17</v>
@@ -4027,11 +4063,11 @@
       <c r="I160" s="1"/>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="14" t="s">
+      <c r="A161" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="B161" s="14" t="n">
-        <v>-0.927</v>
+      <c r="B161" s="16" t="n">
+        <v>-0.925</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>17</v>
@@ -4042,14 +4078,14 @@
       <c r="I161" s="1"/>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="1" t="s">
+      <c r="A162" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="B162" s="2" t="n">
-        <v>-0.929</v>
+      <c r="B162" s="16" t="n">
+        <v>-0.925</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F162" s="15"/>
       <c r="G162" s="1"/>
@@ -4061,7 +4097,7 @@
         <v>165</v>
       </c>
       <c r="B163" s="14" t="n">
-        <v>-0.932</v>
+        <v>-0.927</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>17</v>
@@ -4072,14 +4108,14 @@
       <c r="I163" s="1"/>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="14" t="s">
+      <c r="A164" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B164" s="14" t="n">
-        <v>-0.933</v>
+      <c r="B164" s="2" t="n">
+        <v>-0.929</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F164" s="15"/>
       <c r="G164" s="14"/>
@@ -4091,7 +4127,7 @@
         <v>167</v>
       </c>
       <c r="B165" s="14" t="n">
-        <v>-0.934</v>
+        <v>-0.932</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>17</v>
@@ -4102,11 +4138,11 @@
       <c r="I165" s="1"/>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="16" t="s">
+      <c r="A166" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="B166" s="16" t="n">
-        <v>-0.934</v>
+      <c r="B166" s="14" t="n">
+        <v>-0.933</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>17</v>
@@ -4117,11 +4153,11 @@
       <c r="I166" s="1"/>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="16" t="s">
+      <c r="A167" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="B167" s="16" t="n">
-        <v>-0.935</v>
+      <c r="B167" s="14" t="n">
+        <v>-0.934</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>17</v>
@@ -4132,14 +4168,14 @@
       <c r="I167" s="1"/>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="1" t="s">
+      <c r="A168" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="B168" s="2" t="n">
-        <v>-0.938</v>
+      <c r="B168" s="16" t="n">
+        <v>-0.934</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F168" s="15"/>
       <c r="G168" s="14"/>
@@ -4147,11 +4183,11 @@
       <c r="I168" s="1"/>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="14" t="s">
+      <c r="A169" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="B169" s="14" t="n">
-        <v>-0.939</v>
+      <c r="B169" s="16" t="n">
+        <v>-0.935</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>17</v>
@@ -4162,11 +4198,11 @@
       <c r="I169" s="1"/>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="14" t="s">
+      <c r="A170" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B170" s="2" t="n">
-        <v>-0.943</v>
+        <v>-0.938</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>15</v>
@@ -4180,11 +4216,11 @@
       <c r="A171" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="B171" s="2" t="n">
-        <v>-0.945</v>
+      <c r="B171" s="14" t="n">
+        <v>-0.939</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F171" s="15"/>
       <c r="G171" s="14"/>
@@ -4196,10 +4232,10 @@
         <v>174</v>
       </c>
       <c r="B172" s="2" t="n">
-        <v>-0.946</v>
+        <v>-0.941</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F172" s="15"/>
       <c r="G172" s="14"/>
@@ -4207,11 +4243,11 @@
       <c r="I172" s="1"/>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="1" t="s">
+      <c r="A173" s="14" t="s">
         <v>175</v>
       </c>
       <c r="B173" s="2" t="n">
-        <v>-0.946</v>
+        <v>-0.943</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>15</v>
@@ -4226,10 +4262,10 @@
         <v>176</v>
       </c>
       <c r="B174" s="2" t="n">
-        <v>-0.947</v>
+        <v>-0.945</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F174" s="15"/>
       <c r="G174" s="1"/>
@@ -4237,14 +4273,14 @@
       <c r="I174" s="1"/>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="16" t="s">
+      <c r="A175" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="B175" s="16" t="n">
-        <v>-0.948</v>
+      <c r="B175" s="2" t="n">
+        <v>-0.946</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F175" s="15"/>
       <c r="G175" s="14"/>
@@ -4252,14 +4288,14 @@
       <c r="I175" s="1"/>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="14" t="s">
+      <c r="A176" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B176" s="14" t="n">
-        <v>-0.949</v>
+      <c r="B176" s="2" t="n">
+        <v>-0.946</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F176" s="15"/>
       <c r="G176" s="14"/>
@@ -4271,10 +4307,10 @@
         <v>179</v>
       </c>
       <c r="B177" s="2" t="n">
-        <v>-0.952</v>
+        <v>-0.947</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F177" s="15"/>
       <c r="G177" s="14"/>
@@ -4282,11 +4318,11 @@
       <c r="I177" s="1"/>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="14" t="s">
+      <c r="A178" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="B178" s="2" t="n">
-        <v>-0.952</v>
+      <c r="B178" s="16" t="n">
+        <v>-0.948</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>17</v>
@@ -4297,11 +4333,11 @@
       <c r="I178" s="1"/>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="16" t="s">
+      <c r="A179" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="B179" s="16" t="n">
-        <v>-0.953</v>
+      <c r="B179" s="14" t="n">
+        <v>-0.949</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>17</v>
@@ -4316,10 +4352,10 @@
         <v>182</v>
       </c>
       <c r="B180" s="2" t="n">
-        <v>-0.955</v>
+        <v>-0.952</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F180" s="15"/>
       <c r="G180" s="1"/>
@@ -4327,11 +4363,11 @@
       <c r="I180" s="1"/>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="16" t="s">
+      <c r="A181" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="B181" s="16" t="n">
-        <v>-0.955</v>
+      <c r="B181" s="2" t="n">
+        <v>-0.952</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>17</v>
@@ -4342,17 +4378,14 @@
       <c r="I181" s="1"/>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="17" t="s">
+      <c r="A182" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="B182" s="18" t="n">
-        <v>-0.956</v>
-      </c>
-      <c r="C182" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D182" s="17" t="s">
-        <v>185</v>
+      <c r="B182" s="16" t="n">
+        <v>-0.953</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="F182" s="15"/>
       <c r="G182" s="14"/>
@@ -4360,17 +4393,14 @@
       <c r="I182" s="1"/>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="B183" s="18" t="n">
-        <v>-0.957</v>
-      </c>
-      <c r="C183" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D183" s="17" t="s">
+      <c r="A183" s="14" t="s">
         <v>185</v>
+      </c>
+      <c r="B183" s="2" t="n">
+        <v>-0.955</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="F183" s="15"/>
       <c r="G183" s="14"/>
@@ -4378,11 +4408,11 @@
       <c r="I183" s="1"/>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="B184" s="14" t="n">
-        <v>-0.957</v>
+      <c r="A184" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="B184" s="16" t="n">
+        <v>-0.955</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>17</v>
@@ -4394,41 +4424,41 @@
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="B185" s="18" t="n">
+        <v>-0.956</v>
+      </c>
+      <c r="C185" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D185" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="B185" s="18" t="n">
-        <v>-0.958</v>
-      </c>
-      <c r="C185" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D185" s="17" t="s">
-        <v>185</v>
-      </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="14" t="s">
+      <c r="A186" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="B186" s="14" t="n">
-        <v>-0.958</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>17</v>
+      <c r="B186" s="18" t="n">
+        <v>-0.957</v>
+      </c>
+      <c r="C186" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D186" s="17" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="17" t="s">
+      <c r="A187" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="B187" s="18" t="n">
-        <v>-0.959</v>
-      </c>
-      <c r="C187" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D187" s="17" t="s">
-        <v>185</v>
+      <c r="B187" s="14" t="n">
+        <v>-0.957</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4436,99 +4466,99 @@
         <v>191</v>
       </c>
       <c r="B188" s="18" t="n">
+        <v>-0.958</v>
+      </c>
+      <c r="C188" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D188" s="17" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="B189" s="14" t="n">
+        <v>-0.958</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="B190" s="18" t="n">
+        <v>-0.959</v>
+      </c>
+      <c r="C190" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D190" s="17" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="B191" s="18" t="n">
         <v>-0.96</v>
       </c>
-      <c r="C188" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D188" s="17" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="B189" s="18" t="n">
+      <c r="C191" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D191" s="17" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="B192" s="18" t="n">
         <v>-0.96</v>
       </c>
-      <c r="C189" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D189" s="17" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B190" s="2" t="n">
+      <c r="C192" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D192" s="17" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B193" s="2" t="n">
         <v>-0.962</v>
       </c>
-      <c r="C190" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="B191" s="2" t="n">
+      <c r="C193" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="B194" s="2" t="n">
         <v>-0.965</v>
       </c>
-      <c r="C191" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="B192" s="2" t="n">
+      <c r="C194" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="B195" s="2" t="n">
         <v>-0.965</v>
       </c>
-      <c r="C192" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="B193" s="16" t="n">
-        <v>-0.965</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="B194" s="18" t="n">
-        <v>-0.969</v>
-      </c>
-      <c r="C194" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D194" s="17" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="B195" s="18" t="n">
-        <v>-0.969</v>
-      </c>
-      <c r="C195" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D195" s="17" t="s">
-        <v>185</v>
+      <c r="C195" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4536,51 +4566,57 @@
         <v>199</v>
       </c>
       <c r="B196" s="16" t="n">
+        <v>-0.965</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="B197" s="18" t="n">
+        <v>-0.969</v>
+      </c>
+      <c r="C197" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D197" s="17" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="B198" s="18" t="n">
+        <v>-0.969</v>
+      </c>
+      <c r="C198" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D198" s="17" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="B199" s="16" t="n">
         <v>-0.97</v>
       </c>
-      <c r="C196" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="B197" s="2" t="n">
+      <c r="C199" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B200" s="2" t="n">
         <v>-0.972</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="B198" s="2" t="n">
-        <v>-0.972</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="B199" s="14" t="n">
-        <v>-0.977</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B200" s="2" t="n">
-        <v>-0.977</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>15</v>
@@ -4590,8 +4626,8 @@
       <c r="A201" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="B201" s="14" t="n">
-        <v>-0.978</v>
+      <c r="B201" s="2" t="n">
+        <v>-0.972</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>17</v>
@@ -4601,44 +4637,44 @@
       <c r="A202" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="B202" s="2" t="n">
-        <v>-0.98</v>
+      <c r="B202" s="14" t="n">
+        <v>-0.977</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="14" t="s">
+      <c r="A203" s="1" t="s">
         <v>206</v>
       </c>
       <c r="B203" s="2" t="n">
-        <v>-0.984</v>
+        <v>-0.977</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="B204" s="2" t="n">
-        <v>-0.984</v>
+      <c r="B204" s="14" t="n">
+        <v>-0.978</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="1" t="s">
+      <c r="A205" s="14" t="s">
         <v>208</v>
       </c>
       <c r="B205" s="2" t="n">
-        <v>-0.985</v>
+        <v>-0.98</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4646,71 +4682,68 @@
         <v>209</v>
       </c>
       <c r="B206" s="2" t="n">
-        <v>-0.985</v>
+        <v>-0.981</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="17" t="s">
+      <c r="A207" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="B207" s="18" t="n">
-        <v>-0.988</v>
-      </c>
-      <c r="C207" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D207" s="17" t="s">
-        <v>211</v>
+      <c r="B207" s="2" t="n">
+        <v>-0.984</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="B208" s="2" t="n">
+        <v>-0.984</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B208" s="2" t="n">
-        <v>-0.988</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="B209" s="18" t="n">
-        <v>-0.989</v>
-      </c>
-      <c r="C209" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D209" s="17" t="s">
-        <v>211</v>
+      <c r="B209" s="2" t="n">
+        <v>-0.985</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="B210" s="2" t="n">
+        <v>-0.985</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="B210" s="14" t="n">
-        <v>-0.989</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="16" t="s">
+      <c r="B211" s="18" t="n">
+        <v>-0.988</v>
+      </c>
+      <c r="C211" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D211" s="17" t="s">
         <v>215</v>
-      </c>
-      <c r="B211" s="16" t="n">
-        <v>-0.99</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4718,21 +4751,24 @@
         <v>216</v>
       </c>
       <c r="B212" s="2" t="n">
-        <v>-0.992</v>
+        <v>-0.988</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="14" t="s">
+      <c r="A213" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="B213" s="14" t="n">
-        <v>-0.993</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>17</v>
+      <c r="B213" s="18" t="n">
+        <v>-0.989</v>
+      </c>
+      <c r="C213" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D213" s="17" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4740,21 +4776,21 @@
         <v>218</v>
       </c>
       <c r="B214" s="14" t="n">
-        <v>-0.993</v>
+        <v>-0.989</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="1" t="s">
+      <c r="A215" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="B215" s="2" t="n">
-        <v>-0.994</v>
+      <c r="B215" s="16" t="n">
+        <v>-0.99</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4762,18 +4798,18 @@
         <v>220</v>
       </c>
       <c r="B216" s="2" t="n">
-        <v>-0.995</v>
+        <v>-0.992</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="B217" s="2" t="n">
-        <v>-0.995</v>
+      <c r="B217" s="14" t="n">
+        <v>-0.993</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>17</v>
@@ -4784,85 +4820,79 @@
         <v>222</v>
       </c>
       <c r="B218" s="14" t="n">
-        <v>-0.995</v>
+        <v>-0.993</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="17" t="s">
+      <c r="A219" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B219" s="18" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C219" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D219" s="17" t="s">
-        <v>224</v>
+      <c r="B219" s="2" t="n">
+        <v>-0.994</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="B220" s="2" t="n">
+        <v>-0.995</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="B220" s="14" t="n">
+      <c r="B221" s="2" t="n">
+        <v>-0.995</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="B222" s="14" t="n">
+        <v>-0.995</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="B223" s="18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C223" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D223" s="17" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="B224" s="14" t="n">
         <v>-1.002</v>
       </c>
-      <c r="C220" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="B221" s="18" t="n">
-        <v>-1.003</v>
-      </c>
-      <c r="C221" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D221" s="17" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="B222" s="16" t="n">
-        <v>-1.003</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="B223" s="14" t="n">
-        <v>-1.004</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="B224" s="18" t="n">
-        <v>-1.005</v>
-      </c>
-      <c r="C224" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D224" s="17" t="s">
-        <v>224</v>
+      <c r="C224" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4870,21 +4900,21 @@
         <v>230</v>
       </c>
       <c r="B225" s="18" t="n">
-        <v>-1.007</v>
+        <v>-1.003</v>
       </c>
       <c r="C225" s="18" t="s">
         <v>15</v>
       </c>
       <c r="D225" s="17" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="14" t="s">
+      <c r="A226" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="B226" s="2" t="n">
-        <v>-1.008</v>
+      <c r="B226" s="16" t="n">
+        <v>-1.003</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>17</v>
@@ -4895,79 +4925,79 @@
         <v>232</v>
       </c>
       <c r="B227" s="14" t="n">
-        <v>-1.009</v>
+        <v>-1.004</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="16" t="s">
+      <c r="A228" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="B228" s="16" t="n">
-        <v>-1.01</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>17</v>
+      <c r="B228" s="18" t="n">
+        <v>-1.005</v>
+      </c>
+      <c r="C228" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D228" s="17" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="14" t="s">
+      <c r="A229" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="B229" s="2" t="n">
-        <v>-1.011</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>17</v>
+      <c r="B229" s="18" t="n">
+        <v>-1.007</v>
+      </c>
+      <c r="C229" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D229" s="17" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="B230" s="14" t="n">
-        <v>-1.013</v>
+      <c r="B230" s="2" t="n">
+        <v>-1.008</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D230" s="1" t="s">
+    </row>
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="14" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="16" t="s">
+      <c r="B231" s="14" t="n">
+        <v>-1.009</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="B231" s="16" t="n">
-        <v>-1.013</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D231" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="14" t="s">
+      <c r="B232" s="16" t="n">
+        <v>-1.01</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="B232" s="2" t="n">
-        <v>-1.015</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="B233" s="16" t="n">
-        <v>-1.016</v>
+      <c r="B233" s="2" t="n">
+        <v>-1.011</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>17</v>
@@ -4975,43 +5005,49 @@
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="B234" s="14" t="n">
+        <v>-1.013</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D234" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B234" s="14" t="n">
-        <v>-1.017</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="14" t="s">
+      <c r="A235" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="B235" s="2" t="n">
-        <v>-1.019</v>
+      <c r="B235" s="16" t="n">
+        <v>-1.013</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="B236" s="14" t="n">
-        <v>-1.019</v>
+      <c r="B236" s="2" t="n">
+        <v>-1.015</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="14" t="s">
+      <c r="A237" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="B237" s="14" t="n">
-        <v>-1.019</v>
+      <c r="B237" s="16" t="n">
+        <v>-1.016</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>17</v>
@@ -5021,8 +5057,8 @@
       <c r="A238" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="B238" s="2" t="n">
-        <v>-1.021</v>
+      <c r="B238" s="14" t="n">
+        <v>-1.017</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>17</v>
@@ -5033,18 +5069,18 @@
         <v>245</v>
       </c>
       <c r="B239" s="2" t="n">
-        <v>-1.023</v>
+        <v>-1.019</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="B240" s="2" t="n">
-        <v>-1.024</v>
+      <c r="B240" s="14" t="n">
+        <v>-1.019</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>17</v>
@@ -5054,22 +5090,22 @@
       <c r="A241" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="B241" s="2" t="n">
-        <v>-1.024</v>
+      <c r="B241" s="14" t="n">
+        <v>-1.019</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="1" t="s">
+      <c r="A242" s="14" t="s">
         <v>248</v>
       </c>
       <c r="B242" s="2" t="n">
-        <v>-1.026</v>
+        <v>-1.021</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5077,7 +5113,7 @@
         <v>249</v>
       </c>
       <c r="B243" s="2" t="n">
-        <v>-1.028</v>
+        <v>-1.023</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>17</v>
@@ -5087,8 +5123,8 @@
       <c r="A244" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="B244" s="14" t="n">
-        <v>-1.029</v>
+      <c r="B244" s="2" t="n">
+        <v>-1.024</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>17</v>
@@ -5099,146 +5135,140 @@
         <v>251</v>
       </c>
       <c r="B245" s="2" t="n">
-        <v>-1.032</v>
+        <v>-1.024</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="17" t="s">
+      <c r="A246" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B246" s="18" t="n">
-        <v>-1.032</v>
-      </c>
-      <c r="C246" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D246" s="17" t="s">
-        <v>253</v>
+      <c r="B246" s="2" t="n">
+        <v>-1.026</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="B247" s="2" t="n">
+        <v>-1.028</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="B247" s="2" t="n">
-        <v>-1.032</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="17" t="s">
-        <v>255</v>
-      </c>
-      <c r="B248" s="18" t="n">
-        <v>-1.034</v>
-      </c>
-      <c r="C248" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D248" s="17" t="s">
-        <v>253</v>
+      <c r="B248" s="14" t="n">
+        <v>-1.029</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="B249" s="2" t="n">
+        <v>-1.032</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="B249" s="14" t="n">
-        <v>-1.035</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="21" t="s">
+      <c r="B250" s="18" t="n">
+        <v>-1.032</v>
+      </c>
+      <c r="C250" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D250" s="17" t="s">
         <v>257</v>
-      </c>
-      <c r="B250" s="22" t="n">
-        <v>-1.036</v>
-      </c>
-      <c r="C250" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D250" s="21" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="B251" s="2" t="n">
+        <v>-1.032</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="B251" s="14" t="n">
-        <v>-1.036</v>
-      </c>
-      <c r="C251" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="14" t="s">
-        <v>260</v>
-      </c>
-      <c r="B252" s="14" t="n">
-        <v>-1.038</v>
-      </c>
-      <c r="C252" s="2" t="s">
-        <v>17</v>
+      <c r="B252" s="18" t="n">
+        <v>-1.034</v>
+      </c>
+      <c r="C252" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D252" s="17" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="B253" s="14" t="n">
+        <v>-1.035</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="B253" s="2" t="n">
-        <v>-1.039</v>
-      </c>
-      <c r="C253" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="17" t="s">
+      <c r="B254" s="22" t="n">
+        <v>-1.036</v>
+      </c>
+      <c r="C254" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D254" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="B254" s="18" t="n">
-        <v>-1.039</v>
-      </c>
-      <c r="C254" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D254" s="17" t="s">
-        <v>253</v>
-      </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="17" t="s">
+      <c r="A255" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="B255" s="18" t="n">
-        <v>-1.042</v>
-      </c>
-      <c r="C255" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D255" s="17" t="s">
-        <v>253</v>
+      <c r="B255" s="14" t="n">
+        <v>-1.036</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="B256" s="2" t="n">
-        <v>-1.043</v>
+      <c r="B256" s="14" t="n">
+        <v>-1.038</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5246,71 +5276,71 @@
         <v>265</v>
       </c>
       <c r="B257" s="2" t="n">
-        <v>-1.043</v>
+        <v>-1.039</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="14" t="s">
+      <c r="A258" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="B258" s="2" t="n">
-        <v>-1.045</v>
-      </c>
-      <c r="C258" s="2" t="s">
-        <v>17</v>
+      <c r="B258" s="18" t="n">
+        <v>-1.039</v>
+      </c>
+      <c r="C258" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D258" s="17" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="B259" s="14" t="n">
-        <v>-1.046</v>
+      <c r="B259" s="2" t="n">
+        <v>-1.039</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="16" t="s">
+      <c r="A260" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="B260" s="16" t="n">
-        <v>-1.047</v>
-      </c>
-      <c r="C260" s="2" t="s">
-        <v>17</v>
+      <c r="B260" s="18" t="n">
+        <v>-1.042</v>
+      </c>
+      <c r="C260" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D260" s="17" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="17" t="s">
+      <c r="A261" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="B261" s="18" t="n">
-        <v>-1.05</v>
-      </c>
-      <c r="C261" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D261" s="17" t="s">
-        <v>141</v>
+      <c r="B261" s="2" t="n">
+        <v>-1.043</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="17" t="s">
+      <c r="A262" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="B262" s="18" t="n">
-        <v>-1.05</v>
-      </c>
-      <c r="C262" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D262" s="17" t="s">
-        <v>141</v>
+      <c r="B262" s="2" t="n">
+        <v>-1.043</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5318,7 +5348,7 @@
         <v>271</v>
       </c>
       <c r="B263" s="2" t="n">
-        <v>-1.05</v>
+        <v>-1.045</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>17</v>
@@ -5329,73 +5359,79 @@
         <v>272</v>
       </c>
       <c r="B264" s="14" t="n">
+        <v>-1.046</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="B265" s="16" t="n">
+        <v>-1.047</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="B266" s="18" t="n">
         <v>-1.05</v>
       </c>
-      <c r="C264" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="B265" s="14" t="n">
-        <v>-1.052</v>
-      </c>
-      <c r="C265" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="B266" s="2" t="n">
-        <v>-1.053</v>
-      </c>
-      <c r="C266" s="2" t="s">
-        <v>17</v>
+      <c r="C266" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D266" s="17" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="16" t="s">
+      <c r="A267" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="B267" s="16" t="n">
-        <v>-1.054</v>
-      </c>
-      <c r="C267" s="2" t="s">
-        <v>17</v>
+      <c r="B267" s="18" t="n">
+        <v>-1.05</v>
+      </c>
+      <c r="C267" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D267" s="17" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="1" t="s">
+      <c r="A268" s="14" t="s">
         <v>276</v>
       </c>
       <c r="B268" s="2" t="n">
-        <v>-1.055</v>
+        <v>-1.05</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="B269" s="2" t="n">
-        <v>-1.056</v>
+      <c r="B269" s="14" t="n">
+        <v>-1.05</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="B270" s="2" t="n">
-        <v>-1.056</v>
+      <c r="B270" s="14" t="n">
+        <v>-1.052</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>17</v>
@@ -5405,8 +5441,8 @@
       <c r="A271" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="B271" s="14" t="n">
-        <v>-1.057</v>
+      <c r="B271" s="2" t="n">
+        <v>-1.053</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>17</v>
@@ -5417,7 +5453,7 @@
         <v>280</v>
       </c>
       <c r="B272" s="16" t="n">
-        <v>-1.057</v>
+        <v>-1.054</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>17</v>
@@ -5428,18 +5464,18 @@
         <v>281</v>
       </c>
       <c r="B273" s="2" t="n">
-        <v>-1.058</v>
+        <v>-1.055</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="1" t="s">
+      <c r="A274" s="14" t="s">
         <v>282</v>
       </c>
       <c r="B274" s="2" t="n">
-        <v>-1.059</v>
+        <v>-1.056</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>15</v>
@@ -5450,121 +5486,115 @@
         <v>283</v>
       </c>
       <c r="B275" s="2" t="n">
-        <v>-1.061</v>
+        <v>-1.056</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="1" t="s">
+      <c r="A276" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="B276" s="2" t="n">
-        <v>-1.061</v>
+      <c r="B276" s="14" t="n">
+        <v>-1.057</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="17" t="s">
+      <c r="A277" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="B277" s="18" t="n">
-        <v>-1.062</v>
-      </c>
-      <c r="C277" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D277" s="17" t="s">
+      <c r="B277" s="16" t="n">
+        <v>-1.057</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="1" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="14" t="s">
+      <c r="B278" s="2" t="n">
+        <v>-1.058</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B278" s="14" t="n">
-        <v>-1.062</v>
-      </c>
-      <c r="C278" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="17" t="s">
-        <v>288</v>
-      </c>
-      <c r="B279" s="18" t="n">
-        <v>-1.062</v>
-      </c>
-      <c r="C279" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D279" s="17" t="s">
-        <v>286</v>
+      <c r="B279" s="2" t="n">
+        <v>-1.059</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="B280" s="2" t="n">
+        <v>-1.061</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B280" s="14" t="n">
-        <v>-1.063</v>
-      </c>
-      <c r="C280" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="B281" s="14" t="n">
-        <v>-1.063</v>
+      <c r="B281" s="2" t="n">
+        <v>-1.061</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="B282" s="18" t="n">
+        <v>-1.062</v>
+      </c>
+      <c r="C282" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D282" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="B282" s="18" t="n">
-        <v>-1.063</v>
-      </c>
-      <c r="C282" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D282" s="17" t="s">
-        <v>286</v>
-      </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="17" t="s">
+      <c r="A283" s="14" t="s">
         <v>292</v>
       </c>
-      <c r="B283" s="18" t="n">
-        <v>-1.064</v>
-      </c>
-      <c r="C283" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D283" s="17" t="s">
-        <v>286</v>
+      <c r="B283" s="14" t="n">
+        <v>-1.062</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="14" t="s">
+      <c r="A284" s="17" t="s">
         <v>293</v>
       </c>
-      <c r="B284" s="2" t="n">
-        <v>-1.064</v>
-      </c>
-      <c r="C284" s="2" t="s">
-        <v>17</v>
+      <c r="B284" s="18" t="n">
+        <v>-1.062</v>
+      </c>
+      <c r="C284" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D284" s="17" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5572,49 +5602,49 @@
         <v>294</v>
       </c>
       <c r="B285" s="14" t="n">
-        <v>-1.065</v>
+        <v>-1.063</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="16" t="s">
+      <c r="A286" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="B286" s="16" t="n">
-        <v>-1.065</v>
+      <c r="B286" s="14" t="n">
+        <v>-1.063</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="14" t="s">
+      <c r="A287" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="B287" s="14" t="n">
-        <v>-1.066</v>
-      </c>
-      <c r="C287" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D287" s="1" t="s">
-        <v>236</v>
+      <c r="B287" s="18" t="n">
+        <v>-1.063</v>
+      </c>
+      <c r="C287" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D287" s="17" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="14" t="s">
+      <c r="A288" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="B288" s="14" t="n">
-        <v>-1.066</v>
-      </c>
-      <c r="C288" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D288" s="1" t="s">
-        <v>236</v>
+      <c r="B288" s="18" t="n">
+        <v>-1.064</v>
+      </c>
+      <c r="C288" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D288" s="17" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5622,18 +5652,18 @@
         <v>298</v>
       </c>
       <c r="B289" s="2" t="n">
-        <v>-1.068</v>
+        <v>-1.064</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="B290" s="14" t="n">
-        <v>-1.073</v>
+      <c r="B290" s="2" t="n">
+        <v>-1.064</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>17</v>
@@ -5643,63 +5673,69 @@
       <c r="A291" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="B291" s="2" t="n">
-        <v>-1.074</v>
+      <c r="B291" s="14" t="n">
+        <v>-1.065</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="14" t="s">
+      <c r="A292" s="16" t="s">
         <v>301</v>
       </c>
-      <c r="B292" s="2" t="n">
-        <v>-1.075</v>
+      <c r="B292" s="16" t="n">
+        <v>-1.065</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="16" t="s">
+      <c r="A293" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="B293" s="16" t="n">
-        <v>-1.075</v>
+      <c r="B293" s="14" t="n">
+        <v>-1.066</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="D293" s="1" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="B294" s="2" t="n">
-        <v>-1.076</v>
+      <c r="B294" s="14" t="n">
+        <v>-1.066</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="D294" s="1" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="B295" s="14" t="n">
-        <v>-1.077</v>
+      <c r="B295" s="2" t="n">
+        <v>-1.068</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="16" t="s">
+      <c r="A296" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="B296" s="16" t="n">
-        <v>-1.077</v>
+      <c r="B296" s="2" t="n">
+        <v>-1.068</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>17</v>
@@ -5709,8 +5745,8 @@
       <c r="A297" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="B297" s="2" t="n">
-        <v>-1.085</v>
+      <c r="B297" s="14" t="n">
+        <v>-1.073</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>17</v>
@@ -5720,8 +5756,8 @@
       <c r="A298" s="14" t="s">
         <v>307</v>
       </c>
-      <c r="B298" s="14" t="n">
-        <v>-1.085</v>
+      <c r="B298" s="2" t="n">
+        <v>-1.074</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>17</v>
@@ -5731,19 +5767,19 @@
       <c r="A299" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="B299" s="14" t="n">
-        <v>-1.086</v>
+      <c r="B299" s="2" t="n">
+        <v>-1.075</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="14" t="s">
+      <c r="A300" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="B300" s="14" t="n">
-        <v>-1.086</v>
+      <c r="B300" s="16" t="n">
+        <v>-1.075</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>17</v>
@@ -5753,30 +5789,30 @@
       <c r="A301" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="B301" s="14" t="n">
-        <v>-1.086</v>
+      <c r="B301" s="2" t="n">
+        <v>-1.076</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="B302" s="2" t="n">
-        <v>-1.088</v>
+      <c r="B302" s="14" t="n">
+        <v>-1.077</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="14" t="s">
+      <c r="A303" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="B303" s="2" t="n">
-        <v>-1.088</v>
+      <c r="B303" s="16" t="n">
+        <v>-1.077</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>17</v>
@@ -5786,30 +5822,30 @@
       <c r="A304" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="B304" s="14" t="n">
-        <v>-1.088</v>
+      <c r="B304" s="2" t="n">
+        <v>-1.085</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="1" t="s">
+      <c r="A305" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="B305" s="2" t="n">
-        <v>-1.089</v>
+      <c r="B305" s="14" t="n">
+        <v>-1.085</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="B306" s="2" t="n">
-        <v>-1.091</v>
+      <c r="B306" s="14" t="n">
+        <v>-1.086</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>17</v>
@@ -5819,11 +5855,11 @@
       <c r="A307" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="B307" s="2" t="n">
-        <v>-1.092</v>
+      <c r="B307" s="14" t="n">
+        <v>-1.086</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5831,21 +5867,21 @@
         <v>317</v>
       </c>
       <c r="B308" s="14" t="n">
-        <v>-1.095</v>
+        <v>-1.086</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="16" t="s">
+      <c r="A309" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="B309" s="16" t="n">
-        <v>-1.095</v>
+      <c r="B309" s="2" t="n">
+        <v>-1.088</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5853,29 +5889,29 @@
         <v>319</v>
       </c>
       <c r="B310" s="2" t="n">
-        <v>-1.096</v>
+        <v>-1.088</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="B311" s="2" t="n">
-        <v>-1.097</v>
+      <c r="B311" s="14" t="n">
+        <v>-1.088</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A312" s="14" t="s">
+      <c r="A312" s="1" t="s">
         <v>321</v>
       </c>
       <c r="B312" s="2" t="n">
-        <v>-1.098</v>
+        <v>-1.089</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>15</v>
@@ -5886,18 +5922,18 @@
         <v>322</v>
       </c>
       <c r="B313" s="2" t="n">
-        <v>-1.102</v>
+        <v>-1.091</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="1" t="s">
+      <c r="A314" s="14" t="s">
         <v>323</v>
       </c>
       <c r="B314" s="2" t="n">
-        <v>-1.107</v>
+        <v>-1.092</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>15</v>
@@ -5908,7 +5944,7 @@
         <v>324</v>
       </c>
       <c r="B315" s="2" t="n">
-        <v>-1.108</v>
+        <v>-1.092</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>17</v>
@@ -5919,18 +5955,18 @@
         <v>325</v>
       </c>
       <c r="B316" s="14" t="n">
-        <v>-1.109</v>
+        <v>-1.095</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="14" t="s">
+      <c r="A317" s="16" t="s">
         <v>326</v>
       </c>
-      <c r="B317" s="14" t="n">
-        <v>-1.109</v>
+      <c r="B317" s="16" t="n">
+        <v>-1.095</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>17</v>
@@ -5941,10 +5977,10 @@
         <v>327</v>
       </c>
       <c r="B318" s="2" t="n">
-        <v>-1.11</v>
+        <v>-1.096</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5952,7 +5988,7 @@
         <v>328</v>
       </c>
       <c r="B319" s="2" t="n">
-        <v>-1.11</v>
+        <v>-1.097</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>17</v>
@@ -5962,55 +5998,55 @@
       <c r="A320" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="B320" s="14" t="n">
-        <v>-1.11</v>
+      <c r="B320" s="2" t="n">
+        <v>-1.098</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A321" s="1" t="s">
+      <c r="A321" s="14" t="s">
         <v>330</v>
       </c>
       <c r="B321" s="2" t="n">
-        <v>-1.111</v>
+        <v>-1.102</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="14" t="s">
+      <c r="A322" s="1" t="s">
         <v>331</v>
       </c>
       <c r="B322" s="2" t="n">
-        <v>-1.112</v>
+        <v>-1.107</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="B323" s="14" t="n">
-        <v>-1.112</v>
+      <c r="B323" s="2" t="n">
+        <v>-1.108</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A324" s="1" t="s">
+      <c r="A324" s="14" t="s">
         <v>333</v>
       </c>
-      <c r="B324" s="2" t="n">
-        <v>-1.114</v>
+      <c r="B324" s="14" t="n">
+        <v>-1.109</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6018,18 +6054,18 @@
         <v>334</v>
       </c>
       <c r="B325" s="14" t="n">
-        <v>-1.117</v>
+        <v>-1.109</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A326" s="16" t="s">
+      <c r="A326" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="B326" s="16" t="n">
-        <v>-1.117</v>
+      <c r="B326" s="2" t="n">
+        <v>-1.11</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>17</v>
@@ -6040,7 +6076,7 @@
         <v>336</v>
       </c>
       <c r="B327" s="2" t="n">
-        <v>-1.118</v>
+        <v>-1.11</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>17</v>
@@ -6050,22 +6086,22 @@
       <c r="A328" s="14" t="s">
         <v>337</v>
       </c>
-      <c r="B328" s="2" t="n">
-        <v>-1.119</v>
+      <c r="B328" s="14" t="n">
+        <v>-1.11</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A329" s="16" t="s">
+      <c r="A329" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B329" s="16" t="n">
-        <v>-1.119</v>
+      <c r="B329" s="2" t="n">
+        <v>-1.111</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6073,10 +6109,10 @@
         <v>339</v>
       </c>
       <c r="B330" s="2" t="n">
-        <v>-1.121</v>
+        <v>-1.112</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6084,95 +6120,95 @@
         <v>340</v>
       </c>
       <c r="B331" s="14" t="n">
-        <v>-1.121</v>
+        <v>-1.112</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A332" s="14" t="s">
+      <c r="A332" s="1" t="s">
         <v>341</v>
       </c>
       <c r="B332" s="2" t="n">
-        <v>-1.122</v>
+        <v>-1.114</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="14" t="s">
         <v>342</v>
       </c>
-      <c r="B333" s="2" t="n">
-        <v>-1.123</v>
+      <c r="B333" s="14" t="n">
+        <v>-1.117</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A334" s="1" t="s">
+      <c r="A334" s="16" t="s">
         <v>343</v>
       </c>
-      <c r="B334" s="2" t="n">
-        <v>-1.125</v>
+      <c r="B334" s="16" t="n">
+        <v>-1.117</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="14" t="s">
         <v>344</v>
       </c>
-      <c r="B335" s="14" t="n">
-        <v>-1.125</v>
+      <c r="B335" s="2" t="n">
+        <v>-1.118</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A336" s="16" t="s">
+      <c r="A336" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B336" s="16" t="n">
-        <v>-1.128</v>
+      <c r="B336" s="2" t="n">
+        <v>-1.119</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="14" t="s">
+      <c r="A337" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="B337" s="2" t="n">
-        <v>-1.129</v>
+      <c r="B337" s="16" t="n">
+        <v>-1.119</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="B338" s="14" t="n">
-        <v>-1.13</v>
+      <c r="B338" s="2" t="n">
+        <v>-1.121</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="B339" s="2" t="n">
-        <v>-1.131</v>
+      <c r="B339" s="14" t="n">
+        <v>-1.121</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>17</v>
@@ -6182,19 +6218,19 @@
       <c r="A340" s="14" t="s">
         <v>349</v>
       </c>
-      <c r="B340" s="14" t="n">
-        <v>-1.132</v>
+      <c r="B340" s="2" t="n">
+        <v>-1.122</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A341" s="16" t="s">
+      <c r="A341" s="14" t="s">
         <v>350</v>
       </c>
-      <c r="B341" s="16" t="n">
-        <v>-1.135</v>
+      <c r="B341" s="2" t="n">
+        <v>-1.123</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>17</v>
@@ -6205,7 +6241,7 @@
         <v>351</v>
       </c>
       <c r="B342" s="2" t="n">
-        <v>-1.136</v>
+        <v>-1.125</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>15</v>
@@ -6215,19 +6251,19 @@
       <c r="A343" s="14" t="s">
         <v>352</v>
       </c>
-      <c r="B343" s="2" t="n">
-        <v>-1.141</v>
+      <c r="B343" s="14" t="n">
+        <v>-1.125</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A344" s="14" t="s">
+      <c r="A344" s="16" t="s">
         <v>353</v>
       </c>
-      <c r="B344" s="14" t="n">
-        <v>-1.141</v>
+      <c r="B344" s="16" t="n">
+        <v>-1.128</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>17</v>
@@ -6237,66 +6273,63 @@
       <c r="A345" s="14" t="s">
         <v>354</v>
       </c>
-      <c r="B345" s="14" t="n">
-        <v>-1.142</v>
+      <c r="B345" s="2" t="n">
+        <v>-1.129</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="14" t="s">
         <v>355</v>
       </c>
-      <c r="B346" s="2" t="n">
-        <v>-1.144</v>
+      <c r="B346" s="14" t="n">
+        <v>-1.13</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A347" s="17" t="s">
+      <c r="A347" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="B347" s="18" t="n">
-        <v>-1.144</v>
-      </c>
-      <c r="C347" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D347" s="17" t="s">
-        <v>357</v>
+      <c r="B347" s="2" t="n">
+        <v>-1.131</v>
+      </c>
+      <c r="C347" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="B348" s="14" t="n">
+        <v>-1.132</v>
+      </c>
+      <c r="C348" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A349" s="16" t="s">
         <v>358</v>
       </c>
-      <c r="B348" s="2" t="n">
-        <v>-1.145</v>
-      </c>
-      <c r="C348" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="14" t="s">
+      <c r="B349" s="16" t="n">
+        <v>-1.135</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A350" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B349" s="14" t="n">
-        <v>-1.146</v>
-      </c>
-      <c r="C349" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A350" s="14" t="s">
-        <v>360</v>
-      </c>
       <c r="B350" s="2" t="n">
-        <v>-1.147</v>
+        <v>-1.136</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>15</v>
@@ -6304,10 +6337,10 @@
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="B351" s="14" t="n">
-        <v>-1.148</v>
+        <v>360</v>
+      </c>
+      <c r="B351" s="2" t="n">
+        <v>-1.141</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>17</v>
@@ -6315,57 +6348,57 @@
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="14" t="s">
-        <v>362</v>
-      </c>
-      <c r="B352" s="2" t="n">
-        <v>-1.149</v>
+        <v>361</v>
+      </c>
+      <c r="B352" s="14" t="n">
+        <v>-1.141</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="B353" s="14" t="n">
+        <v>-1.142</v>
+      </c>
+      <c r="C353" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A354" s="14" t="s">
         <v>363</v>
       </c>
-      <c r="B353" s="2" t="n">
-        <v>-1.149</v>
-      </c>
-      <c r="C353" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A354" s="17" t="s">
+      <c r="B354" s="2" t="n">
+        <v>-1.144</v>
+      </c>
+      <c r="C354" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A355" s="17" t="s">
         <v>364</v>
       </c>
-      <c r="B354" s="18" t="n">
-        <v>-1.149</v>
-      </c>
-      <c r="C354" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D354" s="17" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A355" s="14" t="s">
+      <c r="B355" s="18" t="n">
+        <v>-1.144</v>
+      </c>
+      <c r="C355" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D355" s="17" t="s">
         <v>365</v>
       </c>
-      <c r="B355" s="2" t="n">
-        <v>-1.15</v>
-      </c>
-      <c r="C355" s="2" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A356" s="16" t="s">
+      <c r="A356" s="14" t="s">
         <v>366</v>
       </c>
-      <c r="B356" s="16" t="n">
-        <v>-1.151</v>
+      <c r="B356" s="2" t="n">
+        <v>-1.145</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>17</v>
@@ -6375,8 +6408,8 @@
       <c r="A357" s="14" t="s">
         <v>367</v>
       </c>
-      <c r="B357" s="2" t="n">
-        <v>-1.152</v>
+      <c r="B357" s="14" t="n">
+        <v>-1.146</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>17</v>
@@ -6386,135 +6419,135 @@
       <c r="A358" s="14" t="s">
         <v>368</v>
       </c>
-      <c r="B358" s="14" t="n">
-        <v>-1.153</v>
+      <c r="B358" s="2" t="n">
+        <v>-1.147</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A359" s="17" t="s">
+      <c r="A359" s="14" t="s">
         <v>369</v>
       </c>
-      <c r="B359" s="18" t="n">
-        <v>-1.154</v>
-      </c>
-      <c r="C359" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D359" s="17" t="s">
-        <v>357</v>
+      <c r="B359" s="14" t="n">
+        <v>-1.148</v>
+      </c>
+      <c r="C359" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A360" s="16" t="s">
+      <c r="A360" s="14" t="s">
         <v>370</v>
       </c>
-      <c r="B360" s="16" t="n">
-        <v>-1.155</v>
+      <c r="B360" s="2" t="n">
+        <v>-1.149</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A361" s="16" t="s">
+      <c r="A361" s="14" t="s">
         <v>371</v>
       </c>
-      <c r="B361" s="16" t="n">
-        <v>-1.155</v>
+      <c r="B361" s="2" t="n">
+        <v>-1.149</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A362" s="14" t="s">
+      <c r="A362" s="17" t="s">
         <v>372</v>
       </c>
-      <c r="B362" s="2" t="n">
-        <v>-1.157</v>
-      </c>
-      <c r="C362" s="2" t="s">
-        <v>17</v>
+      <c r="B362" s="18" t="n">
+        <v>-1.149</v>
+      </c>
+      <c r="C362" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D362" s="17" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A363" s="17" t="s">
+      <c r="A363" s="14" t="s">
         <v>373</v>
       </c>
-      <c r="B363" s="18" t="n">
-        <v>-1.158</v>
-      </c>
-      <c r="C363" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D363" s="17" t="s">
-        <v>357</v>
+      <c r="B363" s="2" t="n">
+        <v>-1.15</v>
+      </c>
+      <c r="C363" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A364" s="14" t="s">
+      <c r="A364" s="16" t="s">
         <v>374</v>
       </c>
-      <c r="B364" s="14" t="n">
-        <v>-1.16</v>
+      <c r="B364" s="16" t="n">
+        <v>-1.151</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A365" s="1" t="s">
+      <c r="A365" s="14" t="s">
         <v>375</v>
       </c>
       <c r="B365" s="2" t="n">
-        <v>-1.16</v>
+        <v>-1.152</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="B366" s="2" t="n">
-        <v>-1.165</v>
+      <c r="B366" s="14" t="n">
+        <v>-1.153</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A367" s="14" t="s">
+      <c r="A367" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="B367" s="2" t="n">
-        <v>-1.167</v>
-      </c>
-      <c r="C367" s="2" t="s">
-        <v>15</v>
+      <c r="B367" s="18" t="n">
+        <v>-1.154</v>
+      </c>
+      <c r="C367" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D367" s="17" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A368" s="1" t="s">
+      <c r="A368" s="16" t="s">
         <v>378</v>
       </c>
-      <c r="B368" s="2" t="n">
-        <v>-1.167</v>
+      <c r="B368" s="16" t="n">
+        <v>-1.155</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A369" s="14" t="s">
+      <c r="A369" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="B369" s="2" t="n">
-        <v>-1.168</v>
+      <c r="B369" s="16" t="n">
+        <v>-1.155</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>17</v>
@@ -6525,54 +6558,57 @@
         <v>380</v>
       </c>
       <c r="B370" s="2" t="n">
-        <v>-1.169</v>
+        <v>-1.157</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A371" s="14" t="s">
+      <c r="A371" s="17" t="s">
         <v>381</v>
       </c>
-      <c r="B371" s="14" t="n">
-        <v>-1.172</v>
-      </c>
-      <c r="C371" s="2" t="s">
-        <v>17</v>
+      <c r="B371" s="18" t="n">
+        <v>-1.158</v>
+      </c>
+      <c r="C371" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D371" s="17" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A372" s="16" t="s">
+      <c r="A372" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="B372" s="16" t="n">
-        <v>-1.172</v>
+      <c r="B372" s="14" t="n">
+        <v>-1.16</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A373" s="14" t="s">
+      <c r="A373" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B373" s="14" t="n">
-        <v>-1.173</v>
+      <c r="B373" s="2" t="n">
+        <v>-1.16</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A374" s="1" t="s">
+      <c r="A374" s="14" t="s">
         <v>384</v>
       </c>
       <c r="B374" s="2" t="n">
-        <v>-1.174</v>
+        <v>-1.165</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6580,10 +6616,10 @@
         <v>385</v>
       </c>
       <c r="B375" s="2" t="n">
-        <v>-1.178</v>
+        <v>-1.167</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6591,7 +6627,7 @@
         <v>386</v>
       </c>
       <c r="B376" s="2" t="n">
-        <v>-1.179</v>
+        <v>-1.167</v>
       </c>
       <c r="C376" s="2" t="s">
         <v>15</v>
@@ -6601,66 +6637,66 @@
       <c r="A377" s="14" t="s">
         <v>387</v>
       </c>
-      <c r="B377" s="14" t="n">
-        <v>-1.181</v>
+      <c r="B377" s="2" t="n">
+        <v>-1.168</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A378" s="1" t="s">
+      <c r="A378" s="14" t="s">
         <v>388</v>
       </c>
       <c r="B378" s="2" t="n">
-        <v>-1.183</v>
+        <v>-1.169</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="14" t="s">
         <v>389</v>
       </c>
-      <c r="B379" s="2" t="n">
-        <v>-1.185</v>
+      <c r="B379" s="14" t="n">
+        <v>-1.172</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A380" s="14" t="s">
+      <c r="A380" s="16" t="s">
         <v>390</v>
       </c>
-      <c r="B380" s="14" t="n">
-        <v>-1.185</v>
+      <c r="B380" s="16" t="n">
+        <v>-1.172</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A381" s="1" t="s">
+      <c r="A381" s="14" t="s">
         <v>391</v>
       </c>
-      <c r="B381" s="2" t="n">
-        <v>-1.187</v>
+      <c r="B381" s="14" t="n">
+        <v>-1.173</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A382" s="16" t="s">
+      <c r="A382" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="B382" s="16" t="n">
-        <v>-1.19</v>
+      <c r="B382" s="2" t="n">
+        <v>-1.174</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6668,54 +6704,54 @@
         <v>393</v>
       </c>
       <c r="B383" s="2" t="n">
-        <v>-1.191</v>
+        <v>-1.178</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A384" s="14" t="s">
+      <c r="A384" s="1" t="s">
         <v>394</v>
       </c>
       <c r="B384" s="2" t="n">
-        <v>-1.192</v>
+        <v>-1.179</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A385" s="16" t="s">
+      <c r="A385" s="14" t="s">
         <v>395</v>
       </c>
-      <c r="B385" s="16" t="n">
-        <v>-1.193</v>
+      <c r="B385" s="14" t="n">
+        <v>-1.181</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A386" s="14" t="s">
+      <c r="A386" s="1" t="s">
         <v>396</v>
       </c>
       <c r="B386" s="2" t="n">
-        <v>-1.197</v>
+        <v>-1.183</v>
       </c>
       <c r="C386" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A387" s="16" t="s">
+      <c r="A387" s="14" t="s">
         <v>397</v>
       </c>
-      <c r="B387" s="16" t="n">
-        <v>-1.197</v>
+      <c r="B387" s="2" t="n">
+        <v>-1.185</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6723,40 +6759,40 @@
         <v>398</v>
       </c>
       <c r="B388" s="14" t="n">
-        <v>-1.199</v>
+        <v>-1.185</v>
       </c>
       <c r="C388" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A389" s="14" t="s">
+      <c r="A389" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="B389" s="14" t="n">
-        <v>-1.201</v>
+      <c r="B389" s="2" t="n">
+        <v>-1.187</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A390" s="1" t="s">
+      <c r="A390" s="16" t="s">
         <v>400</v>
       </c>
-      <c r="B390" s="2" t="n">
-        <v>-1.206</v>
+      <c r="B390" s="16" t="n">
+        <v>-1.19</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A391" s="16" t="s">
+      <c r="A391" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="B391" s="16" t="n">
-        <v>-1.21</v>
+      <c r="B391" s="2" t="n">
+        <v>-1.191</v>
       </c>
       <c r="C391" s="2" t="s">
         <v>17</v>
@@ -6766,113 +6802,107 @@
       <c r="A392" s="14" t="s">
         <v>402</v>
       </c>
-      <c r="B392" s="14" t="n">
-        <v>-1.211</v>
+      <c r="B392" s="2" t="n">
+        <v>-1.192</v>
       </c>
       <c r="C392" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A393" s="14" t="s">
+      <c r="A393" s="16" t="s">
         <v>403</v>
       </c>
-      <c r="B393" s="14" t="n">
-        <v>-1.212</v>
+      <c r="B393" s="16" t="n">
+        <v>-1.193</v>
       </c>
       <c r="C393" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A394" s="1" t="s">
+      <c r="A394" s="14" t="s">
         <v>404</v>
       </c>
       <c r="B394" s="2" t="n">
-        <v>-1.212</v>
+        <v>-1.197</v>
       </c>
       <c r="C394" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A395" s="14" t="s">
+      <c r="A395" s="16" t="s">
         <v>405</v>
       </c>
-      <c r="B395" s="2" t="n">
-        <v>-1.218</v>
+      <c r="B395" s="16" t="n">
+        <v>-1.197</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="14" t="s">
         <v>406</v>
       </c>
-      <c r="B396" s="2" t="n">
-        <v>-1.219</v>
+      <c r="B396" s="14" t="n">
+        <v>-1.199</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A397" s="17" t="s">
+      <c r="A397" s="14" t="s">
         <v>407</v>
       </c>
-      <c r="B397" s="18" t="n">
-        <v>-1.219</v>
-      </c>
-      <c r="C397" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D397" s="17" t="s">
+      <c r="B397" s="14" t="n">
+        <v>-1.201</v>
+      </c>
+      <c r="C397" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A398" s="14" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A398" s="17" t="s">
+      <c r="B398" s="2" t="n">
+        <v>-1.202</v>
+      </c>
+      <c r="C398" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A399" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="B398" s="18" t="n">
-        <v>-1.22</v>
-      </c>
-      <c r="C398" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D398" s="17" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A399" s="16" t="s">
+      <c r="B399" s="2" t="n">
+        <v>-1.206</v>
+      </c>
+      <c r="C399" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A400" s="16" t="s">
         <v>410</v>
       </c>
-      <c r="B399" s="16" t="n">
-        <v>-1.22</v>
-      </c>
-      <c r="C399" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A400" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="B400" s="2" t="n">
-        <v>-1.223</v>
+      <c r="B400" s="16" t="n">
+        <v>-1.21</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="14" t="s">
-        <v>412</v>
-      </c>
-      <c r="B401" s="2" t="n">
-        <v>-1.224</v>
+        <v>411</v>
+      </c>
+      <c r="B401" s="14" t="n">
+        <v>-1.211</v>
       </c>
       <c r="C401" s="2" t="s">
         <v>17</v>
@@ -6880,104 +6910,104 @@
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="B402" s="14" t="n">
+        <v>-1.212</v>
+      </c>
+      <c r="C402" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A403" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="B402" s="2" t="n">
-        <v>-1.226</v>
-      </c>
-      <c r="C402" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A403" s="14" t="s">
+      <c r="B403" s="2" t="n">
+        <v>-1.212</v>
+      </c>
+      <c r="C403" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A404" s="14" t="s">
         <v>414</v>
       </c>
-      <c r="B403" s="2" t="n">
-        <v>-1.227</v>
-      </c>
-      <c r="C403" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A404" s="17" t="s">
-        <v>415</v>
-      </c>
-      <c r="B404" s="17" t="n">
-        <v>-1.23</v>
-      </c>
-      <c r="C404" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D404" s="17" t="s">
-        <v>408</v>
+      <c r="B404" s="2" t="n">
+        <v>-1.218</v>
+      </c>
+      <c r="C404" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="14" t="s">
-        <v>416</v>
-      </c>
-      <c r="B405" s="14" t="n">
-        <v>-1.232</v>
+        <v>415</v>
+      </c>
+      <c r="B405" s="2" t="n">
+        <v>-1.219</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="17" t="s">
+        <v>416</v>
+      </c>
+      <c r="B406" s="18" t="n">
+        <v>-1.219</v>
+      </c>
+      <c r="C406" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D406" s="17" t="s">
         <v>417</v>
       </c>
-      <c r="B406" s="18" t="n">
-        <v>-1.233</v>
-      </c>
-      <c r="C406" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D406" s="17" t="s">
-        <v>408</v>
-      </c>
     </row>
     <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A407" s="14" t="s">
+      <c r="A407" s="17" t="s">
         <v>418</v>
       </c>
-      <c r="B407" s="2" t="n">
-        <v>-1.234</v>
-      </c>
-      <c r="C407" s="2" t="s">
-        <v>15</v>
+      <c r="B407" s="18" t="n">
+        <v>-1.22</v>
+      </c>
+      <c r="C407" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D407" s="17" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A408" s="14" t="s">
+      <c r="A408" s="16" t="s">
         <v>419</v>
       </c>
-      <c r="B408" s="2" t="n">
-        <v>-1.235</v>
+      <c r="B408" s="16" t="n">
+        <v>-1.22</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A409" s="14" t="s">
+      <c r="A409" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="B409" s="14" t="n">
-        <v>-1.236</v>
+      <c r="B409" s="2" t="n">
+        <v>-1.223</v>
       </c>
       <c r="C409" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="14" t="s">
         <v>421</v>
       </c>
-      <c r="B410" s="14" t="n">
-        <v>-1.236</v>
+      <c r="B410" s="2" t="n">
+        <v>-1.224</v>
       </c>
       <c r="C410" s="2" t="s">
         <v>17</v>
@@ -6987,55 +7017,61 @@
       <c r="A411" s="14" t="s">
         <v>422</v>
       </c>
-      <c r="B411" s="14" t="n">
-        <v>-1.238</v>
+      <c r="B411" s="2" t="n">
+        <v>-1.226</v>
       </c>
       <c r="C411" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A412" s="16" t="s">
+      <c r="A412" s="14" t="s">
         <v>423</v>
       </c>
-      <c r="B412" s="16" t="n">
-        <v>-1.24</v>
+      <c r="B412" s="2" t="n">
+        <v>-1.227</v>
       </c>
       <c r="C412" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A413" s="1" t="s">
+      <c r="A413" s="17" t="s">
         <v>424</v>
       </c>
-      <c r="B413" s="2" t="n">
-        <v>-1.241</v>
-      </c>
-      <c r="C413" s="2" t="s">
-        <v>15</v>
+      <c r="B413" s="17" t="n">
+        <v>-1.23</v>
+      </c>
+      <c r="C413" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D413" s="17" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="14" t="s">
         <v>425</v>
       </c>
-      <c r="B414" s="2" t="n">
-        <v>-1.249</v>
+      <c r="B414" s="14" t="n">
+        <v>-1.232</v>
       </c>
       <c r="C414" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A415" s="16" t="s">
+      <c r="A415" s="17" t="s">
         <v>426</v>
       </c>
-      <c r="B415" s="16" t="n">
-        <v>-1.253</v>
-      </c>
-      <c r="C415" s="2" t="s">
-        <v>17</v>
+      <c r="B415" s="18" t="n">
+        <v>-1.233</v>
+      </c>
+      <c r="C415" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D415" s="17" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7043,7 +7079,7 @@
         <v>427</v>
       </c>
       <c r="B416" s="2" t="n">
-        <v>-1.26</v>
+        <v>-1.234</v>
       </c>
       <c r="C416" s="2" t="s">
         <v>15</v>
@@ -7054,7 +7090,7 @@
         <v>428</v>
       </c>
       <c r="B417" s="2" t="n">
-        <v>-1.261</v>
+        <v>-1.235</v>
       </c>
       <c r="C417" s="2" t="s">
         <v>15</v>
@@ -7064,25 +7100,22 @@
       <c r="A418" s="14" t="s">
         <v>429</v>
       </c>
-      <c r="B418" s="2" t="n">
-        <v>-1.261</v>
+      <c r="B418" s="14" t="n">
+        <v>-1.236</v>
       </c>
       <c r="C418" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A419" s="17" t="s">
+      <c r="A419" s="14" t="s">
         <v>430</v>
       </c>
-      <c r="B419" s="18" t="n">
-        <v>-1.263</v>
-      </c>
-      <c r="C419" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D419" s="17" t="s">
-        <v>408</v>
+      <c r="B419" s="14" t="n">
+        <v>-1.236</v>
+      </c>
+      <c r="C419" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7090,35 +7123,32 @@
         <v>431</v>
       </c>
       <c r="B420" s="14" t="n">
-        <v>-1.263</v>
+        <v>-1.238</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A421" s="17" t="s">
+      <c r="A421" s="16" t="s">
         <v>432</v>
       </c>
-      <c r="B421" s="18" t="n">
-        <v>-1.266</v>
-      </c>
-      <c r="C421" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D421" s="17" t="s">
-        <v>408</v>
+      <c r="B421" s="16" t="n">
+        <v>-1.24</v>
+      </c>
+      <c r="C421" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A422" s="16" t="s">
+      <c r="A422" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="B422" s="16" t="n">
-        <v>-1.27</v>
+      <c r="B422" s="2" t="n">
+        <v>-1.241</v>
       </c>
       <c r="C422" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7126,46 +7156,40 @@
         <v>434</v>
       </c>
       <c r="B423" s="2" t="n">
-        <v>-1.272</v>
+        <v>-1.249</v>
       </c>
       <c r="C423" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A424" s="17" t="s">
+      <c r="A424" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="B424" s="18" t="n">
-        <v>-1.272</v>
-      </c>
-      <c r="C424" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D424" s="17" t="s">
-        <v>408</v>
+      <c r="B424" s="16" t="n">
+        <v>-1.253</v>
+      </c>
+      <c r="C424" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A425" s="17" t="s">
+      <c r="A425" s="14" t="s">
         <v>436</v>
       </c>
-      <c r="B425" s="18" t="n">
-        <v>-1.273</v>
-      </c>
-      <c r="C425" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D425" s="17" t="s">
-        <v>408</v>
+      <c r="B425" s="2" t="n">
+        <v>-1.26</v>
+      </c>
+      <c r="C425" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A426" s="1" t="s">
+      <c r="A426" s="14" t="s">
         <v>437</v>
       </c>
       <c r="B426" s="2" t="n">
-        <v>-1.28</v>
+        <v>-1.261</v>
       </c>
       <c r="C426" s="2" t="s">
         <v>15</v>
@@ -7176,21 +7200,24 @@
         <v>438</v>
       </c>
       <c r="B427" s="2" t="n">
-        <v>-1.285</v>
+        <v>-1.261</v>
       </c>
       <c r="C427" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A428" s="1" t="s">
+      <c r="A428" s="17" t="s">
         <v>439</v>
       </c>
-      <c r="B428" s="2" t="n">
-        <v>-1.286</v>
-      </c>
-      <c r="C428" s="2" t="s">
-        <v>15</v>
+      <c r="B428" s="18" t="n">
+        <v>-1.263</v>
+      </c>
+      <c r="C428" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D428" s="17" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7198,95 +7225,104 @@
         <v>440</v>
       </c>
       <c r="B429" s="14" t="n">
-        <v>-1.295</v>
+        <v>-1.263</v>
       </c>
       <c r="C429" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A430" s="14" t="s">
+      <c r="A430" s="17" t="s">
         <v>441</v>
       </c>
-      <c r="B430" s="14" t="n">
-        <v>-1.296</v>
-      </c>
-      <c r="C430" s="2" t="s">
-        <v>17</v>
+      <c r="B430" s="18" t="n">
+        <v>-1.266</v>
+      </c>
+      <c r="C430" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D430" s="17" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A431" s="14" t="s">
+      <c r="A431" s="16" t="s">
         <v>442</v>
       </c>
-      <c r="B431" s="2" t="n">
-        <v>-1.298</v>
+      <c r="B431" s="16" t="n">
+        <v>-1.27</v>
       </c>
       <c r="C431" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="14" t="s">
         <v>443</v>
       </c>
-      <c r="B432" s="14" t="n">
-        <v>-1.299</v>
+      <c r="B432" s="2" t="n">
+        <v>-1.272</v>
       </c>
       <c r="C432" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A433" s="14" t="s">
+      <c r="A433" s="17" t="s">
         <v>444</v>
       </c>
-      <c r="B433" s="2" t="n">
-        <v>-1.303</v>
-      </c>
-      <c r="C433" s="2" t="s">
-        <v>15</v>
+      <c r="B433" s="18" t="n">
+        <v>-1.272</v>
+      </c>
+      <c r="C433" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D433" s="17" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A434" s="14" t="s">
+      <c r="A434" s="17" t="s">
         <v>445</v>
       </c>
-      <c r="B434" s="14" t="n">
-        <v>-1.304</v>
-      </c>
-      <c r="C434" s="2" t="s">
-        <v>17</v>
+      <c r="B434" s="18" t="n">
+        <v>-1.273</v>
+      </c>
+      <c r="C434" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D434" s="17" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A435" s="14" t="s">
+      <c r="A435" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="B435" s="14" t="n">
-        <v>-1.306</v>
+      <c r="B435" s="2" t="n">
+        <v>-1.28</v>
       </c>
       <c r="C435" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="14" t="s">
         <v>447</v>
       </c>
-      <c r="B436" s="14" t="n">
-        <v>-1.307</v>
+      <c r="B436" s="2" t="n">
+        <v>-1.285</v>
       </c>
       <c r="C436" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A437" s="14" t="s">
+      <c r="A437" s="1" t="s">
         <v>448</v>
       </c>
       <c r="B437" s="2" t="n">
-        <v>-1.309</v>
+        <v>-1.286</v>
       </c>
       <c r="C437" s="2" t="s">
         <v>15</v>
@@ -7297,7 +7333,7 @@
         <v>449</v>
       </c>
       <c r="B438" s="14" t="n">
-        <v>-1.314</v>
+        <v>-1.295</v>
       </c>
       <c r="C438" s="2" t="s">
         <v>17</v>
@@ -7307,22 +7343,22 @@
       <c r="A439" s="14" t="s">
         <v>450</v>
       </c>
-      <c r="B439" s="2" t="n">
-        <v>-1.323</v>
+      <c r="B439" s="14" t="n">
+        <v>-1.296</v>
       </c>
       <c r="C439" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A440" s="16" t="s">
+      <c r="A440" s="14" t="s">
         <v>451</v>
       </c>
-      <c r="B440" s="16" t="n">
-        <v>-1.331</v>
+      <c r="B440" s="2" t="n">
+        <v>-1.298</v>
       </c>
       <c r="C440" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7330,7 +7366,7 @@
         <v>452</v>
       </c>
       <c r="B441" s="14" t="n">
-        <v>-1.332</v>
+        <v>-1.299</v>
       </c>
       <c r="C441" s="2" t="s">
         <v>17</v>
@@ -7341,7 +7377,7 @@
         <v>453</v>
       </c>
       <c r="B442" s="2" t="n">
-        <v>-1.335</v>
+        <v>-1.303</v>
       </c>
       <c r="C442" s="2" t="s">
         <v>15</v>
@@ -7352,40 +7388,40 @@
         <v>454</v>
       </c>
       <c r="B443" s="14" t="n">
-        <v>-1.335</v>
+        <v>-1.304</v>
       </c>
       <c r="C443" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A444" s="16" t="s">
+      <c r="A444" s="14" t="s">
         <v>455</v>
       </c>
-      <c r="B444" s="16" t="n">
-        <v>-1.342</v>
+      <c r="B444" s="14" t="n">
+        <v>-1.306</v>
       </c>
       <c r="C444" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A445" s="1" t="s">
+      <c r="A445" s="14" t="s">
         <v>456</v>
       </c>
-      <c r="B445" s="2" t="n">
-        <v>-1.343</v>
+      <c r="B445" s="14" t="n">
+        <v>-1.307</v>
       </c>
       <c r="C445" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A446" s="1" t="s">
+      <c r="A446" s="14" t="s">
         <v>457</v>
       </c>
       <c r="B446" s="2" t="n">
-        <v>-1.344</v>
+        <v>-1.309</v>
       </c>
       <c r="C446" s="2" t="s">
         <v>15</v>
@@ -7395,8 +7431,8 @@
       <c r="A447" s="14" t="s">
         <v>458</v>
       </c>
-      <c r="B447" s="2" t="n">
-        <v>-1.346</v>
+      <c r="B447" s="14" t="n">
+        <v>-1.314</v>
       </c>
       <c r="C447" s="2" t="s">
         <v>17</v>
@@ -7407,7 +7443,7 @@
         <v>459</v>
       </c>
       <c r="B448" s="2" t="n">
-        <v>-1.347</v>
+        <v>-1.323</v>
       </c>
       <c r="C448" s="2" t="s">
         <v>15</v>
@@ -7418,7 +7454,7 @@
         <v>460</v>
       </c>
       <c r="B449" s="16" t="n">
-        <v>-1.348</v>
+        <v>-1.331</v>
       </c>
       <c r="C449" s="2" t="s">
         <v>17</v>
@@ -7428,22 +7464,22 @@
       <c r="A450" s="14" t="s">
         <v>461</v>
       </c>
-      <c r="B450" s="2" t="n">
-        <v>-1.352</v>
+      <c r="B450" s="14" t="n">
+        <v>-1.332</v>
       </c>
       <c r="C450" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="14" t="s">
         <v>462</v>
       </c>
-      <c r="B451" s="14" t="n">
-        <v>-1.362</v>
+      <c r="B451" s="2" t="n">
+        <v>-1.335</v>
       </c>
       <c r="C451" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7451,42 +7487,125 @@
         <v>463</v>
       </c>
       <c r="B452" s="14" t="n">
+        <v>-1.335</v>
+      </c>
+      <c r="C452" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A453" s="16" t="s">
+        <v>464</v>
+      </c>
+      <c r="B453" s="16" t="n">
+        <v>-1.342</v>
+      </c>
+      <c r="C453" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A454" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B454" s="2" t="n">
+        <v>-1.343</v>
+      </c>
+      <c r="C454" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A455" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B455" s="2" t="n">
+        <v>-1.344</v>
+      </c>
+      <c r="C455" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A456" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="B456" s="2" t="n">
+        <v>-1.346</v>
+      </c>
+      <c r="C456" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A457" s="14" t="s">
+        <v>468</v>
+      </c>
+      <c r="B457" s="2" t="n">
+        <v>-1.347</v>
+      </c>
+      <c r="C457" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A458" s="16" t="s">
+        <v>469</v>
+      </c>
+      <c r="B458" s="16" t="n">
+        <v>-1.348</v>
+      </c>
+      <c r="C458" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A459" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="B459" s="2" t="n">
+        <v>-1.352</v>
+      </c>
+      <c r="C459" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A460" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="B460" s="14" t="n">
+        <v>-1.362</v>
+      </c>
+      <c r="C460" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A461" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="B461" s="14" t="n">
         <v>-1.366</v>
       </c>
-      <c r="C452" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A453" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="B453" s="2" t="n">
+      <c r="C461" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A462" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B462" s="2" t="n">
         <v>-1.375</v>
       </c>
-      <c r="C453" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A454" s="14"/>
-      <c r="B454" s="14"/>
-    </row>
-    <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A455" s="14"/>
-      <c r="B455" s="14"/>
-    </row>
-    <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A456" s="14"/>
-      <c r="B456" s="14"/>
-    </row>
-    <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A457" s="14"/>
-      <c r="B457" s="14"/>
-    </row>
-    <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A458" s="14"/>
-      <c r="B458" s="14"/>
+      <c r="C462" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A463" s="14"/>
+      <c r="B463" s="14"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/LD1014D_list.xlsx
+++ b/LD1014D_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="475">
   <si>
     <t xml:space="preserve">LD1014 List (matching without curves)</t>
   </si>
@@ -548,6 +548,9 @@
   </si>
   <si>
     <t xml:space="preserve">LD1014D_190</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reserved jr</t>
   </si>
   <si>
     <t xml:space="preserve">LD1014D_138</t>
@@ -1647,15 +1650,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC9211E"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1726,11 +1720,11 @@
   </sheetPr>
   <dimension ref="A1:AMJ463"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A154" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E172" activeCellId="0" sqref="E172"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.52"/>
@@ -4252,6 +4246,9 @@
       <c r="C173" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="D173" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="F173" s="15"/>
       <c r="G173" s="1"/>
       <c r="H173" s="2"/>
@@ -4259,13 +4256,16 @@
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="14" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B174" s="2" t="n">
         <v>-0.945</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="F174" s="15"/>
       <c r="G174" s="1"/>
@@ -4274,13 +4274,16 @@
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="14" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B175" s="2" t="n">
         <v>-0.946</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="F175" s="15"/>
       <c r="G175" s="14"/>
@@ -4289,13 +4292,16 @@
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B176" s="2" t="n">
         <v>-0.946</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="F176" s="15"/>
       <c r="G176" s="14"/>
@@ -4304,7 +4310,7 @@
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B177" s="2" t="n">
         <v>-0.947</v>
@@ -4312,6 +4318,7 @@
       <c r="C177" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="D177" s="0"/>
       <c r="F177" s="15"/>
       <c r="G177" s="14"/>
       <c r="H177" s="2"/>
@@ -4319,7 +4326,7 @@
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="16" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B178" s="16" t="n">
         <v>-0.948</v>
@@ -4334,7 +4341,7 @@
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="14" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B179" s="14" t="n">
         <v>-0.949</v>
@@ -4349,7 +4356,7 @@
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="14" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B180" s="2" t="n">
         <v>-0.952</v>
@@ -4364,7 +4371,7 @@
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="14" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B181" s="2" t="n">
         <v>-0.952</v>
@@ -4379,7 +4386,7 @@
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="16" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B182" s="16" t="n">
         <v>-0.953</v>
@@ -4394,7 +4401,7 @@
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="14" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B183" s="2" t="n">
         <v>-0.955</v>
@@ -4409,7 +4416,7 @@
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B184" s="16" t="n">
         <v>-0.955</v>
@@ -4424,7 +4431,7 @@
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="17" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B185" s="18" t="n">
         <v>-0.956</v>
@@ -4433,12 +4440,12 @@
         <v>15</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="17" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B186" s="18" t="n">
         <v>-0.957</v>
@@ -4447,12 +4454,12 @@
         <v>15</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="14" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B187" s="14" t="n">
         <v>-0.957</v>
@@ -4463,7 +4470,7 @@
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="17" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B188" s="18" t="n">
         <v>-0.958</v>
@@ -4472,12 +4479,12 @@
         <v>15</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B189" s="14" t="n">
         <v>-0.958</v>
@@ -4488,7 +4495,7 @@
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="17" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B190" s="18" t="n">
         <v>-0.959</v>
@@ -4497,12 +4504,12 @@
         <v>15</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="17" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B191" s="18" t="n">
         <v>-0.96</v>
@@ -4511,12 +4518,12 @@
         <v>15</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="17" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B192" s="18" t="n">
         <v>-0.96</v>
@@ -4525,12 +4532,12 @@
         <v>15</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B193" s="2" t="n">
         <v>-0.962</v>
@@ -4541,7 +4548,7 @@
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="14" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B194" s="2" t="n">
         <v>-0.965</v>
@@ -4552,7 +4559,7 @@
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="14" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B195" s="2" t="n">
         <v>-0.965</v>
@@ -4563,7 +4570,7 @@
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B196" s="16" t="n">
         <v>-0.965</v>
@@ -4574,7 +4581,7 @@
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="17" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B197" s="18" t="n">
         <v>-0.969</v>
@@ -4583,12 +4590,12 @@
         <v>15</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="17" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B198" s="18" t="n">
         <v>-0.969</v>
@@ -4597,12 +4604,12 @@
         <v>15</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="16" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B199" s="16" t="n">
         <v>-0.97</v>
@@ -4613,7 +4620,7 @@
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="14" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B200" s="2" t="n">
         <v>-0.972</v>
@@ -4624,7 +4631,7 @@
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="14" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B201" s="2" t="n">
         <v>-0.972</v>
@@ -4635,7 +4642,7 @@
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="14" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B202" s="14" t="n">
         <v>-0.977</v>
@@ -4646,7 +4653,7 @@
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B203" s="2" t="n">
         <v>-0.977</v>
@@ -4657,7 +4664,7 @@
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="14" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B204" s="14" t="n">
         <v>-0.978</v>
@@ -4668,7 +4675,7 @@
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="14" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B205" s="2" t="n">
         <v>-0.98</v>
@@ -4679,7 +4686,7 @@
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="14" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B206" s="2" t="n">
         <v>-0.981</v>
@@ -4690,7 +4697,7 @@
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="14" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B207" s="2" t="n">
         <v>-0.984</v>
@@ -4701,7 +4708,7 @@
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="14" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B208" s="2" t="n">
         <v>-0.984</v>
@@ -4712,7 +4719,7 @@
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B209" s="2" t="n">
         <v>-0.985</v>
@@ -4723,7 +4730,7 @@
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="14" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B210" s="2" t="n">
         <v>-0.985</v>
@@ -4734,7 +4741,7 @@
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="17" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B211" s="18" t="n">
         <v>-0.988</v>
@@ -4743,12 +4750,12 @@
         <v>15</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="14" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B212" s="2" t="n">
         <v>-0.988</v>
@@ -4759,7 +4766,7 @@
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="17" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B213" s="18" t="n">
         <v>-0.989</v>
@@ -4768,12 +4775,12 @@
         <v>15</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="14" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B214" s="14" t="n">
         <v>-0.989</v>
@@ -4784,7 +4791,7 @@
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="16" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B215" s="16" t="n">
         <v>-0.99</v>
@@ -4795,7 +4802,7 @@
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="14" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B216" s="2" t="n">
         <v>-0.992</v>
@@ -4806,7 +4813,7 @@
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="14" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B217" s="14" t="n">
         <v>-0.993</v>
@@ -4817,7 +4824,7 @@
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="14" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B218" s="14" t="n">
         <v>-0.993</v>
@@ -4828,7 +4835,7 @@
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B219" s="2" t="n">
         <v>-0.994</v>
@@ -4839,7 +4846,7 @@
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="14" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B220" s="2" t="n">
         <v>-0.995</v>
@@ -4850,7 +4857,7 @@
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="14" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B221" s="2" t="n">
         <v>-0.995</v>
@@ -4861,7 +4868,7 @@
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="14" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B222" s="14" t="n">
         <v>-0.995</v>
@@ -4872,7 +4879,7 @@
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="17" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B223" s="18" t="n">
         <v>-1</v>
@@ -4881,12 +4888,12 @@
         <v>15</v>
       </c>
       <c r="D223" s="17" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="14" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B224" s="14" t="n">
         <v>-1.002</v>
@@ -4897,7 +4904,7 @@
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="17" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B225" s="18" t="n">
         <v>-1.003</v>
@@ -4906,12 +4913,12 @@
         <v>15</v>
       </c>
       <c r="D225" s="17" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="16" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B226" s="16" t="n">
         <v>-1.003</v>
@@ -4922,7 +4929,7 @@
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="14" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B227" s="14" t="n">
         <v>-1.004</v>
@@ -4933,7 +4940,7 @@
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="17" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B228" s="18" t="n">
         <v>-1.005</v>
@@ -4942,12 +4949,12 @@
         <v>15</v>
       </c>
       <c r="D228" s="17" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="17" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B229" s="18" t="n">
         <v>-1.007</v>
@@ -4956,12 +4963,12 @@
         <v>15</v>
       </c>
       <c r="D229" s="17" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="14" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B230" s="2" t="n">
         <v>-1.008</v>
@@ -4972,7 +4979,7 @@
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="14" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B231" s="14" t="n">
         <v>-1.009</v>
@@ -4983,7 +4990,7 @@
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="16" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B232" s="16" t="n">
         <v>-1.01</v>
@@ -4994,7 +5001,7 @@
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="14" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B233" s="2" t="n">
         <v>-1.011</v>
@@ -5005,7 +5012,7 @@
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="14" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B234" s="14" t="n">
         <v>-1.013</v>
@@ -5014,12 +5021,12 @@
         <v>17</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="16" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B235" s="16" t="n">
         <v>-1.013</v>
@@ -5028,12 +5035,12 @@
         <v>17</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="14" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B236" s="2" t="n">
         <v>-1.015</v>
@@ -5044,7 +5051,7 @@
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="16" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B237" s="16" t="n">
         <v>-1.016</v>
@@ -5055,7 +5062,7 @@
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="14" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B238" s="14" t="n">
         <v>-1.017</v>
@@ -5066,7 +5073,7 @@
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="14" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B239" s="2" t="n">
         <v>-1.019</v>
@@ -5077,7 +5084,7 @@
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="14" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B240" s="14" t="n">
         <v>-1.019</v>
@@ -5088,7 +5095,7 @@
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="14" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B241" s="14" t="n">
         <v>-1.019</v>
@@ -5099,7 +5106,7 @@
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="14" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B242" s="2" t="n">
         <v>-1.021</v>
@@ -5110,7 +5117,7 @@
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="14" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B243" s="2" t="n">
         <v>-1.023</v>
@@ -5121,7 +5128,7 @@
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B244" s="2" t="n">
         <v>-1.024</v>
@@ -5132,7 +5139,7 @@
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="14" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B245" s="2" t="n">
         <v>-1.024</v>
@@ -5143,7 +5150,7 @@
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B246" s="2" t="n">
         <v>-1.026</v>
@@ -5154,7 +5161,7 @@
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="14" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B247" s="2" t="n">
         <v>-1.028</v>
@@ -5165,7 +5172,7 @@
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="14" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B248" s="14" t="n">
         <v>-1.029</v>
@@ -5176,7 +5183,7 @@
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="14" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B249" s="2" t="n">
         <v>-1.032</v>
@@ -5187,7 +5194,7 @@
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="17" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B250" s="18" t="n">
         <v>-1.032</v>
@@ -5196,12 +5203,12 @@
         <v>15</v>
       </c>
       <c r="D250" s="17" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="14" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B251" s="2" t="n">
         <v>-1.032</v>
@@ -5212,7 +5219,7 @@
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="17" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B252" s="18" t="n">
         <v>-1.034</v>
@@ -5221,12 +5228,12 @@
         <v>15</v>
       </c>
       <c r="D252" s="17" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="14" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B253" s="14" t="n">
         <v>-1.035</v>
@@ -5237,7 +5244,7 @@
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="21" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B254" s="22" t="n">
         <v>-1.036</v>
@@ -5246,12 +5253,12 @@
         <v>17</v>
       </c>
       <c r="D254" s="21" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="14" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B255" s="14" t="n">
         <v>-1.036</v>
@@ -5262,7 +5269,7 @@
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="14" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B256" s="14" t="n">
         <v>-1.038</v>
@@ -5273,7 +5280,7 @@
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="14" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B257" s="2" t="n">
         <v>-1.039</v>
@@ -5284,7 +5291,7 @@
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="17" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B258" s="18" t="n">
         <v>-1.039</v>
@@ -5293,12 +5300,12 @@
         <v>15</v>
       </c>
       <c r="D258" s="17" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="14" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B259" s="2" t="n">
         <v>-1.039</v>
@@ -5309,7 +5316,7 @@
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="17" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B260" s="18" t="n">
         <v>-1.042</v>
@@ -5318,12 +5325,12 @@
         <v>15</v>
       </c>
       <c r="D260" s="17" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="14" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B261" s="2" t="n">
         <v>-1.043</v>
@@ -5334,7 +5341,7 @@
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="14" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B262" s="2" t="n">
         <v>-1.043</v>
@@ -5345,7 +5352,7 @@
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="14" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B263" s="2" t="n">
         <v>-1.045</v>
@@ -5356,7 +5363,7 @@
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="14" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B264" s="14" t="n">
         <v>-1.046</v>
@@ -5367,7 +5374,7 @@
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="16" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B265" s="16" t="n">
         <v>-1.047</v>
@@ -5378,7 +5385,7 @@
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="17" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B266" s="18" t="n">
         <v>-1.05</v>
@@ -5392,7 +5399,7 @@
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="17" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B267" s="18" t="n">
         <v>-1.05</v>
@@ -5406,7 +5413,7 @@
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="14" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B268" s="2" t="n">
         <v>-1.05</v>
@@ -5417,7 +5424,7 @@
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="14" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B269" s="14" t="n">
         <v>-1.05</v>
@@ -5428,7 +5435,7 @@
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="14" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B270" s="14" t="n">
         <v>-1.052</v>
@@ -5439,7 +5446,7 @@
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="14" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B271" s="2" t="n">
         <v>-1.053</v>
@@ -5450,7 +5457,7 @@
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="16" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B272" s="16" t="n">
         <v>-1.054</v>
@@ -5461,7 +5468,7 @@
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B273" s="2" t="n">
         <v>-1.055</v>
@@ -5472,7 +5479,7 @@
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="14" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B274" s="2" t="n">
         <v>-1.056</v>
@@ -5483,7 +5490,7 @@
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="14" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B275" s="2" t="n">
         <v>-1.056</v>
@@ -5494,7 +5501,7 @@
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="14" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B276" s="14" t="n">
         <v>-1.057</v>
@@ -5505,7 +5512,7 @@
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="16" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B277" s="16" t="n">
         <v>-1.057</v>
@@ -5516,7 +5523,7 @@
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B278" s="2" t="n">
         <v>-1.058</v>
@@ -5527,7 +5534,7 @@
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B279" s="2" t="n">
         <v>-1.059</v>
@@ -5538,7 +5545,7 @@
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="14" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B280" s="2" t="n">
         <v>-1.061</v>
@@ -5549,7 +5556,7 @@
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B281" s="2" t="n">
         <v>-1.061</v>
@@ -5560,7 +5567,7 @@
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="17" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B282" s="18" t="n">
         <v>-1.062</v>
@@ -5569,12 +5576,12 @@
         <v>15</v>
       </c>
       <c r="D282" s="17" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="14" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B283" s="14" t="n">
         <v>-1.062</v>
@@ -5585,7 +5592,7 @@
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="17" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B284" s="18" t="n">
         <v>-1.062</v>
@@ -5594,12 +5601,12 @@
         <v>15</v>
       </c>
       <c r="D284" s="17" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="14" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B285" s="14" t="n">
         <v>-1.063</v>
@@ -5610,7 +5617,7 @@
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="14" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B286" s="14" t="n">
         <v>-1.063</v>
@@ -5621,7 +5628,7 @@
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="17" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B287" s="18" t="n">
         <v>-1.063</v>
@@ -5630,12 +5637,12 @@
         <v>15</v>
       </c>
       <c r="D287" s="17" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="17" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B288" s="18" t="n">
         <v>-1.064</v>
@@ -5644,12 +5651,12 @@
         <v>15</v>
       </c>
       <c r="D288" s="17" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="14" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B289" s="2" t="n">
         <v>-1.064</v>
@@ -5660,7 +5667,7 @@
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="14" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B290" s="2" t="n">
         <v>-1.064</v>
@@ -5671,7 +5678,7 @@
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="14" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B291" s="14" t="n">
         <v>-1.065</v>
@@ -5682,7 +5689,7 @@
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="16" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B292" s="16" t="n">
         <v>-1.065</v>
@@ -5693,7 +5700,7 @@
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="14" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B293" s="14" t="n">
         <v>-1.066</v>
@@ -5702,12 +5709,12 @@
         <v>17</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="14" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B294" s="14" t="n">
         <v>-1.066</v>
@@ -5716,12 +5723,12 @@
         <v>17</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="14" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B295" s="2" t="n">
         <v>-1.068</v>
@@ -5732,7 +5739,7 @@
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="14" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B296" s="2" t="n">
         <v>-1.068</v>
@@ -5743,7 +5750,7 @@
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="14" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B297" s="14" t="n">
         <v>-1.073</v>
@@ -5754,7 +5761,7 @@
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="14" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B298" s="2" t="n">
         <v>-1.074</v>
@@ -5765,7 +5772,7 @@
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="14" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B299" s="2" t="n">
         <v>-1.075</v>
@@ -5776,7 +5783,7 @@
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="16" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B300" s="16" t="n">
         <v>-1.075</v>
@@ -5787,7 +5794,7 @@
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="14" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B301" s="2" t="n">
         <v>-1.076</v>
@@ -5798,7 +5805,7 @@
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="14" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B302" s="14" t="n">
         <v>-1.077</v>
@@ -5809,7 +5816,7 @@
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="16" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B303" s="16" t="n">
         <v>-1.077</v>
@@ -5820,7 +5827,7 @@
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="14" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B304" s="2" t="n">
         <v>-1.085</v>
@@ -5831,7 +5838,7 @@
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="14" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B305" s="14" t="n">
         <v>-1.085</v>
@@ -5842,7 +5849,7 @@
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="14" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B306" s="14" t="n">
         <v>-1.086</v>
@@ -5853,7 +5860,7 @@
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="14" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B307" s="14" t="n">
         <v>-1.086</v>
@@ -5864,7 +5871,7 @@
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="14" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B308" s="14" t="n">
         <v>-1.086</v>
@@ -5875,7 +5882,7 @@
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="14" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B309" s="2" t="n">
         <v>-1.088</v>
@@ -5886,7 +5893,7 @@
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="14" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B310" s="2" t="n">
         <v>-1.088</v>
@@ -5897,7 +5904,7 @@
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="14" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B311" s="14" t="n">
         <v>-1.088</v>
@@ -5908,7 +5915,7 @@
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B312" s="2" t="n">
         <v>-1.089</v>
@@ -5919,7 +5926,7 @@
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="14" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B313" s="2" t="n">
         <v>-1.091</v>
@@ -5930,7 +5937,7 @@
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="14" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B314" s="2" t="n">
         <v>-1.092</v>
@@ -5941,7 +5948,7 @@
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="14" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B315" s="2" t="n">
         <v>-1.092</v>
@@ -5952,7 +5959,7 @@
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="14" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B316" s="14" t="n">
         <v>-1.095</v>
@@ -5963,7 +5970,7 @@
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="16" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B317" s="16" t="n">
         <v>-1.095</v>
@@ -5974,7 +5981,7 @@
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="14" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B318" s="2" t="n">
         <v>-1.096</v>
@@ -5985,7 +5992,7 @@
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="14" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B319" s="2" t="n">
         <v>-1.097</v>
@@ -5996,7 +6003,7 @@
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="14" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B320" s="2" t="n">
         <v>-1.098</v>
@@ -6007,7 +6014,7 @@
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="14" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B321" s="2" t="n">
         <v>-1.102</v>
@@ -6018,7 +6025,7 @@
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B322" s="2" t="n">
         <v>-1.107</v>
@@ -6029,7 +6036,7 @@
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="14" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B323" s="2" t="n">
         <v>-1.108</v>
@@ -6040,7 +6047,7 @@
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="14" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B324" s="14" t="n">
         <v>-1.109</v>
@@ -6051,7 +6058,7 @@
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="14" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B325" s="14" t="n">
         <v>-1.109</v>
@@ -6062,7 +6069,7 @@
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="14" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B326" s="2" t="n">
         <v>-1.11</v>
@@ -6073,7 +6080,7 @@
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="14" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B327" s="2" t="n">
         <v>-1.11</v>
@@ -6084,7 +6091,7 @@
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="14" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B328" s="14" t="n">
         <v>-1.11</v>
@@ -6095,7 +6102,7 @@
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B329" s="2" t="n">
         <v>-1.111</v>
@@ -6106,7 +6113,7 @@
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="14" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B330" s="2" t="n">
         <v>-1.112</v>
@@ -6117,7 +6124,7 @@
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="14" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B331" s="14" t="n">
         <v>-1.112</v>
@@ -6128,7 +6135,7 @@
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B332" s="2" t="n">
         <v>-1.114</v>
@@ -6139,7 +6146,7 @@
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="14" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B333" s="14" t="n">
         <v>-1.117</v>
@@ -6150,7 +6157,7 @@
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="16" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B334" s="16" t="n">
         <v>-1.117</v>
@@ -6161,7 +6168,7 @@
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="14" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B335" s="2" t="n">
         <v>-1.118</v>
@@ -6172,7 +6179,7 @@
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="14" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B336" s="2" t="n">
         <v>-1.119</v>
@@ -6183,7 +6190,7 @@
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="16" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B337" s="16" t="n">
         <v>-1.119</v>
@@ -6194,7 +6201,7 @@
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="14" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B338" s="2" t="n">
         <v>-1.121</v>
@@ -6205,7 +6212,7 @@
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="14" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B339" s="14" t="n">
         <v>-1.121</v>
@@ -6216,7 +6223,7 @@
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="14" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B340" s="2" t="n">
         <v>-1.122</v>
@@ -6227,7 +6234,7 @@
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="14" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B341" s="2" t="n">
         <v>-1.123</v>
@@ -6238,7 +6245,7 @@
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B342" s="2" t="n">
         <v>-1.125</v>
@@ -6249,7 +6256,7 @@
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="14" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B343" s="14" t="n">
         <v>-1.125</v>
@@ -6260,7 +6267,7 @@
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="16" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B344" s="16" t="n">
         <v>-1.128</v>
@@ -6271,7 +6278,7 @@
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="14" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B345" s="2" t="n">
         <v>-1.129</v>
@@ -6282,7 +6289,7 @@
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="14" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B346" s="14" t="n">
         <v>-1.13</v>
@@ -6293,7 +6300,7 @@
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="14" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B347" s="2" t="n">
         <v>-1.131</v>
@@ -6304,7 +6311,7 @@
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="14" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B348" s="14" t="n">
         <v>-1.132</v>
@@ -6315,7 +6322,7 @@
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="16" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B349" s="16" t="n">
         <v>-1.135</v>
@@ -6326,7 +6333,7 @@
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B350" s="2" t="n">
         <v>-1.136</v>
@@ -6337,7 +6344,7 @@
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="14" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B351" s="2" t="n">
         <v>-1.141</v>
@@ -6348,7 +6355,7 @@
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="14" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B352" s="14" t="n">
         <v>-1.141</v>
@@ -6359,7 +6366,7 @@
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="14" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B353" s="14" t="n">
         <v>-1.142</v>
@@ -6370,7 +6377,7 @@
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="14" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B354" s="2" t="n">
         <v>-1.144</v>
@@ -6381,7 +6388,7 @@
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="17" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B355" s="18" t="n">
         <v>-1.144</v>
@@ -6390,12 +6397,12 @@
         <v>15</v>
       </c>
       <c r="D355" s="17" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="14" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B356" s="2" t="n">
         <v>-1.145</v>
@@ -6406,7 +6413,7 @@
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="14" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B357" s="14" t="n">
         <v>-1.146</v>
@@ -6417,7 +6424,7 @@
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="14" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B358" s="2" t="n">
         <v>-1.147</v>
@@ -6428,7 +6435,7 @@
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="14" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B359" s="14" t="n">
         <v>-1.148</v>
@@ -6439,7 +6446,7 @@
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="14" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B360" s="2" t="n">
         <v>-1.149</v>
@@ -6450,7 +6457,7 @@
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="14" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B361" s="2" t="n">
         <v>-1.149</v>
@@ -6461,7 +6468,7 @@
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="17" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B362" s="18" t="n">
         <v>-1.149</v>
@@ -6470,12 +6477,12 @@
         <v>15</v>
       </c>
       <c r="D362" s="17" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="14" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B363" s="2" t="n">
         <v>-1.15</v>
@@ -6486,7 +6493,7 @@
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="16" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B364" s="16" t="n">
         <v>-1.151</v>
@@ -6497,7 +6504,7 @@
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="14" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B365" s="2" t="n">
         <v>-1.152</v>
@@ -6508,7 +6515,7 @@
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="14" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B366" s="14" t="n">
         <v>-1.153</v>
@@ -6519,7 +6526,7 @@
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="17" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B367" s="18" t="n">
         <v>-1.154</v>
@@ -6528,12 +6535,12 @@
         <v>15</v>
       </c>
       <c r="D367" s="17" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="16" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B368" s="16" t="n">
         <v>-1.155</v>
@@ -6544,7 +6551,7 @@
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="16" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B369" s="16" t="n">
         <v>-1.155</v>
@@ -6555,7 +6562,7 @@
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="14" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B370" s="2" t="n">
         <v>-1.157</v>
@@ -6566,7 +6573,7 @@
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="17" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B371" s="18" t="n">
         <v>-1.158</v>
@@ -6575,12 +6582,12 @@
         <v>15</v>
       </c>
       <c r="D371" s="17" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="14" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B372" s="14" t="n">
         <v>-1.16</v>
@@ -6591,7 +6598,7 @@
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B373" s="2" t="n">
         <v>-1.16</v>
@@ -6602,7 +6609,7 @@
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="14" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B374" s="2" t="n">
         <v>-1.165</v>
@@ -6613,7 +6620,7 @@
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="14" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B375" s="2" t="n">
         <v>-1.167</v>
@@ -6624,7 +6631,7 @@
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B376" s="2" t="n">
         <v>-1.167</v>
@@ -6635,7 +6642,7 @@
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="14" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B377" s="2" t="n">
         <v>-1.168</v>
@@ -6646,7 +6653,7 @@
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="14" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B378" s="2" t="n">
         <v>-1.169</v>
@@ -6657,7 +6664,7 @@
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="14" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B379" s="14" t="n">
         <v>-1.172</v>
@@ -6668,7 +6675,7 @@
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="16" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B380" s="16" t="n">
         <v>-1.172</v>
@@ -6679,7 +6686,7 @@
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="14" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B381" s="14" t="n">
         <v>-1.173</v>
@@ -6690,7 +6697,7 @@
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B382" s="2" t="n">
         <v>-1.174</v>
@@ -6701,7 +6708,7 @@
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="14" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B383" s="2" t="n">
         <v>-1.178</v>
@@ -6712,7 +6719,7 @@
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B384" s="2" t="n">
         <v>-1.179</v>
@@ -6723,7 +6730,7 @@
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="14" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B385" s="14" t="n">
         <v>-1.181</v>
@@ -6734,7 +6741,7 @@
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B386" s="2" t="n">
         <v>-1.183</v>
@@ -6745,7 +6752,7 @@
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="14" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B387" s="2" t="n">
         <v>-1.185</v>
@@ -6756,7 +6763,7 @@
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="14" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B388" s="14" t="n">
         <v>-1.185</v>
@@ -6767,7 +6774,7 @@
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B389" s="2" t="n">
         <v>-1.187</v>
@@ -6778,7 +6785,7 @@
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="16" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B390" s="16" t="n">
         <v>-1.19</v>
@@ -6789,7 +6796,7 @@
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="14" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B391" s="2" t="n">
         <v>-1.191</v>
@@ -6800,7 +6807,7 @@
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="14" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B392" s="2" t="n">
         <v>-1.192</v>
@@ -6811,7 +6818,7 @@
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="16" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B393" s="16" t="n">
         <v>-1.193</v>
@@ -6822,7 +6829,7 @@
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="14" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B394" s="2" t="n">
         <v>-1.197</v>
@@ -6833,7 +6840,7 @@
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="16" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B395" s="16" t="n">
         <v>-1.197</v>
@@ -6844,7 +6851,7 @@
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="14" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B396" s="14" t="n">
         <v>-1.199</v>
@@ -6855,7 +6862,7 @@
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="14" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B397" s="14" t="n">
         <v>-1.201</v>
@@ -6866,7 +6873,7 @@
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="14" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B398" s="2" t="n">
         <v>-1.202</v>
@@ -6877,7 +6884,7 @@
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B399" s="2" t="n">
         <v>-1.206</v>
@@ -6888,7 +6895,7 @@
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="16" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B400" s="16" t="n">
         <v>-1.21</v>
@@ -6899,7 +6906,7 @@
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="14" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B401" s="14" t="n">
         <v>-1.211</v>
@@ -6910,7 +6917,7 @@
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="14" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B402" s="14" t="n">
         <v>-1.212</v>
@@ -6921,7 +6928,7 @@
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B403" s="2" t="n">
         <v>-1.212</v>
@@ -6932,7 +6939,7 @@
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="14" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B404" s="2" t="n">
         <v>-1.218</v>
@@ -6943,7 +6950,7 @@
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="14" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B405" s="2" t="n">
         <v>-1.219</v>
@@ -6954,7 +6961,7 @@
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="17" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B406" s="18" t="n">
         <v>-1.219</v>
@@ -6963,12 +6970,12 @@
         <v>17</v>
       </c>
       <c r="D406" s="17" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="17" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B407" s="18" t="n">
         <v>-1.22</v>
@@ -6977,12 +6984,12 @@
         <v>17</v>
       </c>
       <c r="D407" s="17" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="16" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B408" s="16" t="n">
         <v>-1.22</v>
@@ -6993,7 +7000,7 @@
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B409" s="2" t="n">
         <v>-1.223</v>
@@ -7004,7 +7011,7 @@
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="14" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B410" s="2" t="n">
         <v>-1.224</v>
@@ -7015,7 +7022,7 @@
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="14" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B411" s="2" t="n">
         <v>-1.226</v>
@@ -7026,7 +7033,7 @@
     </row>
     <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="14" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B412" s="2" t="n">
         <v>-1.227</v>
@@ -7037,7 +7044,7 @@
     </row>
     <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="17" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B413" s="17" t="n">
         <v>-1.23</v>
@@ -7046,12 +7053,12 @@
         <v>17</v>
       </c>
       <c r="D413" s="17" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="14" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B414" s="14" t="n">
         <v>-1.232</v>
@@ -7062,7 +7069,7 @@
     </row>
     <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="17" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B415" s="18" t="n">
         <v>-1.233</v>
@@ -7071,12 +7078,12 @@
         <v>17</v>
       </c>
       <c r="D415" s="17" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="14" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B416" s="2" t="n">
         <v>-1.234</v>
@@ -7087,7 +7094,7 @@
     </row>
     <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="14" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B417" s="2" t="n">
         <v>-1.235</v>
@@ -7098,7 +7105,7 @@
     </row>
     <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="14" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B418" s="14" t="n">
         <v>-1.236</v>
@@ -7109,7 +7116,7 @@
     </row>
     <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="14" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B419" s="14" t="n">
         <v>-1.236</v>
@@ -7120,7 +7127,7 @@
     </row>
     <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="14" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B420" s="14" t="n">
         <v>-1.238</v>
@@ -7131,7 +7138,7 @@
     </row>
     <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="16" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B421" s="16" t="n">
         <v>-1.24</v>
@@ -7142,7 +7149,7 @@
     </row>
     <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B422" s="2" t="n">
         <v>-1.241</v>
@@ -7153,7 +7160,7 @@
     </row>
     <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="14" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B423" s="2" t="n">
         <v>-1.249</v>
@@ -7164,7 +7171,7 @@
     </row>
     <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="16" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B424" s="16" t="n">
         <v>-1.253</v>
@@ -7175,7 +7182,7 @@
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="14" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B425" s="2" t="n">
         <v>-1.26</v>
@@ -7186,7 +7193,7 @@
     </row>
     <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="14" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B426" s="2" t="n">
         <v>-1.261</v>
@@ -7197,7 +7204,7 @@
     </row>
     <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="14" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B427" s="2" t="n">
         <v>-1.261</v>
@@ -7208,7 +7215,7 @@
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="17" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B428" s="18" t="n">
         <v>-1.263</v>
@@ -7217,12 +7224,12 @@
         <v>17</v>
       </c>
       <c r="D428" s="17" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="14" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B429" s="14" t="n">
         <v>-1.263</v>
@@ -7233,7 +7240,7 @@
     </row>
     <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="17" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B430" s="18" t="n">
         <v>-1.266</v>
@@ -7242,12 +7249,12 @@
         <v>17</v>
       </c>
       <c r="D430" s="17" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="16" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B431" s="16" t="n">
         <v>-1.27</v>
@@ -7258,7 +7265,7 @@
     </row>
     <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="14" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B432" s="2" t="n">
         <v>-1.272</v>
@@ -7269,7 +7276,7 @@
     </row>
     <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="17" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B433" s="18" t="n">
         <v>-1.272</v>
@@ -7278,12 +7285,12 @@
         <v>17</v>
       </c>
       <c r="D433" s="17" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="17" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B434" s="18" t="n">
         <v>-1.273</v>
@@ -7292,12 +7299,12 @@
         <v>17</v>
       </c>
       <c r="D434" s="17" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B435" s="2" t="n">
         <v>-1.28</v>
@@ -7308,7 +7315,7 @@
     </row>
     <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="14" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B436" s="2" t="n">
         <v>-1.285</v>
@@ -7319,7 +7326,7 @@
     </row>
     <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B437" s="2" t="n">
         <v>-1.286</v>
@@ -7330,7 +7337,7 @@
     </row>
     <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="14" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B438" s="14" t="n">
         <v>-1.295</v>
@@ -7341,7 +7348,7 @@
     </row>
     <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="14" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B439" s="14" t="n">
         <v>-1.296</v>
@@ -7352,7 +7359,7 @@
     </row>
     <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="14" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B440" s="2" t="n">
         <v>-1.298</v>
@@ -7363,7 +7370,7 @@
     </row>
     <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="14" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B441" s="14" t="n">
         <v>-1.299</v>
@@ -7374,7 +7381,7 @@
     </row>
     <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="14" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B442" s="2" t="n">
         <v>-1.303</v>
@@ -7385,7 +7392,7 @@
     </row>
     <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="14" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B443" s="14" t="n">
         <v>-1.304</v>
@@ -7396,7 +7403,7 @@
     </row>
     <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="14" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B444" s="14" t="n">
         <v>-1.306</v>
@@ -7407,7 +7414,7 @@
     </row>
     <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="14" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B445" s="14" t="n">
         <v>-1.307</v>
@@ -7418,7 +7425,7 @@
     </row>
     <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="14" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B446" s="2" t="n">
         <v>-1.309</v>
@@ -7429,7 +7436,7 @@
     </row>
     <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="14" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B447" s="14" t="n">
         <v>-1.314</v>
@@ -7440,7 +7447,7 @@
     </row>
     <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="14" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B448" s="2" t="n">
         <v>-1.323</v>
@@ -7451,7 +7458,7 @@
     </row>
     <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="16" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B449" s="16" t="n">
         <v>-1.331</v>
@@ -7462,7 +7469,7 @@
     </row>
     <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="14" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B450" s="14" t="n">
         <v>-1.332</v>
@@ -7473,7 +7480,7 @@
     </row>
     <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="14" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B451" s="2" t="n">
         <v>-1.335</v>
@@ -7484,7 +7491,7 @@
     </row>
     <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="14" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B452" s="14" t="n">
         <v>-1.335</v>
@@ -7495,7 +7502,7 @@
     </row>
     <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="16" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B453" s="16" t="n">
         <v>-1.342</v>
@@ -7506,7 +7513,7 @@
     </row>
     <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B454" s="2" t="n">
         <v>-1.343</v>
@@ -7517,7 +7524,7 @@
     </row>
     <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B455" s="2" t="n">
         <v>-1.344</v>
@@ -7528,7 +7535,7 @@
     </row>
     <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="14" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B456" s="2" t="n">
         <v>-1.346</v>
@@ -7539,7 +7546,7 @@
     </row>
     <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="14" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B457" s="2" t="n">
         <v>-1.347</v>
@@ -7550,7 +7557,7 @@
     </row>
     <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="16" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B458" s="16" t="n">
         <v>-1.348</v>
@@ -7561,7 +7568,7 @@
     </row>
     <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="14" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B459" s="2" t="n">
         <v>-1.352</v>
@@ -7572,7 +7579,7 @@
     </row>
     <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="14" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B460" s="14" t="n">
         <v>-1.362</v>
@@ -7583,7 +7590,7 @@
     </row>
     <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="14" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B461" s="14" t="n">
         <v>-1.366</v>
@@ -7594,7 +7601,7 @@
     </row>
     <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B462" s="2" t="n">
         <v>-1.375</v>

--- a/LD1014D_list.xlsx
+++ b/LD1014D_list.xlsx
@@ -550,7 +550,7 @@
     <t xml:space="preserve">LD1014D_190</t>
   </si>
   <si>
-    <t xml:space="preserve">reserved jr</t>
+    <t xml:space="preserve">sold jr</t>
   </si>
   <si>
     <t xml:space="preserve">LD1014D_138</t>
@@ -1721,10 +1721,10 @@
   <dimension ref="A1:AMJ463"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A154" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E172" activeCellId="0" sqref="E172"/>
+      <selection pane="topLeft" activeCell="I168" activeCellId="0" sqref="I168"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.52"/>
@@ -4237,16 +4237,16 @@
       <c r="I172" s="1"/>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="14" t="s">
+      <c r="A173" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="B173" s="2" t="n">
+      <c r="B173" s="18" t="n">
         <v>-0.943</v>
       </c>
-      <c r="C173" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D173" s="1" t="s">
+      <c r="C173" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D173" s="17" t="s">
         <v>176</v>
       </c>
       <c r="F173" s="15"/>
@@ -4255,16 +4255,16 @@
       <c r="I173" s="1"/>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="14" t="s">
+      <c r="A174" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="B174" s="2" t="n">
+      <c r="B174" s="18" t="n">
         <v>-0.945</v>
       </c>
-      <c r="C174" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D174" s="1" t="s">
+      <c r="C174" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D174" s="17" t="s">
         <v>176</v>
       </c>
       <c r="F174" s="15"/>
@@ -4273,16 +4273,16 @@
       <c r="I174" s="1"/>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="14" t="s">
+      <c r="A175" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="B175" s="2" t="n">
+      <c r="B175" s="18" t="n">
         <v>-0.946</v>
       </c>
-      <c r="C175" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D175" s="1" t="s">
+      <c r="C175" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D175" s="17" t="s">
         <v>176</v>
       </c>
       <c r="F175" s="15"/>
@@ -4291,16 +4291,16 @@
       <c r="I175" s="1"/>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="1" t="s">
+      <c r="A176" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="B176" s="2" t="n">
+      <c r="B176" s="18" t="n">
         <v>-0.946</v>
       </c>
-      <c r="C176" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D176" s="1" t="s">
+      <c r="C176" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D176" s="17" t="s">
         <v>176</v>
       </c>
       <c r="F176" s="15"/>

--- a/LD1014D_list.xlsx
+++ b/LD1014D_list.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="475">
   <si>
-    <t xml:space="preserve">LD1014 List (matching without curves)</t>
+    <t xml:space="preserve">LD1014 List (matching data)</t>
   </si>
   <si>
     <t xml:space="preserve">Test conditions:</t>
@@ -46,10 +46,10 @@
     <t xml:space="preserve">Shipping+Handling: 5 Euro / small letter (international) </t>
   </si>
   <si>
-    <t xml:space="preserve">Reservation and further instructions:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Send a personal message (PM) to user mbrennwa on the diyAudio.com forum</t>
+    <t xml:space="preserve">Further details and instructions for reservation and ordering:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.diyaudio.com/community/threads/ld1014d-lu1014d-matched-by-vgs-and-curve-tracing.381338/</t>
   </si>
   <si>
     <t xml:space="preserve">Sample</t>
@@ -1455,7 +1455,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1487,6 +1487,13 @@
     <font>
       <b val="true"/>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1548,7 +1555,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1605,6 +1612,10 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1617,27 +1628,27 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1720,11 +1731,11 @@
   </sheetPr>
   <dimension ref="A1:AMJ463"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A154" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I168" activeCellId="0" sqref="I168"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.07421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.52"/>
@@ -1835,7 +1846,7 @@
       <c r="AMJ12" s="0"/>
     </row>
     <row r="13" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="8"/>
@@ -1869,7 +1880,7 @@
       <c r="AMJ16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="2" t="n">
@@ -1878,13 +1889,13 @@
       <c r="C17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="14"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="15"/>
       <c r="H17" s="2"/>
       <c r="I17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="2" t="n">
@@ -1893,13 +1904,13 @@
       <c r="C18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="15"/>
-      <c r="G18" s="14"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="15"/>
       <c r="H18" s="2"/>
       <c r="I18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="n">
@@ -1908,13 +1919,13 @@
       <c r="C19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="15"/>
+      <c r="F19" s="16"/>
       <c r="G19" s="1"/>
       <c r="H19" s="2"/>
       <c r="I19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="n">
@@ -1923,13 +1934,13 @@
       <c r="C20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="15"/>
+      <c r="F20" s="16"/>
       <c r="G20" s="1"/>
       <c r="H20" s="2"/>
       <c r="I20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="n">
@@ -1938,7 +1949,7 @@
       <c r="C21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="15"/>
+      <c r="F21" s="16"/>
       <c r="G21" s="1"/>
       <c r="H21" s="2"/>
       <c r="I21" s="1"/>
@@ -1953,58 +1964,58 @@
       <c r="C22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="15"/>
-      <c r="G22" s="14"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="15"/>
       <c r="H22" s="2"/>
       <c r="I22" s="1"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="14" t="n">
+      <c r="B23" s="15" t="n">
         <v>-0.628</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="15"/>
+      <c r="F23" s="16"/>
       <c r="G23" s="1"/>
       <c r="H23" s="2"/>
       <c r="I23" s="1"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="14" t="n">
+      <c r="B24" s="15" t="n">
         <v>-0.628</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="15"/>
+      <c r="F24" s="16"/>
       <c r="G24" s="1"/>
       <c r="H24" s="2"/>
       <c r="I24" s="1"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="16" t="n">
+      <c r="B25" s="17" t="n">
         <v>-0.633</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="15"/>
+      <c r="F25" s="16"/>
       <c r="G25" s="1"/>
       <c r="H25" s="2"/>
       <c r="I25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="15" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="n">
@@ -2013,23 +2024,23 @@
       <c r="C26" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F26" s="15"/>
-      <c r="G26" s="14"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="15"/>
       <c r="H26" s="2"/>
       <c r="I26" s="1"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="14" t="n">
+      <c r="B27" s="15" t="n">
         <v>-0.644</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F27" s="15"/>
-      <c r="G27" s="14"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="15"/>
       <c r="H27" s="2"/>
       <c r="I27" s="1"/>
     </row>
@@ -2043,23 +2054,23 @@
       <c r="C28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="15"/>
+      <c r="F28" s="16"/>
       <c r="G28" s="1"/>
       <c r="H28" s="2"/>
       <c r="I28" s="1"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="14" t="n">
+      <c r="B29" s="15" t="n">
         <v>-0.646</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="15"/>
-      <c r="G29" s="14"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="15"/>
       <c r="H29" s="2"/>
       <c r="I29" s="1"/>
     </row>
@@ -2073,88 +2084,88 @@
       <c r="C30" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F30" s="15"/>
-      <c r="G30" s="14"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="15"/>
       <c r="H30" s="2"/>
       <c r="I30" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="14" t="n">
+      <c r="B31" s="15" t="n">
         <v>-0.648</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F31" s="15"/>
-      <c r="G31" s="14"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="15"/>
       <c r="H31" s="2"/>
       <c r="I31" s="1"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="14" t="n">
+      <c r="B32" s="15" t="n">
         <v>-0.651</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F32" s="15"/>
+      <c r="F32" s="16"/>
       <c r="G32" s="1"/>
       <c r="H32" s="2"/>
       <c r="I32" s="1"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="14" t="n">
+      <c r="B33" s="15" t="n">
         <v>-0.655</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="15"/>
-      <c r="G33" s="14"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="15"/>
       <c r="H33" s="2"/>
       <c r="I33" s="1"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="16" t="n">
+      <c r="B34" s="17" t="n">
         <v>-0.661</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F34" s="15"/>
-      <c r="G34" s="14"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="15"/>
       <c r="H34" s="2"/>
       <c r="I34" s="1"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="14" t="n">
+      <c r="B35" s="15" t="n">
         <v>-0.663</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F35" s="15"/>
+      <c r="F35" s="16"/>
       <c r="G35" s="1"/>
       <c r="H35" s="2"/>
       <c r="I35" s="1"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="15" t="s">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="n">
@@ -2163,7 +2174,7 @@
       <c r="C36" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F36" s="15"/>
+      <c r="F36" s="16"/>
       <c r="G36" s="1"/>
       <c r="H36" s="2"/>
       <c r="I36" s="1"/>
@@ -2178,13 +2189,13 @@
       <c r="C37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="15"/>
-      <c r="G37" s="14"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="15"/>
       <c r="H37" s="2"/>
       <c r="I37" s="1"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B38" s="2" t="n">
@@ -2193,23 +2204,23 @@
       <c r="C38" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F38" s="15"/>
-      <c r="G38" s="14"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="15"/>
       <c r="H38" s="2"/>
       <c r="I38" s="1"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="16" t="n">
+      <c r="B39" s="17" t="n">
         <v>-0.685</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F39" s="15"/>
-      <c r="G39" s="14"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="15"/>
       <c r="H39" s="2"/>
       <c r="I39" s="1"/>
     </row>
@@ -2223,28 +2234,28 @@
       <c r="C40" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F40" s="15"/>
+      <c r="F40" s="16"/>
       <c r="G40" s="1"/>
       <c r="H40" s="2"/>
       <c r="I40" s="1"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="16" t="n">
+      <c r="B41" s="17" t="n">
         <v>-0.688</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F41" s="15"/>
+      <c r="F41" s="16"/>
       <c r="G41" s="1"/>
       <c r="H41" s="2"/>
       <c r="I41" s="1"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="15" t="s">
         <v>41</v>
       </c>
       <c r="B42" s="2" t="n">
@@ -2253,28 +2264,28 @@
       <c r="C42" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F42" s="15"/>
-      <c r="G42" s="14"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="15"/>
       <c r="H42" s="2"/>
       <c r="I42" s="1"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="16" t="n">
+      <c r="B43" s="17" t="n">
         <v>-0.712</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F43" s="15"/>
+      <c r="F43" s="16"/>
       <c r="G43" s="1"/>
       <c r="H43" s="2"/>
       <c r="I43" s="1"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="15" t="s">
         <v>43</v>
       </c>
       <c r="B44" s="2" t="n">
@@ -2283,8 +2294,8 @@
       <c r="C44" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F44" s="15"/>
-      <c r="G44" s="14"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="15"/>
       <c r="H44" s="2"/>
       <c r="I44" s="1"/>
     </row>
@@ -2298,13 +2309,13 @@
       <c r="C45" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F45" s="15"/>
+      <c r="F45" s="16"/>
       <c r="G45" s="1"/>
       <c r="H45" s="2"/>
       <c r="I45" s="1"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="14" t="s">
+      <c r="A46" s="15" t="s">
         <v>45</v>
       </c>
       <c r="B46" s="2" t="n">
@@ -2313,43 +2324,43 @@
       <c r="C46" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F46" s="15"/>
+      <c r="F46" s="16"/>
       <c r="G46" s="1"/>
       <c r="H46" s="2"/>
       <c r="I46" s="1"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="14" t="n">
+      <c r="B47" s="15" t="n">
         <v>-0.72</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F47" s="15"/>
-      <c r="G47" s="14"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="15"/>
       <c r="H47" s="2"/>
       <c r="I47" s="1"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="14" t="n">
+      <c r="B48" s="15" t="n">
         <v>-0.722</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F48" s="15"/>
+      <c r="F48" s="16"/>
       <c r="G48" s="1"/>
       <c r="H48" s="2"/>
       <c r="I48" s="1"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="15" t="s">
         <v>48</v>
       </c>
       <c r="B49" s="2" t="n">
@@ -2358,13 +2369,13 @@
       <c r="C49" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F49" s="15"/>
+      <c r="F49" s="16"/>
       <c r="G49" s="1"/>
       <c r="H49" s="2"/>
       <c r="I49" s="1"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="14" t="s">
+      <c r="A50" s="15" t="s">
         <v>49</v>
       </c>
       <c r="B50" s="2" t="n">
@@ -2373,43 +2384,43 @@
       <c r="C50" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F50" s="15"/>
+      <c r="F50" s="16"/>
       <c r="G50" s="1"/>
       <c r="H50" s="2"/>
       <c r="I50" s="1"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="14" t="s">
+      <c r="A51" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="14" t="n">
+      <c r="B51" s="15" t="n">
         <v>-0.739</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F51" s="15"/>
-      <c r="G51" s="14"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="15"/>
       <c r="H51" s="2"/>
       <c r="I51" s="1"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="14" t="n">
+      <c r="B52" s="15" t="n">
         <v>-0.745</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F52" s="15"/>
+      <c r="F52" s="16"/>
       <c r="G52" s="1"/>
       <c r="H52" s="2"/>
       <c r="I52" s="1"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="14" t="s">
+      <c r="A53" s="15" t="s">
         <v>52</v>
       </c>
       <c r="B53" s="2" t="n">
@@ -2418,28 +2429,28 @@
       <c r="C53" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F53" s="15"/>
+      <c r="F53" s="16"/>
       <c r="G53" s="1"/>
       <c r="H53" s="2"/>
       <c r="I53" s="1"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="16" t="s">
+      <c r="A54" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="16" t="n">
+      <c r="B54" s="17" t="n">
         <v>-0.755</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F54" s="15"/>
+      <c r="F54" s="16"/>
       <c r="G54" s="1"/>
       <c r="H54" s="2"/>
       <c r="I54" s="1"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="14" t="s">
+      <c r="A55" s="15" t="s">
         <v>54</v>
       </c>
       <c r="B55" s="2" t="n">
@@ -2448,8 +2459,8 @@
       <c r="C55" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F55" s="15"/>
-      <c r="G55" s="14"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="15"/>
       <c r="H55" s="2"/>
       <c r="I55" s="1"/>
     </row>
@@ -2463,13 +2474,13 @@
       <c r="C56" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F56" s="15"/>
-      <c r="G56" s="14"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="15"/>
       <c r="H56" s="2"/>
       <c r="I56" s="1"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="14" t="s">
+      <c r="A57" s="15" t="s">
         <v>56</v>
       </c>
       <c r="B57" s="2" t="n">
@@ -2478,88 +2489,88 @@
       <c r="C57" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F57" s="15"/>
+      <c r="F57" s="16"/>
       <c r="G57" s="1"/>
       <c r="H57" s="2"/>
       <c r="I57" s="1"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="16" t="s">
+      <c r="A58" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="16" t="n">
+      <c r="B58" s="17" t="n">
         <v>-0.763</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F58" s="15"/>
-      <c r="G58" s="14"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="15"/>
       <c r="H58" s="2"/>
       <c r="I58" s="1"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="14" t="s">
+      <c r="A59" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B59" s="14" t="n">
+      <c r="B59" s="15" t="n">
         <v>-0.766</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F59" s="15"/>
-      <c r="G59" s="14"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="15"/>
       <c r="H59" s="2"/>
       <c r="I59" s="1"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="14" t="s">
+      <c r="A60" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B60" s="14" t="n">
+      <c r="B60" s="15" t="n">
         <v>-0.766</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F60" s="15"/>
+      <c r="F60" s="16"/>
       <c r="G60" s="1"/>
       <c r="H60" s="2"/>
       <c r="I60" s="1"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="16" t="s">
+      <c r="A61" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="16" t="n">
+      <c r="B61" s="17" t="n">
         <v>-0.766</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F61" s="15"/>
+      <c r="F61" s="16"/>
       <c r="G61" s="1"/>
       <c r="H61" s="2"/>
       <c r="I61" s="1"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="14" t="s">
+      <c r="A62" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B62" s="14" t="n">
+      <c r="B62" s="15" t="n">
         <v>-0.767</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F62" s="15"/>
-      <c r="G62" s="14"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="15"/>
       <c r="H62" s="2"/>
       <c r="I62" s="1"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="14" t="s">
+      <c r="A63" s="15" t="s">
         <v>62</v>
       </c>
       <c r="B63" s="2" t="n">
@@ -2568,28 +2579,28 @@
       <c r="C63" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F63" s="15"/>
+      <c r="F63" s="16"/>
       <c r="G63" s="1"/>
       <c r="H63" s="2"/>
       <c r="I63" s="1"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="14" t="s">
+      <c r="A64" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B64" s="14" t="n">
+      <c r="B64" s="15" t="n">
         <v>-0.776</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F64" s="15"/>
+      <c r="F64" s="16"/>
       <c r="G64" s="1"/>
       <c r="H64" s="2"/>
       <c r="I64" s="1"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="14" t="s">
+      <c r="A65" s="15" t="s">
         <v>64</v>
       </c>
       <c r="B65" s="2" t="n">
@@ -2598,13 +2609,13 @@
       <c r="C65" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F65" s="15"/>
+      <c r="F65" s="16"/>
       <c r="G65" s="1"/>
       <c r="H65" s="2"/>
       <c r="I65" s="1"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="14" t="s">
+      <c r="A66" s="15" t="s">
         <v>65</v>
       </c>
       <c r="B66" s="2" t="n">
@@ -2613,23 +2624,23 @@
       <c r="C66" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F66" s="15"/>
-      <c r="G66" s="14"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="15"/>
       <c r="H66" s="2"/>
       <c r="I66" s="1"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="14" t="s">
+      <c r="A67" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B67" s="14" t="n">
+      <c r="B67" s="15" t="n">
         <v>-0.783</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F67" s="15"/>
-      <c r="G67" s="14"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="15"/>
       <c r="H67" s="2"/>
       <c r="I67" s="1"/>
     </row>
@@ -2643,13 +2654,13 @@
       <c r="C68" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F68" s="15"/>
+      <c r="F68" s="16"/>
       <c r="G68" s="1"/>
       <c r="H68" s="2"/>
       <c r="I68" s="1"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="14" t="s">
+      <c r="A69" s="15" t="s">
         <v>68</v>
       </c>
       <c r="B69" s="2" t="n">
@@ -2658,13 +2669,13 @@
       <c r="C69" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F69" s="15"/>
+      <c r="F69" s="16"/>
       <c r="G69" s="1"/>
       <c r="H69" s="2"/>
       <c r="I69" s="1"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="14" t="s">
+      <c r="A70" s="15" t="s">
         <v>69</v>
       </c>
       <c r="B70" s="2" t="n">
@@ -2673,7 +2684,7 @@
       <c r="C70" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F70" s="15"/>
+      <c r="F70" s="16"/>
       <c r="G70" s="1"/>
       <c r="H70" s="2"/>
       <c r="I70" s="1"/>
@@ -2688,13 +2699,13 @@
       <c r="C71" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F71" s="15"/>
-      <c r="G71" s="14"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="15"/>
       <c r="H71" s="2"/>
       <c r="I71" s="1"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="14" t="s">
+      <c r="A72" s="15" t="s">
         <v>71</v>
       </c>
       <c r="B72" s="2" t="n">
@@ -2703,13 +2714,13 @@
       <c r="C72" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F72" s="15"/>
-      <c r="G72" s="14"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="15"/>
       <c r="H72" s="2"/>
       <c r="I72" s="1"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="14" t="s">
+      <c r="A73" s="15" t="s">
         <v>72</v>
       </c>
       <c r="B73" s="2" t="n">
@@ -2718,13 +2729,13 @@
       <c r="C73" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F73" s="15"/>
-      <c r="G73" s="14"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="15"/>
       <c r="H73" s="2"/>
       <c r="I73" s="1"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="14" t="s">
+      <c r="A74" s="15" t="s">
         <v>73</v>
       </c>
       <c r="B74" s="2" t="n">
@@ -2733,8 +2744,8 @@
       <c r="C74" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F74" s="15"/>
-      <c r="G74" s="14"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="15"/>
       <c r="H74" s="2"/>
       <c r="I74" s="1"/>
     </row>
@@ -2748,28 +2759,28 @@
       <c r="C75" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F75" s="15"/>
-      <c r="G75" s="14"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="15"/>
       <c r="H75" s="2"/>
       <c r="I75" s="1"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="16" t="s">
+      <c r="A76" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="B76" s="16" t="n">
+      <c r="B76" s="17" t="n">
         <v>-0.8</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F76" s="15"/>
+      <c r="F76" s="16"/>
       <c r="G76" s="1"/>
       <c r="H76" s="2"/>
       <c r="I76" s="1"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="14" t="s">
+      <c r="A77" s="15" t="s">
         <v>76</v>
       </c>
       <c r="B77" s="2" t="n">
@@ -2778,13 +2789,13 @@
       <c r="C77" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F77" s="15"/>
+      <c r="F77" s="16"/>
       <c r="G77" s="1"/>
       <c r="H77" s="2"/>
       <c r="I77" s="1"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="14" t="s">
+      <c r="A78" s="15" t="s">
         <v>77</v>
       </c>
       <c r="B78" s="2" t="n">
@@ -2793,13 +2804,13 @@
       <c r="C78" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F78" s="15"/>
-      <c r="G78" s="14"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="15"/>
       <c r="H78" s="2"/>
       <c r="I78" s="1"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="14" t="s">
+      <c r="A79" s="15" t="s">
         <v>78</v>
       </c>
       <c r="B79" s="2" t="n">
@@ -2808,8 +2819,8 @@
       <c r="C79" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F79" s="15"/>
-      <c r="G79" s="14"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="15"/>
       <c r="H79" s="2"/>
       <c r="I79" s="1"/>
     </row>
@@ -2823,43 +2834,43 @@
       <c r="C80" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F80" s="15"/>
+      <c r="F80" s="16"/>
       <c r="G80" s="1"/>
       <c r="H80" s="2"/>
       <c r="I80" s="1"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="16" t="s">
+      <c r="A81" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="B81" s="16" t="n">
+      <c r="B81" s="17" t="n">
         <v>-0.806</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F81" s="15"/>
-      <c r="G81" s="14"/>
+      <c r="F81" s="16"/>
+      <c r="G81" s="15"/>
       <c r="H81" s="2"/>
       <c r="I81" s="1"/>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="14" t="s">
+      <c r="A82" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="B82" s="14" t="n">
+      <c r="B82" s="15" t="n">
         <v>-0.809</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F82" s="15"/>
-      <c r="G82" s="14"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="15"/>
       <c r="H82" s="2"/>
       <c r="I82" s="1"/>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="14" t="s">
+      <c r="A83" s="15" t="s">
         <v>82</v>
       </c>
       <c r="B83" s="2" t="n">
@@ -2868,8 +2879,8 @@
       <c r="C83" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F83" s="15"/>
-      <c r="G83" s="14"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="15"/>
       <c r="H83" s="2"/>
       <c r="I83" s="1"/>
     </row>
@@ -2883,13 +2894,13 @@
       <c r="C84" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F84" s="15"/>
+      <c r="F84" s="16"/>
       <c r="G84" s="1"/>
       <c r="H84" s="2"/>
       <c r="I84" s="1"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="14" t="s">
+      <c r="A85" s="15" t="s">
         <v>84</v>
       </c>
       <c r="B85" s="2" t="n">
@@ -2898,13 +2909,13 @@
       <c r="C85" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F85" s="15"/>
+      <c r="F85" s="16"/>
       <c r="G85" s="1"/>
       <c r="H85" s="2"/>
       <c r="I85" s="1"/>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="14" t="s">
+      <c r="A86" s="15" t="s">
         <v>85</v>
       </c>
       <c r="B86" s="2" t="n">
@@ -2913,7 +2924,7 @@
       <c r="C86" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F86" s="15"/>
+      <c r="F86" s="16"/>
       <c r="G86" s="1"/>
       <c r="H86" s="2"/>
       <c r="I86" s="1"/>
@@ -2928,13 +2939,13 @@
       <c r="C87" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F87" s="15"/>
+      <c r="F87" s="16"/>
       <c r="G87" s="1"/>
       <c r="H87" s="2"/>
       <c r="I87" s="1"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="14" t="s">
+      <c r="A88" s="15" t="s">
         <v>87</v>
       </c>
       <c r="B88" s="2" t="n">
@@ -2943,8 +2954,8 @@
       <c r="C88" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F88" s="15"/>
-      <c r="G88" s="14"/>
+      <c r="F88" s="16"/>
+      <c r="G88" s="15"/>
       <c r="H88" s="2"/>
       <c r="I88" s="1"/>
     </row>
@@ -2958,7 +2969,7 @@
       <c r="C89" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F89" s="15"/>
+      <c r="F89" s="16"/>
       <c r="G89" s="1"/>
       <c r="H89" s="2"/>
       <c r="I89" s="1"/>
@@ -2973,73 +2984,73 @@
       <c r="C90" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F90" s="15"/>
+      <c r="F90" s="16"/>
       <c r="G90" s="1"/>
       <c r="H90" s="2"/>
       <c r="I90" s="1"/>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="14" t="s">
+      <c r="A91" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="B91" s="14" t="n">
+      <c r="B91" s="15" t="n">
         <v>-0.835</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F91" s="15"/>
-      <c r="G91" s="14"/>
+      <c r="F91" s="16"/>
+      <c r="G91" s="15"/>
       <c r="H91" s="2"/>
       <c r="I91" s="1"/>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="14" t="s">
+      <c r="A92" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="B92" s="14" t="n">
+      <c r="B92" s="15" t="n">
         <v>-0.835</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F92" s="15"/>
-      <c r="G92" s="14"/>
+      <c r="F92" s="16"/>
+      <c r="G92" s="15"/>
       <c r="H92" s="2"/>
       <c r="I92" s="1"/>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="16" t="s">
+      <c r="A93" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="B93" s="16" t="n">
+      <c r="B93" s="17" t="n">
         <v>-0.835</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F93" s="15"/>
+      <c r="F93" s="16"/>
       <c r="G93" s="1"/>
       <c r="H93" s="2"/>
       <c r="I93" s="1"/>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="16" t="s">
+      <c r="A94" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="B94" s="16" t="n">
+      <c r="B94" s="17" t="n">
         <v>-0.835</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F94" s="15"/>
+      <c r="F94" s="16"/>
       <c r="G94" s="1"/>
       <c r="H94" s="2"/>
       <c r="I94" s="1"/>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="14" t="s">
+      <c r="A95" s="15" t="s">
         <v>94</v>
       </c>
       <c r="B95" s="2" t="n">
@@ -3048,22 +3059,22 @@
       <c r="C95" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F95" s="15"/>
+      <c r="F95" s="16"/>
       <c r="G95" s="1"/>
       <c r="H95" s="2"/>
       <c r="I95" s="1"/>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="14" t="s">
+      <c r="A96" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="B96" s="14" t="n">
+      <c r="B96" s="15" t="n">
         <v>-0.839</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F96" s="15"/>
+      <c r="F96" s="16"/>
       <c r="G96" s="1"/>
       <c r="H96" s="2"/>
       <c r="I96" s="1"/>
@@ -3078,128 +3089,128 @@
       <c r="C97" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F97" s="15"/>
+      <c r="F97" s="16"/>
       <c r="G97" s="1"/>
       <c r="H97" s="2"/>
       <c r="I97" s="1"/>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="17" t="s">
+      <c r="A98" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="B98" s="18" t="n">
+      <c r="B98" s="19" t="n">
         <v>-0.846</v>
       </c>
-      <c r="C98" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D98" s="17" t="s">
+      <c r="C98" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D98" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="F98" s="15"/>
-      <c r="G98" s="14"/>
+      <c r="F98" s="16"/>
+      <c r="G98" s="15"/>
       <c r="H98" s="2"/>
       <c r="I98" s="1"/>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="17" t="s">
+      <c r="A99" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="B99" s="18" t="n">
+      <c r="B99" s="19" t="n">
         <v>-0.847</v>
       </c>
-      <c r="C99" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D99" s="17" t="s">
+      <c r="C99" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D99" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="F99" s="15"/>
-      <c r="G99" s="14"/>
+      <c r="F99" s="16"/>
+      <c r="G99" s="15"/>
       <c r="H99" s="2"/>
       <c r="I99" s="1"/>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="17" t="s">
+      <c r="A100" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="B100" s="18" t="n">
+      <c r="B100" s="19" t="n">
         <v>-0.847</v>
       </c>
-      <c r="C100" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D100" s="17" t="s">
+      <c r="C100" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D100" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="F100" s="15"/>
+      <c r="F100" s="16"/>
       <c r="G100" s="1"/>
       <c r="H100" s="2"/>
       <c r="I100" s="1"/>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="17" t="s">
+      <c r="A101" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="B101" s="18" t="n">
+      <c r="B101" s="19" t="n">
         <v>-0.847</v>
       </c>
-      <c r="C101" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D101" s="17" t="s">
+      <c r="C101" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D101" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="F101" s="15"/>
-      <c r="G101" s="14"/>
+      <c r="F101" s="16"/>
+      <c r="G101" s="15"/>
       <c r="H101" s="2"/>
       <c r="I101" s="1"/>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="17" t="s">
+      <c r="A102" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="B102" s="18" t="n">
+      <c r="B102" s="19" t="n">
         <v>-0.848</v>
       </c>
-      <c r="C102" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D102" s="17" t="s">
+      <c r="C102" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D102" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="F102" s="15"/>
-      <c r="G102" s="14"/>
+      <c r="F102" s="16"/>
+      <c r="G102" s="15"/>
       <c r="H102" s="2"/>
       <c r="I102" s="1"/>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="14" t="s">
+      <c r="A103" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="B103" s="14" t="n">
+      <c r="B103" s="15" t="n">
         <v>-0.849</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F103" s="15"/>
-      <c r="G103" s="14"/>
+      <c r="F103" s="16"/>
+      <c r="G103" s="15"/>
       <c r="H103" s="2"/>
       <c r="I103" s="1"/>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="14" t="s">
+      <c r="A104" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="B104" s="14" t="n">
+      <c r="B104" s="15" t="n">
         <v>-0.853</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F104" s="15"/>
-      <c r="G104" s="14"/>
+      <c r="F104" s="16"/>
+      <c r="G104" s="15"/>
       <c r="H104" s="2"/>
       <c r="I104" s="1"/>
     </row>
@@ -3213,7 +3224,7 @@
       <c r="C105" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F105" s="15"/>
+      <c r="F105" s="16"/>
       <c r="G105" s="1"/>
       <c r="H105" s="2"/>
       <c r="I105" s="1"/>
@@ -3228,13 +3239,13 @@
       <c r="C106" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F106" s="15"/>
+      <c r="F106" s="16"/>
       <c r="G106" s="1"/>
       <c r="H106" s="2"/>
       <c r="I106" s="1"/>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="14" t="s">
+      <c r="A107" s="15" t="s">
         <v>107</v>
       </c>
       <c r="B107" s="2" t="n">
@@ -3243,28 +3254,28 @@
       <c r="C107" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F107" s="15"/>
-      <c r="G107" s="14"/>
+      <c r="F107" s="16"/>
+      <c r="G107" s="15"/>
       <c r="H107" s="2"/>
       <c r="I107" s="1"/>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="14" t="s">
+      <c r="A108" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="B108" s="14" t="n">
+      <c r="B108" s="15" t="n">
         <v>-0.857</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F108" s="15"/>
+      <c r="F108" s="16"/>
       <c r="G108" s="1"/>
       <c r="H108" s="2"/>
       <c r="I108" s="1"/>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="14" t="s">
+      <c r="A109" s="15" t="s">
         <v>109</v>
       </c>
       <c r="B109" s="2" t="n">
@@ -3273,43 +3284,43 @@
       <c r="C109" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F109" s="15"/>
+      <c r="F109" s="16"/>
       <c r="G109" s="1"/>
       <c r="H109" s="2"/>
       <c r="I109" s="1"/>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="14" t="s">
+      <c r="A110" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="B110" s="16" t="n">
+      <c r="B110" s="17" t="n">
         <v>-0.86</v>
       </c>
-      <c r="C110" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D110" s="14" t="s">
+      <c r="C110" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D110" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="F110" s="15"/>
-      <c r="G110" s="14"/>
+      <c r="F110" s="16"/>
+      <c r="G110" s="15"/>
       <c r="H110" s="2"/>
       <c r="I110" s="1"/>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="14" t="s">
+      <c r="A111" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B111" s="16" t="n">
+      <c r="B111" s="17" t="n">
         <v>-0.86</v>
       </c>
-      <c r="C111" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D111" s="14" t="s">
+      <c r="C111" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D111" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="F111" s="15"/>
+      <c r="F111" s="16"/>
       <c r="G111" s="1"/>
       <c r="H111" s="2"/>
       <c r="I111" s="1"/>
@@ -3324,28 +3335,28 @@
       <c r="C112" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F112" s="15"/>
-      <c r="G112" s="14"/>
+      <c r="F112" s="16"/>
+      <c r="G112" s="15"/>
       <c r="H112" s="2"/>
       <c r="I112" s="1"/>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="16" t="s">
+      <c r="A113" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="B113" s="16" t="n">
+      <c r="B113" s="17" t="n">
         <v>-0.861</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F113" s="15"/>
-      <c r="G113" s="14"/>
+      <c r="F113" s="16"/>
+      <c r="G113" s="15"/>
       <c r="H113" s="2"/>
       <c r="I113" s="1"/>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="14" t="s">
+      <c r="A114" s="15" t="s">
         <v>115</v>
       </c>
       <c r="B114" s="2" t="n">
@@ -3354,28 +3365,28 @@
       <c r="C114" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F114" s="15"/>
-      <c r="G114" s="14"/>
+      <c r="F114" s="16"/>
+      <c r="G114" s="15"/>
       <c r="H114" s="2"/>
       <c r="I114" s="1"/>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="16" t="s">
+      <c r="A115" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="B115" s="16" t="n">
+      <c r="B115" s="17" t="n">
         <v>-0.863</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F115" s="15"/>
+      <c r="F115" s="16"/>
       <c r="G115" s="1"/>
       <c r="H115" s="2"/>
       <c r="I115" s="1"/>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="14" t="s">
+      <c r="A116" s="15" t="s">
         <v>117</v>
       </c>
       <c r="B116" s="2" t="n">
@@ -3384,28 +3395,28 @@
       <c r="C116" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F116" s="15"/>
-      <c r="G116" s="14"/>
+      <c r="F116" s="16"/>
+      <c r="G116" s="15"/>
       <c r="H116" s="2"/>
       <c r="I116" s="1"/>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="14" t="s">
+      <c r="A117" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="B117" s="14" t="n">
+      <c r="B117" s="15" t="n">
         <v>-0.869</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F117" s="15"/>
+      <c r="F117" s="16"/>
       <c r="G117" s="1"/>
       <c r="H117" s="2"/>
       <c r="I117" s="1"/>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="14" t="s">
+      <c r="A118" s="15" t="s">
         <v>119</v>
       </c>
       <c r="B118" s="2" t="n">
@@ -3414,43 +3425,43 @@
       <c r="C118" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F118" s="15"/>
+      <c r="F118" s="16"/>
       <c r="G118" s="1"/>
       <c r="H118" s="2"/>
       <c r="I118" s="1"/>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="16" t="s">
+      <c r="A119" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="B119" s="16" t="n">
+      <c r="B119" s="17" t="n">
         <v>-0.874</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F119" s="15"/>
+      <c r="F119" s="16"/>
       <c r="G119" s="1"/>
       <c r="H119" s="2"/>
       <c r="I119" s="1"/>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="16" t="s">
+      <c r="A120" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="B120" s="16" t="n">
+      <c r="B120" s="17" t="n">
         <v>-0.874</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F120" s="15"/>
+      <c r="F120" s="16"/>
       <c r="G120" s="1"/>
       <c r="H120" s="2"/>
       <c r="I120" s="1"/>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="14" t="s">
+      <c r="A121" s="15" t="s">
         <v>122</v>
       </c>
       <c r="B121" s="2" t="n">
@@ -3459,13 +3470,13 @@
       <c r="C121" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F121" s="15"/>
-      <c r="G121" s="14"/>
+      <c r="F121" s="16"/>
+      <c r="G121" s="15"/>
       <c r="H121" s="2"/>
       <c r="I121" s="1"/>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="14" t="s">
+      <c r="A122" s="15" t="s">
         <v>123</v>
       </c>
       <c r="B122" s="2" t="n">
@@ -3474,13 +3485,13 @@
       <c r="C122" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F122" s="15"/>
+      <c r="F122" s="16"/>
       <c r="G122" s="1"/>
       <c r="H122" s="2"/>
       <c r="I122" s="1"/>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="14" t="s">
+      <c r="A123" s="15" t="s">
         <v>124</v>
       </c>
       <c r="B123" s="2" t="n">
@@ -3489,8 +3500,8 @@
       <c r="C123" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F123" s="15"/>
-      <c r="G123" s="14"/>
+      <c r="F123" s="16"/>
+      <c r="G123" s="15"/>
       <c r="H123" s="2"/>
       <c r="I123" s="1"/>
     </row>
@@ -3504,53 +3515,53 @@
       <c r="C124" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F124" s="15"/>
-      <c r="G124" s="14"/>
+      <c r="F124" s="16"/>
+      <c r="G124" s="15"/>
       <c r="H124" s="2"/>
       <c r="I124" s="1"/>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="16" t="s">
+      <c r="A125" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="B125" s="16" t="n">
+      <c r="B125" s="17" t="n">
         <v>-0.876</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F125" s="15"/>
-      <c r="G125" s="14"/>
+      <c r="F125" s="16"/>
+      <c r="G125" s="15"/>
       <c r="H125" s="2"/>
       <c r="I125" s="1"/>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="16" t="s">
+      <c r="A126" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="B126" s="16" t="n">
+      <c r="B126" s="17" t="n">
         <v>-0.878</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F126" s="15"/>
-      <c r="G126" s="14"/>
+      <c r="F126" s="16"/>
+      <c r="G126" s="15"/>
       <c r="H126" s="2"/>
       <c r="I126" s="1"/>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="14" t="s">
+      <c r="A127" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="B127" s="14" t="n">
+      <c r="B127" s="15" t="n">
         <v>-0.881</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F127" s="15"/>
-      <c r="G127" s="14"/>
+      <c r="F127" s="16"/>
+      <c r="G127" s="15"/>
       <c r="H127" s="2"/>
       <c r="I127" s="1"/>
     </row>
@@ -3564,13 +3575,13 @@
       <c r="C128" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F128" s="15"/>
+      <c r="F128" s="16"/>
       <c r="G128" s="1"/>
       <c r="H128" s="2"/>
       <c r="I128" s="1"/>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="14" t="s">
+      <c r="A129" s="15" t="s">
         <v>130</v>
       </c>
       <c r="B129" s="2" t="n">
@@ -3579,28 +3590,28 @@
       <c r="C129" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F129" s="15"/>
-      <c r="G129" s="14"/>
+      <c r="F129" s="16"/>
+      <c r="G129" s="15"/>
       <c r="H129" s="2"/>
       <c r="I129" s="1"/>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="16" t="s">
+      <c r="A130" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="B130" s="16" t="n">
+      <c r="B130" s="17" t="n">
         <v>-0.883</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F130" s="15"/>
-      <c r="G130" s="14"/>
+      <c r="F130" s="16"/>
+      <c r="G130" s="15"/>
       <c r="H130" s="2"/>
       <c r="I130" s="1"/>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="14" t="s">
+      <c r="A131" s="15" t="s">
         <v>132</v>
       </c>
       <c r="B131" s="2" t="n">
@@ -3609,8 +3620,8 @@
       <c r="C131" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F131" s="15"/>
-      <c r="G131" s="14"/>
+      <c r="F131" s="16"/>
+      <c r="G131" s="15"/>
       <c r="H131" s="2"/>
       <c r="I131" s="1"/>
     </row>
@@ -3624,8 +3635,8 @@
       <c r="C132" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F132" s="15"/>
-      <c r="G132" s="14"/>
+      <c r="F132" s="16"/>
+      <c r="G132" s="15"/>
       <c r="H132" s="2"/>
       <c r="I132" s="1"/>
     </row>
@@ -3639,37 +3650,37 @@
       <c r="C133" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F133" s="15"/>
+      <c r="F133" s="16"/>
       <c r="G133" s="1"/>
       <c r="H133" s="2"/>
       <c r="I133" s="1"/>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="16" t="s">
+      <c r="A134" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="B134" s="16" t="n">
+      <c r="B134" s="17" t="n">
         <v>-0.887</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F134" s="15"/>
+      <c r="F134" s="16"/>
       <c r="G134" s="1"/>
       <c r="H134" s="2"/>
       <c r="I134" s="1"/>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="16" t="s">
+      <c r="A135" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="B135" s="16" t="n">
+      <c r="B135" s="17" t="n">
         <v>-0.887</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F135" s="15"/>
+      <c r="F135" s="16"/>
       <c r="G135" s="1"/>
       <c r="H135" s="2"/>
       <c r="I135" s="1"/>
@@ -3684,13 +3695,13 @@
       <c r="C136" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F136" s="15"/>
-      <c r="G136" s="14"/>
+      <c r="F136" s="16"/>
+      <c r="G136" s="15"/>
       <c r="H136" s="2"/>
       <c r="I136" s="1"/>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="14" t="s">
+      <c r="A137" s="15" t="s">
         <v>138</v>
       </c>
       <c r="B137" s="2" t="n">
@@ -3699,43 +3710,43 @@
       <c r="C137" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F137" s="15"/>
-      <c r="G137" s="14"/>
+      <c r="F137" s="16"/>
+      <c r="G137" s="15"/>
       <c r="H137" s="2"/>
       <c r="I137" s="1"/>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="14" t="s">
+      <c r="A138" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="B138" s="14" t="n">
+      <c r="B138" s="15" t="n">
         <v>-0.894</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F138" s="15"/>
+      <c r="F138" s="16"/>
       <c r="G138" s="1"/>
       <c r="H138" s="2"/>
       <c r="I138" s="1"/>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="16" t="s">
+      <c r="A139" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="B139" s="16" t="n">
+      <c r="B139" s="17" t="n">
         <v>-0.895</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F139" s="15"/>
-      <c r="G139" s="14"/>
+      <c r="F139" s="16"/>
+      <c r="G139" s="15"/>
       <c r="H139" s="2"/>
       <c r="I139" s="1"/>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="14" t="s">
+      <c r="A140" s="15" t="s">
         <v>141</v>
       </c>
       <c r="B140" s="2" t="n">
@@ -3744,73 +3755,73 @@
       <c r="C140" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F140" s="15"/>
+      <c r="F140" s="16"/>
       <c r="G140" s="1"/>
       <c r="H140" s="2"/>
       <c r="I140" s="1"/>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="17" t="s">
+      <c r="A141" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="B141" s="18" t="n">
+      <c r="B141" s="19" t="n">
         <v>-0.901</v>
       </c>
-      <c r="C141" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D141" s="17" t="s">
+      <c r="C141" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D141" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="F141" s="15"/>
+      <c r="F141" s="16"/>
       <c r="G141" s="1"/>
       <c r="H141" s="2"/>
       <c r="I141" s="1"/>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="17" t="s">
+      <c r="A142" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="B142" s="18" t="n">
+      <c r="B142" s="19" t="n">
         <v>-0.901</v>
       </c>
-      <c r="C142" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D142" s="17" t="s">
+      <c r="C142" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D142" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="F142" s="15"/>
-      <c r="G142" s="14"/>
+      <c r="F142" s="16"/>
+      <c r="G142" s="15"/>
       <c r="H142" s="2"/>
       <c r="I142" s="1"/>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="16" t="s">
+      <c r="A143" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="B143" s="16" t="n">
+      <c r="B143" s="17" t="n">
         <v>-0.902</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F143" s="15"/>
-      <c r="G143" s="14"/>
+      <c r="F143" s="16"/>
+      <c r="G143" s="15"/>
       <c r="H143" s="2"/>
       <c r="I143" s="1"/>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="14" t="s">
+      <c r="A144" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="B144" s="14" t="n">
+      <c r="B144" s="15" t="n">
         <v>-0.904</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F144" s="15"/>
+      <c r="F144" s="16"/>
       <c r="G144" s="1"/>
       <c r="H144" s="2"/>
       <c r="I144" s="1"/>
@@ -3825,8 +3836,8 @@
       <c r="C145" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F145" s="15"/>
-      <c r="G145" s="14"/>
+      <c r="F145" s="16"/>
+      <c r="G145" s="15"/>
       <c r="H145" s="2"/>
       <c r="I145" s="1"/>
     </row>
@@ -3840,37 +3851,37 @@
       <c r="C146" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F146" s="15"/>
-      <c r="G146" s="14"/>
+      <c r="F146" s="16"/>
+      <c r="G146" s="15"/>
       <c r="H146" s="2"/>
       <c r="I146" s="1"/>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="16" t="s">
+      <c r="A147" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="B147" s="16" t="n">
+      <c r="B147" s="17" t="n">
         <v>-0.913</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F147" s="15"/>
+      <c r="F147" s="16"/>
       <c r="G147" s="1"/>
       <c r="H147" s="2"/>
       <c r="I147" s="1"/>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="14" t="s">
+      <c r="A148" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="B148" s="14" t="n">
+      <c r="B148" s="15" t="n">
         <v>-0.914</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F148" s="15"/>
+      <c r="F148" s="16"/>
       <c r="G148" s="1"/>
       <c r="H148" s="2"/>
       <c r="I148" s="1"/>
@@ -3885,43 +3896,43 @@
       <c r="C149" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F149" s="15"/>
+      <c r="F149" s="16"/>
       <c r="G149" s="1"/>
       <c r="H149" s="2"/>
       <c r="I149" s="1"/>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="16" t="s">
+      <c r="A150" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="B150" s="16" t="n">
+      <c r="B150" s="17" t="n">
         <v>-0.914</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F150" s="15"/>
+      <c r="F150" s="16"/>
       <c r="G150" s="1"/>
       <c r="H150" s="2"/>
       <c r="I150" s="1"/>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="16" t="s">
+      <c r="A151" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="B151" s="16" t="n">
+      <c r="B151" s="17" t="n">
         <v>-0.914</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F151" s="15"/>
-      <c r="G151" s="14"/>
+      <c r="F151" s="16"/>
+      <c r="G151" s="15"/>
       <c r="H151" s="2"/>
       <c r="I151" s="1"/>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="14" t="s">
+      <c r="A152" s="15" t="s">
         <v>154</v>
       </c>
       <c r="B152" s="2" t="n">
@@ -3930,13 +3941,13 @@
       <c r="C152" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F152" s="15"/>
+      <c r="F152" s="16"/>
       <c r="G152" s="1"/>
       <c r="H152" s="2"/>
       <c r="I152" s="1"/>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="14" t="s">
+      <c r="A153" s="15" t="s">
         <v>155</v>
       </c>
       <c r="B153" s="2" t="n">
@@ -3945,29 +3956,29 @@
       <c r="C153" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F153" s="15"/>
+      <c r="F153" s="16"/>
       <c r="G153" s="1"/>
       <c r="H153" s="2"/>
       <c r="I153" s="1"/>
     </row>
-    <row r="154" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="14" t="s">
+    <row r="154" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="B154" s="14" t="n">
+      <c r="B154" s="15" t="n">
         <v>-0.917</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D154" s="1"/>
-      <c r="F154" s="20"/>
-      <c r="G154" s="21"/>
-      <c r="H154" s="22"/>
-      <c r="I154" s="21"/>
+      <c r="F154" s="21"/>
+      <c r="G154" s="22"/>
+      <c r="H154" s="23"/>
+      <c r="I154" s="22"/>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="14" t="s">
+      <c r="A155" s="15" t="s">
         <v>157</v>
       </c>
       <c r="B155" s="2" t="n">
@@ -3976,13 +3987,13 @@
       <c r="C155" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F155" s="15"/>
-      <c r="G155" s="14"/>
+      <c r="F155" s="16"/>
+      <c r="G155" s="15"/>
       <c r="H155" s="2"/>
       <c r="I155" s="1"/>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="14" t="s">
+      <c r="A156" s="15" t="s">
         <v>158</v>
       </c>
       <c r="B156" s="2" t="n">
@@ -3991,28 +4002,28 @@
       <c r="C156" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F156" s="15"/>
+      <c r="F156" s="16"/>
       <c r="G156" s="1"/>
       <c r="H156" s="2"/>
       <c r="I156" s="1"/>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="14" t="s">
+      <c r="A157" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="B157" s="14" t="n">
+      <c r="B157" s="15" t="n">
         <v>-0.92</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F157" s="15"/>
-      <c r="G157" s="14"/>
+      <c r="F157" s="16"/>
+      <c r="G157" s="15"/>
       <c r="H157" s="2"/>
       <c r="I157" s="1"/>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="14" t="s">
+      <c r="A158" s="15" t="s">
         <v>160</v>
       </c>
       <c r="B158" s="2" t="n">
@@ -4021,83 +4032,83 @@
       <c r="C158" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F158" s="15"/>
+      <c r="F158" s="16"/>
       <c r="G158" s="1"/>
       <c r="H158" s="2"/>
       <c r="I158" s="1"/>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="14" t="s">
+      <c r="A159" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="B159" s="14" t="n">
+      <c r="B159" s="15" t="n">
         <v>-0.922</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F159" s="15"/>
+      <c r="F159" s="16"/>
       <c r="G159" s="1"/>
       <c r="H159" s="2"/>
       <c r="I159" s="1"/>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="14" t="s">
+      <c r="A160" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="B160" s="14" t="n">
+      <c r="B160" s="15" t="n">
         <v>-0.923</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F160" s="15"/>
-      <c r="G160" s="14"/>
+      <c r="F160" s="16"/>
+      <c r="G160" s="15"/>
       <c r="H160" s="2"/>
       <c r="I160" s="1"/>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="16" t="s">
+      <c r="A161" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="B161" s="16" t="n">
+      <c r="B161" s="17" t="n">
         <v>-0.925</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F161" s="15"/>
-      <c r="G161" s="14"/>
+      <c r="F161" s="16"/>
+      <c r="G161" s="15"/>
       <c r="H161" s="2"/>
       <c r="I161" s="1"/>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="16" t="s">
+      <c r="A162" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="B162" s="16" t="n">
+      <c r="B162" s="17" t="n">
         <v>-0.925</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F162" s="15"/>
+      <c r="F162" s="16"/>
       <c r="G162" s="1"/>
       <c r="H162" s="2"/>
       <c r="I162" s="1"/>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="14" t="s">
+      <c r="A163" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="B163" s="14" t="n">
+      <c r="B163" s="15" t="n">
         <v>-0.927</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F163" s="15"/>
-      <c r="G163" s="14"/>
+      <c r="F163" s="16"/>
+      <c r="G163" s="15"/>
       <c r="H163" s="2"/>
       <c r="I163" s="1"/>
     </row>
@@ -4111,83 +4122,83 @@
       <c r="C164" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F164" s="15"/>
-      <c r="G164" s="14"/>
+      <c r="F164" s="16"/>
+      <c r="G164" s="15"/>
       <c r="H164" s="2"/>
       <c r="I164" s="1"/>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="14" t="s">
+      <c r="A165" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="B165" s="14" t="n">
+      <c r="B165" s="15" t="n">
         <v>-0.932</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F165" s="15"/>
-      <c r="G165" s="14"/>
+      <c r="F165" s="16"/>
+      <c r="G165" s="15"/>
       <c r="H165" s="2"/>
       <c r="I165" s="1"/>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="14" t="s">
+      <c r="A166" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="B166" s="14" t="n">
+      <c r="B166" s="15" t="n">
         <v>-0.933</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F166" s="15"/>
-      <c r="G166" s="14"/>
+      <c r="F166" s="16"/>
+      <c r="G166" s="15"/>
       <c r="H166" s="2"/>
       <c r="I166" s="1"/>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="14" t="s">
+      <c r="A167" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="B167" s="14" t="n">
+      <c r="B167" s="15" t="n">
         <v>-0.934</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F167" s="15"/>
+      <c r="F167" s="16"/>
       <c r="G167" s="1"/>
       <c r="H167" s="2"/>
       <c r="I167" s="1"/>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="16" t="s">
+      <c r="A168" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="B168" s="16" t="n">
+      <c r="B168" s="17" t="n">
         <v>-0.934</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F168" s="15"/>
-      <c r="G168" s="14"/>
+      <c r="F168" s="16"/>
+      <c r="G168" s="15"/>
       <c r="H168" s="2"/>
       <c r="I168" s="1"/>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="16" t="s">
+      <c r="A169" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="B169" s="16" t="n">
+      <c r="B169" s="17" t="n">
         <v>-0.935</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F169" s="15"/>
-      <c r="G169" s="14"/>
+      <c r="F169" s="16"/>
+      <c r="G169" s="15"/>
       <c r="H169" s="2"/>
       <c r="I169" s="1"/>
     </row>
@@ -4201,28 +4212,28 @@
       <c r="C170" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F170" s="15"/>
-      <c r="G170" s="14"/>
+      <c r="F170" s="16"/>
+      <c r="G170" s="15"/>
       <c r="H170" s="2"/>
       <c r="I170" s="1"/>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="14" t="s">
+      <c r="A171" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="B171" s="14" t="n">
+      <c r="B171" s="15" t="n">
         <v>-0.939</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F171" s="15"/>
-      <c r="G171" s="14"/>
+      <c r="F171" s="16"/>
+      <c r="G171" s="15"/>
       <c r="H171" s="2"/>
       <c r="I171" s="1"/>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="14" t="s">
+      <c r="A172" s="15" t="s">
         <v>174</v>
       </c>
       <c r="B172" s="2" t="n">
@@ -4231,85 +4242,85 @@
       <c r="C172" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F172" s="15"/>
-      <c r="G172" s="14"/>
+      <c r="F172" s="16"/>
+      <c r="G172" s="15"/>
       <c r="H172" s="2"/>
       <c r="I172" s="1"/>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="17" t="s">
+      <c r="A173" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="B173" s="18" t="n">
+      <c r="B173" s="19" t="n">
         <v>-0.943</v>
       </c>
-      <c r="C173" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D173" s="17" t="s">
+      <c r="C173" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D173" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="F173" s="15"/>
+      <c r="F173" s="16"/>
       <c r="G173" s="1"/>
       <c r="H173" s="2"/>
       <c r="I173" s="1"/>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="17" t="s">
+      <c r="A174" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="B174" s="18" t="n">
+      <c r="B174" s="19" t="n">
         <v>-0.945</v>
       </c>
-      <c r="C174" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D174" s="17" t="s">
+      <c r="C174" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D174" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="F174" s="15"/>
+      <c r="F174" s="16"/>
       <c r="G174" s="1"/>
       <c r="H174" s="2"/>
       <c r="I174" s="1"/>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="17" t="s">
+      <c r="A175" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="B175" s="18" t="n">
+      <c r="B175" s="19" t="n">
         <v>-0.946</v>
       </c>
-      <c r="C175" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D175" s="17" t="s">
+      <c r="C175" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D175" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="F175" s="15"/>
-      <c r="G175" s="14"/>
+      <c r="F175" s="16"/>
+      <c r="G175" s="15"/>
       <c r="H175" s="2"/>
       <c r="I175" s="1"/>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="17" t="s">
+      <c r="A176" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="B176" s="18" t="n">
+      <c r="B176" s="19" t="n">
         <v>-0.946</v>
       </c>
-      <c r="C176" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D176" s="17" t="s">
+      <c r="C176" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D176" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="F176" s="15"/>
-      <c r="G176" s="14"/>
+      <c r="F176" s="16"/>
+      <c r="G176" s="15"/>
       <c r="H176" s="2"/>
       <c r="I176" s="1"/>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="14" t="s">
+      <c r="A177" s="15" t="s">
         <v>180</v>
       </c>
       <c r="B177" s="2" t="n">
@@ -4319,43 +4330,43 @@
         <v>17</v>
       </c>
       <c r="D177" s="0"/>
-      <c r="F177" s="15"/>
-      <c r="G177" s="14"/>
+      <c r="F177" s="16"/>
+      <c r="G177" s="15"/>
       <c r="H177" s="2"/>
       <c r="I177" s="1"/>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="16" t="s">
+      <c r="A178" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="B178" s="16" t="n">
+      <c r="B178" s="17" t="n">
         <v>-0.948</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F178" s="15"/>
-      <c r="G178" s="14"/>
+      <c r="F178" s="16"/>
+      <c r="G178" s="15"/>
       <c r="H178" s="2"/>
       <c r="I178" s="1"/>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="14" t="s">
+      <c r="A179" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="B179" s="14" t="n">
+      <c r="B179" s="15" t="n">
         <v>-0.949</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F179" s="15"/>
-      <c r="G179" s="14"/>
+      <c r="F179" s="16"/>
+      <c r="G179" s="15"/>
       <c r="H179" s="2"/>
       <c r="I179" s="1"/>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="14" t="s">
+      <c r="A180" s="15" t="s">
         <v>183</v>
       </c>
       <c r="B180" s="2" t="n">
@@ -4364,13 +4375,13 @@
       <c r="C180" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F180" s="15"/>
+      <c r="F180" s="16"/>
       <c r="G180" s="1"/>
       <c r="H180" s="2"/>
       <c r="I180" s="1"/>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="14" t="s">
+      <c r="A181" s="15" t="s">
         <v>184</v>
       </c>
       <c r="B181" s="2" t="n">
@@ -4379,28 +4390,28 @@
       <c r="C181" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F181" s="15"/>
+      <c r="F181" s="16"/>
       <c r="G181" s="1"/>
       <c r="H181" s="2"/>
       <c r="I181" s="1"/>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="16" t="s">
+      <c r="A182" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="B182" s="16" t="n">
+      <c r="B182" s="17" t="n">
         <v>-0.953</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F182" s="15"/>
-      <c r="G182" s="14"/>
+      <c r="F182" s="16"/>
+      <c r="G182" s="15"/>
       <c r="H182" s="2"/>
       <c r="I182" s="1"/>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="14" t="s">
+      <c r="A183" s="15" t="s">
         <v>186</v>
       </c>
       <c r="B183" s="2" t="n">
@@ -4409,59 +4420,59 @@
       <c r="C183" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F183" s="15"/>
-      <c r="G183" s="14"/>
+      <c r="F183" s="16"/>
+      <c r="G183" s="15"/>
       <c r="H183" s="2"/>
       <c r="I183" s="1"/>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="16" t="s">
+      <c r="A184" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="B184" s="16" t="n">
+      <c r="B184" s="17" t="n">
         <v>-0.955</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F184" s="15"/>
+      <c r="F184" s="16"/>
       <c r="G184" s="1"/>
       <c r="H184" s="2"/>
       <c r="I184" s="1"/>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="17" t="s">
+      <c r="A185" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="B185" s="18" t="n">
+      <c r="B185" s="19" t="n">
         <v>-0.956</v>
       </c>
-      <c r="C185" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D185" s="17" t="s">
+      <c r="C185" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D185" s="18" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="17" t="s">
+      <c r="A186" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="B186" s="18" t="n">
+      <c r="B186" s="19" t="n">
         <v>-0.957</v>
       </c>
-      <c r="C186" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D186" s="17" t="s">
+      <c r="C186" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D186" s="18" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="14" t="s">
+      <c r="A187" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="B187" s="14" t="n">
+      <c r="B187" s="15" t="n">
         <v>-0.957</v>
       </c>
       <c r="C187" s="2" t="s">
@@ -4469,24 +4480,24 @@
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="17" t="s">
+      <c r="A188" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="B188" s="18" t="n">
+      <c r="B188" s="19" t="n">
         <v>-0.958</v>
       </c>
-      <c r="C188" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D188" s="17" t="s">
+      <c r="C188" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D188" s="18" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="14" t="s">
+      <c r="A189" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="B189" s="14" t="n">
+      <c r="B189" s="15" t="n">
         <v>-0.958</v>
       </c>
       <c r="C189" s="2" t="s">
@@ -4494,44 +4505,44 @@
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="17" t="s">
+      <c r="A190" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="B190" s="18" t="n">
+      <c r="B190" s="19" t="n">
         <v>-0.959</v>
       </c>
-      <c r="C190" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D190" s="17" t="s">
+      <c r="C190" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D190" s="18" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="17" t="s">
+      <c r="A191" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="B191" s="18" t="n">
+      <c r="B191" s="19" t="n">
         <v>-0.96</v>
       </c>
-      <c r="C191" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D191" s="17" t="s">
+      <c r="C191" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D191" s="18" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="17" t="s">
+      <c r="A192" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="B192" s="18" t="n">
+      <c r="B192" s="19" t="n">
         <v>-0.96</v>
       </c>
-      <c r="C192" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D192" s="17" t="s">
+      <c r="C192" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D192" s="18" t="s">
         <v>189</v>
       </c>
     </row>
@@ -4547,7 +4558,7 @@
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="14" t="s">
+      <c r="A194" s="15" t="s">
         <v>198</v>
       </c>
       <c r="B194" s="2" t="n">
@@ -4558,7 +4569,7 @@
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="14" t="s">
+      <c r="A195" s="15" t="s">
         <v>199</v>
       </c>
       <c r="B195" s="2" t="n">
@@ -4569,10 +4580,10 @@
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="16" t="s">
+      <c r="A196" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="B196" s="16" t="n">
+      <c r="B196" s="17" t="n">
         <v>-0.965</v>
       </c>
       <c r="C196" s="2" t="s">
@@ -4580,38 +4591,38 @@
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="17" t="s">
+      <c r="A197" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="B197" s="18" t="n">
+      <c r="B197" s="19" t="n">
         <v>-0.969</v>
       </c>
-      <c r="C197" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D197" s="17" t="s">
+      <c r="C197" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D197" s="18" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="17" t="s">
+      <c r="A198" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="B198" s="18" t="n">
+      <c r="B198" s="19" t="n">
         <v>-0.969</v>
       </c>
-      <c r="C198" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D198" s="17" t="s">
+      <c r="C198" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D198" s="18" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="16" t="s">
+      <c r="A199" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="B199" s="16" t="n">
+      <c r="B199" s="17" t="n">
         <v>-0.97</v>
       </c>
       <c r="C199" s="2" t="s">
@@ -4619,7 +4630,7 @@
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="14" t="s">
+      <c r="A200" s="15" t="s">
         <v>204</v>
       </c>
       <c r="B200" s="2" t="n">
@@ -4630,7 +4641,7 @@
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="14" t="s">
+      <c r="A201" s="15" t="s">
         <v>205</v>
       </c>
       <c r="B201" s="2" t="n">
@@ -4641,10 +4652,10 @@
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="14" t="s">
+      <c r="A202" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="B202" s="14" t="n">
+      <c r="B202" s="15" t="n">
         <v>-0.977</v>
       </c>
       <c r="C202" s="2" t="s">
@@ -4663,10 +4674,10 @@
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="14" t="s">
+      <c r="A204" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="B204" s="14" t="n">
+      <c r="B204" s="15" t="n">
         <v>-0.978</v>
       </c>
       <c r="C204" s="2" t="s">
@@ -4674,7 +4685,7 @@
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="14" t="s">
+      <c r="A205" s="15" t="s">
         <v>209</v>
       </c>
       <c r="B205" s="2" t="n">
@@ -4685,7 +4696,7 @@
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="14" t="s">
+      <c r="A206" s="15" t="s">
         <v>210</v>
       </c>
       <c r="B206" s="2" t="n">
@@ -4696,7 +4707,7 @@
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="14" t="s">
+      <c r="A207" s="15" t="s">
         <v>211</v>
       </c>
       <c r="B207" s="2" t="n">
@@ -4707,7 +4718,7 @@
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="14" t="s">
+      <c r="A208" s="15" t="s">
         <v>212</v>
       </c>
       <c r="B208" s="2" t="n">
@@ -4729,7 +4740,7 @@
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="14" t="s">
+      <c r="A210" s="15" t="s">
         <v>214</v>
       </c>
       <c r="B210" s="2" t="n">
@@ -4740,21 +4751,21 @@
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="17" t="s">
+      <c r="A211" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="B211" s="18" t="n">
+      <c r="B211" s="19" t="n">
         <v>-0.988</v>
       </c>
-      <c r="C211" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D211" s="17" t="s">
+      <c r="C211" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D211" s="18" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="14" t="s">
+      <c r="A212" s="15" t="s">
         <v>217</v>
       </c>
       <c r="B212" s="2" t="n">
@@ -4765,24 +4776,24 @@
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="17" t="s">
+      <c r="A213" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="B213" s="18" t="n">
+      <c r="B213" s="19" t="n">
         <v>-0.989</v>
       </c>
-      <c r="C213" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D213" s="17" t="s">
+      <c r="C213" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D213" s="18" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="14" t="s">
+      <c r="A214" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="B214" s="14" t="n">
+      <c r="B214" s="15" t="n">
         <v>-0.989</v>
       </c>
       <c r="C214" s="2" t="s">
@@ -4790,10 +4801,10 @@
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="16" t="s">
+      <c r="A215" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="B215" s="16" t="n">
+      <c r="B215" s="17" t="n">
         <v>-0.99</v>
       </c>
       <c r="C215" s="2" t="s">
@@ -4801,7 +4812,7 @@
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="14" t="s">
+      <c r="A216" s="15" t="s">
         <v>221</v>
       </c>
       <c r="B216" s="2" t="n">
@@ -4812,10 +4823,10 @@
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="14" t="s">
+      <c r="A217" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="B217" s="14" t="n">
+      <c r="B217" s="15" t="n">
         <v>-0.993</v>
       </c>
       <c r="C217" s="2" t="s">
@@ -4823,10 +4834,10 @@
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="14" t="s">
+      <c r="A218" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="B218" s="14" t="n">
+      <c r="B218" s="15" t="n">
         <v>-0.993</v>
       </c>
       <c r="C218" s="2" t="s">
@@ -4845,7 +4856,7 @@
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="14" t="s">
+      <c r="A220" s="15" t="s">
         <v>225</v>
       </c>
       <c r="B220" s="2" t="n">
@@ -4856,7 +4867,7 @@
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="14" t="s">
+      <c r="A221" s="15" t="s">
         <v>226</v>
       </c>
       <c r="B221" s="2" t="n">
@@ -4867,10 +4878,10 @@
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="14" t="s">
+      <c r="A222" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="B222" s="14" t="n">
+      <c r="B222" s="15" t="n">
         <v>-0.995</v>
       </c>
       <c r="C222" s="2" t="s">
@@ -4878,24 +4889,24 @@
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="17" t="s">
+      <c r="A223" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="B223" s="18" t="n">
+      <c r="B223" s="19" t="n">
         <v>-1</v>
       </c>
-      <c r="C223" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D223" s="17" t="s">
+      <c r="C223" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D223" s="18" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="14" t="s">
+      <c r="A224" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="B224" s="14" t="n">
+      <c r="B224" s="15" t="n">
         <v>-1.002</v>
       </c>
       <c r="C224" s="2" t="s">
@@ -4903,24 +4914,24 @@
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="17" t="s">
+      <c r="A225" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="B225" s="18" t="n">
+      <c r="B225" s="19" t="n">
         <v>-1.003</v>
       </c>
-      <c r="C225" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D225" s="17" t="s">
+      <c r="C225" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D225" s="18" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="16" t="s">
+      <c r="A226" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="B226" s="16" t="n">
+      <c r="B226" s="17" t="n">
         <v>-1.003</v>
       </c>
       <c r="C226" s="2" t="s">
@@ -4928,10 +4939,10 @@
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="14" t="s">
+      <c r="A227" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="B227" s="14" t="n">
+      <c r="B227" s="15" t="n">
         <v>-1.004</v>
       </c>
       <c r="C227" s="2" t="s">
@@ -4939,35 +4950,35 @@
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="17" t="s">
+      <c r="A228" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="B228" s="18" t="n">
+      <c r="B228" s="19" t="n">
         <v>-1.005</v>
       </c>
-      <c r="C228" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D228" s="17" t="s">
+      <c r="C228" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D228" s="18" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="17" t="s">
+      <c r="A229" s="18" t="s">
         <v>235</v>
       </c>
-      <c r="B229" s="18" t="n">
+      <c r="B229" s="19" t="n">
         <v>-1.007</v>
       </c>
-      <c r="C229" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D229" s="17" t="s">
+      <c r="C229" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D229" s="18" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="14" t="s">
+      <c r="A230" s="15" t="s">
         <v>236</v>
       </c>
       <c r="B230" s="2" t="n">
@@ -4978,10 +4989,10 @@
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="14" t="s">
+      <c r="A231" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="B231" s="14" t="n">
+      <c r="B231" s="15" t="n">
         <v>-1.009</v>
       </c>
       <c r="C231" s="2" t="s">
@@ -4989,10 +5000,10 @@
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="16" t="s">
+      <c r="A232" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="B232" s="16" t="n">
+      <c r="B232" s="17" t="n">
         <v>-1.01</v>
       </c>
       <c r="C232" s="2" t="s">
@@ -5000,7 +5011,7 @@
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="14" t="s">
+      <c r="A233" s="15" t="s">
         <v>239</v>
       </c>
       <c r="B233" s="2" t="n">
@@ -5011,10 +5022,10 @@
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="14" t="s">
+      <c r="A234" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B234" s="14" t="n">
+      <c r="B234" s="15" t="n">
         <v>-1.013</v>
       </c>
       <c r="C234" s="2" t="s">
@@ -5025,10 +5036,10 @@
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="16" t="s">
+      <c r="A235" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="B235" s="16" t="n">
+      <c r="B235" s="17" t="n">
         <v>-1.013</v>
       </c>
       <c r="C235" s="2" t="s">
@@ -5039,7 +5050,7 @@
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="14" t="s">
+      <c r="A236" s="15" t="s">
         <v>243</v>
       </c>
       <c r="B236" s="2" t="n">
@@ -5050,10 +5061,10 @@
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="16" t="s">
+      <c r="A237" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="B237" s="16" t="n">
+      <c r="B237" s="17" t="n">
         <v>-1.016</v>
       </c>
       <c r="C237" s="2" t="s">
@@ -5061,10 +5072,10 @@
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="14" t="s">
+      <c r="A238" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="B238" s="14" t="n">
+      <c r="B238" s="15" t="n">
         <v>-1.017</v>
       </c>
       <c r="C238" s="2" t="s">
@@ -5072,7 +5083,7 @@
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="14" t="s">
+      <c r="A239" s="15" t="s">
         <v>246</v>
       </c>
       <c r="B239" s="2" t="n">
@@ -5083,10 +5094,10 @@
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="14" t="s">
+      <c r="A240" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="B240" s="14" t="n">
+      <c r="B240" s="15" t="n">
         <v>-1.019</v>
       </c>
       <c r="C240" s="2" t="s">
@@ -5094,10 +5105,10 @@
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="14" t="s">
+      <c r="A241" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="B241" s="14" t="n">
+      <c r="B241" s="15" t="n">
         <v>-1.019</v>
       </c>
       <c r="C241" s="2" t="s">
@@ -5105,7 +5116,7 @@
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="14" t="s">
+      <c r="A242" s="15" t="s">
         <v>249</v>
       </c>
       <c r="B242" s="2" t="n">
@@ -5116,7 +5127,7 @@
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="14" t="s">
+      <c r="A243" s="15" t="s">
         <v>250</v>
       </c>
       <c r="B243" s="2" t="n">
@@ -5127,7 +5138,7 @@
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="14" t="s">
+      <c r="A244" s="15" t="s">
         <v>251</v>
       </c>
       <c r="B244" s="2" t="n">
@@ -5138,7 +5149,7 @@
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="14" t="s">
+      <c r="A245" s="15" t="s">
         <v>252</v>
       </c>
       <c r="B245" s="2" t="n">
@@ -5160,7 +5171,7 @@
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="14" t="s">
+      <c r="A247" s="15" t="s">
         <v>254</v>
       </c>
       <c r="B247" s="2" t="n">
@@ -5171,10 +5182,10 @@
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="14" t="s">
+      <c r="A248" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="B248" s="14" t="n">
+      <c r="B248" s="15" t="n">
         <v>-1.029</v>
       </c>
       <c r="C248" s="2" t="s">
@@ -5182,7 +5193,7 @@
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="14" t="s">
+      <c r="A249" s="15" t="s">
         <v>256</v>
       </c>
       <c r="B249" s="2" t="n">
@@ -5193,21 +5204,21 @@
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="17" t="s">
+      <c r="A250" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="B250" s="18" t="n">
+      <c r="B250" s="19" t="n">
         <v>-1.032</v>
       </c>
-      <c r="C250" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D250" s="17" t="s">
+      <c r="C250" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D250" s="18" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="14" t="s">
+      <c r="A251" s="15" t="s">
         <v>259</v>
       </c>
       <c r="B251" s="2" t="n">
@@ -5218,24 +5229,24 @@
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="17" t="s">
+      <c r="A252" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="B252" s="18" t="n">
+      <c r="B252" s="19" t="n">
         <v>-1.034</v>
       </c>
-      <c r="C252" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D252" s="17" t="s">
+      <c r="C252" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D252" s="18" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="14" t="s">
+      <c r="A253" s="15" t="s">
         <v>261</v>
       </c>
-      <c r="B253" s="14" t="n">
+      <c r="B253" s="15" t="n">
         <v>-1.035</v>
       </c>
       <c r="C253" s="2" t="s">
@@ -5243,24 +5254,24 @@
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="21" t="s">
+      <c r="A254" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="B254" s="22" t="n">
+      <c r="B254" s="23" t="n">
         <v>-1.036</v>
       </c>
-      <c r="C254" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D254" s="21" t="s">
+      <c r="C254" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D254" s="22" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="14" t="s">
+      <c r="A255" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="B255" s="14" t="n">
+      <c r="B255" s="15" t="n">
         <v>-1.036</v>
       </c>
       <c r="C255" s="2" t="s">
@@ -5268,10 +5279,10 @@
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="14" t="s">
+      <c r="A256" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="B256" s="14" t="n">
+      <c r="B256" s="15" t="n">
         <v>-1.038</v>
       </c>
       <c r="C256" s="2" t="s">
@@ -5279,7 +5290,7 @@
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="14" t="s">
+      <c r="A257" s="15" t="s">
         <v>266</v>
       </c>
       <c r="B257" s="2" t="n">
@@ -5290,21 +5301,21 @@
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="17" t="s">
+      <c r="A258" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="B258" s="18" t="n">
+      <c r="B258" s="19" t="n">
         <v>-1.039</v>
       </c>
-      <c r="C258" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D258" s="17" t="s">
+      <c r="C258" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D258" s="18" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="14" t="s">
+      <c r="A259" s="15" t="s">
         <v>268</v>
       </c>
       <c r="B259" s="2" t="n">
@@ -5315,21 +5326,21 @@
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="17" t="s">
+      <c r="A260" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="B260" s="18" t="n">
+      <c r="B260" s="19" t="n">
         <v>-1.042</v>
       </c>
-      <c r="C260" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D260" s="17" t="s">
+      <c r="C260" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D260" s="18" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="14" t="s">
+      <c r="A261" s="15" t="s">
         <v>270</v>
       </c>
       <c r="B261" s="2" t="n">
@@ -5340,7 +5351,7 @@
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="14" t="s">
+      <c r="A262" s="15" t="s">
         <v>271</v>
       </c>
       <c r="B262" s="2" t="n">
@@ -5351,7 +5362,7 @@
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="14" t="s">
+      <c r="A263" s="15" t="s">
         <v>272</v>
       </c>
       <c r="B263" s="2" t="n">
@@ -5362,10 +5373,10 @@
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="14" t="s">
+      <c r="A264" s="15" t="s">
         <v>273</v>
       </c>
-      <c r="B264" s="14" t="n">
+      <c r="B264" s="15" t="n">
         <v>-1.046</v>
       </c>
       <c r="C264" s="2" t="s">
@@ -5373,10 +5384,10 @@
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="16" t="s">
+      <c r="A265" s="17" t="s">
         <v>274</v>
       </c>
-      <c r="B265" s="16" t="n">
+      <c r="B265" s="17" t="n">
         <v>-1.047</v>
       </c>
       <c r="C265" s="2" t="s">
@@ -5384,35 +5395,35 @@
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="17" t="s">
+      <c r="A266" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="B266" s="18" t="n">
+      <c r="B266" s="19" t="n">
         <v>-1.05</v>
       </c>
-      <c r="C266" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D266" s="17" t="s">
+      <c r="C266" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D266" s="18" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="17" t="s">
+      <c r="A267" s="18" t="s">
         <v>276</v>
       </c>
-      <c r="B267" s="18" t="n">
+      <c r="B267" s="19" t="n">
         <v>-1.05</v>
       </c>
-      <c r="C267" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D267" s="17" t="s">
+      <c r="C267" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D267" s="18" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="14" t="s">
+      <c r="A268" s="15" t="s">
         <v>277</v>
       </c>
       <c r="B268" s="2" t="n">
@@ -5423,10 +5434,10 @@
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="14" t="s">
+      <c r="A269" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="B269" s="14" t="n">
+      <c r="B269" s="15" t="n">
         <v>-1.05</v>
       </c>
       <c r="C269" s="2" t="s">
@@ -5434,10 +5445,10 @@
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="14" t="s">
+      <c r="A270" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="B270" s="14" t="n">
+      <c r="B270" s="15" t="n">
         <v>-1.052</v>
       </c>
       <c r="C270" s="2" t="s">
@@ -5445,7 +5456,7 @@
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="14" t="s">
+      <c r="A271" s="15" t="s">
         <v>280</v>
       </c>
       <c r="B271" s="2" t="n">
@@ -5456,10 +5467,10 @@
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="16" t="s">
+      <c r="A272" s="17" t="s">
         <v>281</v>
       </c>
-      <c r="B272" s="16" t="n">
+      <c r="B272" s="17" t="n">
         <v>-1.054</v>
       </c>
       <c r="C272" s="2" t="s">
@@ -5478,7 +5489,7 @@
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="14" t="s">
+      <c r="A274" s="15" t="s">
         <v>283</v>
       </c>
       <c r="B274" s="2" t="n">
@@ -5489,7 +5500,7 @@
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="14" t="s">
+      <c r="A275" s="15" t="s">
         <v>284</v>
       </c>
       <c r="B275" s="2" t="n">
@@ -5500,10 +5511,10 @@
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="14" t="s">
+      <c r="A276" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="B276" s="14" t="n">
+      <c r="B276" s="15" t="n">
         <v>-1.057</v>
       </c>
       <c r="C276" s="2" t="s">
@@ -5511,10 +5522,10 @@
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="16" t="s">
+      <c r="A277" s="17" t="s">
         <v>286</v>
       </c>
-      <c r="B277" s="16" t="n">
+      <c r="B277" s="17" t="n">
         <v>-1.057</v>
       </c>
       <c r="C277" s="2" t="s">
@@ -5544,7 +5555,7 @@
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="14" t="s">
+      <c r="A280" s="15" t="s">
         <v>289</v>
       </c>
       <c r="B280" s="2" t="n">
@@ -5566,24 +5577,24 @@
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="17" t="s">
+      <c r="A282" s="18" t="s">
         <v>291</v>
       </c>
-      <c r="B282" s="18" t="n">
+      <c r="B282" s="19" t="n">
         <v>-1.062</v>
       </c>
-      <c r="C282" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D282" s="17" t="s">
+      <c r="C282" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D282" s="18" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="14" t="s">
+      <c r="A283" s="15" t="s">
         <v>293</v>
       </c>
-      <c r="B283" s="14" t="n">
+      <c r="B283" s="15" t="n">
         <v>-1.062</v>
       </c>
       <c r="C283" s="2" t="s">
@@ -5591,24 +5602,24 @@
       </c>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="17" t="s">
+      <c r="A284" s="18" t="s">
         <v>294</v>
       </c>
-      <c r="B284" s="18" t="n">
+      <c r="B284" s="19" t="n">
         <v>-1.062</v>
       </c>
-      <c r="C284" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D284" s="17" t="s">
+      <c r="C284" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D284" s="18" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="14" t="s">
+      <c r="A285" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="B285" s="14" t="n">
+      <c r="B285" s="15" t="n">
         <v>-1.063</v>
       </c>
       <c r="C285" s="2" t="s">
@@ -5616,10 +5627,10 @@
       </c>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="14" t="s">
+      <c r="A286" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="B286" s="14" t="n">
+      <c r="B286" s="15" t="n">
         <v>-1.063</v>
       </c>
       <c r="C286" s="2" t="s">
@@ -5627,35 +5638,35 @@
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="17" t="s">
+      <c r="A287" s="18" t="s">
         <v>297</v>
       </c>
-      <c r="B287" s="18" t="n">
+      <c r="B287" s="19" t="n">
         <v>-1.063</v>
       </c>
-      <c r="C287" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D287" s="17" t="s">
+      <c r="C287" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D287" s="18" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="17" t="s">
+      <c r="A288" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="B288" s="18" t="n">
+      <c r="B288" s="19" t="n">
         <v>-1.064</v>
       </c>
-      <c r="C288" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D288" s="17" t="s">
+      <c r="C288" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D288" s="18" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="14" t="s">
+      <c r="A289" s="15" t="s">
         <v>299</v>
       </c>
       <c r="B289" s="2" t="n">
@@ -5666,7 +5677,7 @@
       </c>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="14" t="s">
+      <c r="A290" s="15" t="s">
         <v>300</v>
       </c>
       <c r="B290" s="2" t="n">
@@ -5677,10 +5688,10 @@
       </c>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="14" t="s">
+      <c r="A291" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="B291" s="14" t="n">
+      <c r="B291" s="15" t="n">
         <v>-1.065</v>
       </c>
       <c r="C291" s="2" t="s">
@@ -5688,10 +5699,10 @@
       </c>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="16" t="s">
+      <c r="A292" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="B292" s="16" t="n">
+      <c r="B292" s="17" t="n">
         <v>-1.065</v>
       </c>
       <c r="C292" s="2" t="s">
@@ -5699,10 +5710,10 @@
       </c>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="14" t="s">
+      <c r="A293" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="B293" s="14" t="n">
+      <c r="B293" s="15" t="n">
         <v>-1.066</v>
       </c>
       <c r="C293" s="2" t="s">
@@ -5713,10 +5724,10 @@
       </c>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="14" t="s">
+      <c r="A294" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="B294" s="14" t="n">
+      <c r="B294" s="15" t="n">
         <v>-1.066</v>
       </c>
       <c r="C294" s="2" t="s">
@@ -5727,7 +5738,7 @@
       </c>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="14" t="s">
+      <c r="A295" s="15" t="s">
         <v>305</v>
       </c>
       <c r="B295" s="2" t="n">
@@ -5738,7 +5749,7 @@
       </c>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="14" t="s">
+      <c r="A296" s="15" t="s">
         <v>306</v>
       </c>
       <c r="B296" s="2" t="n">
@@ -5749,10 +5760,10 @@
       </c>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="14" t="s">
+      <c r="A297" s="15" t="s">
         <v>307</v>
       </c>
-      <c r="B297" s="14" t="n">
+      <c r="B297" s="15" t="n">
         <v>-1.073</v>
       </c>
       <c r="C297" s="2" t="s">
@@ -5760,7 +5771,7 @@
       </c>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="14" t="s">
+      <c r="A298" s="15" t="s">
         <v>308</v>
       </c>
       <c r="B298" s="2" t="n">
@@ -5771,7 +5782,7 @@
       </c>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="14" t="s">
+      <c r="A299" s="15" t="s">
         <v>309</v>
       </c>
       <c r="B299" s="2" t="n">
@@ -5782,10 +5793,10 @@
       </c>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="16" t="s">
+      <c r="A300" s="17" t="s">
         <v>310</v>
       </c>
-      <c r="B300" s="16" t="n">
+      <c r="B300" s="17" t="n">
         <v>-1.075</v>
       </c>
       <c r="C300" s="2" t="s">
@@ -5793,7 +5804,7 @@
       </c>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="14" t="s">
+      <c r="A301" s="15" t="s">
         <v>311</v>
       </c>
       <c r="B301" s="2" t="n">
@@ -5804,10 +5815,10 @@
       </c>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="14" t="s">
+      <c r="A302" s="15" t="s">
         <v>312</v>
       </c>
-      <c r="B302" s="14" t="n">
+      <c r="B302" s="15" t="n">
         <v>-1.077</v>
       </c>
       <c r="C302" s="2" t="s">
@@ -5815,10 +5826,10 @@
       </c>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="16" t="s">
+      <c r="A303" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="B303" s="16" t="n">
+      <c r="B303" s="17" t="n">
         <v>-1.077</v>
       </c>
       <c r="C303" s="2" t="s">
@@ -5826,7 +5837,7 @@
       </c>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="14" t="s">
+      <c r="A304" s="15" t="s">
         <v>314</v>
       </c>
       <c r="B304" s="2" t="n">
@@ -5837,10 +5848,10 @@
       </c>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="14" t="s">
+      <c r="A305" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="B305" s="14" t="n">
+      <c r="B305" s="15" t="n">
         <v>-1.085</v>
       </c>
       <c r="C305" s="2" t="s">
@@ -5848,10 +5859,10 @@
       </c>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="14" t="s">
+      <c r="A306" s="15" t="s">
         <v>316</v>
       </c>
-      <c r="B306" s="14" t="n">
+      <c r="B306" s="15" t="n">
         <v>-1.086</v>
       </c>
       <c r="C306" s="2" t="s">
@@ -5859,10 +5870,10 @@
       </c>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="14" t="s">
+      <c r="A307" s="15" t="s">
         <v>317</v>
       </c>
-      <c r="B307" s="14" t="n">
+      <c r="B307" s="15" t="n">
         <v>-1.086</v>
       </c>
       <c r="C307" s="2" t="s">
@@ -5870,10 +5881,10 @@
       </c>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="14" t="s">
+      <c r="A308" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="B308" s="14" t="n">
+      <c r="B308" s="15" t="n">
         <v>-1.086</v>
       </c>
       <c r="C308" s="2" t="s">
@@ -5881,7 +5892,7 @@
       </c>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="14" t="s">
+      <c r="A309" s="15" t="s">
         <v>319</v>
       </c>
       <c r="B309" s="2" t="n">
@@ -5892,7 +5903,7 @@
       </c>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="14" t="s">
+      <c r="A310" s="15" t="s">
         <v>320</v>
       </c>
       <c r="B310" s="2" t="n">
@@ -5903,10 +5914,10 @@
       </c>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="14" t="s">
+      <c r="A311" s="15" t="s">
         <v>321</v>
       </c>
-      <c r="B311" s="14" t="n">
+      <c r="B311" s="15" t="n">
         <v>-1.088</v>
       </c>
       <c r="C311" s="2" t="s">
@@ -5925,7 +5936,7 @@
       </c>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A313" s="14" t="s">
+      <c r="A313" s="15" t="s">
         <v>323</v>
       </c>
       <c r="B313" s="2" t="n">
@@ -5936,7 +5947,7 @@
       </c>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="14" t="s">
+      <c r="A314" s="15" t="s">
         <v>324</v>
       </c>
       <c r="B314" s="2" t="n">
@@ -5947,7 +5958,7 @@
       </c>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="14" t="s">
+      <c r="A315" s="15" t="s">
         <v>325</v>
       </c>
       <c r="B315" s="2" t="n">
@@ -5958,10 +5969,10 @@
       </c>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="14" t="s">
+      <c r="A316" s="15" t="s">
         <v>326</v>
       </c>
-      <c r="B316" s="14" t="n">
+      <c r="B316" s="15" t="n">
         <v>-1.095</v>
       </c>
       <c r="C316" s="2" t="s">
@@ -5969,10 +5980,10 @@
       </c>
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="16" t="s">
+      <c r="A317" s="17" t="s">
         <v>327</v>
       </c>
-      <c r="B317" s="16" t="n">
+      <c r="B317" s="17" t="n">
         <v>-1.095</v>
       </c>
       <c r="C317" s="2" t="s">
@@ -5980,7 +5991,7 @@
       </c>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="14" t="s">
+      <c r="A318" s="15" t="s">
         <v>328</v>
       </c>
       <c r="B318" s="2" t="n">
@@ -5991,7 +6002,7 @@
       </c>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="14" t="s">
+      <c r="A319" s="15" t="s">
         <v>329</v>
       </c>
       <c r="B319" s="2" t="n">
@@ -6002,7 +6013,7 @@
       </c>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A320" s="14" t="s">
+      <c r="A320" s="15" t="s">
         <v>330</v>
       </c>
       <c r="B320" s="2" t="n">
@@ -6013,7 +6024,7 @@
       </c>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A321" s="14" t="s">
+      <c r="A321" s="15" t="s">
         <v>331</v>
       </c>
       <c r="B321" s="2" t="n">
@@ -6035,7 +6046,7 @@
       </c>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A323" s="14" t="s">
+      <c r="A323" s="15" t="s">
         <v>333</v>
       </c>
       <c r="B323" s="2" t="n">
@@ -6046,10 +6057,10 @@
       </c>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A324" s="14" t="s">
+      <c r="A324" s="15" t="s">
         <v>334</v>
       </c>
-      <c r="B324" s="14" t="n">
+      <c r="B324" s="15" t="n">
         <v>-1.109</v>
       </c>
       <c r="C324" s="2" t="s">
@@ -6057,10 +6068,10 @@
       </c>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A325" s="14" t="s">
+      <c r="A325" s="15" t="s">
         <v>335</v>
       </c>
-      <c r="B325" s="14" t="n">
+      <c r="B325" s="15" t="n">
         <v>-1.109</v>
       </c>
       <c r="C325" s="2" t="s">
@@ -6068,7 +6079,7 @@
       </c>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A326" s="14" t="s">
+      <c r="A326" s="15" t="s">
         <v>336</v>
       </c>
       <c r="B326" s="2" t="n">
@@ -6079,7 +6090,7 @@
       </c>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="14" t="s">
+      <c r="A327" s="15" t="s">
         <v>337</v>
       </c>
       <c r="B327" s="2" t="n">
@@ -6090,10 +6101,10 @@
       </c>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A328" s="14" t="s">
+      <c r="A328" s="15" t="s">
         <v>338</v>
       </c>
-      <c r="B328" s="14" t="n">
+      <c r="B328" s="15" t="n">
         <v>-1.11</v>
       </c>
       <c r="C328" s="2" t="s">
@@ -6112,7 +6123,7 @@
       </c>
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A330" s="14" t="s">
+      <c r="A330" s="15" t="s">
         <v>340</v>
       </c>
       <c r="B330" s="2" t="n">
@@ -6123,10 +6134,10 @@
       </c>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="14" t="s">
+      <c r="A331" s="15" t="s">
         <v>341</v>
       </c>
-      <c r="B331" s="14" t="n">
+      <c r="B331" s="15" t="n">
         <v>-1.112</v>
       </c>
       <c r="C331" s="2" t="s">
@@ -6145,10 +6156,10 @@
       </c>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A333" s="14" t="s">
+      <c r="A333" s="15" t="s">
         <v>343</v>
       </c>
-      <c r="B333" s="14" t="n">
+      <c r="B333" s="15" t="n">
         <v>-1.117</v>
       </c>
       <c r="C333" s="2" t="s">
@@ -6156,10 +6167,10 @@
       </c>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A334" s="16" t="s">
+      <c r="A334" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="B334" s="16" t="n">
+      <c r="B334" s="17" t="n">
         <v>-1.117</v>
       </c>
       <c r="C334" s="2" t="s">
@@ -6167,7 +6178,7 @@
       </c>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A335" s="14" t="s">
+      <c r="A335" s="15" t="s">
         <v>345</v>
       </c>
       <c r="B335" s="2" t="n">
@@ -6178,7 +6189,7 @@
       </c>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A336" s="14" t="s">
+      <c r="A336" s="15" t="s">
         <v>346</v>
       </c>
       <c r="B336" s="2" t="n">
@@ -6189,10 +6200,10 @@
       </c>
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="16" t="s">
+      <c r="A337" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="B337" s="16" t="n">
+      <c r="B337" s="17" t="n">
         <v>-1.119</v>
       </c>
       <c r="C337" s="2" t="s">
@@ -6200,7 +6211,7 @@
       </c>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="14" t="s">
+      <c r="A338" s="15" t="s">
         <v>348</v>
       </c>
       <c r="B338" s="2" t="n">
@@ -6211,10 +6222,10 @@
       </c>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A339" s="14" t="s">
+      <c r="A339" s="15" t="s">
         <v>349</v>
       </c>
-      <c r="B339" s="14" t="n">
+      <c r="B339" s="15" t="n">
         <v>-1.121</v>
       </c>
       <c r="C339" s="2" t="s">
@@ -6222,7 +6233,7 @@
       </c>
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A340" s="14" t="s">
+      <c r="A340" s="15" t="s">
         <v>350</v>
       </c>
       <c r="B340" s="2" t="n">
@@ -6233,7 +6244,7 @@
       </c>
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A341" s="14" t="s">
+      <c r="A341" s="15" t="s">
         <v>351</v>
       </c>
       <c r="B341" s="2" t="n">
@@ -6255,10 +6266,10 @@
       </c>
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A343" s="14" t="s">
+      <c r="A343" s="15" t="s">
         <v>353</v>
       </c>
-      <c r="B343" s="14" t="n">
+      <c r="B343" s="15" t="n">
         <v>-1.125</v>
       </c>
       <c r="C343" s="2" t="s">
@@ -6266,10 +6277,10 @@
       </c>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A344" s="16" t="s">
+      <c r="A344" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="B344" s="16" t="n">
+      <c r="B344" s="17" t="n">
         <v>-1.128</v>
       </c>
       <c r="C344" s="2" t="s">
@@ -6277,7 +6288,7 @@
       </c>
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A345" s="14" t="s">
+      <c r="A345" s="15" t="s">
         <v>355</v>
       </c>
       <c r="B345" s="2" t="n">
@@ -6288,10 +6299,10 @@
       </c>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A346" s="14" t="s">
+      <c r="A346" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="B346" s="14" t="n">
+      <c r="B346" s="15" t="n">
         <v>-1.13</v>
       </c>
       <c r="C346" s="2" t="s">
@@ -6299,7 +6310,7 @@
       </c>
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A347" s="14" t="s">
+      <c r="A347" s="15" t="s">
         <v>357</v>
       </c>
       <c r="B347" s="2" t="n">
@@ -6310,10 +6321,10 @@
       </c>
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A348" s="14" t="s">
+      <c r="A348" s="15" t="s">
         <v>358</v>
       </c>
-      <c r="B348" s="14" t="n">
+      <c r="B348" s="15" t="n">
         <v>-1.132</v>
       </c>
       <c r="C348" s="2" t="s">
@@ -6321,10 +6332,10 @@
       </c>
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="16" t="s">
+      <c r="A349" s="17" t="s">
         <v>359</v>
       </c>
-      <c r="B349" s="16" t="n">
+      <c r="B349" s="17" t="n">
         <v>-1.135</v>
       </c>
       <c r="C349" s="2" t="s">
@@ -6343,7 +6354,7 @@
       </c>
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A351" s="14" t="s">
+      <c r="A351" s="15" t="s">
         <v>361</v>
       </c>
       <c r="B351" s="2" t="n">
@@ -6354,10 +6365,10 @@
       </c>
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A352" s="14" t="s">
+      <c r="A352" s="15" t="s">
         <v>362</v>
       </c>
-      <c r="B352" s="14" t="n">
+      <c r="B352" s="15" t="n">
         <v>-1.141</v>
       </c>
       <c r="C352" s="2" t="s">
@@ -6365,10 +6376,10 @@
       </c>
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A353" s="14" t="s">
+      <c r="A353" s="15" t="s">
         <v>363</v>
       </c>
-      <c r="B353" s="14" t="n">
+      <c r="B353" s="15" t="n">
         <v>-1.142</v>
       </c>
       <c r="C353" s="2" t="s">
@@ -6376,7 +6387,7 @@
       </c>
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A354" s="14" t="s">
+      <c r="A354" s="15" t="s">
         <v>364</v>
       </c>
       <c r="B354" s="2" t="n">
@@ -6387,21 +6398,21 @@
       </c>
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A355" s="17" t="s">
+      <c r="A355" s="18" t="s">
         <v>365</v>
       </c>
-      <c r="B355" s="18" t="n">
+      <c r="B355" s="19" t="n">
         <v>-1.144</v>
       </c>
-      <c r="C355" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D355" s="17" t="s">
+      <c r="C355" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D355" s="18" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A356" s="14" t="s">
+      <c r="A356" s="15" t="s">
         <v>367</v>
       </c>
       <c r="B356" s="2" t="n">
@@ -6412,10 +6423,10 @@
       </c>
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A357" s="14" t="s">
+      <c r="A357" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="B357" s="14" t="n">
+      <c r="B357" s="15" t="n">
         <v>-1.146</v>
       </c>
       <c r="C357" s="2" t="s">
@@ -6423,7 +6434,7 @@
       </c>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A358" s="14" t="s">
+      <c r="A358" s="15" t="s">
         <v>369</v>
       </c>
       <c r="B358" s="2" t="n">
@@ -6434,10 +6445,10 @@
       </c>
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A359" s="14" t="s">
+      <c r="A359" s="15" t="s">
         <v>370</v>
       </c>
-      <c r="B359" s="14" t="n">
+      <c r="B359" s="15" t="n">
         <v>-1.148</v>
       </c>
       <c r="C359" s="2" t="s">
@@ -6445,7 +6456,7 @@
       </c>
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A360" s="14" t="s">
+      <c r="A360" s="15" t="s">
         <v>371</v>
       </c>
       <c r="B360" s="2" t="n">
@@ -6456,7 +6467,7 @@
       </c>
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A361" s="14" t="s">
+      <c r="A361" s="15" t="s">
         <v>372</v>
       </c>
       <c r="B361" s="2" t="n">
@@ -6467,21 +6478,21 @@
       </c>
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A362" s="17" t="s">
+      <c r="A362" s="18" t="s">
         <v>373</v>
       </c>
-      <c r="B362" s="18" t="n">
+      <c r="B362" s="19" t="n">
         <v>-1.149</v>
       </c>
-      <c r="C362" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D362" s="17" t="s">
+      <c r="C362" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D362" s="18" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A363" s="14" t="s">
+      <c r="A363" s="15" t="s">
         <v>374</v>
       </c>
       <c r="B363" s="2" t="n">
@@ -6492,10 +6503,10 @@
       </c>
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A364" s="16" t="s">
+      <c r="A364" s="17" t="s">
         <v>375</v>
       </c>
-      <c r="B364" s="16" t="n">
+      <c r="B364" s="17" t="n">
         <v>-1.151</v>
       </c>
       <c r="C364" s="2" t="s">
@@ -6503,7 +6514,7 @@
       </c>
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A365" s="14" t="s">
+      <c r="A365" s="15" t="s">
         <v>376</v>
       </c>
       <c r="B365" s="2" t="n">
@@ -6514,10 +6525,10 @@
       </c>
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A366" s="14" t="s">
+      <c r="A366" s="15" t="s">
         <v>377</v>
       </c>
-      <c r="B366" s="14" t="n">
+      <c r="B366" s="15" t="n">
         <v>-1.153</v>
       </c>
       <c r="C366" s="2" t="s">
@@ -6525,24 +6536,24 @@
       </c>
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A367" s="17" t="s">
+      <c r="A367" s="18" t="s">
         <v>378</v>
       </c>
-      <c r="B367" s="18" t="n">
+      <c r="B367" s="19" t="n">
         <v>-1.154</v>
       </c>
-      <c r="C367" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D367" s="17" t="s">
+      <c r="C367" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D367" s="18" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A368" s="16" t="s">
+      <c r="A368" s="17" t="s">
         <v>379</v>
       </c>
-      <c r="B368" s="16" t="n">
+      <c r="B368" s="17" t="n">
         <v>-1.155</v>
       </c>
       <c r="C368" s="2" t="s">
@@ -6550,10 +6561,10 @@
       </c>
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A369" s="16" t="s">
+      <c r="A369" s="17" t="s">
         <v>380</v>
       </c>
-      <c r="B369" s="16" t="n">
+      <c r="B369" s="17" t="n">
         <v>-1.155</v>
       </c>
       <c r="C369" s="2" t="s">
@@ -6561,7 +6572,7 @@
       </c>
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A370" s="14" t="s">
+      <c r="A370" s="15" t="s">
         <v>381</v>
       </c>
       <c r="B370" s="2" t="n">
@@ -6572,24 +6583,24 @@
       </c>
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A371" s="17" t="s">
+      <c r="A371" s="18" t="s">
         <v>382</v>
       </c>
-      <c r="B371" s="18" t="n">
+      <c r="B371" s="19" t="n">
         <v>-1.158</v>
       </c>
-      <c r="C371" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D371" s="17" t="s">
+      <c r="C371" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D371" s="18" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A372" s="14" t="s">
+      <c r="A372" s="15" t="s">
         <v>383</v>
       </c>
-      <c r="B372" s="14" t="n">
+      <c r="B372" s="15" t="n">
         <v>-1.16</v>
       </c>
       <c r="C372" s="2" t="s">
@@ -6608,7 +6619,7 @@
       </c>
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A374" s="14" t="s">
+      <c r="A374" s="15" t="s">
         <v>385</v>
       </c>
       <c r="B374" s="2" t="n">
@@ -6619,7 +6630,7 @@
       </c>
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A375" s="14" t="s">
+      <c r="A375" s="15" t="s">
         <v>386</v>
       </c>
       <c r="B375" s="2" t="n">
@@ -6641,7 +6652,7 @@
       </c>
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A377" s="14" t="s">
+      <c r="A377" s="15" t="s">
         <v>388</v>
       </c>
       <c r="B377" s="2" t="n">
@@ -6652,7 +6663,7 @@
       </c>
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A378" s="14" t="s">
+      <c r="A378" s="15" t="s">
         <v>389</v>
       </c>
       <c r="B378" s="2" t="n">
@@ -6663,10 +6674,10 @@
       </c>
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A379" s="14" t="s">
+      <c r="A379" s="15" t="s">
         <v>390</v>
       </c>
-      <c r="B379" s="14" t="n">
+      <c r="B379" s="15" t="n">
         <v>-1.172</v>
       </c>
       <c r="C379" s="2" t="s">
@@ -6674,10 +6685,10 @@
       </c>
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A380" s="16" t="s">
+      <c r="A380" s="17" t="s">
         <v>391</v>
       </c>
-      <c r="B380" s="16" t="n">
+      <c r="B380" s="17" t="n">
         <v>-1.172</v>
       </c>
       <c r="C380" s="2" t="s">
@@ -6685,10 +6696,10 @@
       </c>
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A381" s="14" t="s">
+      <c r="A381" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="B381" s="14" t="n">
+      <c r="B381" s="15" t="n">
         <v>-1.173</v>
       </c>
       <c r="C381" s="2" t="s">
@@ -6707,7 +6718,7 @@
       </c>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A383" s="14" t="s">
+      <c r="A383" s="15" t="s">
         <v>394</v>
       </c>
       <c r="B383" s="2" t="n">
@@ -6729,10 +6740,10 @@
       </c>
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A385" s="14" t="s">
+      <c r="A385" s="15" t="s">
         <v>396</v>
       </c>
-      <c r="B385" s="14" t="n">
+      <c r="B385" s="15" t="n">
         <v>-1.181</v>
       </c>
       <c r="C385" s="2" t="s">
@@ -6751,7 +6762,7 @@
       </c>
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A387" s="14" t="s">
+      <c r="A387" s="15" t="s">
         <v>398</v>
       </c>
       <c r="B387" s="2" t="n">
@@ -6762,10 +6773,10 @@
       </c>
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A388" s="14" t="s">
+      <c r="A388" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="B388" s="14" t="n">
+      <c r="B388" s="15" t="n">
         <v>-1.185</v>
       </c>
       <c r="C388" s="2" t="s">
@@ -6784,10 +6795,10 @@
       </c>
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A390" s="16" t="s">
+      <c r="A390" s="17" t="s">
         <v>401</v>
       </c>
-      <c r="B390" s="16" t="n">
+      <c r="B390" s="17" t="n">
         <v>-1.19</v>
       </c>
       <c r="C390" s="2" t="s">
@@ -6795,7 +6806,7 @@
       </c>
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A391" s="14" t="s">
+      <c r="A391" s="15" t="s">
         <v>402</v>
       </c>
       <c r="B391" s="2" t="n">
@@ -6806,7 +6817,7 @@
       </c>
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A392" s="14" t="s">
+      <c r="A392" s="15" t="s">
         <v>403</v>
       </c>
       <c r="B392" s="2" t="n">
@@ -6817,10 +6828,10 @@
       </c>
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A393" s="16" t="s">
+      <c r="A393" s="17" t="s">
         <v>404</v>
       </c>
-      <c r="B393" s="16" t="n">
+      <c r="B393" s="17" t="n">
         <v>-1.193</v>
       </c>
       <c r="C393" s="2" t="s">
@@ -6828,7 +6839,7 @@
       </c>
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A394" s="14" t="s">
+      <c r="A394" s="15" t="s">
         <v>405</v>
       </c>
       <c r="B394" s="2" t="n">
@@ -6839,10 +6850,10 @@
       </c>
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A395" s="16" t="s">
+      <c r="A395" s="17" t="s">
         <v>406</v>
       </c>
-      <c r="B395" s="16" t="n">
+      <c r="B395" s="17" t="n">
         <v>-1.197</v>
       </c>
       <c r="C395" s="2" t="s">
@@ -6850,10 +6861,10 @@
       </c>
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A396" s="14" t="s">
+      <c r="A396" s="15" t="s">
         <v>407</v>
       </c>
-      <c r="B396" s="14" t="n">
+      <c r="B396" s="15" t="n">
         <v>-1.199</v>
       </c>
       <c r="C396" s="2" t="s">
@@ -6861,10 +6872,10 @@
       </c>
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A397" s="14" t="s">
+      <c r="A397" s="15" t="s">
         <v>408</v>
       </c>
-      <c r="B397" s="14" t="n">
+      <c r="B397" s="15" t="n">
         <v>-1.201</v>
       </c>
       <c r="C397" s="2" t="s">
@@ -6872,7 +6883,7 @@
       </c>
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A398" s="14" t="s">
+      <c r="A398" s="15" t="s">
         <v>409</v>
       </c>
       <c r="B398" s="2" t="n">
@@ -6894,10 +6905,10 @@
       </c>
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A400" s="16" t="s">
+      <c r="A400" s="17" t="s">
         <v>411</v>
       </c>
-      <c r="B400" s="16" t="n">
+      <c r="B400" s="17" t="n">
         <v>-1.21</v>
       </c>
       <c r="C400" s="2" t="s">
@@ -6905,10 +6916,10 @@
       </c>
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A401" s="14" t="s">
+      <c r="A401" s="15" t="s">
         <v>412</v>
       </c>
-      <c r="B401" s="14" t="n">
+      <c r="B401" s="15" t="n">
         <v>-1.211</v>
       </c>
       <c r="C401" s="2" t="s">
@@ -6916,10 +6927,10 @@
       </c>
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A402" s="14" t="s">
+      <c r="A402" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="B402" s="14" t="n">
+      <c r="B402" s="15" t="n">
         <v>-1.212</v>
       </c>
       <c r="C402" s="2" t="s">
@@ -6938,7 +6949,7 @@
       </c>
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A404" s="14" t="s">
+      <c r="A404" s="15" t="s">
         <v>415</v>
       </c>
       <c r="B404" s="2" t="n">
@@ -6949,7 +6960,7 @@
       </c>
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A405" s="14" t="s">
+      <c r="A405" s="15" t="s">
         <v>416</v>
       </c>
       <c r="B405" s="2" t="n">
@@ -6960,38 +6971,38 @@
       </c>
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A406" s="17" t="s">
+      <c r="A406" s="18" t="s">
         <v>417</v>
       </c>
-      <c r="B406" s="18" t="n">
+      <c r="B406" s="19" t="n">
         <v>-1.219</v>
       </c>
-      <c r="C406" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D406" s="17" t="s">
+      <c r="C406" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D406" s="18" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A407" s="17" t="s">
+      <c r="A407" s="18" t="s">
         <v>419</v>
       </c>
-      <c r="B407" s="18" t="n">
+      <c r="B407" s="19" t="n">
         <v>-1.22</v>
       </c>
-      <c r="C407" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D407" s="17" t="s">
+      <c r="C407" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D407" s="18" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A408" s="16" t="s">
+      <c r="A408" s="17" t="s">
         <v>420</v>
       </c>
-      <c r="B408" s="16" t="n">
+      <c r="B408" s="17" t="n">
         <v>-1.22</v>
       </c>
       <c r="C408" s="2" t="s">
@@ -7010,7 +7021,7 @@
       </c>
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A410" s="14" t="s">
+      <c r="A410" s="15" t="s">
         <v>422</v>
       </c>
       <c r="B410" s="2" t="n">
@@ -7021,7 +7032,7 @@
       </c>
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A411" s="14" t="s">
+      <c r="A411" s="15" t="s">
         <v>423</v>
       </c>
       <c r="B411" s="2" t="n">
@@ -7032,7 +7043,7 @@
       </c>
     </row>
     <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A412" s="14" t="s">
+      <c r="A412" s="15" t="s">
         <v>424</v>
       </c>
       <c r="B412" s="2" t="n">
@@ -7043,24 +7054,24 @@
       </c>
     </row>
     <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A413" s="17" t="s">
+      <c r="A413" s="18" t="s">
         <v>425</v>
       </c>
-      <c r="B413" s="17" t="n">
+      <c r="B413" s="18" t="n">
         <v>-1.23</v>
       </c>
-      <c r="C413" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D413" s="17" t="s">
+      <c r="C413" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D413" s="18" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A414" s="14" t="s">
+      <c r="A414" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="B414" s="14" t="n">
+      <c r="B414" s="15" t="n">
         <v>-1.232</v>
       </c>
       <c r="C414" s="2" t="s">
@@ -7068,21 +7079,21 @@
       </c>
     </row>
     <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A415" s="17" t="s">
+      <c r="A415" s="18" t="s">
         <v>427</v>
       </c>
-      <c r="B415" s="18" t="n">
+      <c r="B415" s="19" t="n">
         <v>-1.233</v>
       </c>
-      <c r="C415" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D415" s="17" t="s">
+      <c r="C415" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D415" s="18" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A416" s="14" t="s">
+      <c r="A416" s="15" t="s">
         <v>428</v>
       </c>
       <c r="B416" s="2" t="n">
@@ -7093,7 +7104,7 @@
       </c>
     </row>
     <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A417" s="14" t="s">
+      <c r="A417" s="15" t="s">
         <v>429</v>
       </c>
       <c r="B417" s="2" t="n">
@@ -7104,10 +7115,10 @@
       </c>
     </row>
     <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A418" s="14" t="s">
+      <c r="A418" s="15" t="s">
         <v>430</v>
       </c>
-      <c r="B418" s="14" t="n">
+      <c r="B418" s="15" t="n">
         <v>-1.236</v>
       </c>
       <c r="C418" s="2" t="s">
@@ -7115,10 +7126,10 @@
       </c>
     </row>
     <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A419" s="14" t="s">
+      <c r="A419" s="15" t="s">
         <v>431</v>
       </c>
-      <c r="B419" s="14" t="n">
+      <c r="B419" s="15" t="n">
         <v>-1.236</v>
       </c>
       <c r="C419" s="2" t="s">
@@ -7126,10 +7137,10 @@
       </c>
     </row>
     <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A420" s="14" t="s">
+      <c r="A420" s="15" t="s">
         <v>432</v>
       </c>
-      <c r="B420" s="14" t="n">
+      <c r="B420" s="15" t="n">
         <v>-1.238</v>
       </c>
       <c r="C420" s="2" t="s">
@@ -7137,10 +7148,10 @@
       </c>
     </row>
     <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A421" s="16" t="s">
+      <c r="A421" s="17" t="s">
         <v>433</v>
       </c>
-      <c r="B421" s="16" t="n">
+      <c r="B421" s="17" t="n">
         <v>-1.24</v>
       </c>
       <c r="C421" s="2" t="s">
@@ -7159,7 +7170,7 @@
       </c>
     </row>
     <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A423" s="14" t="s">
+      <c r="A423" s="15" t="s">
         <v>435</v>
       </c>
       <c r="B423" s="2" t="n">
@@ -7170,10 +7181,10 @@
       </c>
     </row>
     <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A424" s="16" t="s">
+      <c r="A424" s="17" t="s">
         <v>436</v>
       </c>
-      <c r="B424" s="16" t="n">
+      <c r="B424" s="17" t="n">
         <v>-1.253</v>
       </c>
       <c r="C424" s="2" t="s">
@@ -7181,7 +7192,7 @@
       </c>
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A425" s="14" t="s">
+      <c r="A425" s="15" t="s">
         <v>437</v>
       </c>
       <c r="B425" s="2" t="n">
@@ -7192,7 +7203,7 @@
       </c>
     </row>
     <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A426" s="14" t="s">
+      <c r="A426" s="15" t="s">
         <v>438</v>
       </c>
       <c r="B426" s="2" t="n">
@@ -7203,7 +7214,7 @@
       </c>
     </row>
     <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A427" s="14" t="s">
+      <c r="A427" s="15" t="s">
         <v>439</v>
       </c>
       <c r="B427" s="2" t="n">
@@ -7214,24 +7225,24 @@
       </c>
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A428" s="17" t="s">
+      <c r="A428" s="18" t="s">
         <v>440</v>
       </c>
-      <c r="B428" s="18" t="n">
+      <c r="B428" s="19" t="n">
         <v>-1.263</v>
       </c>
-      <c r="C428" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D428" s="17" t="s">
+      <c r="C428" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D428" s="18" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A429" s="14" t="s">
+      <c r="A429" s="15" t="s">
         <v>441</v>
       </c>
-      <c r="B429" s="14" t="n">
+      <c r="B429" s="15" t="n">
         <v>-1.263</v>
       </c>
       <c r="C429" s="2" t="s">
@@ -7239,24 +7250,24 @@
       </c>
     </row>
     <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A430" s="17" t="s">
+      <c r="A430" s="18" t="s">
         <v>442</v>
       </c>
-      <c r="B430" s="18" t="n">
+      <c r="B430" s="19" t="n">
         <v>-1.266</v>
       </c>
-      <c r="C430" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D430" s="17" t="s">
+      <c r="C430" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D430" s="18" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A431" s="16" t="s">
+      <c r="A431" s="17" t="s">
         <v>443</v>
       </c>
-      <c r="B431" s="16" t="n">
+      <c r="B431" s="17" t="n">
         <v>-1.27</v>
       </c>
       <c r="C431" s="2" t="s">
@@ -7264,7 +7275,7 @@
       </c>
     </row>
     <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A432" s="14" t="s">
+      <c r="A432" s="15" t="s">
         <v>444</v>
       </c>
       <c r="B432" s="2" t="n">
@@ -7275,30 +7286,30 @@
       </c>
     </row>
     <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A433" s="17" t="s">
+      <c r="A433" s="18" t="s">
         <v>445</v>
       </c>
-      <c r="B433" s="18" t="n">
+      <c r="B433" s="19" t="n">
         <v>-1.272</v>
       </c>
-      <c r="C433" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D433" s="17" t="s">
+      <c r="C433" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D433" s="18" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A434" s="17" t="s">
+      <c r="A434" s="18" t="s">
         <v>446</v>
       </c>
-      <c r="B434" s="18" t="n">
+      <c r="B434" s="19" t="n">
         <v>-1.273</v>
       </c>
-      <c r="C434" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D434" s="17" t="s">
+      <c r="C434" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D434" s="18" t="s">
         <v>418</v>
       </c>
     </row>
@@ -7314,7 +7325,7 @@
       </c>
     </row>
     <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A436" s="14" t="s">
+      <c r="A436" s="15" t="s">
         <v>448</v>
       </c>
       <c r="B436" s="2" t="n">
@@ -7336,10 +7347,10 @@
       </c>
     </row>
     <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A438" s="14" t="s">
+      <c r="A438" s="15" t="s">
         <v>450</v>
       </c>
-      <c r="B438" s="14" t="n">
+      <c r="B438" s="15" t="n">
         <v>-1.295</v>
       </c>
       <c r="C438" s="2" t="s">
@@ -7347,10 +7358,10 @@
       </c>
     </row>
     <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A439" s="14" t="s">
+      <c r="A439" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="B439" s="14" t="n">
+      <c r="B439" s="15" t="n">
         <v>-1.296</v>
       </c>
       <c r="C439" s="2" t="s">
@@ -7358,7 +7369,7 @@
       </c>
     </row>
     <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A440" s="14" t="s">
+      <c r="A440" s="15" t="s">
         <v>452</v>
       </c>
       <c r="B440" s="2" t="n">
@@ -7369,10 +7380,10 @@
       </c>
     </row>
     <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A441" s="14" t="s">
+      <c r="A441" s="15" t="s">
         <v>453</v>
       </c>
-      <c r="B441" s="14" t="n">
+      <c r="B441" s="15" t="n">
         <v>-1.299</v>
       </c>
       <c r="C441" s="2" t="s">
@@ -7380,7 +7391,7 @@
       </c>
     </row>
     <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A442" s="14" t="s">
+      <c r="A442" s="15" t="s">
         <v>454</v>
       </c>
       <c r="B442" s="2" t="n">
@@ -7391,10 +7402,10 @@
       </c>
     </row>
     <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A443" s="14" t="s">
+      <c r="A443" s="15" t="s">
         <v>455</v>
       </c>
-      <c r="B443" s="14" t="n">
+      <c r="B443" s="15" t="n">
         <v>-1.304</v>
       </c>
       <c r="C443" s="2" t="s">
@@ -7402,10 +7413,10 @@
       </c>
     </row>
     <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A444" s="14" t="s">
+      <c r="A444" s="15" t="s">
         <v>456</v>
       </c>
-      <c r="B444" s="14" t="n">
+      <c r="B444" s="15" t="n">
         <v>-1.306</v>
       </c>
       <c r="C444" s="2" t="s">
@@ -7413,10 +7424,10 @@
       </c>
     </row>
     <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A445" s="14" t="s">
+      <c r="A445" s="15" t="s">
         <v>457</v>
       </c>
-      <c r="B445" s="14" t="n">
+      <c r="B445" s="15" t="n">
         <v>-1.307</v>
       </c>
       <c r="C445" s="2" t="s">
@@ -7424,7 +7435,7 @@
       </c>
     </row>
     <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A446" s="14" t="s">
+      <c r="A446" s="15" t="s">
         <v>458</v>
       </c>
       <c r="B446" s="2" t="n">
@@ -7435,10 +7446,10 @@
       </c>
     </row>
     <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A447" s="14" t="s">
+      <c r="A447" s="15" t="s">
         <v>459</v>
       </c>
-      <c r="B447" s="14" t="n">
+      <c r="B447" s="15" t="n">
         <v>-1.314</v>
       </c>
       <c r="C447" s="2" t="s">
@@ -7446,7 +7457,7 @@
       </c>
     </row>
     <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A448" s="14" t="s">
+      <c r="A448" s="15" t="s">
         <v>460</v>
       </c>
       <c r="B448" s="2" t="n">
@@ -7457,10 +7468,10 @@
       </c>
     </row>
     <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A449" s="16" t="s">
+      <c r="A449" s="17" t="s">
         <v>461</v>
       </c>
-      <c r="B449" s="16" t="n">
+      <c r="B449" s="17" t="n">
         <v>-1.331</v>
       </c>
       <c r="C449" s="2" t="s">
@@ -7468,10 +7479,10 @@
       </c>
     </row>
     <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A450" s="14" t="s">
+      <c r="A450" s="15" t="s">
         <v>462</v>
       </c>
-      <c r="B450" s="14" t="n">
+      <c r="B450" s="15" t="n">
         <v>-1.332</v>
       </c>
       <c r="C450" s="2" t="s">
@@ -7479,7 +7490,7 @@
       </c>
     </row>
     <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A451" s="14" t="s">
+      <c r="A451" s="15" t="s">
         <v>463</v>
       </c>
       <c r="B451" s="2" t="n">
@@ -7490,10 +7501,10 @@
       </c>
     </row>
     <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A452" s="14" t="s">
+      <c r="A452" s="15" t="s">
         <v>464</v>
       </c>
-      <c r="B452" s="14" t="n">
+      <c r="B452" s="15" t="n">
         <v>-1.335</v>
       </c>
       <c r="C452" s="2" t="s">
@@ -7501,10 +7512,10 @@
       </c>
     </row>
     <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A453" s="16" t="s">
+      <c r="A453" s="17" t="s">
         <v>465</v>
       </c>
-      <c r="B453" s="16" t="n">
+      <c r="B453" s="17" t="n">
         <v>-1.342</v>
       </c>
       <c r="C453" s="2" t="s">
@@ -7534,7 +7545,7 @@
       </c>
     </row>
     <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A456" s="14" t="s">
+      <c r="A456" s="15" t="s">
         <v>468</v>
       </c>
       <c r="B456" s="2" t="n">
@@ -7545,7 +7556,7 @@
       </c>
     </row>
     <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A457" s="14" t="s">
+      <c r="A457" s="15" t="s">
         <v>469</v>
       </c>
       <c r="B457" s="2" t="n">
@@ -7556,10 +7567,10 @@
       </c>
     </row>
     <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A458" s="16" t="s">
+      <c r="A458" s="17" t="s">
         <v>470</v>
       </c>
-      <c r="B458" s="16" t="n">
+      <c r="B458" s="17" t="n">
         <v>-1.348</v>
       </c>
       <c r="C458" s="2" t="s">
@@ -7567,7 +7578,7 @@
       </c>
     </row>
     <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A459" s="14" t="s">
+      <c r="A459" s="15" t="s">
         <v>471</v>
       </c>
       <c r="B459" s="2" t="n">
@@ -7578,10 +7589,10 @@
       </c>
     </row>
     <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A460" s="14" t="s">
+      <c r="A460" s="15" t="s">
         <v>472</v>
       </c>
-      <c r="B460" s="14" t="n">
+      <c r="B460" s="15" t="n">
         <v>-1.362</v>
       </c>
       <c r="C460" s="2" t="s">
@@ -7589,10 +7600,10 @@
       </c>
     </row>
     <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A461" s="14" t="s">
+      <c r="A461" s="15" t="s">
         <v>473</v>
       </c>
-      <c r="B461" s="14" t="n">
+      <c r="B461" s="15" t="n">
         <v>-1.366</v>
       </c>
       <c r="C461" s="2" t="s">
@@ -7611,10 +7622,13 @@
       </c>
     </row>
     <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A463" s="14"/>
-      <c r="B463" s="14"/>
+      <c r="A463" s="15"/>
+      <c r="B463" s="15"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A13" r:id="rId1" display="https://www.diyaudio.com/community/threads/ld1014d-lu1014d-matched-by-vgs-and-curve-tracing.381338/"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/LD1014D_list.xlsx
+++ b/LD1014D_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="476">
   <si>
     <t xml:space="preserve">LD1014 List (matching data)</t>
   </si>
@@ -1421,6 +1421,9 @@
   </si>
   <si>
     <t xml:space="preserve">LD1014D_13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reserved ra</t>
   </si>
   <si>
     <t xml:space="preserve">LD1014D_72</t>
@@ -1731,11 +1734,11 @@
   </sheetPr>
   <dimension ref="A1:AMJ463"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A433" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F456" activeCellId="0" sqref="F456"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.07421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.09375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.52"/>
@@ -7532,10 +7535,13 @@
       <c r="C454" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="D454" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B455" s="2" t="n">
         <v>-1.344</v>
@@ -7543,10 +7549,13 @@
       <c r="C455" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="D455" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="15" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B456" s="2" t="n">
         <v>-1.346</v>
@@ -7557,7 +7566,7 @@
     </row>
     <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="15" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B457" s="2" t="n">
         <v>-1.347</v>
@@ -7565,10 +7574,13 @@
       <c r="C457" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="D457" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="17" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B458" s="17" t="n">
         <v>-1.348</v>
@@ -7579,7 +7591,7 @@
     </row>
     <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="15" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B459" s="2" t="n">
         <v>-1.352</v>
@@ -7590,7 +7602,7 @@
     </row>
     <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="15" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B460" s="15" t="n">
         <v>-1.362</v>
@@ -7601,7 +7613,7 @@
     </row>
     <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="15" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B461" s="15" t="n">
         <v>-1.366</v>
@@ -7612,7 +7624,7 @@
     </row>
     <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B462" s="2" t="n">
         <v>-1.375</v>

--- a/LD1014D_list.xlsx
+++ b/LD1014D_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="477">
   <si>
     <t xml:space="preserve">LD1014 List (matching data)</t>
   </si>
@@ -1423,13 +1423,16 @@
     <t xml:space="preserve">LD1014D_13</t>
   </si>
   <si>
-    <t xml:space="preserve">reserved ra</t>
+    <t xml:space="preserve">sold ra</t>
   </si>
   <si>
     <t xml:space="preserve">LD1014D_72</t>
   </si>
   <si>
     <t xml:space="preserve">LD1014D_207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reserved En</t>
   </si>
   <si>
     <t xml:space="preserve">LD1014D_181</t>
@@ -1734,11 +1737,11 @@
   </sheetPr>
   <dimension ref="A1:AMJ463"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A433" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F456" activeCellId="0" sqref="F456"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A424" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G437" activeCellId="0" sqref="G437"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.09375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.52"/>
@@ -7526,30 +7529,30 @@
       </c>
     </row>
     <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A454" s="1" t="s">
+      <c r="A454" s="18" t="s">
         <v>466</v>
       </c>
-      <c r="B454" s="2" t="n">
+      <c r="B454" s="19" t="n">
         <v>-1.343</v>
       </c>
-      <c r="C454" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D454" s="1" t="s">
+      <c r="C454" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D454" s="18" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A455" s="1" t="s">
+      <c r="A455" s="18" t="s">
         <v>468</v>
       </c>
-      <c r="B455" s="2" t="n">
+      <c r="B455" s="19" t="n">
         <v>-1.344</v>
       </c>
-      <c r="C455" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D455" s="1" t="s">
+      <c r="C455" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D455" s="18" t="s">
         <v>467</v>
       </c>
     </row>
@@ -7563,24 +7566,27 @@
       <c r="C456" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="D456" s="1" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A457" s="15" t="s">
-        <v>470</v>
-      </c>
-      <c r="B457" s="2" t="n">
+      <c r="A457" s="18" t="s">
+        <v>471</v>
+      </c>
+      <c r="B457" s="19" t="n">
         <v>-1.347</v>
       </c>
-      <c r="C457" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D457" s="1" t="s">
+      <c r="C457" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D457" s="18" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="17" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B458" s="17" t="n">
         <v>-1.348</v>
@@ -7588,21 +7594,27 @@
       <c r="C458" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="D458" s="1" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A459" s="15" t="s">
-        <v>472</v>
-      </c>
-      <c r="B459" s="2" t="n">
+      <c r="A459" s="18" t="s">
+        <v>473</v>
+      </c>
+      <c r="B459" s="19" t="n">
         <v>-1.352</v>
       </c>
-      <c r="C459" s="2" t="s">
-        <v>15</v>
+      <c r="C459" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D459" s="18" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="15" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B460" s="15" t="n">
         <v>-1.362</v>
@@ -7613,7 +7625,7 @@
     </row>
     <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="15" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B461" s="15" t="n">
         <v>-1.366</v>
@@ -7624,7 +7636,7 @@
     </row>
     <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B462" s="2" t="n">
         <v>-1.375</v>

--- a/LD1014D_list.xlsx
+++ b/LD1014D_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="478">
   <si>
     <t xml:space="preserve">LD1014 List (matching data)</t>
   </si>
@@ -365,6 +365,9 @@
   </si>
   <si>
     <t xml:space="preserve">LD1014D_455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reserved bo</t>
   </si>
   <si>
     <t xml:space="preserve">LD1014D_243</t>
@@ -1737,11 +1740,11 @@
   </sheetPr>
   <dimension ref="A1:AMJ463"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A424" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G437" activeCellId="0" sqref="G437"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A107" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D114" activeCellId="0" sqref="D114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.52"/>
@@ -3356,6 +3359,9 @@
       <c r="C113" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="D113" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="F113" s="16"/>
       <c r="G113" s="15"/>
       <c r="H113" s="2"/>
@@ -3363,7 +3369,7 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B114" s="2" t="n">
         <v>-0.862</v>
@@ -3378,7 +3384,7 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B115" s="17" t="n">
         <v>-0.863</v>
@@ -3393,7 +3399,7 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B116" s="2" t="n">
         <v>-0.868</v>
@@ -3408,7 +3414,7 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B117" s="15" t="n">
         <v>-0.869</v>
@@ -3423,7 +3429,7 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B118" s="2" t="n">
         <v>-0.873</v>
@@ -3438,7 +3444,7 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="17" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B119" s="17" t="n">
         <v>-0.874</v>
@@ -3453,7 +3459,7 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B120" s="17" t="n">
         <v>-0.874</v>
@@ -3468,7 +3474,7 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B121" s="2" t="n">
         <v>-0.875</v>
@@ -3483,7 +3489,7 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B122" s="2" t="n">
         <v>-0.875</v>
@@ -3498,13 +3504,16 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B123" s="2" t="n">
         <v>-0.876</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="F123" s="16"/>
       <c r="G123" s="15"/>
@@ -3513,7 +3522,7 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B124" s="2" t="n">
         <v>-0.876</v>
@@ -3528,7 +3537,7 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B125" s="17" t="n">
         <v>-0.876</v>
@@ -3543,7 +3552,7 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B126" s="17" t="n">
         <v>-0.878</v>
@@ -3558,7 +3567,7 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B127" s="15" t="n">
         <v>-0.881</v>
@@ -3573,7 +3582,7 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B128" s="2" t="n">
         <v>-0.881</v>
@@ -3588,7 +3597,7 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B129" s="2" t="n">
         <v>-0.883</v>
@@ -3603,7 +3612,7 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B130" s="17" t="n">
         <v>-0.883</v>
@@ -3618,7 +3627,7 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B131" s="2" t="n">
         <v>-0.885</v>
@@ -3633,7 +3642,7 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B132" s="2" t="n">
         <v>-0.885</v>
@@ -3648,7 +3657,7 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B133" s="2" t="n">
         <v>-0.886</v>
@@ -3663,7 +3672,7 @@
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="17" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B134" s="17" t="n">
         <v>-0.887</v>
@@ -3678,7 +3687,7 @@
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="17" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B135" s="17" t="n">
         <v>-0.887</v>
@@ -3693,7 +3702,7 @@
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B136" s="2" t="n">
         <v>-0.892</v>
@@ -3708,7 +3717,7 @@
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="15" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B137" s="2" t="n">
         <v>-0.893</v>
@@ -3723,7 +3732,7 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B138" s="15" t="n">
         <v>-0.894</v>
@@ -3738,7 +3747,7 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B139" s="17" t="n">
         <v>-0.895</v>
@@ -3753,7 +3762,7 @@
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="15" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B140" s="2" t="n">
         <v>-0.896</v>
@@ -3768,7 +3777,7 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="18" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B141" s="19" t="n">
         <v>-0.901</v>
@@ -3777,7 +3786,7 @@
         <v>15</v>
       </c>
       <c r="D141" s="18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F141" s="16"/>
       <c r="G141" s="1"/>
@@ -3786,7 +3795,7 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="18" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B142" s="19" t="n">
         <v>-0.901</v>
@@ -3795,7 +3804,7 @@
         <v>15</v>
       </c>
       <c r="D142" s="18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F142" s="16"/>
       <c r="G142" s="15"/>
@@ -3804,7 +3813,7 @@
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="17" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B143" s="17" t="n">
         <v>-0.902</v>
@@ -3819,7 +3828,7 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B144" s="15" t="n">
         <v>-0.904</v>
@@ -3834,7 +3843,7 @@
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B145" s="2" t="n">
         <v>-0.908</v>
@@ -3849,7 +3858,7 @@
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B146" s="2" t="n">
         <v>-0.911</v>
@@ -3864,7 +3873,7 @@
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B147" s="17" t="n">
         <v>-0.913</v>
@@ -3879,7 +3888,7 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="15" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B148" s="15" t="n">
         <v>-0.914</v>
@@ -3894,7 +3903,7 @@
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B149" s="2" t="n">
         <v>-0.914</v>
@@ -3909,7 +3918,7 @@
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="17" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B150" s="17" t="n">
         <v>-0.914</v>
@@ -3924,7 +3933,7 @@
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="17" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B151" s="17" t="n">
         <v>-0.914</v>
@@ -3939,7 +3948,7 @@
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="15" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B152" s="2" t="n">
         <v>-0.915</v>
@@ -3954,7 +3963,7 @@
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="15" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B153" s="2" t="n">
         <v>-0.917</v>
@@ -3969,7 +3978,7 @@
     </row>
     <row r="154" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="15" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B154" s="15" t="n">
         <v>-0.917</v>
@@ -3985,7 +3994,7 @@
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B155" s="2" t="n">
         <v>-0.919</v>
@@ -4000,7 +4009,7 @@
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B156" s="2" t="n">
         <v>-0.92</v>
@@ -4015,7 +4024,7 @@
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="15" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B157" s="15" t="n">
         <v>-0.92</v>
@@ -4030,7 +4039,7 @@
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B158" s="2" t="n">
         <v>-0.921</v>
@@ -4045,7 +4054,7 @@
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="15" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B159" s="15" t="n">
         <v>-0.922</v>
@@ -4060,7 +4069,7 @@
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="15" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B160" s="15" t="n">
         <v>-0.923</v>
@@ -4075,7 +4084,7 @@
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="17" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B161" s="17" t="n">
         <v>-0.925</v>
@@ -4090,7 +4099,7 @@
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="17" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B162" s="17" t="n">
         <v>-0.925</v>
@@ -4105,7 +4114,7 @@
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B163" s="15" t="n">
         <v>-0.927</v>
@@ -4120,7 +4129,7 @@
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B164" s="2" t="n">
         <v>-0.929</v>
@@ -4135,7 +4144,7 @@
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="15" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B165" s="15" t="n">
         <v>-0.932</v>
@@ -4150,7 +4159,7 @@
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="15" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B166" s="15" t="n">
         <v>-0.933</v>
@@ -4165,7 +4174,7 @@
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B167" s="15" t="n">
         <v>-0.934</v>
@@ -4180,7 +4189,7 @@
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="17" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B168" s="17" t="n">
         <v>-0.934</v>
@@ -4195,7 +4204,7 @@
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="17" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B169" s="17" t="n">
         <v>-0.935</v>
@@ -4210,7 +4219,7 @@
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B170" s="2" t="n">
         <v>-0.938</v>
@@ -4225,7 +4234,7 @@
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B171" s="15" t="n">
         <v>-0.939</v>
@@ -4240,7 +4249,7 @@
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="15" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B172" s="2" t="n">
         <v>-0.941</v>
@@ -4255,7 +4264,7 @@
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="18" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B173" s="19" t="n">
         <v>-0.943</v>
@@ -4264,7 +4273,7 @@
         <v>15</v>
       </c>
       <c r="D173" s="18" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F173" s="16"/>
       <c r="G173" s="1"/>
@@ -4273,7 +4282,7 @@
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="18" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B174" s="19" t="n">
         <v>-0.945</v>
@@ -4282,7 +4291,7 @@
         <v>15</v>
       </c>
       <c r="D174" s="18" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F174" s="16"/>
       <c r="G174" s="1"/>
@@ -4291,7 +4300,7 @@
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="18" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B175" s="19" t="n">
         <v>-0.946</v>
@@ -4300,7 +4309,7 @@
         <v>15</v>
       </c>
       <c r="D175" s="18" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F175" s="16"/>
       <c r="G175" s="15"/>
@@ -4309,7 +4318,7 @@
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="18" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B176" s="19" t="n">
         <v>-0.946</v>
@@ -4318,7 +4327,7 @@
         <v>15</v>
       </c>
       <c r="D176" s="18" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F176" s="16"/>
       <c r="G176" s="15"/>
@@ -4327,7 +4336,7 @@
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B177" s="2" t="n">
         <v>-0.947</v>
@@ -4343,7 +4352,7 @@
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="17" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B178" s="17" t="n">
         <v>-0.948</v>
@@ -4358,7 +4367,7 @@
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="15" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B179" s="15" t="n">
         <v>-0.949</v>
@@ -4373,7 +4382,7 @@
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="15" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B180" s="2" t="n">
         <v>-0.952</v>
@@ -4388,7 +4397,7 @@
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="15" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B181" s="2" t="n">
         <v>-0.952</v>
@@ -4403,7 +4412,7 @@
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="17" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B182" s="17" t="n">
         <v>-0.953</v>
@@ -4418,7 +4427,7 @@
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="15" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B183" s="2" t="n">
         <v>-0.955</v>
@@ -4433,7 +4442,7 @@
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="17" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B184" s="17" t="n">
         <v>-0.955</v>
@@ -4448,7 +4457,7 @@
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="18" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B185" s="19" t="n">
         <v>-0.956</v>
@@ -4457,12 +4466,12 @@
         <v>15</v>
       </c>
       <c r="D185" s="18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="18" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B186" s="19" t="n">
         <v>-0.957</v>
@@ -4471,12 +4480,12 @@
         <v>15</v>
       </c>
       <c r="D186" s="18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="15" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B187" s="15" t="n">
         <v>-0.957</v>
@@ -4487,7 +4496,7 @@
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="18" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B188" s="19" t="n">
         <v>-0.958</v>
@@ -4496,12 +4505,12 @@
         <v>15</v>
       </c>
       <c r="D188" s="18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="15" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B189" s="15" t="n">
         <v>-0.958</v>
@@ -4512,7 +4521,7 @@
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="18" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B190" s="19" t="n">
         <v>-0.959</v>
@@ -4521,12 +4530,12 @@
         <v>15</v>
       </c>
       <c r="D190" s="18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="18" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B191" s="19" t="n">
         <v>-0.96</v>
@@ -4535,12 +4544,12 @@
         <v>15</v>
       </c>
       <c r="D191" s="18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="18" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B192" s="19" t="n">
         <v>-0.96</v>
@@ -4549,12 +4558,12 @@
         <v>15</v>
       </c>
       <c r="D192" s="18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B193" s="2" t="n">
         <v>-0.962</v>
@@ -4565,7 +4574,7 @@
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="15" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B194" s="2" t="n">
         <v>-0.965</v>
@@ -4576,7 +4585,7 @@
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="15" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B195" s="2" t="n">
         <v>-0.965</v>
@@ -4587,7 +4596,7 @@
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="17" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B196" s="17" t="n">
         <v>-0.965</v>
@@ -4598,7 +4607,7 @@
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="18" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B197" s="19" t="n">
         <v>-0.969</v>
@@ -4607,12 +4616,12 @@
         <v>15</v>
       </c>
       <c r="D197" s="18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="18" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B198" s="19" t="n">
         <v>-0.969</v>
@@ -4621,12 +4630,12 @@
         <v>15</v>
       </c>
       <c r="D198" s="18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="17" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B199" s="17" t="n">
         <v>-0.97</v>
@@ -4637,7 +4646,7 @@
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="15" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B200" s="2" t="n">
         <v>-0.972</v>
@@ -4648,7 +4657,7 @@
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="15" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B201" s="2" t="n">
         <v>-0.972</v>
@@ -4659,7 +4668,7 @@
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="15" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B202" s="15" t="n">
         <v>-0.977</v>
@@ -4670,7 +4679,7 @@
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B203" s="2" t="n">
         <v>-0.977</v>
@@ -4681,7 +4690,7 @@
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="15" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B204" s="15" t="n">
         <v>-0.978</v>
@@ -4692,7 +4701,7 @@
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="15" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B205" s="2" t="n">
         <v>-0.98</v>
@@ -4703,7 +4712,7 @@
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="15" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B206" s="2" t="n">
         <v>-0.981</v>
@@ -4714,7 +4723,7 @@
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="15" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B207" s="2" t="n">
         <v>-0.984</v>
@@ -4725,7 +4734,7 @@
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="15" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B208" s="2" t="n">
         <v>-0.984</v>
@@ -4736,7 +4745,7 @@
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B209" s="2" t="n">
         <v>-0.985</v>
@@ -4747,7 +4756,7 @@
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="15" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B210" s="2" t="n">
         <v>-0.985</v>
@@ -4758,7 +4767,7 @@
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B211" s="19" t="n">
         <v>-0.988</v>
@@ -4767,12 +4776,12 @@
         <v>15</v>
       </c>
       <c r="D211" s="18" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="15" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B212" s="2" t="n">
         <v>-0.988</v>
@@ -4783,7 +4792,7 @@
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="18" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B213" s="19" t="n">
         <v>-0.989</v>
@@ -4792,12 +4801,12 @@
         <v>15</v>
       </c>
       <c r="D213" s="18" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="15" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B214" s="15" t="n">
         <v>-0.989</v>
@@ -4808,7 +4817,7 @@
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="17" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B215" s="17" t="n">
         <v>-0.99</v>
@@ -4819,7 +4828,7 @@
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="15" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B216" s="2" t="n">
         <v>-0.992</v>
@@ -4830,7 +4839,7 @@
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="15" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B217" s="15" t="n">
         <v>-0.993</v>
@@ -4841,7 +4850,7 @@
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="15" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B218" s="15" t="n">
         <v>-0.993</v>
@@ -4852,7 +4861,7 @@
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B219" s="2" t="n">
         <v>-0.994</v>
@@ -4863,7 +4872,7 @@
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="15" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B220" s="2" t="n">
         <v>-0.995</v>
@@ -4874,7 +4883,7 @@
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="15" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B221" s="2" t="n">
         <v>-0.995</v>
@@ -4885,7 +4894,7 @@
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="15" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B222" s="15" t="n">
         <v>-0.995</v>
@@ -4896,7 +4905,7 @@
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="18" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B223" s="19" t="n">
         <v>-1</v>
@@ -4905,12 +4914,12 @@
         <v>15</v>
       </c>
       <c r="D223" s="18" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="15" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B224" s="15" t="n">
         <v>-1.002</v>
@@ -4921,7 +4930,7 @@
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="18" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B225" s="19" t="n">
         <v>-1.003</v>
@@ -4930,12 +4939,12 @@
         <v>15</v>
       </c>
       <c r="D225" s="18" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B226" s="17" t="n">
         <v>-1.003</v>
@@ -4946,7 +4955,7 @@
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="15" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B227" s="15" t="n">
         <v>-1.004</v>
@@ -4957,7 +4966,7 @@
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="18" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B228" s="19" t="n">
         <v>-1.005</v>
@@ -4966,12 +4975,12 @@
         <v>15</v>
       </c>
       <c r="D228" s="18" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="18" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B229" s="19" t="n">
         <v>-1.007</v>
@@ -4980,12 +4989,12 @@
         <v>15</v>
       </c>
       <c r="D229" s="18" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B230" s="2" t="n">
         <v>-1.008</v>
@@ -4996,7 +5005,7 @@
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="15" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B231" s="15" t="n">
         <v>-1.009</v>
@@ -5007,7 +5016,7 @@
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="17" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B232" s="17" t="n">
         <v>-1.01</v>
@@ -5018,7 +5027,7 @@
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="15" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B233" s="2" t="n">
         <v>-1.011</v>
@@ -5029,7 +5038,7 @@
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="15" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B234" s="15" t="n">
         <v>-1.013</v>
@@ -5038,12 +5047,12 @@
         <v>17</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="17" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B235" s="17" t="n">
         <v>-1.013</v>
@@ -5052,12 +5061,12 @@
         <v>17</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="15" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B236" s="2" t="n">
         <v>-1.015</v>
@@ -5068,7 +5077,7 @@
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="17" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B237" s="17" t="n">
         <v>-1.016</v>
@@ -5079,7 +5088,7 @@
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="15" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B238" s="15" t="n">
         <v>-1.017</v>
@@ -5090,7 +5099,7 @@
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="15" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B239" s="2" t="n">
         <v>-1.019</v>
@@ -5101,7 +5110,7 @@
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="15" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B240" s="15" t="n">
         <v>-1.019</v>
@@ -5112,7 +5121,7 @@
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="15" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B241" s="15" t="n">
         <v>-1.019</v>
@@ -5123,7 +5132,7 @@
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="15" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B242" s="2" t="n">
         <v>-1.021</v>
@@ -5134,7 +5143,7 @@
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="15" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B243" s="2" t="n">
         <v>-1.023</v>
@@ -5145,7 +5154,7 @@
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="15" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B244" s="2" t="n">
         <v>-1.024</v>
@@ -5156,7 +5165,7 @@
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="15" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B245" s="2" t="n">
         <v>-1.024</v>
@@ -5167,7 +5176,7 @@
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B246" s="2" t="n">
         <v>-1.026</v>
@@ -5178,7 +5187,7 @@
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="15" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B247" s="2" t="n">
         <v>-1.028</v>
@@ -5189,7 +5198,7 @@
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="15" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B248" s="15" t="n">
         <v>-1.029</v>
@@ -5200,7 +5209,7 @@
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="15" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B249" s="2" t="n">
         <v>-1.032</v>
@@ -5211,7 +5220,7 @@
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="18" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B250" s="19" t="n">
         <v>-1.032</v>
@@ -5220,12 +5229,12 @@
         <v>15</v>
       </c>
       <c r="D250" s="18" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="15" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B251" s="2" t="n">
         <v>-1.032</v>
@@ -5236,7 +5245,7 @@
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="18" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B252" s="19" t="n">
         <v>-1.034</v>
@@ -5245,12 +5254,12 @@
         <v>15</v>
       </c>
       <c r="D252" s="18" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="15" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B253" s="15" t="n">
         <v>-1.035</v>
@@ -5261,7 +5270,7 @@
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="22" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B254" s="23" t="n">
         <v>-1.036</v>
@@ -5270,12 +5279,12 @@
         <v>17</v>
       </c>
       <c r="D254" s="22" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="15" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B255" s="15" t="n">
         <v>-1.036</v>
@@ -5286,7 +5295,7 @@
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="15" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B256" s="15" t="n">
         <v>-1.038</v>
@@ -5297,7 +5306,7 @@
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="15" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B257" s="2" t="n">
         <v>-1.039</v>
@@ -5308,7 +5317,7 @@
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="18" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B258" s="19" t="n">
         <v>-1.039</v>
@@ -5317,12 +5326,12 @@
         <v>15</v>
       </c>
       <c r="D258" s="18" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="15" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B259" s="2" t="n">
         <v>-1.039</v>
@@ -5333,7 +5342,7 @@
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="18" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B260" s="19" t="n">
         <v>-1.042</v>
@@ -5342,12 +5351,12 @@
         <v>15</v>
       </c>
       <c r="D260" s="18" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="15" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B261" s="2" t="n">
         <v>-1.043</v>
@@ -5358,7 +5367,7 @@
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="15" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B262" s="2" t="n">
         <v>-1.043</v>
@@ -5369,7 +5378,7 @@
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="15" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B263" s="2" t="n">
         <v>-1.045</v>
@@ -5380,7 +5389,7 @@
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="15" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B264" s="15" t="n">
         <v>-1.046</v>
@@ -5391,7 +5400,7 @@
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="17" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B265" s="17" t="n">
         <v>-1.047</v>
@@ -5402,7 +5411,7 @@
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="18" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B266" s="19" t="n">
         <v>-1.05</v>
@@ -5411,12 +5420,12 @@
         <v>15</v>
       </c>
       <c r="D266" s="18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="18" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B267" s="19" t="n">
         <v>-1.05</v>
@@ -5425,12 +5434,12 @@
         <v>15</v>
       </c>
       <c r="D267" s="18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="15" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B268" s="2" t="n">
         <v>-1.05</v>
@@ -5441,7 +5450,7 @@
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="15" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B269" s="15" t="n">
         <v>-1.05</v>
@@ -5452,7 +5461,7 @@
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="15" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B270" s="15" t="n">
         <v>-1.052</v>
@@ -5463,7 +5472,7 @@
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="15" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B271" s="2" t="n">
         <v>-1.053</v>
@@ -5474,7 +5483,7 @@
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="17" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B272" s="17" t="n">
         <v>-1.054</v>
@@ -5485,7 +5494,7 @@
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B273" s="2" t="n">
         <v>-1.055</v>
@@ -5496,7 +5505,7 @@
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="15" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B274" s="2" t="n">
         <v>-1.056</v>
@@ -5507,7 +5516,7 @@
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="15" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B275" s="2" t="n">
         <v>-1.056</v>
@@ -5518,7 +5527,7 @@
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="15" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B276" s="15" t="n">
         <v>-1.057</v>
@@ -5529,7 +5538,7 @@
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="17" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B277" s="17" t="n">
         <v>-1.057</v>
@@ -5540,7 +5549,7 @@
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B278" s="2" t="n">
         <v>-1.058</v>
@@ -5551,7 +5560,7 @@
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B279" s="2" t="n">
         <v>-1.059</v>
@@ -5562,7 +5571,7 @@
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="15" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B280" s="2" t="n">
         <v>-1.061</v>
@@ -5573,7 +5582,7 @@
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B281" s="2" t="n">
         <v>-1.061</v>
@@ -5584,7 +5593,7 @@
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="18" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B282" s="19" t="n">
         <v>-1.062</v>
@@ -5593,12 +5602,12 @@
         <v>15</v>
       </c>
       <c r="D282" s="18" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B283" s="15" t="n">
         <v>-1.062</v>
@@ -5609,7 +5618,7 @@
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="18" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B284" s="19" t="n">
         <v>-1.062</v>
@@ -5618,12 +5627,12 @@
         <v>15</v>
       </c>
       <c r="D284" s="18" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="15" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B285" s="15" t="n">
         <v>-1.063</v>
@@ -5634,7 +5643,7 @@
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="15" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B286" s="15" t="n">
         <v>-1.063</v>
@@ -5645,7 +5654,7 @@
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="18" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B287" s="19" t="n">
         <v>-1.063</v>
@@ -5654,12 +5663,12 @@
         <v>15</v>
       </c>
       <c r="D287" s="18" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="18" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B288" s="19" t="n">
         <v>-1.064</v>
@@ -5668,12 +5677,12 @@
         <v>15</v>
       </c>
       <c r="D288" s="18" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="15" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B289" s="2" t="n">
         <v>-1.064</v>
@@ -5684,7 +5693,7 @@
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="15" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B290" s="2" t="n">
         <v>-1.064</v>
@@ -5695,7 +5704,7 @@
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="15" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B291" s="15" t="n">
         <v>-1.065</v>
@@ -5706,7 +5715,7 @@
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="17" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B292" s="17" t="n">
         <v>-1.065</v>
@@ -5717,7 +5726,7 @@
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="15" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B293" s="15" t="n">
         <v>-1.066</v>
@@ -5726,12 +5735,12 @@
         <v>17</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="15" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B294" s="15" t="n">
         <v>-1.066</v>
@@ -5740,12 +5749,12 @@
         <v>17</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="15" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B295" s="2" t="n">
         <v>-1.068</v>
@@ -5756,7 +5765,7 @@
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="15" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B296" s="2" t="n">
         <v>-1.068</v>
@@ -5767,7 +5776,7 @@
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="15" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B297" s="15" t="n">
         <v>-1.073</v>
@@ -5778,7 +5787,7 @@
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="15" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B298" s="2" t="n">
         <v>-1.074</v>
@@ -5789,7 +5798,7 @@
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="15" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B299" s="2" t="n">
         <v>-1.075</v>
@@ -5800,7 +5809,7 @@
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="17" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B300" s="17" t="n">
         <v>-1.075</v>
@@ -5811,7 +5820,7 @@
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B301" s="2" t="n">
         <v>-1.076</v>
@@ -5822,7 +5831,7 @@
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="15" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B302" s="15" t="n">
         <v>-1.077</v>
@@ -5833,7 +5842,7 @@
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="17" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B303" s="17" t="n">
         <v>-1.077</v>
@@ -5844,7 +5853,7 @@
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="15" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B304" s="2" t="n">
         <v>-1.085</v>
@@ -5855,7 +5864,7 @@
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="15" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B305" s="15" t="n">
         <v>-1.085</v>
@@ -5866,7 +5875,7 @@
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="15" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B306" s="15" t="n">
         <v>-1.086</v>
@@ -5877,7 +5886,7 @@
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="15" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B307" s="15" t="n">
         <v>-1.086</v>
@@ -5888,7 +5897,7 @@
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="15" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B308" s="15" t="n">
         <v>-1.086</v>
@@ -5899,7 +5908,7 @@
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="15" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B309" s="2" t="n">
         <v>-1.088</v>
@@ -5910,7 +5919,7 @@
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="15" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B310" s="2" t="n">
         <v>-1.088</v>
@@ -5921,7 +5930,7 @@
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="15" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B311" s="15" t="n">
         <v>-1.088</v>
@@ -5932,7 +5941,7 @@
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B312" s="2" t="n">
         <v>-1.089</v>
@@ -5943,7 +5952,7 @@
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="15" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B313" s="2" t="n">
         <v>-1.091</v>
@@ -5954,7 +5963,7 @@
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="15" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B314" s="2" t="n">
         <v>-1.092</v>
@@ -5965,7 +5974,7 @@
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="15" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B315" s="2" t="n">
         <v>-1.092</v>
@@ -5976,7 +5985,7 @@
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="15" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B316" s="15" t="n">
         <v>-1.095</v>
@@ -5987,7 +5996,7 @@
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="17" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B317" s="17" t="n">
         <v>-1.095</v>
@@ -5998,7 +6007,7 @@
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B318" s="2" t="n">
         <v>-1.096</v>
@@ -6009,7 +6018,7 @@
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="15" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B319" s="2" t="n">
         <v>-1.097</v>
@@ -6020,7 +6029,7 @@
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="15" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B320" s="2" t="n">
         <v>-1.098</v>
@@ -6031,7 +6040,7 @@
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="15" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B321" s="2" t="n">
         <v>-1.102</v>
@@ -6042,7 +6051,7 @@
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B322" s="2" t="n">
         <v>-1.107</v>
@@ -6053,7 +6062,7 @@
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="15" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B323" s="2" t="n">
         <v>-1.108</v>
@@ -6064,7 +6073,7 @@
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="15" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B324" s="15" t="n">
         <v>-1.109</v>
@@ -6075,7 +6084,7 @@
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="15" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B325" s="15" t="n">
         <v>-1.109</v>
@@ -6086,7 +6095,7 @@
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="15" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B326" s="2" t="n">
         <v>-1.11</v>
@@ -6097,7 +6106,7 @@
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="15" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B327" s="2" t="n">
         <v>-1.11</v>
@@ -6108,7 +6117,7 @@
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="15" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B328" s="15" t="n">
         <v>-1.11</v>
@@ -6119,7 +6128,7 @@
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B329" s="2" t="n">
         <v>-1.111</v>
@@ -6130,7 +6139,7 @@
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="15" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B330" s="2" t="n">
         <v>-1.112</v>
@@ -6141,7 +6150,7 @@
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="15" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B331" s="15" t="n">
         <v>-1.112</v>
@@ -6152,7 +6161,7 @@
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B332" s="2" t="n">
         <v>-1.114</v>
@@ -6163,7 +6172,7 @@
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="15" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B333" s="15" t="n">
         <v>-1.117</v>
@@ -6174,7 +6183,7 @@
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="17" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B334" s="17" t="n">
         <v>-1.117</v>
@@ -6185,7 +6194,7 @@
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="15" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B335" s="2" t="n">
         <v>-1.118</v>
@@ -6196,7 +6205,7 @@
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="15" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B336" s="2" t="n">
         <v>-1.119</v>
@@ -6207,7 +6216,7 @@
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="17" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B337" s="17" t="n">
         <v>-1.119</v>
@@ -6218,7 +6227,7 @@
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="15" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B338" s="2" t="n">
         <v>-1.121</v>
@@ -6229,7 +6238,7 @@
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="15" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B339" s="15" t="n">
         <v>-1.121</v>
@@ -6240,7 +6249,7 @@
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="15" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B340" s="2" t="n">
         <v>-1.122</v>
@@ -6251,7 +6260,7 @@
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="15" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B341" s="2" t="n">
         <v>-1.123</v>
@@ -6262,7 +6271,7 @@
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B342" s="2" t="n">
         <v>-1.125</v>
@@ -6273,7 +6282,7 @@
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B343" s="15" t="n">
         <v>-1.125</v>
@@ -6284,7 +6293,7 @@
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="17" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B344" s="17" t="n">
         <v>-1.128</v>
@@ -6295,7 +6304,7 @@
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="15" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B345" s="2" t="n">
         <v>-1.129</v>
@@ -6306,7 +6315,7 @@
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="15" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B346" s="15" t="n">
         <v>-1.13</v>
@@ -6317,7 +6326,7 @@
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="15" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B347" s="2" t="n">
         <v>-1.131</v>
@@ -6328,7 +6337,7 @@
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="15" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B348" s="15" t="n">
         <v>-1.132</v>
@@ -6339,7 +6348,7 @@
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="17" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B349" s="17" t="n">
         <v>-1.135</v>
@@ -6350,7 +6359,7 @@
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B350" s="2" t="n">
         <v>-1.136</v>
@@ -6361,7 +6370,7 @@
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="15" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B351" s="2" t="n">
         <v>-1.141</v>
@@ -6372,7 +6381,7 @@
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="15" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B352" s="15" t="n">
         <v>-1.141</v>
@@ -6383,7 +6392,7 @@
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="15" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B353" s="15" t="n">
         <v>-1.142</v>
@@ -6394,7 +6403,7 @@
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="15" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B354" s="2" t="n">
         <v>-1.144</v>
@@ -6405,7 +6414,7 @@
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="18" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B355" s="19" t="n">
         <v>-1.144</v>
@@ -6414,12 +6423,12 @@
         <v>15</v>
       </c>
       <c r="D355" s="18" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="15" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B356" s="2" t="n">
         <v>-1.145</v>
@@ -6430,7 +6439,7 @@
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="15" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B357" s="15" t="n">
         <v>-1.146</v>
@@ -6441,7 +6450,7 @@
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="15" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B358" s="2" t="n">
         <v>-1.147</v>
@@ -6452,7 +6461,7 @@
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="15" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B359" s="15" t="n">
         <v>-1.148</v>
@@ -6463,7 +6472,7 @@
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="15" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B360" s="2" t="n">
         <v>-1.149</v>
@@ -6474,7 +6483,7 @@
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="15" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B361" s="2" t="n">
         <v>-1.149</v>
@@ -6485,7 +6494,7 @@
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="18" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B362" s="19" t="n">
         <v>-1.149</v>
@@ -6494,12 +6503,12 @@
         <v>15</v>
       </c>
       <c r="D362" s="18" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="15" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B363" s="2" t="n">
         <v>-1.15</v>
@@ -6510,7 +6519,7 @@
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="17" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B364" s="17" t="n">
         <v>-1.151</v>
@@ -6521,7 +6530,7 @@
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="15" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B365" s="2" t="n">
         <v>-1.152</v>
@@ -6532,7 +6541,7 @@
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="15" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B366" s="15" t="n">
         <v>-1.153</v>
@@ -6543,7 +6552,7 @@
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="18" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B367" s="19" t="n">
         <v>-1.154</v>
@@ -6552,12 +6561,12 @@
         <v>15</v>
       </c>
       <c r="D367" s="18" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="17" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B368" s="17" t="n">
         <v>-1.155</v>
@@ -6568,7 +6577,7 @@
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="17" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B369" s="17" t="n">
         <v>-1.155</v>
@@ -6579,7 +6588,7 @@
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="15" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B370" s="2" t="n">
         <v>-1.157</v>
@@ -6590,7 +6599,7 @@
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="18" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B371" s="19" t="n">
         <v>-1.158</v>
@@ -6599,12 +6608,12 @@
         <v>15</v>
       </c>
       <c r="D371" s="18" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="15" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B372" s="15" t="n">
         <v>-1.16</v>
@@ -6615,7 +6624,7 @@
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B373" s="2" t="n">
         <v>-1.16</v>
@@ -6626,7 +6635,7 @@
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="15" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B374" s="2" t="n">
         <v>-1.165</v>
@@ -6637,7 +6646,7 @@
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="15" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B375" s="2" t="n">
         <v>-1.167</v>
@@ -6648,7 +6657,7 @@
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B376" s="2" t="n">
         <v>-1.167</v>
@@ -6659,7 +6668,7 @@
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="15" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B377" s="2" t="n">
         <v>-1.168</v>
@@ -6670,7 +6679,7 @@
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="15" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B378" s="2" t="n">
         <v>-1.169</v>
@@ -6681,7 +6690,7 @@
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="15" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B379" s="15" t="n">
         <v>-1.172</v>
@@ -6692,7 +6701,7 @@
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="17" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B380" s="17" t="n">
         <v>-1.172</v>
@@ -6703,7 +6712,7 @@
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="15" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B381" s="15" t="n">
         <v>-1.173</v>
@@ -6714,7 +6723,7 @@
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B382" s="2" t="n">
         <v>-1.174</v>
@@ -6725,7 +6734,7 @@
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="15" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B383" s="2" t="n">
         <v>-1.178</v>
@@ -6736,7 +6745,7 @@
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B384" s="2" t="n">
         <v>-1.179</v>
@@ -6747,7 +6756,7 @@
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="15" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B385" s="15" t="n">
         <v>-1.181</v>
@@ -6758,7 +6767,7 @@
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B386" s="2" t="n">
         <v>-1.183</v>
@@ -6769,7 +6778,7 @@
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="15" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B387" s="2" t="n">
         <v>-1.185</v>
@@ -6780,7 +6789,7 @@
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B388" s="15" t="n">
         <v>-1.185</v>
@@ -6791,7 +6800,7 @@
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B389" s="2" t="n">
         <v>-1.187</v>
@@ -6802,7 +6811,7 @@
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B390" s="17" t="n">
         <v>-1.19</v>
@@ -6813,7 +6822,7 @@
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="15" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B391" s="2" t="n">
         <v>-1.191</v>
@@ -6824,7 +6833,7 @@
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="15" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B392" s="2" t="n">
         <v>-1.192</v>
@@ -6835,7 +6844,7 @@
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="17" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B393" s="17" t="n">
         <v>-1.193</v>
@@ -6846,7 +6855,7 @@
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="15" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B394" s="2" t="n">
         <v>-1.197</v>
@@ -6857,7 +6866,7 @@
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="17" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B395" s="17" t="n">
         <v>-1.197</v>
@@ -6868,7 +6877,7 @@
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="15" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B396" s="15" t="n">
         <v>-1.199</v>
@@ -6879,7 +6888,7 @@
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="15" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B397" s="15" t="n">
         <v>-1.201</v>
@@ -6890,7 +6899,7 @@
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="15" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B398" s="2" t="n">
         <v>-1.202</v>
@@ -6901,7 +6910,7 @@
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B399" s="2" t="n">
         <v>-1.206</v>
@@ -6912,7 +6921,7 @@
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="17" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B400" s="17" t="n">
         <v>-1.21</v>
@@ -6923,7 +6932,7 @@
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="15" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B401" s="15" t="n">
         <v>-1.211</v>
@@ -6934,7 +6943,7 @@
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="15" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B402" s="15" t="n">
         <v>-1.212</v>
@@ -6945,7 +6954,7 @@
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B403" s="2" t="n">
         <v>-1.212</v>
@@ -6956,7 +6965,7 @@
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="15" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B404" s="2" t="n">
         <v>-1.218</v>
@@ -6967,7 +6976,7 @@
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="15" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B405" s="2" t="n">
         <v>-1.219</v>
@@ -6978,7 +6987,7 @@
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="18" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B406" s="19" t="n">
         <v>-1.219</v>
@@ -6987,12 +6996,12 @@
         <v>17</v>
       </c>
       <c r="D406" s="18" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="18" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B407" s="19" t="n">
         <v>-1.22</v>
@@ -7001,12 +7010,12 @@
         <v>17</v>
       </c>
       <c r="D407" s="18" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="17" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B408" s="17" t="n">
         <v>-1.22</v>
@@ -7017,7 +7026,7 @@
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B409" s="2" t="n">
         <v>-1.223</v>
@@ -7028,7 +7037,7 @@
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="15" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B410" s="2" t="n">
         <v>-1.224</v>
@@ -7039,7 +7048,7 @@
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="15" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B411" s="2" t="n">
         <v>-1.226</v>
@@ -7050,7 +7059,7 @@
     </row>
     <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="15" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B412" s="2" t="n">
         <v>-1.227</v>
@@ -7061,7 +7070,7 @@
     </row>
     <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="18" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B413" s="18" t="n">
         <v>-1.23</v>
@@ -7070,12 +7079,12 @@
         <v>17</v>
       </c>
       <c r="D413" s="18" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="15" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B414" s="15" t="n">
         <v>-1.232</v>
@@ -7086,7 +7095,7 @@
     </row>
     <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="18" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B415" s="19" t="n">
         <v>-1.233</v>
@@ -7095,12 +7104,12 @@
         <v>17</v>
       </c>
       <c r="D415" s="18" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="15" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B416" s="2" t="n">
         <v>-1.234</v>
@@ -7111,7 +7120,7 @@
     </row>
     <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="15" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B417" s="2" t="n">
         <v>-1.235</v>
@@ -7122,7 +7131,7 @@
     </row>
     <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="15" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B418" s="15" t="n">
         <v>-1.236</v>
@@ -7133,7 +7142,7 @@
     </row>
     <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="15" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B419" s="15" t="n">
         <v>-1.236</v>
@@ -7144,7 +7153,7 @@
     </row>
     <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="15" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B420" s="15" t="n">
         <v>-1.238</v>
@@ -7155,7 +7164,7 @@
     </row>
     <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="17" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B421" s="17" t="n">
         <v>-1.24</v>
@@ -7166,7 +7175,7 @@
     </row>
     <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B422" s="2" t="n">
         <v>-1.241</v>
@@ -7177,7 +7186,7 @@
     </row>
     <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="15" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B423" s="2" t="n">
         <v>-1.249</v>
@@ -7188,7 +7197,7 @@
     </row>
     <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="17" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B424" s="17" t="n">
         <v>-1.253</v>
@@ -7199,7 +7208,7 @@
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="15" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B425" s="2" t="n">
         <v>-1.26</v>
@@ -7210,7 +7219,7 @@
     </row>
     <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="15" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B426" s="2" t="n">
         <v>-1.261</v>
@@ -7221,7 +7230,7 @@
     </row>
     <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="15" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B427" s="2" t="n">
         <v>-1.261</v>
@@ -7232,7 +7241,7 @@
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="18" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B428" s="19" t="n">
         <v>-1.263</v>
@@ -7241,12 +7250,12 @@
         <v>17</v>
       </c>
       <c r="D428" s="18" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="15" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B429" s="15" t="n">
         <v>-1.263</v>
@@ -7257,7 +7266,7 @@
     </row>
     <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="18" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B430" s="19" t="n">
         <v>-1.266</v>
@@ -7266,12 +7275,12 @@
         <v>17</v>
       </c>
       <c r="D430" s="18" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="17" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B431" s="17" t="n">
         <v>-1.27</v>
@@ -7282,7 +7291,7 @@
     </row>
     <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="15" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B432" s="2" t="n">
         <v>-1.272</v>
@@ -7293,7 +7302,7 @@
     </row>
     <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="18" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B433" s="19" t="n">
         <v>-1.272</v>
@@ -7302,12 +7311,12 @@
         <v>17</v>
       </c>
       <c r="D433" s="18" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="18" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B434" s="19" t="n">
         <v>-1.273</v>
@@ -7316,12 +7325,12 @@
         <v>17</v>
       </c>
       <c r="D434" s="18" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B435" s="2" t="n">
         <v>-1.28</v>
@@ -7332,7 +7341,7 @@
     </row>
     <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="15" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B436" s="2" t="n">
         <v>-1.285</v>
@@ -7343,7 +7352,7 @@
     </row>
     <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B437" s="2" t="n">
         <v>-1.286</v>
@@ -7354,7 +7363,7 @@
     </row>
     <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="15" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B438" s="15" t="n">
         <v>-1.295</v>
@@ -7365,7 +7374,7 @@
     </row>
     <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="15" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B439" s="15" t="n">
         <v>-1.296</v>
@@ -7376,7 +7385,7 @@
     </row>
     <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="15" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B440" s="2" t="n">
         <v>-1.298</v>
@@ -7387,7 +7396,7 @@
     </row>
     <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="15" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B441" s="15" t="n">
         <v>-1.299</v>
@@ -7398,7 +7407,7 @@
     </row>
     <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="15" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B442" s="2" t="n">
         <v>-1.303</v>
@@ -7409,7 +7418,7 @@
     </row>
     <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="15" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B443" s="15" t="n">
         <v>-1.304</v>
@@ -7420,7 +7429,7 @@
     </row>
     <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="15" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B444" s="15" t="n">
         <v>-1.306</v>
@@ -7431,7 +7440,7 @@
     </row>
     <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="15" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B445" s="15" t="n">
         <v>-1.307</v>
@@ -7442,7 +7451,7 @@
     </row>
     <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="15" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B446" s="2" t="n">
         <v>-1.309</v>
@@ -7453,7 +7462,7 @@
     </row>
     <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="15" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B447" s="15" t="n">
         <v>-1.314</v>
@@ -7464,7 +7473,7 @@
     </row>
     <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="15" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B448" s="2" t="n">
         <v>-1.323</v>
@@ -7475,7 +7484,7 @@
     </row>
     <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="17" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B449" s="17" t="n">
         <v>-1.331</v>
@@ -7486,7 +7495,7 @@
     </row>
     <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="15" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B450" s="15" t="n">
         <v>-1.332</v>
@@ -7497,7 +7506,7 @@
     </row>
     <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="15" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B451" s="2" t="n">
         <v>-1.335</v>
@@ -7508,7 +7517,7 @@
     </row>
     <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="15" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B452" s="15" t="n">
         <v>-1.335</v>
@@ -7519,7 +7528,7 @@
     </row>
     <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="17" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B453" s="17" t="n">
         <v>-1.342</v>
@@ -7530,7 +7539,7 @@
     </row>
     <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="18" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B454" s="19" t="n">
         <v>-1.343</v>
@@ -7539,12 +7548,12 @@
         <v>15</v>
       </c>
       <c r="D454" s="18" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="18" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B455" s="19" t="n">
         <v>-1.344</v>
@@ -7553,12 +7562,12 @@
         <v>15</v>
       </c>
       <c r="D455" s="18" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="15" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B456" s="2" t="n">
         <v>-1.346</v>
@@ -7567,12 +7576,12 @@
         <v>17</v>
       </c>
       <c r="D456" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="18" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B457" s="19" t="n">
         <v>-1.347</v>
@@ -7581,12 +7590,12 @@
         <v>15</v>
       </c>
       <c r="D457" s="18" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="17" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B458" s="17" t="n">
         <v>-1.348</v>
@@ -7595,12 +7604,12 @@
         <v>17</v>
       </c>
       <c r="D458" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="18" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B459" s="19" t="n">
         <v>-1.352</v>
@@ -7609,12 +7618,12 @@
         <v>15</v>
       </c>
       <c r="D459" s="18" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="15" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B460" s="15" t="n">
         <v>-1.362</v>
@@ -7625,7 +7634,7 @@
     </row>
     <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="15" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B461" s="15" t="n">
         <v>-1.366</v>
@@ -7636,7 +7645,7 @@
     </row>
     <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B462" s="2" t="n">
         <v>-1.375</v>
